--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Маслины резаные Green King 3100 мл, ж/б, Испания</t>
   </si>
   <si>
-    <t>Огурцы марин. (слайсы) "Флорека" пл. пакет (1,8 кг) упак. 5 шт</t>
-  </si>
-  <si>
     <t>Оливки зеленые "Alisa" без косточки (0,350 кг) ж/б кор. 12 шт. </t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
   </si>
   <si>
-    <t>Тунец филе кусочки в с/с ж/б 1,7 кг, Эквадор</t>
-  </si>
-  <si>
     <t>Бульоны. Основы для супов. Приправа</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
     <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
   </si>
   <si>
+    <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
+  </si>
+  <si>
     <t>Приправа рыбная Дашида- Анчоус 100г 1/40</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Вьетнамская соль (190гр.) Вьетнам</t>
   </si>
   <si>
-    <t>Рисовая бумага для роллов (300гр.), Вьетнам</t>
-  </si>
-  <si>
     <t>Рисовая лапша (500гр.), Вьетнам</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
   </si>
   <si>
-    <t>Масаго зеленая упак 0,5 кг, Россия</t>
-  </si>
-  <si>
     <t>Картофель</t>
   </si>
   <si>
@@ -214,7 +205,10 @@
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
-    <t>Обжаренные соленые листья порфиры Долким 80 г 1/20</t>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
+  </si>
+  <si>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 2 кг, 1/6</t>
   </si>
   <si>
     <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
@@ -223,6 +217,12 @@
     <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
   </si>
   <si>
+    <t>Сироп кукурузный 700г 1/20 т.м. DAESANG</t>
+  </si>
+  <si>
+    <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
+  </si>
+  <si>
     <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
   </si>
   <si>
@@ -232,6 +232,9 @@
     <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
   </si>
   <si>
+    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
+  </si>
+  <si>
     <t>Краб. Гребешок. Мидии. Кальмар</t>
   </si>
   <si>
@@ -280,10 +283,13 @@
     <t>Салат крабовый, Приморская подзона</t>
   </si>
   <si>
+    <t>Фаланга чищенная,  8-10см, камчатский краб, в/у</t>
+  </si>
+  <si>
     <t>Креветка блочная</t>
   </si>
   <si>
-    <t>Креветка с/м б/г в панцире 21/25 (блок) 1.8кг (PCC Congelados &amp; Frescos) Эквадор</t>
+    <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
   </si>
   <si>
     <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Индия</t>
@@ -292,6 +298,9 @@
     <t>Креветка мелкая</t>
   </si>
   <si>
+    <t>Креветка 200/300, 7%, вар.зам.пошт."Стандарт" 1000г 1/6 р/р</t>
+  </si>
+  <si>
     <t>Креветка ваннамей очищ с хвост, 41-50 ,кор 10 кг, навалом 7%, Эквадор</t>
   </si>
   <si>
@@ -304,12 +313,18 @@
     <t>Креветка россыпь</t>
   </si>
   <si>
+    <t>Креветка с/м б/г 26/30 уп.1 кг Индия</t>
+  </si>
+  <si>
     <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
   </si>
   <si>
     <t>Креветка с/м, б/г, 16/20, (Китай)</t>
   </si>
   <si>
+    <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
+  </si>
+  <si>
     <t>Креветка тигровая очищ  с/м 21/25, фас 1 кг</t>
   </si>
   <si>
@@ -325,6 +340,12 @@
     <t>Масло оливковое рафинированное Санса тз."La Espanola" пл.б 1л. кор. 15 шт</t>
   </si>
   <si>
+    <t>Масло фритюрное Печагин 1шт/5л</t>
+  </si>
+  <si>
+    <t>бут</t>
+  </si>
+  <si>
     <t>Молочная продукция</t>
   </si>
   <si>
@@ -373,15 +394,9 @@
     <t>Рисовая лапша 5мм AROY-D 454 г</t>
   </si>
   <si>
-    <t>Смесь темпурная OSHI уп/18 кг</t>
-  </si>
-  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
-    <t>Сухари панировочные "Панко", 10кг, Россия</t>
-  </si>
-  <si>
     <t>Сухари панировочные, Kaneshiro, уп. 1кг, Малайзия</t>
   </si>
   <si>
@@ -394,9 +409,6 @@
     <t>Бекон Классический в/к 500гр, МК ЭКО</t>
   </si>
   <si>
-    <t>Бекон с/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
     <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
   </si>
   <si>
@@ -430,9 +442,6 @@
     <t>Бобы соевые очищенные "Эдамаме" ТМ Якимал 1 кг</t>
   </si>
   <si>
-    <t>Галангал сушеный, 100 гр</t>
-  </si>
-  <si>
     <t>Грибы шиитаке уп. 1кг, Китай</t>
   </si>
   <si>
@@ -613,9 +622,6 @@
     <t>Соус ореховый TAMAKI Pro 1 уп/1.5л.</t>
   </si>
   <si>
-    <t>Соус ореховый АСА "Peanut original" 1бут/1,5л</t>
-  </si>
-  <si>
     <t>Соус Пад Тай 270г</t>
   </si>
   <si>
@@ -625,6 +631,9 @@
     <t>Соус Терияки ТМ "Yakimal", 1,8л</t>
   </si>
   <si>
+    <t>Соус Терияки, 1.5л, Genso Россия</t>
+  </si>
+  <si>
     <t>Соус Терияки, Tamaki 1 уп/1,8 л.</t>
   </si>
   <si>
@@ -635,6 +644,9 @@
   </si>
   <si>
     <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
+  </si>
+  <si>
+    <t>Соус Унаги, Genso, 1,5л, Россия</t>
   </si>
   <si>
     <t>Соус устричный высшей категории 510 г. ст/бт</t>
@@ -865,7 +877,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D215"/>
+  <dimension ref="D218"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -949,18 +961,18 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" ht="22" customHeight="true" outlineLevel="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="true" outlineLevel="1">
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="11" t="n">
-        <v>110</v>
+      <c r="D10" s="12" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="true" outlineLevel="1">
@@ -970,8 +982,8 @@
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="n">
-        <v>1900</v>
+      <c r="D11" s="11" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="true" outlineLevel="1">
@@ -981,11 +993,11 @@
       <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D12" s="12" t="n">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="true" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>1540</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="true" outlineLevel="1">
@@ -1003,19 +1015,13 @@
       <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B15" s="9" t="s">
+      <c r="D14" s="11" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B15" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>956</v>
       </c>
     </row>
     <row r="16" ht="22" customHeight="true" outlineLevel="1">
@@ -1025,13 +1031,19 @@
       <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B17" s="8" t="s">
+      <c r="D16" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B17" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true" outlineLevel="1">
@@ -1042,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="11" t="n">
-        <v>200</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true" outlineLevel="1">
@@ -1053,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="11" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true" outlineLevel="1">
@@ -1064,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>465</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1075,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true" outlineLevel="1">
@@ -1086,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="true" outlineLevel="1">
@@ -1097,34 +1109,34 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true" outlineLevel="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B25" s="9" t="s">
+      <c r="D24" s="12" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="12" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B26" s="8" t="s">
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B26" s="9" t="s">
         <v>26</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1134,22 +1146,22 @@
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D27" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true" outlineLevel="1">
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D28" s="11" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1157,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true" outlineLevel="1">
       <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>720</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="true" outlineLevel="1">
@@ -1179,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="11" t="n">
-        <v>870</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true" outlineLevel="1">
@@ -1190,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>425</v>
+        <v>843</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true" outlineLevel="1">
@@ -1201,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>843</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="true" outlineLevel="1">
@@ -1212,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>756</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="true" outlineLevel="1">
@@ -1223,23 +1235,23 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="36" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B36" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B37" s="8" t="s">
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B37" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="1">
@@ -1250,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="1">
@@ -1261,70 +1273,64 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B40" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="41" ht="22" customHeight="true" outlineLevel="1">
       <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B42" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D42" s="11" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
       <c r="B43" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true" outlineLevel="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B45" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="46" ht="22" customHeight="true" outlineLevel="1">
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
@@ -1332,12 +1338,18 @@
         <v>5</v>
       </c>
       <c r="D46" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B47" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B47" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <v>756</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="true" outlineLevel="1">
@@ -1348,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>785</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" ht="22" customHeight="true" outlineLevel="1">
@@ -1359,18 +1371,12 @@
         <v>5</v>
       </c>
       <c r="D49" s="11" t="n">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="50" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B50" s="9" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B50" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="11" t="n">
-        <v>756</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="true" outlineLevel="1">
@@ -1381,10 +1387,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true" outlineLevel="1">
       <c r="B52" s="9" t="s">
         <v>53</v>
       </c>
@@ -1392,15 +1398,21 @@
         <v>5</v>
       </c>
       <c r="D52" s="11" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="53" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B53" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="53" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B53" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="11" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54" ht="33" customHeight="true" outlineLevel="1">
       <c r="B54" s="9" t="s">
         <v>55</v>
       </c>
@@ -1408,10 +1420,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="55" ht="22" customHeight="true" outlineLevel="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" ht="33" customHeight="true" outlineLevel="1">
       <c r="B55" s="9" t="s">
         <v>56</v>
       </c>
@@ -1419,10 +1431,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="56" ht="33" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" ht="33" customHeight="true" outlineLevel="1">
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
       <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
@@ -1441,18 +1453,12 @@
         <v>5</v>
       </c>
       <c r="D57" s="11" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="58" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B58" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B58" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="11" t="n">
-        <v>800</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
@@ -1463,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>720</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="1">
@@ -1474,12 +1480,18 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="61" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B61" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B61" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>950</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1490,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>195</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1501,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>950</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1512,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>800</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1548,31 +1560,31 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B68" s="8" t="s">
+    <row r="68" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B68" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B69" s="9" t="s">
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B69" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="12" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
       <c r="B70" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D70" s="12" t="n">
-        <v>2000</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1580,10 +1592,10 @@
         <v>73</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>480</v>
+        <v>72</v>
+      </c>
+      <c r="D71" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
@@ -1591,10 +1603,10 @@
         <v>74</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D72" s="11" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
@@ -1602,10 +1614,10 @@
         <v>75</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D73" s="11" t="n">
-        <v>820</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
@@ -1613,43 +1625,43 @@
         <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="75" ht="33" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="75" ht="22" customHeight="true" outlineLevel="1">
       <c r="B75" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" ht="33" customHeight="true" outlineLevel="1">
       <c r="B76" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="77" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="B77" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>990</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1657,10 +1669,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>262</v>
+        <v>990</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1674,69 +1686,75 @@
         <v>262</v>
       </c>
     </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+    <row r="80" ht="22" customHeight="true" outlineLevel="1">
       <c r="B80" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="12" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D81" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="82" ht="22" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D82" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B83" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="12" t="n">
         <v>1800</v>
       </c>
     </row>
-    <row r="83" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B83" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" ht="33" customHeight="true" outlineLevel="1">
+    <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D84" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="85" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B85" s="9" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B85" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="12" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="86" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B86" s="8" t="s">
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B86" s="9" t="s">
         <v>88</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
@@ -1744,21 +1762,15 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="88" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B88" s="9" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="88" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B88" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="12" t="n">
-        <v>1150</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1766,15 +1778,21 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="90" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B90" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B90" s="9" t="s">
         <v>92</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="true" outlineLevel="1">
@@ -1782,48 +1800,48 @@
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D91" s="12" t="n">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="92" ht="22" customHeight="true" outlineLevel="1">
       <c r="B92" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="93" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B93" s="9" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B93" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="94" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="95" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="95" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B95" s="9" t="s">
         <v>97</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
@@ -1831,56 +1849,62 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="97" ht="33" customHeight="true" outlineLevel="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="97" ht="22" customHeight="true" outlineLevel="1">
       <c r="B97" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="11" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="98" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B98" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C98" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="99" ht="22" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="11" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B100" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="12" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="100" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B100" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B101" s="8" t="s">
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C101" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" ht="33" customHeight="true" outlineLevel="1">
       <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
@@ -1888,850 +1912,838 @@
         <v>5</v>
       </c>
       <c r="D102" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="11" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="104" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="11" t="n">
-        <v>312</v>
+      <c r="D103" s="12" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B104" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="B105" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B107" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B107" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
       <c r="B108" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" ht="22" customHeight="true" outlineLevel="1">
       <c r="B109" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="11" t="n">
-        <v>100</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="true" outlineLevel="1">
       <c r="B110" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="B112" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>816</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="12" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="115" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D114" s="11" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="12" t="n">
-        <v>2000</v>
+      <c r="D116" s="11" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="true" outlineLevel="1">
       <c r="B117" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" ht="22" customHeight="true" outlineLevel="1">
       <c r="B118" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B119" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="11" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B120" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B121" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="11" t="n">
         <v>200</v>
-      </c>
-    </row>
-    <row r="119" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B119" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B120" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B121" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="11" t="n">
-        <v>295</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B123" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B124" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B125" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D125" s="11" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B123" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D123" s="11" t="n">
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B126" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="11" t="n">
         <v>350</v>
-      </c>
-    </row>
-    <row r="124" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B124" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B125" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D125" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B126" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="11" t="n">
-        <v>258</v>
       </c>
     </row>
     <row r="127" ht="33" customHeight="true" outlineLevel="1">
       <c r="B127" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="128" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D127" s="11" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>820</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="130" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B130" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" ht="22" customHeight="true" outlineLevel="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B130" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="131" ht="33" customHeight="true" outlineLevel="1">
       <c r="B131" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>310</v>
+        <v>820</v>
       </c>
     </row>
     <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B133" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" ht="11" customHeight="true" outlineLevel="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="133" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B133" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D134" s="12" t="n">
-        <v>1600</v>
+        <v>5</v>
+      </c>
+      <c r="D134" s="11" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="135" ht="22" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D136" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B138" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="11" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B139" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D139" s="11" t="n">
         <v>365</v>
       </c>
     </row>
-    <row r="138" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B138" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D138" s="11" t="n">
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B140" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140" s="11" t="n">
         <v>399</v>
-      </c>
-    </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B139" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="140" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B140" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="11" t="n">
-        <v>570</v>
       </c>
     </row>
     <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" ht="11" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B143" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="11" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B144" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="11" t="n">
         <v>600</v>
-      </c>
-    </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B143" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D143" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="144" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B144" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="12" t="n">
+        <v>72</v>
+      </c>
+      <c r="D145" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="146" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B146" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B147" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="12" t="n">
         <v>3250</v>
       </c>
     </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B146" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D146" s="11" t="n">
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B148" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="11" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="147" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B147" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B148" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D148" s="11" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B149" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D149" s="11" t="n">
-        <v>360</v>
+    <row r="149" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B149" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>870</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D151" s="12" t="n">
-        <v>1650</v>
+        <v>72</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>650</v>
+        <v>870</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D153" s="12" t="n">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="154" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B154" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" ht="22" customHeight="true" outlineLevel="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B154" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D154" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="156" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B156" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D156" s="11" t="n">
-        <v>780</v>
+        <v>72</v>
+      </c>
+      <c r="D155" s="12" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B156" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="157" ht="22" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D157" s="12" t="n">
-        <v>1800</v>
+        <v>5</v>
+      </c>
+      <c r="D157" s="11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="158" ht="22" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D158" s="12" t="n">
-        <v>2350</v>
+        <v>72</v>
+      </c>
+      <c r="D158" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="159" ht="22" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D159" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D159" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B160" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D160" s="12" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="161" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B161" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D161" s="11" t="n">
         <v>294</v>
       </c>
     </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B160" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="11" t="n">
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B162" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="11" t="n">
         <v>295</v>
       </c>
     </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B161" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D161" s="11" t="n">
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B163" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D163" s="11" t="n">
         <v>760</v>
-      </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B162" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D162" s="12" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B163" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D163" s="12" t="n">
-        <v>1728</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
       <c r="B164" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D164" s="12" t="n">
-        <v>1100</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D165" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="166" ht="11" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D165" s="12" t="n">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="166" ht="22" customHeight="true" outlineLevel="1">
       <c r="B166" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D166" s="12" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D167" s="12" t="n">
-        <v>1400</v>
+        <v>72</v>
+      </c>
+      <c r="D167" s="11" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
       <c r="B168" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D168" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D168" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B169" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D169" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B170" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D170" s="11" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="169" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B169" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B170" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="12" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="171" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B171" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D171" s="12" t="n">
-        <v>1950</v>
+    <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B171" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
       <c r="B172" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D172" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="173" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B173" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D173" s="12" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="174" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B174" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D174" s="12" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="173" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B173" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D173" s="12" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="174" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B174" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="1">
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="D175" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="176" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B176" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B177" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="11" t="n">
         <v>115</v>
-      </c>
-    </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B176" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="177" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B177" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="12" t="n">
-        <v>4000</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
       <c r="B178" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D178" s="12" t="n">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="179" ht="22" customHeight="true" outlineLevel="1">
       <c r="B179" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="12" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="180" ht="11" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D180" s="12" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="182" ht="11" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="12" t="n">
-        <v>2900</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="183" ht="11" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
         <v>5</v>
@@ -2740,343 +2752,376 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="11" t="n">
-        <v>115</v>
+      <c r="D184" s="12" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="1">
       <c r="B185" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D186" s="12" t="n">
-        <v>1600</v>
+      <c r="D186" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="1">
       <c r="B187" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B188" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B189" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="12" t="n">
         <v>1700</v>
       </c>
     </row>
-    <row r="188" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B188" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B189" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" s="11" t="n">
+    <row r="190" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B190" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B191" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="11" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="190" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B190" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D190" s="12" t="n">
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B192" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="12" t="n">
         <v>1140</v>
-      </c>
-    </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B191" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" s="11" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="192" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B192" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" s="11" t="n">
-        <v>800</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
       <c r="B193" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="194" ht="22" customHeight="true" outlineLevel="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="194" ht="11" customHeight="true" outlineLevel="1">
       <c r="B194" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D194" s="11" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="11" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B196" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="11" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B196" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" s="11" t="n">
+    <row r="197" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B197" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="11" t="n">
         <v>388</v>
-      </c>
-    </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B197" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="11" t="n">
-        <v>420</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="11" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D199" s="11" t="n">
-        <v>530</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D200" s="11" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D201" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="202" ht="22" customHeight="true" outlineLevel="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="202" ht="11" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
       <c r="B203" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D204" s="11" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="205" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B205" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B206" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="11" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B207" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="11" t="n">
         <v>858</v>
       </c>
     </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B205" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="11" t="n">
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B208" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="11" t="n">
         <v>545</v>
-      </c>
-    </row>
-    <row r="206" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B206" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D206" s="12" t="n">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="207" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B207" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="208" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B208" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208" s="11" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="11" t="n">
-        <v>280</v>
+      <c r="D209" s="12" t="n">
+        <v>1850</v>
       </c>
     </row>
     <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C210" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="211" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B211" s="8" t="s">
-        <v>213</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="211" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B211" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="11" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="212" ht="22" customHeight="true" outlineLevel="1">
       <c r="B212" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C212" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>990</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" ht="22" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C213" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="12" t="n">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="214" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B214" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D214" s="12" t="n">
-        <v>2290</v>
+      <c r="D213" s="11" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="214" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B214" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="215" ht="22" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="12" t="n">
+      <c r="D215" s="11" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="216" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B216" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="12" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="217" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B217" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="12" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="218" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B218" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="12" t="n">
         <v>1495</v>
       </c>
     </row>
@@ -3085,7 +3130,7 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait"/>
+  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
   <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
   </si>
   <si>
+    <t>Тунец филе кусочки в с/с ж/б 1,7 кг, Эквадор</t>
+  </si>
+  <si>
     <t>Бульоны. Основы для супов. Приправа</t>
   </si>
   <si>
@@ -202,6 +205,15 @@
     <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
   </si>
   <si>
+    <t>Колбасы</t>
+  </si>
+  <si>
+    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
+    <t>Итальяно с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
@@ -407,6 +419,9 @@
   </si>
   <si>
     <t>Бекон Классический в/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
+    <t>Бекон с/к 500гр, МК ЭКО</t>
   </si>
   <si>
     <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
@@ -877,7 +892,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D218"/>
+  <dimension ref="D223"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1019,20 +1034,20 @@
         <v>956</v>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B15" s="8" t="s">
+    <row r="15" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B16" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true" outlineLevel="1">
@@ -1043,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="11" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true" outlineLevel="1">
@@ -1054,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="11" t="n">
-        <v>465</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true" outlineLevel="1">
@@ -1065,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="11" t="n">
-        <v>330</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true" outlineLevel="1">
@@ -1076,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1087,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true" outlineLevel="1">
@@ -1098,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="true" outlineLevel="1">
@@ -1109,34 +1124,34 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12" t="n">
         <v>1460</v>
       </c>
     </row>
-    <row r="25" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B26" s="9" t="s">
+    <row r="26" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B26" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="11" t="n">
-        <v>900</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1146,22 +1161,22 @@
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="28" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D27" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true" outlineLevel="1">
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D28" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1169,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="30" ht="22" customHeight="true" outlineLevel="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1180,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>870</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="true" outlineLevel="1">
@@ -1191,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="11" t="n">
-        <v>425</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true" outlineLevel="1">
@@ -1202,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>843</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true" outlineLevel="1">
@@ -1213,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>700</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="true" outlineLevel="1">
@@ -1224,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>615</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="true" outlineLevel="1">
@@ -1235,23 +1250,23 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="11" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="36" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B36" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B37" s="9" t="s">
+    <row r="37" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B37" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>144</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="1">
@@ -1262,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="1">
@@ -1273,45 +1288,45 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="11" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="40" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B40" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B41" s="9" t="s">
+    <row r="41" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B41" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>135</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="true" outlineLevel="1">
       <c r="B42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="D42" s="11" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true" outlineLevel="1">
       <c r="B43" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
@@ -1322,23 +1337,23 @@
         <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="45" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B45" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B46" s="9" t="s">
+    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B46" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="11" t="n">
-        <v>785</v>
       </c>
     </row>
     <row r="47" ht="22" customHeight="true" outlineLevel="1">
@@ -1349,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="11" t="n">
-        <v>756</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="true" outlineLevel="1">
@@ -1360,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>756</v>
+        <v>735</v>
       </c>
     </row>
     <row r="49" ht="22" customHeight="true" outlineLevel="1">
@@ -1371,23 +1386,23 @@
         <v>5</v>
       </c>
       <c r="D49" s="11" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="50" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11" t="n">
         <v>785</v>
       </c>
     </row>
-    <row r="50" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B50" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B51" s="9" t="s">
+    <row r="51" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B51" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>720</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="true" outlineLevel="1">
@@ -1398,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="D52" s="11" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="53" ht="33" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true" outlineLevel="1">
       <c r="B53" s="9" t="s">
         <v>54</v>
       </c>
@@ -1409,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>720</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" ht="33" customHeight="true" outlineLevel="1">
@@ -1420,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" ht="33" customHeight="true" outlineLevel="1">
@@ -1431,10 +1446,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="56" ht="22" customHeight="true" outlineLevel="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" ht="33" customHeight="true" outlineLevel="1">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -1442,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="true" outlineLevel="1">
@@ -1456,23 +1471,23 @@
         <v>720</v>
       </c>
     </row>
-    <row r="58" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B58" s="8" t="s">
+    <row r="58" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B58" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B59" s="9" t="s">
+      <c r="C58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="11" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="B60" s="9" t="s">
         <v>61</v>
       </c>
@@ -1480,10 +1495,10 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="B61" s="9" t="s">
         <v>62</v>
       </c>
@@ -1491,18 +1506,12 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="62" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B62" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B62" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="11" t="n">
-        <v>800</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1513,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1524,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>590</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1535,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>280</v>
+        <v>950</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1546,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1557,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>279</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1568,12 +1577,18 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B69" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B69" s="9" t="s">
         <v>70</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="11" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
@@ -1581,54 +1596,48 @@
         <v>71</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="12" t="n">
-        <v>1550</v>
+        <v>5</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
       <c r="B71" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="12" t="n">
-        <v>2000</v>
+        <v>5</v>
+      </c>
+      <c r="D71" s="11" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B73" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="73" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B73" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>340</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="11" t="n">
-        <v>820</v>
+        <v>76</v>
+      </c>
+      <c r="D74" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1636,32 +1645,32 @@
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" ht="33" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D75" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" ht="22" customHeight="true" outlineLevel="1">
       <c r="B76" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="77" ht="11" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" ht="22" customHeight="true" outlineLevel="1">
       <c r="B77" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>435</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1669,10 +1678,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>990</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1680,13 +1689,13 @@
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="80" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" ht="33" customHeight="true" outlineLevel="1">
       <c r="B80" s="9" t="s">
         <v>82</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>262</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
@@ -1702,10 +1711,10 @@
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="12" t="n">
-        <v>1450</v>
+        <v>76</v>
+      </c>
+      <c r="D81" s="11" t="n">
+        <v>435</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
@@ -1713,21 +1722,21 @@
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D82" s="11" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
       <c r="B83" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="12" t="n">
-        <v>1800</v>
+        <v>5</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
@@ -1735,64 +1744,70 @@
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="12" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="85" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B85" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B85" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C85" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="12" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D86" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="88" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B88" s="8" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="88" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B88" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B89" s="9" t="s">
+      <c r="C88" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="12" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="89" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D90" s="12" t="n">
-        <v>1150</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="true" outlineLevel="1">
@@ -1800,37 +1815,37 @@
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D91" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="92" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B92" s="9" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="92" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B92" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="93" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B93" s="8" t="s">
+    </row>
+    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B93" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C93" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" ht="22" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="11" t="n">
-        <v>900</v>
+        <v>76</v>
+      </c>
+      <c r="D94" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1838,43 +1853,37 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D95" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="96" ht="22" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="97" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B97" s="9" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B97" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D97" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" s="12" t="n">
-        <v>1150</v>
+        <v>76</v>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true" outlineLevel="1">
@@ -1882,94 +1891,100 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="100" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B100" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C100" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
       <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" ht="33" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D101" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
       <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="11" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D102" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D103" s="12" t="n">
-        <v>1140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
       <c r="B104" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="B105" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B106" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="11" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B107" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B107" s="8" t="s">
+      <c r="C107" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B108" s="9" t="s">
+      <c r="D107" s="12" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="108" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B108" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="B109" s="9" t="s">
         <v>112</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="11" t="n">
-        <v>268</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="true" outlineLevel="1">
@@ -1988,21 +2003,15 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B111" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B111" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="112" ht="22" customHeight="true" outlineLevel="1">
       <c r="B112" s="9" t="s">
         <v>115</v>
       </c>
@@ -2010,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>116</v>
       </c>
@@ -2021,10 +2030,10 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
         <v>117</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>55</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
@@ -2043,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
         <v>119</v>
       </c>
@@ -2054,10 +2063,10 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="B117" s="9" t="s">
         <v>120</v>
       </c>
@@ -2065,10 +2074,10 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="B118" s="9" t="s">
         <v>121</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>816</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
@@ -2087,10 +2096,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" ht="33" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" ht="22" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>270</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="true" outlineLevel="1">
@@ -2109,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="true" outlineLevel="1">
@@ -2120,15 +2129,21 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B123" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C123" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="11" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" ht="33" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" ht="22" customHeight="true" outlineLevel="1">
@@ -2144,32 +2159,26 @@
         <v>128</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="127" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B127" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B127" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="11" t="n">
-        <v>950</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
@@ -2177,13 +2186,13 @@
         <v>131</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="129" ht="22" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2191,32 +2200,32 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="130" ht="33" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" ht="22" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="131" ht="33" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D130" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="B131" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132" ht="33" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2224,12 +2233,18 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="133" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B133" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B133" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D133" s="11" t="n">
+        <v>518</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="true" outlineLevel="1">
@@ -2240,29 +2255,29 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" ht="22" customHeight="true" outlineLevel="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" ht="33" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D135" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D135" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="136" ht="33" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D136" s="12" t="n">
-        <v>1600</v>
+        <v>5</v>
+      </c>
+      <c r="D136" s="11" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="137" ht="22" customHeight="true" outlineLevel="1">
@@ -2273,29 +2288,23 @@
         <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B138" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="138" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B138" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>365</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="true" outlineLevel="1">
@@ -2303,24 +2312,24 @@
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D141" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="142" ht="22" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
@@ -2328,10 +2337,10 @@
         <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="143" ht="22" customHeight="true" outlineLevel="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="1">
@@ -2347,26 +2356,32 @@
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" ht="22" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="146" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B146" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B146" s="9" t="s">
         <v>149</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="11" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
@@ -2376,8 +2391,8 @@
       <c r="C147" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D147" s="12" t="n">
-        <v>3250</v>
+      <c r="D147" s="11" t="n">
+        <v>570</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="true" outlineLevel="1">
@@ -2385,15 +2400,21 @@
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="149" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B149" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B149" s="9" t="s">
         <v>152</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="11" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
@@ -2401,21 +2422,15 @@
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B151" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B151" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D151" s="11" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
@@ -2423,32 +2438,26 @@
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D152" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="153" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D152" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="153" ht="22" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D153" s="12" t="n">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B154" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" s="11" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B154" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D154" s="11" t="n">
-        <v>650</v>
       </c>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
@@ -2456,73 +2465,73 @@
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D155" s="12" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B156" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155" s="11" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="157" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C156" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="158" ht="22" customHeight="true" outlineLevel="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D158" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="159" ht="22" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D158" s="12" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D159" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D159" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D160" s="12" t="n">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="161" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B161" s="9" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B161" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D161" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
@@ -2530,18 +2539,18 @@
         <v>5</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>760</v>
+        <v>780</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
@@ -2549,10 +2558,10 @@
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D164" s="12" t="n">
-        <v>1320</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="true" outlineLevel="1">
@@ -2560,10 +2569,10 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D165" s="12" t="n">
-        <v>1668</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
@@ -2571,21 +2580,21 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D166" s="12" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D166" s="11" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>860</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2593,10 +2602,10 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D168" s="12" t="n">
-        <v>1420</v>
+        <v>76</v>
+      </c>
+      <c r="D168" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="169" ht="22" customHeight="true" outlineLevel="1">
@@ -2604,26 +2613,32 @@
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D169" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D170" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B171" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D170" s="12" t="n">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="171" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B171" s="9" t="s">
         <v>174</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D171" s="12" t="n">
+        <v>1100</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
@@ -2631,21 +2646,21 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D172" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="173" ht="33" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="1">
       <c r="B173" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D173" s="12" t="n">
-        <v>1950</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="174" ht="22" customHeight="true" outlineLevel="1">
@@ -2653,21 +2668,21 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D174" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D175" s="12" t="n">
-        <v>1420</v>
+        <v>76</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="176" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2675,26 +2690,26 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+    <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D177" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="178" ht="33" customHeight="true" outlineLevel="1">
       <c r="B178" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D178" s="12" t="n">
-        <v>1800</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="true" outlineLevel="1">
@@ -2702,32 +2717,26 @@
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D179" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D180" s="12" t="n">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B181" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="181" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B181" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="12" t="n">
-        <v>2000</v>
       </c>
     </row>
     <row r="182" ht="11" customHeight="true" outlineLevel="1">
@@ -2737,8 +2746,8 @@
       <c r="C182" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="12" t="n">
-        <v>1700</v>
+      <c r="D182" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="183" ht="11" customHeight="true" outlineLevel="1">
@@ -2749,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="184" ht="22" customHeight="true" outlineLevel="1">
@@ -2760,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="D184" s="12" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="1">
@@ -2771,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>2300</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="1">
@@ -2781,8 +2790,8 @@
       <c r="C186" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D186" s="11" t="n">
-        <v>115</v>
+      <c r="D186" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="1">
@@ -2793,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="12" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="188" ht="11" customHeight="true" outlineLevel="1">
@@ -2804,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="189" ht="22" customHeight="true" outlineLevel="1">
       <c r="B189" s="9" t="s">
         <v>192</v>
       </c>
@@ -2815,15 +2824,21 @@
         <v>5</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="190" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B190" s="8" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="190" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B190" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="191" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C190" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="191" ht="11" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
@@ -2831,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="192" ht="11" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
@@ -2842,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>1140</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
@@ -2852,8 +2867,8 @@
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="11" t="n">
-        <v>770</v>
+      <c r="D193" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="1">
@@ -2863,22 +2878,16 @@
       <c r="C194" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D194" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B195" s="9" t="s">
+      <c r="D194" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B195" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C195" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
@@ -2886,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="11" t="n">
-        <v>170</v>
+        <v>410</v>
       </c>
     </row>
     <row r="197" ht="22" customHeight="true" outlineLevel="1">
@@ -2896,8 +2905,8 @@
       <c r="C197" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="11" t="n">
-        <v>388</v>
+      <c r="D197" s="12" t="n">
+        <v>1140</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
@@ -2908,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="11" t="n">
-        <v>450</v>
+        <v>770</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
@@ -2919,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="11" t="n">
-        <v>390</v>
+        <v>800</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2930,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="11" t="n">
-        <v>480</v>
+        <v>660</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -2941,10 +2950,10 @@
         <v>5</v>
       </c>
       <c r="D201" s="11" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="202" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="202" ht="22" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>480</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -2963,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -2974,10 +2983,10 @@
         <v>5</v>
       </c>
       <c r="D204" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="205" ht="22" customHeight="true" outlineLevel="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="205" ht="11" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="11" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -2996,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>450</v>
+        <v>530</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3007,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="11" t="n">
-        <v>858</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="1">
@@ -3018,18 +3027,18 @@
         <v>5</v>
       </c>
       <c r="D208" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="12" t="n">
-        <v>1850</v>
+      <c r="D209" s="11" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="210" ht="22" customHeight="true" outlineLevel="1">
@@ -3040,10 +3049,10 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="211" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" ht="11" customHeight="true" outlineLevel="1">
       <c r="B211" s="9" t="s">
         <v>214</v>
       </c>
@@ -3051,10 +3060,10 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="212" ht="22" customHeight="true" outlineLevel="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" ht="11" customHeight="true" outlineLevel="1">
       <c r="B212" s="9" t="s">
         <v>215</v>
       </c>
@@ -3062,10 +3071,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="213" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="213" ht="11" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
@@ -3073,12 +3082,18 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="214" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B214" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B214" s="9" t="s">
         <v>217</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="12" t="n">
+        <v>1850</v>
       </c>
     </row>
     <row r="215" ht="22" customHeight="true" outlineLevel="1">
@@ -3089,7 +3104,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>990</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" ht="22" customHeight="true" outlineLevel="1">
@@ -3099,19 +3114,19 @@
       <c r="C216" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D216" s="12" t="n">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="217" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D216" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="217" ht="22" customHeight="true" outlineLevel="1">
       <c r="B217" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C217" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D217" s="12" t="n">
-        <v>2290</v>
+      <c r="D217" s="11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="218" ht="22" customHeight="true" outlineLevel="1">
@@ -3121,7 +3136,56 @@
       <c r="C218" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="12" t="n">
+      <c r="D218" s="11" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B219" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B220" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="11" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="221" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B221" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="12" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B222" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="12" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B223" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="12" t="n">
         <v>1495</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -361,6 +361,9 @@
     <t>Молочная продукция</t>
   </si>
   <si>
+    <t>Молоко кокосовое AROY-D, 0,5л. тетра пак</t>
+  </si>
+  <si>
     <t>Молоко кокосовое AROY-D, 1л.</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
   </si>
   <si>
     <t>Мучная продукция</t>
+  </si>
+  <si>
+    <t>Бумага рисовая "AROY-D" 22см, 454 гр.</t>
   </si>
   <si>
     <t>Вермишель из батата 500 г 1/20 т.м. СингСонг</t>
@@ -892,7 +898,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D223"/>
+  <dimension ref="D225"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1984,7 +1990,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" ht="11" customHeight="true" outlineLevel="1">
+    <row r="109" ht="22" customHeight="true" outlineLevel="1">
       <c r="B109" s="9" t="s">
         <v>112</v>
       </c>
@@ -1992,10 +1998,10 @@
         <v>5</v>
       </c>
       <c r="D109" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="110" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="B110" s="9" t="s">
         <v>113</v>
       </c>
@@ -2003,26 +2009,26 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B111" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="11" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="111" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B111" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B112" s="9" t="s">
+    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B112" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>116</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>268</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="true" outlineLevel="1">
@@ -2041,10 +2047,10 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
@@ -2052,10 +2058,10 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" ht="11" customHeight="true" outlineLevel="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" ht="22" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
         <v>119</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>62</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
@@ -2074,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>200</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
@@ -2085,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
@@ -2096,10 +2102,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2107,10 +2113,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="true" outlineLevel="1">
@@ -2129,10 +2135,10 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" ht="22" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
@@ -2140,10 +2146,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" ht="33" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2151,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2162,10 +2168,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" ht="33" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2173,15 +2179,21 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B127" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="11" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="127" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B127" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+    <row r="128" ht="22" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2189,29 +2201,23 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B129" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B129" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2219,21 +2225,21 @@
         <v>134</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="132" ht="33" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>950</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
@@ -2244,10 +2250,10 @@
         <v>76</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134" ht="33" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2255,21 +2261,21 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" ht="33" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="136" ht="33" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D135" s="11" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
@@ -2277,23 +2283,29 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="137" ht="22" customHeight="true" outlineLevel="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137" ht="33" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="138" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B138" s="8" t="s">
+      <c r="D137" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="138" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B138" s="9" t="s">
         <v>141</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="11" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="139" ht="22" customHeight="true" outlineLevel="1">
@@ -2304,29 +2316,23 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B140" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="140" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B140" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D141" s="12" t="n">
-        <v>1600</v>
+        <v>5</v>
+      </c>
+      <c r="D141" s="11" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="true" outlineLevel="1">
@@ -2334,10 +2340,10 @@
         <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="1">
@@ -2345,54 +2351,54 @@
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D143" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="144" ht="22" customHeight="true" outlineLevel="1">
       <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" ht="22" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>570</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="true" outlineLevel="1">
@@ -2403,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
@@ -2414,23 +2420,29 @@
         <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="150" ht="22" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="151" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B151" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B151" s="9" t="s">
         <v>154</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
@@ -2438,29 +2450,29 @@
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="D152" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B153" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B154" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="12" t="n">
         <v>3500</v>
       </c>
     </row>
-    <row r="153" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B153" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D153" s="11" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="154" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B154" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" ht="11" customHeight="true" outlineLevel="1">
+    <row r="155" ht="22" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
@@ -2468,18 +2480,12 @@
         <v>76</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="156" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B156" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B156" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D156" s="11" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="1">
@@ -2490,7 +2496,7 @@
         <v>76</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>870</v>
+        <v>580</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
@@ -2500,8 +2506,8 @@
       <c r="C158" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D158" s="12" t="n">
-        <v>1670</v>
+      <c r="D158" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
@@ -2512,7 +2518,7 @@
         <v>76</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>650</v>
+        <v>870</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
@@ -2523,34 +2529,34 @@
         <v>76</v>
       </c>
       <c r="D160" s="12" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B161" s="8" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C161" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D161" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B163" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D162" s="12" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="163" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B163" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D163" s="11" t="n">
-        <v>780</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
@@ -2558,10 +2564,10 @@
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D164" s="12" t="n">
-        <v>1800</v>
+        <v>5</v>
+      </c>
+      <c r="D164" s="11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="true" outlineLevel="1">
@@ -2571,8 +2577,8 @@
       <c r="C165" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D165" s="12" t="n">
-        <v>2200</v>
+      <c r="D165" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
@@ -2582,22 +2588,22 @@
       <c r="C166" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D166" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D166" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D167" s="12" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="9" t="s">
         <v>171</v>
       </c>
@@ -2605,29 +2611,29 @@
         <v>76</v>
       </c>
       <c r="D168" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D169" s="12" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D169" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" ht="11" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D170" s="12" t="n">
-        <v>1668</v>
+      <c r="D170" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="171" ht="22" customHeight="true" outlineLevel="1">
@@ -2638,7 +2644,7 @@
         <v>76</v>
       </c>
       <c r="D171" s="12" t="n">
-        <v>1100</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
@@ -2648,11 +2654,11 @@
       <c r="C172" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D172" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D172" s="12" t="n">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="173" ht="22" customHeight="true" outlineLevel="1">
       <c r="B173" s="9" t="s">
         <v>176</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>76</v>
       </c>
       <c r="D173" s="12" t="n">
-        <v>1420</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="174" ht="22" customHeight="true" outlineLevel="1">
@@ -2670,8 +2676,8 @@
       <c r="C174" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D174" s="12" t="n">
-        <v>1420</v>
+      <c r="D174" s="11" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
@@ -2681,35 +2687,35 @@
       <c r="C175" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D175" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="176" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B176" s="8" t="s">
+      <c r="D175" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B176" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C176" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="178" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B178" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D177" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B178" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D178" s="12" t="n">
-        <v>1950</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="true" outlineLevel="1">
@@ -2717,13 +2723,13 @@
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D179" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="180" ht="22" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="180" ht="33" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
@@ -2731,45 +2737,45 @@
         <v>76</v>
       </c>
       <c r="D180" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="181" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B181" s="8" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C181" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B183" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D182" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="183" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B183" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C183" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D183" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="12" t="n">
-        <v>4000</v>
+      <c r="D184" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="1">
@@ -2780,10 +2786,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="186" ht="11" customHeight="true" outlineLevel="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="186" ht="22" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="12" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="1">
@@ -2802,7 +2808,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="12" t="n">
-        <v>1700</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="188" ht="11" customHeight="true" outlineLevel="1">
@@ -2813,10 +2819,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
       <c r="B189" s="9" t="s">
         <v>192</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>5</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>2900</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="1">
@@ -2838,15 +2844,15 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+    <row r="191" ht="22" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C191" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="11" t="n">
-        <v>115</v>
+      <c r="D191" s="12" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="1">
@@ -2857,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
@@ -2867,8 +2873,8 @@
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="12" t="n">
-        <v>1600</v>
+      <c r="D193" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="1">
@@ -2879,37 +2885,37 @@
         <v>5</v>
       </c>
       <c r="D194" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B195" s="8" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C195" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="197" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B197" s="9" t="s">
+      <c r="D196" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="197" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B197" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C197" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="198" ht="22" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
@@ -2917,18 +2923,18 @@
         <v>5</v>
       </c>
       <c r="D198" s="11" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" ht="22" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="11" t="n">
-        <v>800</v>
+      <c r="D199" s="12" t="n">
+        <v>1140</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2939,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="11" t="n">
-        <v>660</v>
+        <v>770</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -2950,10 +2956,10 @@
         <v>5</v>
       </c>
       <c r="D201" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="202" ht="22" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="202" ht="11" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>388</v>
+        <v>660</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -2972,10 +2978,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="204" ht="22" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="11" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="1">
@@ -2994,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="11" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3005,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>530</v>
+        <v>390</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3027,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="D208" s="11" t="n">
-        <v>650</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="1">
@@ -3038,10 +3044,10 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="210" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" ht="11" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3060,10 +3066,10 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="212" ht="11" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="212" ht="22" customHeight="true" outlineLevel="1">
       <c r="B212" s="9" t="s">
         <v>215</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>858</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3082,21 +3088,21 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C214" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D214" s="12" t="n">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D214" s="11" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
         <v>218</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>500</v>
+        <v>545</v>
       </c>
     </row>
     <row r="216" ht="22" customHeight="true" outlineLevel="1">
@@ -3114,8 +3120,8 @@
       <c r="C216" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D216" s="11" t="n">
-        <v>400</v>
+      <c r="D216" s="12" t="n">
+        <v>1850</v>
       </c>
     </row>
     <row r="217" ht="22" customHeight="true" outlineLevel="1">
@@ -3126,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>242</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" ht="22" customHeight="true" outlineLevel="1">
@@ -3137,12 +3143,18 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="219" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B219" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="219" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B219" s="9" t="s">
         <v>222</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="220" ht="22" customHeight="true" outlineLevel="1">
@@ -3153,29 +3165,23 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="221" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B221" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="221" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B221" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C221" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="12" t="n">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C222" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="12" t="n">
-        <v>2290</v>
+      <c r="D222" s="11" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="223" ht="22" customHeight="true" outlineLevel="1">
@@ -3186,6 +3192,28 @@
         <v>5</v>
       </c>
       <c r="D223" s="12" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B224" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="12" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B225" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="12" t="n">
         <v>1495</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -43,15 +43,21 @@
     <t>шт</t>
   </si>
   <si>
-    <t>Анчоусы филе в модсолнечном масле "Манчин" ж/б (0,600 кг) кор 12 шт</t>
-  </si>
-  <si>
-    <t>Каперсы с уксусом "Antica Napoli" (720 мл/0,700кг) упак 6 шт</t>
+    <t>Анчоусы филе в модсолнечном масле "Манчин" ж/б (0,600 кг) Италия, кор 12 шт</t>
+  </si>
+  <si>
+    <t>Каперсы с уксусом "Antica Napoli" (720 мл/0,700кг) Турция, упак 6 шт</t>
+  </si>
+  <si>
+    <t>Маслины Alisa резаные (3,000 кг) ж/б, Испания</t>
   </si>
   <si>
     <t>Маслины резаные Green King 3100 мл, ж/б, Испания</t>
   </si>
   <si>
+    <t>Огурцы марин. слайсы т.м. Домашняя Трапеза (1,700) упак. 5шт</t>
+  </si>
+  <si>
     <t>Оливки зеленые "Alisa" без косточки (0,350 кг) ж/б кор. 12 шт. </t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t>Бульоны. Основы для супов. Приправа</t>
   </si>
   <si>
-    <t>Глутомат натрия в гранулах, 454 гр*50, Китай</t>
-  </si>
-  <si>
     <t>Лемонграсс сушеный HOM-D, ResFood, Таиланд, 100гр*30</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
   </si>
   <si>
-    <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
-  </si>
-  <si>
     <t>Приправа рыбная Дашида- Анчоус 100г 1/40</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
   </si>
   <si>
+    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
+  </si>
+  <si>
     <t>Картофель</t>
   </si>
   <si>
@@ -205,15 +208,6 @@
     <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
   </si>
   <si>
-    <t>Колбасы</t>
-  </si>
-  <si>
-    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
-    <t>Итальяно с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
   </si>
   <si>
-    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
-  </si>
-  <si>
     <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
   </si>
   <si>
@@ -259,6 +250,9 @@
     <t>Гребешок Приморский, размер М, с/м, Россия</t>
   </si>
   <si>
+    <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
+  </si>
+  <si>
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
@@ -304,7 +298,7 @@
     <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
   </si>
   <si>
-    <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Индия</t>
+    <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Эквадор</t>
   </si>
   <si>
     <t>Креветка мелкая</t>
@@ -319,9 +313,6 @@
     <t>Креветка очищенная в/м с хвостом (31-40), 7%, Эквадор</t>
   </si>
   <si>
-    <t>Креветка с/м б/г в панцире (31-40), 7%, Эквадор</t>
-  </si>
-  <si>
     <t>Креветка россыпь</t>
   </si>
   <si>
@@ -412,6 +403,9 @@
     <t>Рисовая лапша 5мм AROY-D 454 г</t>
   </si>
   <si>
+    <t>Смесь темпурная OSHI уп/18 кг</t>
+  </si>
+  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
@@ -560,9 +554,6 @@
   </si>
   <si>
     <t>Форель филе 0.6-1,5 кг с/м, Китай</t>
-  </si>
-  <si>
-    <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
   </si>
   <si>
     <t>Щука филе б/к, с/м, 5%, ГОСТ</t>
@@ -898,7 +889,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D225"/>
+  <dimension ref="D222"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -941,7 +932,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" ht="22" customHeight="true" outlineLevel="1">
+    <row r="6" ht="33" customHeight="true" outlineLevel="1">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -949,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="12" t="n">
-        <v>1655</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="true" outlineLevel="1">
@@ -971,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>870</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="true" outlineLevel="1">
@@ -982,21 +973,21 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" ht="33" customHeight="true" outlineLevel="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="true" outlineLevel="1">
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D10" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="true" outlineLevel="1">
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="true" outlineLevel="1">
@@ -1015,29 +1006,29 @@
         <v>5</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="13" ht="22" customHeight="true" outlineLevel="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="true" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D13" s="11" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="true" outlineLevel="1">
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="n">
-        <v>956</v>
+      <c r="D14" s="12" t="n">
+        <v>1540</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="true" outlineLevel="1">
@@ -1048,12 +1039,18 @@
         <v>5</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B16" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B16" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>956</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true" outlineLevel="1">
@@ -1063,19 +1060,13 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B18" s="9" t="s">
+      <c r="D17" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B18" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true" outlineLevel="1">
@@ -1086,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="11" t="n">
-        <v>465</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true" outlineLevel="1">
@@ -1097,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>330</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1108,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true" outlineLevel="1">
@@ -1119,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="true" outlineLevel="1">
@@ -1130,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="true" outlineLevel="1">
@@ -1321,7 +1312,7 @@
         <v>43</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true" outlineLevel="1">
@@ -1406,20 +1397,20 @@
         <v>785</v>
       </c>
     </row>
-    <row r="51" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B51" s="8" t="s">
+    <row r="51" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B51" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B52" s="9" t="s">
+      <c r="C51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B52" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11" t="n">
-        <v>720</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="true" outlineLevel="1">
@@ -1430,10 +1421,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="54" ht="33" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="true" outlineLevel="1">
       <c r="B54" s="9" t="s">
         <v>55</v>
       </c>
@@ -1441,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>720</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" ht="33" customHeight="true" outlineLevel="1">
@@ -1452,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
     </row>
     <row r="56" ht="33" customHeight="true" outlineLevel="1">
@@ -1463,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" ht="33" customHeight="true" outlineLevel="1">
       <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
@@ -1474,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="11" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1488,23 +1479,23 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B59" s="8" t="s">
+    <row r="59" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B60" s="9" t="s">
+      <c r="C59" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="11" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="11" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="61" ht="22" customHeight="true" outlineLevel="1">
       <c r="B61" s="9" t="s">
         <v>62</v>
       </c>
@@ -1512,12 +1503,18 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B62" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B62" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1528,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1539,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>730</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1550,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>950</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1561,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>800</v>
+        <v>590</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1572,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1583,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>590</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true" outlineLevel="1">
@@ -1594,18 +1591,12 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B70" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B70" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="11" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1613,37 +1604,43 @@
         <v>72</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>279</v>
+        <v>73</v>
+      </c>
+      <c r="D71" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B73" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D72" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B73" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="12" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="12" t="n">
-        <v>1550</v>
+        <v>73</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1651,10 +1648,10 @@
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="12" t="n">
-        <v>2000</v>
+        <v>73</v>
+      </c>
+      <c r="D75" s="11" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1662,10 +1659,10 @@
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>480</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1673,54 +1670,54 @@
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="78" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" ht="33" customHeight="true" outlineLevel="1">
       <c r="B78" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="79" ht="22" customHeight="true" outlineLevel="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="B79" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" ht="33" customHeight="true" outlineLevel="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" ht="22" customHeight="true" outlineLevel="1">
       <c r="B80" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>435</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
@@ -1728,21 +1725,21 @@
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="83" ht="22" customHeight="true" outlineLevel="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="B83" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>262</v>
+        <v>73</v>
+      </c>
+      <c r="D83" s="12" t="n">
+        <v>1450</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
@@ -1750,10 +1747,10 @@
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>262</v>
+        <v>73</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
@@ -1761,10 +1758,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D85" s="12" t="n">
-        <v>1450</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="86" ht="22" customHeight="true" outlineLevel="1">
@@ -1772,48 +1769,42 @@
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D86" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B87" s="9" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="87" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="88" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="B88" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D88" s="12" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="89" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B89" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="89" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B90" s="9" t="s">
+      <c r="C89" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="90" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B90" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="12" t="n">
-        <v>1050</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="true" outlineLevel="1">
@@ -1821,15 +1812,21 @@
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D91" s="12" t="n">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="92" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B92" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B92" s="9" t="s">
         <v>94</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="93" ht="22" customHeight="true" outlineLevel="1">
@@ -1837,32 +1834,26 @@
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D93" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B94" s="9" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B94" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="95" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" s="12" t="n">
-        <v>1150</v>
+        <v>73</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1870,26 +1861,32 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B97" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B97" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C97" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="11" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="98" ht="22" customHeight="true" outlineLevel="1">
       <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D98" s="11" t="n">
-        <v>900</v>
+        <v>73</v>
+      </c>
+      <c r="D98" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true" outlineLevel="1">
@@ -1897,108 +1894,102 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D100" s="11" t="n">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B101" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" s="12" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B101" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D101" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D102" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" ht="33" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="11" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B105" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D104" s="12" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B105" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>353</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="B107" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="108" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B108" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B108" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B109" s="9" t="s">
+      <c r="C108" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B109" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
@@ -2009,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="true" outlineLevel="1">
@@ -2020,15 +2011,21 @@
         <v>5</v>
       </c>
       <c r="D111" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B112" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B112" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>116</v>
       </c>
@@ -2036,10 +2033,10 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
         <v>117</v>
       </c>
@@ -2047,10 +2044,10 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
@@ -2058,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="116" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
         <v>119</v>
       </c>
@@ -2069,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
@@ -2080,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
@@ -2091,10 +2088,10 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" ht="22" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
@@ -2102,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" ht="22" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2113,10 +2110,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" ht="22" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2124,10 +2121,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2135,21 +2132,21 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" ht="22" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D123" s="12" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="124" ht="33" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2157,10 +2154,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2168,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" ht="33" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2179,21 +2176,15 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="127" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B127" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B127" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2201,23 +2192,29 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B129" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C129" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" ht="22" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2225,21 +2222,21 @@
         <v>134</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="132" ht="33" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>325</v>
+        <v>950</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
@@ -2247,13 +2244,13 @@
         <v>136</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="134" ht="33" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2261,21 +2258,21 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" ht="33" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D135" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D135" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="136" ht="33" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
@@ -2283,29 +2280,23 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="137" ht="33" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="138" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B138" s="9" t="s">
+      <c r="D137" s="11" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="138" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B138" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="11" t="n">
-        <v>820</v>
       </c>
     </row>
     <row r="139" ht="22" customHeight="true" outlineLevel="1">
@@ -2316,23 +2307,29 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="140" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B140" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C140" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D140" s="11" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="11" t="n">
-        <v>310</v>
+        <v>73</v>
+      </c>
+      <c r="D141" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="true" outlineLevel="1">
@@ -2340,10 +2337,10 @@
         <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="1">
@@ -2351,54 +2348,54 @@
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D143" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="144" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D143" s="11" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
       <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" ht="22" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" ht="22" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="147" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>399</v>
+        <v>570</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="true" outlineLevel="1">
@@ -2409,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
@@ -2420,29 +2417,23 @@
         <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="150" ht="22" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B151" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B151" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="11" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
@@ -2450,42 +2441,48 @@
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D152" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="153" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B153" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="153" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B154" s="9" t="s">
+      <c r="C153" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D153" s="11" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B154" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="155" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B156" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B156" s="9" t="s">
         <v>159</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D156" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="1">
@@ -2493,10 +2490,10 @@
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>580</v>
+        <v>870</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
@@ -2504,10 +2501,10 @@
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D158" s="11" t="n">
-        <v>360</v>
+        <v>73</v>
+      </c>
+      <c r="D158" s="12" t="n">
+        <v>1670</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
@@ -2515,10 +2512,10 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>870</v>
+        <v>650</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
@@ -2526,37 +2523,37 @@
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D160" s="12" t="n">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B161" s="9" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B161" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D161" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D162" s="12" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="163" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B163" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="11" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="163" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B163" s="9" t="s">
         <v>166</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D163" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
@@ -2564,10 +2561,10 @@
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="11" t="n">
-        <v>965</v>
+        <v>73</v>
+      </c>
+      <c r="D164" s="12" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="true" outlineLevel="1">
@@ -2575,10 +2572,10 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D165" s="11" t="n">
-        <v>780</v>
+        <v>73</v>
+      </c>
+      <c r="D165" s="12" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
@@ -2586,54 +2583,54 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D166" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D166" s="11" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D167" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="168" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D167" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" ht="11" customHeight="true" outlineLevel="1">
       <c r="B168" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D168" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="169" ht="22" customHeight="true" outlineLevel="1">
       <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D169" s="12" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D170" s="11" t="n">
-        <v>760</v>
+        <v>73</v>
+      </c>
+      <c r="D170" s="12" t="n">
+        <v>1668</v>
       </c>
     </row>
     <row r="171" ht="22" customHeight="true" outlineLevel="1">
@@ -2641,10 +2638,10 @@
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D171" s="12" t="n">
-        <v>1320</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
@@ -2652,43 +2649,37 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D172" s="12" t="n">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="173" ht="22" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="1">
       <c r="B173" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D173" s="12" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="174" ht="22" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="174" ht="11" customHeight="true" outlineLevel="1">
       <c r="B174" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D174" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B175" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="175" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B175" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D175" s="12" t="n">
-        <v>1420</v>
       </c>
     </row>
     <row r="176" ht="22" customHeight="true" outlineLevel="1">
@@ -2696,26 +2687,32 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D176" s="12" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+    <row r="177" ht="33" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D177" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="178" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B178" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D177" s="12" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="178" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B178" s="9" t="s">
         <v>181</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="true" outlineLevel="1">
@@ -2723,48 +2720,48 @@
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D179" s="12" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="180" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B180" s="9" t="s">
+    <row r="180" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B180" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C180" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D180" s="12" t="n">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D181" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D181" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" ht="11" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D182" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="183" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B183" s="8" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="183" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B183" s="9" t="s">
         <v>186</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="12" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="184" ht="11" customHeight="true" outlineLevel="1">
@@ -2774,8 +2771,8 @@
       <c r="C184" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="11" t="n">
-        <v>115</v>
+      <c r="D184" s="12" t="n">
+        <v>3050</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="1">
@@ -2786,10 +2783,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="186" ht="22" customHeight="true" outlineLevel="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="186" ht="11" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
@@ -2797,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="12" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="187" ht="11" customHeight="true" outlineLevel="1">
@@ -2808,10 +2805,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="12" t="n">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="188" ht="22" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="1">
@@ -2830,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="1">
@@ -2840,11 +2837,11 @@
       <c r="C190" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="191" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D190" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" ht="11" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
@@ -2852,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="D191" s="12" t="n">
-        <v>2900</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="1">
@@ -2863,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
@@ -2873,33 +2870,27 @@
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="194" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B194" s="9" t="s">
+      <c r="D193" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B194" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C194" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D195" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
@@ -2907,15 +2898,21 @@
         <v>5</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="197" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B197" s="8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="198" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C197" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="11" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="198" ht="11" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
@@ -2923,18 +2920,18 @@
         <v>5</v>
       </c>
       <c r="D198" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="199" ht="22" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="199" ht="11" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="12" t="n">
-        <v>1140</v>
+      <c r="D199" s="11" t="n">
+        <v>660</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2945,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="D200" s="11" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="201" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="201" ht="22" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
@@ -2956,7 +2953,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="11" t="n">
-        <v>800</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -2967,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>660</v>
+        <v>450</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -2978,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="204" ht="22" customHeight="true" outlineLevel="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="204" ht="11" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
@@ -2989,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="11" t="n">
-        <v>388</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="1">
@@ -3000,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="11" t="n">
-        <v>450</v>
+        <v>530</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3011,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3022,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="11" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="1">
@@ -3033,10 +3030,10 @@
         <v>5</v>
       </c>
       <c r="D208" s="11" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
@@ -3044,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>480</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="1">
@@ -3055,7 +3052,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>650</v>
+        <v>265</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3066,10 +3063,10 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="212" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="212" ht="11" customHeight="true" outlineLevel="1">
       <c r="B212" s="9" t="s">
         <v>215</v>
       </c>
@@ -3077,21 +3074,21 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="213" ht="22" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
       <c r="C213" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="214" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D213" s="12" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="214" ht="22" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
@@ -3099,10 +3096,10 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="215" ht="11" customHeight="true" outlineLevel="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215" ht="22" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
         <v>218</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>545</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" ht="22" customHeight="true" outlineLevel="1">
@@ -3120,8 +3117,8 @@
       <c r="C216" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D216" s="12" t="n">
-        <v>1850</v>
+      <c r="D216" s="11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="217" ht="22" customHeight="true" outlineLevel="1">
@@ -3132,18 +3129,12 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B218" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="218" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B218" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="11" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="219" ht="22" customHeight="true" outlineLevel="1">
@@ -3154,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>242</v>
+        <v>990</v>
       </c>
     </row>
     <row r="220" ht="22" customHeight="true" outlineLevel="1">
@@ -3164,13 +3155,19 @@
       <c r="C220" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="221" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B221" s="8" t="s">
+      <c r="D220" s="12" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="221" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B221" s="9" t="s">
         <v>224</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="12" t="n">
+        <v>2290</v>
       </c>
     </row>
     <row r="222" ht="22" customHeight="true" outlineLevel="1">
@@ -3180,40 +3177,7 @@
       <c r="C222" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B223" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="12" t="n">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B224" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="12" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B225" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D225" s="12" t="n">
+      <c r="D222" s="12" t="n">
         <v>1495</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -91,6 +91,12 @@
     <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
   </si>
   <si>
+    <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста мисо, темная, уп. 1 кг. Китай</t>
+  </si>
+  <si>
     <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>Приправа рыбная Дашида- Анчоус 100г 1/40</t>
   </si>
   <si>
+    <t>Рыбный бульон "Хондаши"</t>
+  </si>
+  <si>
     <t>Стружка тунца Бонито, уп.500г.</t>
   </si>
   <si>
@@ -554,6 +563,9 @@
   </si>
   <si>
     <t>Форель филе 0.6-1,5 кг с/м, Китай</t>
+  </si>
+  <si>
+    <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
   </si>
   <si>
     <t>Щука филе б/к, с/м, 5%, ГОСТ</t>
@@ -889,7 +901,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D222"/>
+  <dimension ref="D226"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1102,7 +1114,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" ht="22" customHeight="true" outlineLevel="1">
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -1110,10 +1122,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true" outlineLevel="1">
       <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="true" outlineLevel="1">
@@ -1132,23 +1144,29 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="12" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B26" s="8" t="s">
+      <c r="D25" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B26" s="9" t="s">
         <v>26</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1159,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="1">
@@ -1170,18 +1188,12 @@
         <v>5</v>
       </c>
       <c r="D28" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B29" s="9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B29" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>760</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
@@ -1192,18 +1204,18 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>870</v>
+      <c r="D31" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true" outlineLevel="1">
@@ -1214,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" ht="22" customHeight="true" outlineLevel="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>765</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="true" outlineLevel="1">
@@ -1236,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>700</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="true" outlineLevel="1">
@@ -1247,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>580</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="true" outlineLevel="1">
@@ -1258,15 +1270,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B37" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="true" outlineLevel="1">
       <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
@@ -1274,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" ht="22" customHeight="true" outlineLevel="1">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
@@ -1285,75 +1303,75 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B40" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B41" s="8" t="s">
+    </row>
+    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true" outlineLevel="1">
       <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B44" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="11" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="43" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="11" t="n">
+    <row r="46" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="11" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B45" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B46" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+    <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="B47" s="9" t="s">
         <v>48</v>
       </c>
@@ -1361,10 +1379,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="11" t="n">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="48" ht="22" customHeight="true" outlineLevel="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
       <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
@@ -1372,18 +1390,12 @@
         <v>5</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="49" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B49" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B49" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>735</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="true" outlineLevel="1">
@@ -1405,12 +1417,18 @@
         <v>5</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B52" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B52" s="9" t="s">
         <v>53</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>735</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="true" outlineLevel="1">
@@ -1421,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>720</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true" outlineLevel="1">
@@ -1432,21 +1450,15 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="55" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B55" s="9" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="56" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -1454,10 +1466,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="57" ht="33" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
       <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
@@ -1465,10 +1477,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="58" ht="22" customHeight="true" outlineLevel="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="58" ht="33" customHeight="true" outlineLevel="1">
       <c r="B58" s="9" t="s">
         <v>59</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" ht="22" customHeight="true" outlineLevel="1">
+    <row r="59" ht="33" customHeight="true" outlineLevel="1">
       <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
@@ -1487,12 +1499,18 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="60" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B60" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B60" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true" outlineLevel="1">
@@ -1503,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>250</v>
+        <v>720</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1514,18 +1532,12 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="63" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B63" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B63" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>950</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1536,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1547,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>160</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1558,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>590</v>
+        <v>950</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1569,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>280</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1580,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>279</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true" outlineLevel="1">
@@ -1591,12 +1603,18 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B70" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="70" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B70" s="9" t="s">
         <v>71</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1604,43 +1622,37 @@
         <v>72</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="12" t="n">
-        <v>1550</v>
+        <v>5</v>
+      </c>
+      <c r="D71" s="11" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B73" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="73" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B73" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="12" t="n">
-        <v>2500</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="11" t="n">
-        <v>480</v>
+        <v>76</v>
+      </c>
+      <c r="D74" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1648,10 +1660,10 @@
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>340</v>
+        <v>76</v>
+      </c>
+      <c r="D75" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1659,10 +1671,10 @@
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="11" t="n">
-        <v>820</v>
+        <v>76</v>
+      </c>
+      <c r="D76" s="12" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1670,32 +1682,32 @@
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" ht="33" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" ht="22" customHeight="true" outlineLevel="1">
       <c r="B78" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" ht="22" customHeight="true" outlineLevel="1">
       <c r="B79" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>435</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1703,13 +1715,13 @@
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" ht="33" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
@@ -1717,29 +1729,29 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" ht="22" customHeight="true" outlineLevel="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
       <c r="B83" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="12" t="n">
-        <v>1450</v>
+        <v>76</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
@@ -1747,37 +1759,43 @@
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" ht="22" customHeight="true" outlineLevel="1">
       <c r="B85" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D86" s="12" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="87" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B87" s="8" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="87" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B87" s="9" t="s">
         <v>89</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
@@ -1785,10 +1803,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D88" s="12" t="n">
-        <v>1050</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1796,10 +1814,10 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D89" s="12" t="n">
-        <v>1150</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1807,15 +1825,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+    <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D91" s="12" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1823,37 +1841,37 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D92" s="12" t="n">
         <v>1150</v>
       </c>
     </row>
-    <row r="93" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B93" s="9" t="s">
+    <row r="93" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B93" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="94" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B94" s="8" t="s">
+    </row>
+    <row r="94" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C94" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" ht="22" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D95" s="11" t="n">
-        <v>900</v>
+        <v>76</v>
+      </c>
+      <c r="D95" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1861,32 +1879,26 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D96" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B97" s="9" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B97" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D97" s="11" t="n">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="12" t="n">
-        <v>1150</v>
+        <v>76</v>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true" outlineLevel="1">
@@ -1894,102 +1906,108 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D100" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C101" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
       <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="103" ht="33" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D102" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="D103" s="12" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B104" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B105" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B106" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="11" t="n">
         <v>353</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B104" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B105" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B106" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="B107" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="108" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B108" s="9" t="s">
+      <c r="D107" s="12" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="108" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B108" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B109" s="8" t="s">
+    </row>
+    <row r="109" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B109" s="9" t="s">
         <v>112</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
@@ -2000,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="true" outlineLevel="1">
@@ -2011,21 +2029,15 @@
         <v>5</v>
       </c>
       <c r="D111" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B112" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B112" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="11" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>116</v>
       </c>
@@ -2033,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
         <v>117</v>
       </c>
@@ -2044,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
@@ -2055,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" ht="11" customHeight="true" outlineLevel="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" ht="22" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
         <v>119</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>200</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
@@ -2077,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
@@ -2088,10 +2100,10 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
@@ -2099,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2110,10 +2122,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2121,10 +2133,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2132,21 +2144,21 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" ht="22" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="12" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="124" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D123" s="11" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2154,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2165,26 +2177,32 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B127" s="8" t="s">
+      <c r="D126" s="12" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="127" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C127" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" ht="22" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2192,10 +2210,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2203,18 +2221,12 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B130" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B130" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D130" s="11" t="n">
-        <v>325</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2222,13 +2234,13 @@
         <v>134</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="132" ht="33" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2236,29 +2248,29 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" ht="22" customHeight="true" outlineLevel="1">
       <c r="B133" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>258</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" ht="33" customHeight="true" outlineLevel="1">
@@ -2268,19 +2280,19 @@
       <c r="C135" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="136" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D135" s="11" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>820</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" ht="22" customHeight="true" outlineLevel="1">
@@ -2291,15 +2303,21 @@
         <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="138" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B138" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C138" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="139" ht="33" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>310</v>
+        <v>820</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="true" outlineLevel="1">
@@ -2315,21 +2333,15 @@
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B141" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="141" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B141" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D141" s="12" t="n">
-        <v>1600</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="true" outlineLevel="1">
@@ -2340,18 +2352,18 @@
         <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" ht="22" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="1">
@@ -2359,10 +2371,10 @@
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D144" s="11" t="n">
-        <v>365</v>
+        <v>76</v>
+      </c>
+      <c r="D144" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="145" ht="22" customHeight="true" outlineLevel="1">
@@ -2370,13 +2382,13 @@
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
@@ -2392,10 +2404,10 @@
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>570</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="true" outlineLevel="1">
@@ -2403,13 +2415,13 @@
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="149" ht="22" customHeight="true" outlineLevel="1">
       <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
@@ -2425,15 +2437,21 @@
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="151" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B151" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="151" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B151" s="9" t="s">
         <v>154</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
@@ -2443,19 +2461,19 @@
       <c r="C152" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="153" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D152" s="11" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>88</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2468,32 +2486,26 @@
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D155" s="11" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="156" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D155" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="156" ht="22" customHeight="true" outlineLevel="1">
       <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B157" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B157" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D157" s="11" t="n">
-        <v>870</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
@@ -2501,10 +2513,10 @@
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D158" s="12" t="n">
-        <v>1670</v>
+        <v>76</v>
+      </c>
+      <c r="D158" s="11" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
@@ -2512,10 +2524,10 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>650</v>
+        <v>360</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
@@ -2523,48 +2535,48 @@
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D160" s="12" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B161" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D160" s="11" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C161" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D161" s="12" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D163" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="164" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B164" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D163" s="12" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="164" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B164" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D164" s="12" t="n">
-        <v>1800</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="true" outlineLevel="1">
@@ -2572,10 +2584,10 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D165" s="12" t="n">
-        <v>2200</v>
+        <v>5</v>
+      </c>
+      <c r="D165" s="11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
@@ -2583,32 +2595,32 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D166" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D167" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D168" s="11" t="n">
-        <v>760</v>
+        <v>76</v>
+      </c>
+      <c r="D168" s="12" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="169" ht="22" customHeight="true" outlineLevel="1">
@@ -2616,32 +2628,32 @@
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D169" s="12" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D169" s="11" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" ht="11" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D170" s="12" t="n">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="171" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D170" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" ht="11" customHeight="true" outlineLevel="1">
       <c r="B171" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D171" s="12" t="n">
-        <v>1100</v>
+        <v>76</v>
+      </c>
+      <c r="D171" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
@@ -2649,108 +2661,114 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D172" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D172" s="12" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="173" ht="22" customHeight="true" outlineLevel="1">
       <c r="B173" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D173" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="174" ht="11" customHeight="true" outlineLevel="1">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="174" ht="22" customHeight="true" outlineLevel="1">
       <c r="B174" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D174" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="175" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B175" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D174" s="12" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C175" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="176" ht="11" customHeight="true" outlineLevel="1">
       <c r="B176" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D176" s="12" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="177" ht="33" customHeight="true" outlineLevel="1">
+    <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D177" s="12" t="n">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="178" ht="22" customHeight="true" outlineLevel="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="178" ht="11" customHeight="true" outlineLevel="1">
       <c r="B178" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D178" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="179" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B179" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D178" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B179" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D179" s="12" t="n">
+    </row>
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B180" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="12" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="180" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B180" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+    <row r="181" ht="33" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+      <c r="D181" s="12" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D182" s="12" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
@@ -2758,21 +2776,15 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B184" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="184" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B184" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="12" t="n">
-        <v>3050</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="1">
@@ -2782,8 +2794,8 @@
       <c r="C185" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="12" t="n">
-        <v>2000</v>
+      <c r="D185" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="1">
@@ -2794,10 +2806,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="187" ht="11" customHeight="true" outlineLevel="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="187" ht="22" customHeight="true" outlineLevel="1">
       <c r="B187" s="9" t="s">
         <v>190</v>
       </c>
@@ -2805,10 +2817,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="188" ht="22" customHeight="true" outlineLevel="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="188" ht="11" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>2900</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="1">
@@ -2827,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="1">
@@ -2837,8 +2849,8 @@
       <c r="C190" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="11" t="n">
-        <v>115</v>
+      <c r="D190" s="12" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="1">
@@ -2849,10 +2861,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="192" ht="11" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
@@ -2860,7 +2872,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>1600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
@@ -2871,26 +2883,32 @@
         <v>5</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B194" s="8" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="194" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B194" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="195" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C194" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D195" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>1140</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
@@ -2908,22 +2926,16 @@
       <c r="C197" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="11" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B198" s="9" t="s">
+      <c r="D197" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="198" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B198" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C198" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="199" ht="22" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
@@ -2931,21 +2943,21 @@
         <v>5</v>
       </c>
       <c r="D199" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="200" ht="11" customHeight="true" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="200" ht="22" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="201" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D200" s="12" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="201" ht="11" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="11" t="n">
-        <v>388</v>
+        <v>770</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -2964,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -2975,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>390</v>
+        <v>660</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -2986,10 +2998,10 @@
         <v>5</v>
       </c>
       <c r="D204" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" ht="22" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="11" t="n">
-        <v>530</v>
+        <v>388</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3008,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3019,7 +3031,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="11" t="n">
-        <v>650</v>
+        <v>390</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="1">
@@ -3030,10 +3042,10 @@
         <v>5</v>
       </c>
       <c r="D208" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>210</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="1">
@@ -3052,7 +3064,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3063,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>858</v>
+        <v>650</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3074,7 +3086,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>545</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" ht="22" customHeight="true" outlineLevel="1">
@@ -3084,11 +3096,11 @@
       <c r="C213" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="12" t="n">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D213" s="11" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
@@ -3096,10 +3108,10 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
         <v>218</v>
       </c>
@@ -3107,10 +3119,10 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="216" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="216" ht="11" customHeight="true" outlineLevel="1">
       <c r="B216" s="9" t="s">
         <v>219</v>
       </c>
@@ -3118,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>242</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" ht="22" customHeight="true" outlineLevel="1">
@@ -3128,13 +3140,19 @@
       <c r="C217" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D217" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="218" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B218" s="8" t="s">
+      <c r="D217" s="12" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="218" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B218" s="9" t="s">
         <v>221</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="11" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="219" ht="22" customHeight="true" outlineLevel="1">
@@ -3145,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>990</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" ht="22" customHeight="true" outlineLevel="1">
@@ -3155,29 +3173,67 @@
       <c r="C220" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="12" t="n">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="221" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D220" s="11" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="221" ht="22" customHeight="true" outlineLevel="1">
       <c r="B221" s="9" t="s">
         <v>224</v>
       </c>
       <c r="C221" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D221" s="12" t="n">
+      <c r="D221" s="11" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="222" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B222" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B223" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="11" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="224" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B224" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="12" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B225" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="12" t="n">
         <v>2290</v>
       </c>
     </row>
-    <row r="222" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B222" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="12" t="n">
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B226" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="12" t="n">
         <v>1495</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Картофель</t>
   </si>
   <si>
-    <t>Картофель фри "Фарм Фритес" 7 мм (2,5кг/2,52кг) кор. 5 шт</t>
-  </si>
-  <si>
     <t>Картофельное пюре "Фарм Фритес"  (2,5кг) кор. 4 шт</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
   </si>
   <si>
-    <t>Картофельные шарики с луком (ростисы) "Фарм Фритес" (2,5кг) кор. 4 шт.</t>
-  </si>
-  <si>
     <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
   </si>
   <si>
@@ -220,18 +214,15 @@
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
-    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
-  </si>
-  <si>
-    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 2 кг, 1/6</t>
-  </si>
-  <si>
     <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
   </si>
   <si>
     <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
   </si>
   <si>
+    <t>Приправа дашида со вкусом говядины, 500 г</t>
+  </si>
+  <si>
     <t>Сироп кукурузный 700г 1/20 т.м. DAESANG</t>
   </si>
   <si>
@@ -286,9 +277,6 @@
     <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
   </si>
   <si>
-    <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
-  </si>
-  <si>
     <t>Салат крабовый (опилио)</t>
   </si>
   <si>
@@ -337,12 +325,6 @@
     <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
   </si>
   <si>
-    <t>Креветка тигровая очищ  с/м 21/25, фас 1 кг</t>
-  </si>
-  <si>
-    <t>Креветки бланшированные, очищенные с хвостом 21/25 "RISMA"</t>
-  </si>
-  <si>
     <t>Масла</t>
   </si>
   <si>
@@ -412,9 +394,6 @@
     <t>Рисовая лапша 5мм AROY-D 454 г</t>
   </si>
   <si>
-    <t>Смесь темпурная OSHI уп/18 кг</t>
-  </si>
-  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
@@ -442,10 +421,7 @@
     <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
   </si>
   <si>
-    <t>Колбаса Пеперони в/к "Пикантная"</t>
-  </si>
-  <si>
-    <t>Колбаса Пепперони в/к, нарезка 500гр (МК ЭКО)</t>
+    <t>Колбаса Пепперони в/к "Пикантная"</t>
   </si>
   <si>
     <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
@@ -460,9 +436,6 @@
     <t>Растения и грибы</t>
   </si>
   <si>
-    <t>Бобы соевые в стручке "Эдамаме" ТМ Якимал 0,5 кг</t>
-  </si>
-  <si>
     <t>Бобы соевые очищенные "Эдамаме" ТМ Якимал 1 кг</t>
   </si>
   <si>
@@ -487,9 +460,6 @@
     <t>Лемонграсс сушеный резаный, 300 гр.</t>
   </si>
   <si>
-    <t>Листья бамбука маринованные, (5*21см), 100шт*30, Китай</t>
-  </si>
-  <si>
     <t>Лук жареный 1 кг/уп</t>
   </si>
   <si>
@@ -523,7 +493,7 @@
     <t>Сибас, целый, 300-400г, Турция</t>
   </si>
   <si>
-    <t>Форель ПБГ (6-9) Турция</t>
+    <t>Форель ПБГ (2,7- 4,1кг ) Турция</t>
   </si>
   <si>
     <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
@@ -550,9 +520,6 @@
     <t>Филе тилапии 5-7 Китай</t>
   </si>
   <si>
-    <t>Филе тунца желтоперого с/м САКУ А (150-350г+) КНР</t>
-  </si>
-  <si>
     <t>Филе тунца желтоперого с/м САКУ АА (300-600г) Вьетнам</t>
   </si>
   <si>
@@ -595,9 +562,6 @@
     <t>Соевый соус "Yakimal", 20л</t>
   </si>
   <si>
-    <t>Соевый соус Padam Premium 1/18л, Китай</t>
-  </si>
-  <si>
     <t>Соевый соус Padam, 18л, Китай</t>
   </si>
   <si>
@@ -658,7 +622,7 @@
     <t>Соус Терияки, 1.5л, Genso Россия</t>
   </si>
   <si>
-    <t>Соус Терияки, Tamaki 1 уп/1,8 л.</t>
+    <t>Соус Терияки, ASA, 1,8л</t>
   </si>
   <si>
     <t>Соус Унаги ASA, 1.8</t>
@@ -901,7 +865,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D226"/>
+  <dimension ref="D214"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1177,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>650</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="1">
@@ -1406,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="11" t="n">
-        <v>785</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="true" outlineLevel="1">
@@ -1417,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="true" outlineLevel="1">
@@ -1428,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="11" t="n">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="true" outlineLevel="1">
@@ -1439,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>785</v>
+        <v>715</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true" outlineLevel="1">
@@ -1450,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="55" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1466,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" ht="33" customHeight="true" outlineLevel="1">
       <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
@@ -1477,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="11" t="n">
-        <v>656</v>
+        <v>720</v>
       </c>
     </row>
     <row r="58" ht="33" customHeight="true" outlineLevel="1">
@@ -1488,10 +1452,10 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="59" ht="33" customHeight="true" outlineLevel="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true" outlineLevel="1">
       <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
@@ -1499,10 +1463,10 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="60" ht="33" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true" outlineLevel="1">
       <c r="B60" s="9" t="s">
         <v>61</v>
       </c>
@@ -1510,18 +1474,12 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B61" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B61" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>720</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1532,12 +1490,18 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="63" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B63" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B63" s="9" t="s">
         <v>64</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="11" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1548,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1559,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>730</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1570,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>950</v>
+        <v>590</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1581,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1592,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>160</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true" outlineLevel="1">
@@ -1603,18 +1567,12 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="70" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B70" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B70" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="11" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1622,37 +1580,43 @@
         <v>72</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>279</v>
+        <v>73</v>
+      </c>
+      <c r="D71" s="12" t="n">
+        <v>1530</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B73" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D72" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B73" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="12" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="12" t="n">
-        <v>1550</v>
+        <v>73</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1660,10 +1624,10 @@
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="12" t="n">
-        <v>2000</v>
+        <v>73</v>
+      </c>
+      <c r="D75" s="11" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1671,10 +1635,10 @@
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="12" t="n">
-        <v>2500</v>
+        <v>73</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1682,32 +1646,32 @@
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="78" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" ht="33" customHeight="true" outlineLevel="1">
       <c r="B78" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="79" ht="22" customHeight="true" outlineLevel="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="B79" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>820</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1715,13 +1679,13 @@
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" ht="33" customHeight="true" outlineLevel="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
@@ -1729,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>315</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
@@ -1737,10 +1701,10 @@
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="11" t="n">
-        <v>435</v>
+        <v>73</v>
+      </c>
+      <c r="D82" s="12" t="n">
+        <v>1450</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="true" outlineLevel="1">
@@ -1748,21 +1712,21 @@
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D83" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>262</v>
+        <v>73</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1770,70 +1734,64 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B86" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="12" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="86" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B86" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" s="12" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="88" ht="11" customHeight="true" outlineLevel="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="88" ht="22" customHeight="true" outlineLevel="1">
       <c r="B88" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D88" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B89" s="9" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="89" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="12" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="90" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B90" s="8" t="s">
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C90" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91" s="12" t="n">
-        <v>1050</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1841,7 +1799,7 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D92" s="12" t="n">
         <v>1150</v>
@@ -1852,15 +1810,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" ht="22" customHeight="true" outlineLevel="1">
+    <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="12" t="n">
-        <v>1000</v>
+        <v>73</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1868,135 +1826,135 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D95" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="96" ht="22" customHeight="true" outlineLevel="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="12" t="n">
+        <v>73</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="97" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B97" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="12" t="n">
         <v>1150</v>
       </c>
     </row>
-    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B97" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B98" s="9" t="s">
+    <row r="98" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B98" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D98" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="99" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D99" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" ht="33" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D100" s="11" t="n">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D101" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B102" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="12" t="n">
-        <v>1150</v>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="102" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B102" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B104" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D103" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B104" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" ht="22" customHeight="true" outlineLevel="1">
       <c r="B105" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B106" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="11" t="n">
-        <v>353</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B106" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="B107" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="108" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B108" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="11" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B108" s="9" t="s">
         <v>111</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true" outlineLevel="1">
@@ -2007,10 +1965,10 @@
         <v>5</v>
       </c>
       <c r="D109" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" ht="22" customHeight="true" outlineLevel="1">
       <c r="B110" s="9" t="s">
         <v>113</v>
       </c>
@@ -2018,10 +1976,10 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
         <v>114</v>
       </c>
@@ -2029,12 +1987,18 @@
         <v>5</v>
       </c>
       <c r="D111" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B112" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B112" s="9" t="s">
         <v>115</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
@@ -2045,10 +2009,10 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
         <v>117</v>
       </c>
@@ -2056,10 +2020,10 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
@@ -2067,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>268</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="true" outlineLevel="1">
@@ -2078,10 +2042,10 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" ht="22" customHeight="true" outlineLevel="1">
       <c r="B117" s="9" t="s">
         <v>120</v>
       </c>
@@ -2089,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" ht="22" customHeight="true" outlineLevel="1">
       <c r="B118" s="9" t="s">
         <v>121</v>
       </c>
@@ -2100,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>62</v>
+        <v>816</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
@@ -2111,10 +2075,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" ht="33" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2122,10 +2086,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" ht="22" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2133,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="true" outlineLevel="1">
@@ -2144,21 +2108,15 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B123" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B123" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2166,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>816</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
@@ -2177,32 +2135,32 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="12" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="127" ht="33" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D126" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="128" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" ht="33" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2210,26 +2168,32 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B130" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="130" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C130" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="131" ht="33" customHeight="true" outlineLevel="1">
       <c r="B131" s="9" t="s">
         <v>134</v>
       </c>
@@ -2237,10 +2201,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2248,54 +2212,48 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B133" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="133" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B133" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D133" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="134" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="135" ht="33" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D135" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="137" ht="22" customHeight="true" outlineLevel="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
@@ -2303,29 +2261,29 @@
         <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="138" ht="33" customHeight="true" outlineLevel="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="139" ht="33" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D138" s="11" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>820</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="true" outlineLevel="1">
@@ -2336,15 +2294,21 @@
         <v>5</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="141" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B141" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="142" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C141" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="11" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
@@ -2352,84 +2316,72 @@
         <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" ht="22" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B144" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B144" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D144" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D145" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="146" ht="22" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B147" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B147" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D147" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="148" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="149" ht="22" customHeight="true" outlineLevel="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
@@ -2437,21 +2389,21 @@
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="151" ht="22" customHeight="true" outlineLevel="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="11" t="n">
-        <v>240</v>
+        <v>73</v>
+      </c>
+      <c r="D151" s="12" t="n">
+        <v>1670</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
@@ -2459,10 +2411,10 @@
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
@@ -2470,10 +2422,10 @@
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D153" s="11" t="n">
-        <v>280</v>
+        <v>73</v>
+      </c>
+      <c r="D153" s="12" t="n">
+        <v>1260</v>
       </c>
     </row>
     <row r="154" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2481,15 +2433,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" ht="11" customHeight="true" outlineLevel="1">
+    <row r="155" ht="22" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="12" t="n">
-        <v>3500</v>
+      <c r="D155" s="11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="156" ht="22" customHeight="true" outlineLevel="1">
@@ -2497,37 +2449,43 @@
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="157" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B157" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="157" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="158" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C157" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D157" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="158" ht="22" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D158" s="11" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D158" s="12" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="159" ht="22" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>360</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
@@ -2535,10 +2493,10 @@
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>870</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="1">
@@ -2546,48 +2504,54 @@
         <v>164</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D161" s="12" t="n">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D161" s="11" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D162" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D162" s="12" t="n">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D163" s="12" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="164" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B164" s="8" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="164" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B164" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C164" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D164" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="165" ht="11" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="11" t="n">
-        <v>965</v>
+        <v>73</v>
+      </c>
+      <c r="D165" s="12" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
@@ -2595,32 +2559,26 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D166" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D166" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D167" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="168" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B168" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D167" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B168" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D168" s="12" t="n">
-        <v>2200</v>
       </c>
     </row>
     <row r="169" ht="22" customHeight="true" outlineLevel="1">
@@ -2628,32 +2586,32 @@
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D169" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D169" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="170" ht="33" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="1">
+        <v>73</v>
+      </c>
+      <c r="D170" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="171" ht="22" customHeight="true" outlineLevel="1">
       <c r="B171" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D171" s="11" t="n">
-        <v>760</v>
+        <v>73</v>
+      </c>
+      <c r="D171" s="12" t="n">
+        <v>1670</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
@@ -2661,43 +2619,37 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D172" s="12" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="173" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B173" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="173" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B173" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C173" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D173" s="12" t="n">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="174" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="174" ht="11" customHeight="true" outlineLevel="1">
       <c r="B174" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D174" s="12" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D174" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D175" s="11" t="n">
-        <v>860</v>
+        <v>5</v>
+      </c>
+      <c r="D175" s="12" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="1">
@@ -2705,21 +2657,21 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D176" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="177" ht="22" customHeight="true" outlineLevel="1">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D177" s="12" t="n">
-        <v>1670</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
@@ -2727,15 +2679,21 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D178" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B179" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B179" s="9" t="s">
         <v>182</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="true" outlineLevel="1">
@@ -2746,45 +2704,51 @@
         <v>5</v>
       </c>
       <c r="D180" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="181" ht="33" customHeight="true" outlineLevel="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D181" s="12" t="n">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="182" ht="11" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D182" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="183" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D182" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="183" ht="11" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="184" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B184" s="8" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B184" s="9" t="s">
         <v>187</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="185" ht="11" customHeight="true" outlineLevel="1">
@@ -2794,19 +2758,13 @@
       <c r="C185" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="186" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B186" s="9" t="s">
+      <c r="D185" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="186" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B186" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186" s="12" t="n">
-        <v>1800</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2816,11 +2774,11 @@
       <c r="C187" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D187" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="188" ht="22" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
@@ -2828,7 +2786,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>3050</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="1">
@@ -2838,8 +2796,8 @@
       <c r="C189" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="12" t="n">
-        <v>2000</v>
+      <c r="D189" s="11" t="n">
+        <v>770</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="1">
@@ -2849,8 +2807,8 @@
       <c r="C190" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="12" t="n">
-        <v>1700</v>
+      <c r="D190" s="11" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="1">
@@ -2860,30 +2818,30 @@
       <c r="C191" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D191" s="11" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="192" ht="11" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="12" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="193" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D192" s="11" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193" ht="22" customHeight="true" outlineLevel="1">
       <c r="B193" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="12" t="n">
-        <v>2300</v>
+      <c r="D193" s="11" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="1">
@@ -2894,7 +2852,7 @@
         <v>5</v>
       </c>
       <c r="D194" s="11" t="n">
-        <v>115</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="1">
@@ -2904,8 +2862,8 @@
       <c r="C195" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="12" t="n">
-        <v>1600</v>
+      <c r="D195" s="11" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="1">
@@ -2915,8 +2873,8 @@
       <c r="C196" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="12" t="n">
-        <v>1600</v>
+      <c r="D196" s="11" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
@@ -2926,16 +2884,22 @@
       <c r="C197" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="198" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B198" s="8" t="s">
+      <c r="D197" s="11" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="199" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C198" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="11" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="199" ht="11" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
@@ -2943,21 +2907,21 @@
         <v>5</v>
       </c>
       <c r="D199" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="200" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="200" ht="11" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="201" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D200" s="11" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="201" ht="22" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
@@ -2965,7 +2929,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="11" t="n">
-        <v>770</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -2976,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>800</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -2987,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>660</v>
+        <v>858</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -2998,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="11" t="n">
-        <v>170</v>
+        <v>545</v>
       </c>
     </row>
     <row r="205" ht="22" customHeight="true" outlineLevel="1">
@@ -3008,11 +2972,11 @@
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="11" t="n">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D205" s="12" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="206" ht="22" customHeight="true" outlineLevel="1">
       <c r="B206" s="9" t="s">
         <v>209</v>
       </c>
@@ -3020,10 +2984,10 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" ht="22" customHeight="true" outlineLevel="1">
       <c r="B207" s="9" t="s">
         <v>210</v>
       </c>
@@ -3031,10 +2995,10 @@
         <v>5</v>
       </c>
       <c r="D207" s="11" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
@@ -3042,10 +3006,10 @@
         <v>5</v>
       </c>
       <c r="D208" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
@@ -3053,21 +3017,15 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B210" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="210" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B210" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="211" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="211" ht="22" customHeight="true" outlineLevel="1">
       <c r="B211" s="9" t="s">
         <v>214</v>
       </c>
@@ -3075,165 +3033,39 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="212" ht="11" customHeight="true" outlineLevel="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="212" ht="22" customHeight="true" outlineLevel="1">
       <c r="B212" s="9" t="s">
         <v>215</v>
       </c>
       <c r="C212" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="213" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D212" s="12" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="213" ht="11" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
       <c r="C213" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="214" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D213" s="12" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="214" ht="22" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C214" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D214" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="215" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B215" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D215" s="11" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="216" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B216" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D216" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="217" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B217" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D217" s="12" t="n">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="218" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B218" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="219" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B219" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D219" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="220" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B220" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="221" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B221" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="222" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B222" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B223" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="224" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B224" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="12" t="n">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B225" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D225" s="12" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B226" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226" s="12" t="n">
+      <c r="D214" s="12" t="n">
         <v>1495</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -109,6 +109,9 @@
     <t>Рыбный бульон "Хондаши"</t>
   </si>
   <si>
+    <t>Соус сырный HAINZ 1 кг</t>
+  </si>
+  <si>
     <t>Стружка тунца Бонито, уп.500г.</t>
   </si>
   <si>
@@ -121,7 +124,7 @@
     <t>Водоросли Комбу, Китай</t>
   </si>
   <si>
-    <t>Водоросли Нори "RISMA" Премиум 100л</t>
+    <t>Водоросли нори "Risma" 100л, Китай</t>
   </si>
   <si>
     <t>Водоросли Нори Голд, 100л, 300г, Китай</t>
@@ -136,6 +139,9 @@
     <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
   </si>
   <si>
+    <t>Горчичный порошок васаби "OSHI Премиум"</t>
+  </si>
+  <si>
     <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>Картофельные дольки в кожуре "Маккейн" со специями  (2,5 кг) упак. 4шт/ кор.</t>
   </si>
   <si>
+    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
+  </si>
+  <si>
     <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
   </si>
   <si>
@@ -211,9 +220,33 @@
     <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
   </si>
   <si>
+    <t>Колбасы</t>
+  </si>
+  <si>
+    <t>Вяленая классик с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
+    <t>Итальяно с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
+    <t>Колбаса Кантри с ароматом перца халапеньо с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Фуэт с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
+    <t>Обжаренные соленые листья порфиры Долким 80 г 1/20</t>
+  </si>
+  <si>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
+  </si>
+  <si>
     <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
   </si>
   <si>
@@ -232,6 +265,9 @@
     <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
   </si>
   <si>
+    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
+  </si>
+  <si>
     <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
   </si>
   <si>
@@ -358,9 +394,6 @@
     <t>Бумага рисовая "AROY-D" 22см, 454 гр.</t>
   </si>
   <si>
-    <t>Вермишель из батата 500 г 1/20 т.м. СингСонг</t>
-  </si>
-  <si>
     <t>Вермишель крахмальная Харусаме "Kekeshi" резаная, Китай, 0,5кг</t>
   </si>
   <si>
@@ -394,6 +427,9 @@
     <t>Рисовая лапша 5мм AROY-D 454 г</t>
   </si>
   <si>
+    <t>Смесь темпурная OSHI уп/18 кг</t>
+  </si>
+  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
@@ -463,6 +499,9 @@
     <t>Лук жареный 1 кг/уп</t>
   </si>
   <si>
+    <t>Редька маринованная Hikari 0,6 кг, Китай</t>
+  </si>
+  <si>
     <t>Салат из водорослей "Чука" </t>
   </si>
   <si>
@@ -484,7 +523,7 @@
     <t>Корюшка н/р, дальневосточная</t>
   </si>
   <si>
-    <t>Палтус с/м, размер L, Россия</t>
+    <t>Палтус с/м, размер М, Россия</t>
   </si>
   <si>
     <t>Семга ПСГ, р/вес, Premium, 5-6 кг, Чили</t>
@@ -601,9 +640,6 @@
     <t>Соус Ворчестер (Вустерский) 4л/шт HEINZ</t>
   </si>
   <si>
-    <t>Соус Кимчи "ASA", 1,8л, Китай</t>
-  </si>
-  <si>
     <t>Соус Кимчи, 1,8л, 2,2 кг вес, Китай</t>
   </si>
   <si>
@@ -620,9 +656,6 @@
   </si>
   <si>
     <t>Соус Терияки, 1.5л, Genso Россия</t>
-  </si>
-  <si>
-    <t>Соус Терияки, ASA, 1,8л</t>
   </si>
   <si>
     <t>Соус Унаги ASA, 1.8</t>
@@ -865,7 +898,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D214"/>
+  <dimension ref="D225"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1151,24 +1184,24 @@
       <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="11" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12" t="n">
         <v>1460</v>
       </c>
     </row>
-    <row r="29" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B29" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B30" s="9" t="s">
+    <row r="30" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B30" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="11" t="n">
-        <v>900</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="1">
@@ -1178,19 +1211,19 @@
       <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="32" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D31" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true" outlineLevel="1">
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="11" t="n">
-        <v>760</v>
+      <c r="D32" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
@@ -1201,10 +1234,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="34" ht="22" customHeight="true" outlineLevel="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
       <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
@@ -1212,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>870</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="true" outlineLevel="1">
@@ -1223,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>425</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="true" outlineLevel="1">
@@ -1234,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>765</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="true" outlineLevel="1">
@@ -1245,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="11" t="n">
-        <v>700</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="true" outlineLevel="1">
@@ -1256,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="true" outlineLevel="1">
@@ -1267,15 +1300,21 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B40" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="11" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" ht="22" customHeight="true" outlineLevel="1">
       <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
@@ -1283,18 +1322,12 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B42" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B42" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="1">
@@ -1305,64 +1338,70 @@
         <v>5</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B44" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="11" t="n">
+    </row>
+    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B47" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="11" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="46" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="11" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B47" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+    <row r="48" ht="22" customHeight="true" outlineLevel="1">
       <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B49" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B49" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="B50" s="9" t="s">
         <v>51</v>
       </c>
@@ -1370,18 +1409,12 @@
         <v>5</v>
       </c>
       <c r="D50" s="11" t="n">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B51" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B51" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>715</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="true" outlineLevel="1">
@@ -1417,9 +1450,15 @@
         <v>715</v>
       </c>
     </row>
-    <row r="55" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B55" s="8" t="s">
+    <row r="55" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B55" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="11" t="n">
+        <v>715</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
@@ -1430,21 +1469,15 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="57" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B57" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B57" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="58" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="58" ht="22" customHeight="true" outlineLevel="1">
       <c r="B58" s="9" t="s">
         <v>59</v>
       </c>
@@ -1452,10 +1485,10 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="59" ht="22" customHeight="true" outlineLevel="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="59" ht="33" customHeight="true" outlineLevel="1">
       <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
@@ -1474,12 +1507,18 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="61" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B61" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="61" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B61" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1490,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>950</v>
+        <v>720</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1501,21 +1540,15 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="64" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B64" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B64" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="65" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="B65" s="9" t="s">
         <v>66</v>
       </c>
@@ -1523,10 +1556,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" ht="22" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true" outlineLevel="1">
       <c r="B66" s="9" t="s">
         <v>67</v>
       </c>
@@ -1534,10 +1567,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="67" ht="22" customHeight="true" outlineLevel="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true" outlineLevel="1">
       <c r="B67" s="9" t="s">
         <v>68</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>280</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1556,10 +1589,10 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" ht="22" customHeight="true" outlineLevel="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true" outlineLevel="1">
       <c r="B69" s="9" t="s">
         <v>70</v>
       </c>
@@ -1567,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>279</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1580,153 +1613,147 @@
         <v>72</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="12" t="n">
-        <v>1530</v>
+        <v>5</v>
+      </c>
+      <c r="D71" s="11" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="12" t="n">
-        <v>2000</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="12" t="n">
-        <v>2500</v>
+        <v>5</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>950</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
       <c r="B75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
       <c r="B76" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>820</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
       <c r="B77" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B78" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B78" s="9" t="s">
+      <c r="C78" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B79" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="11" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B79" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="C79" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>435</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
       <c r="B80" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>990</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="11" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B82" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B82" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="12" t="n">
-        <v>1450</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="true" outlineLevel="1">
       <c r="B83" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D83" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D84" s="12" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1734,26 +1761,32 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D85" s="12" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="86" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B86" s="8" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B86" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C86" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" ht="22" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="12" t="n">
-        <v>1050</v>
+        <v>85</v>
+      </c>
+      <c r="D87" s="11" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1761,37 +1794,43 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="89" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B89" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="89" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C89" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="11" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" ht="33" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D90" s="11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="12" t="n">
-        <v>1150</v>
+        <v>85</v>
+      </c>
+      <c r="D91" s="11" t="n">
+        <v>435</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1799,15 +1838,21 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="93" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B93" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B93" s="9" t="s">
         <v>95</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="11" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
@@ -1815,10 +1860,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" s="11" t="n">
-        <v>900</v>
+        <v>85</v>
+      </c>
+      <c r="D94" s="12" t="n">
+        <v>1450</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1826,10 +1871,10 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D95" s="12" t="n">
-        <v>1050</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
@@ -1837,10 +1882,10 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D96" s="11" t="n">
-        <v>815</v>
+        <v>85</v>
+      </c>
+      <c r="D96" s="12" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="97" ht="22" customHeight="true" outlineLevel="1">
@@ -1848,10 +1893,10 @@
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D97" s="12" t="n">
-        <v>1150</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="98" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1864,166 +1909,154 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" ht="33" customHeight="true" outlineLevel="1">
+        <v>85</v>
+      </c>
+      <c r="D99" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="11" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B101" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B101" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="10" t="s">
+    </row>
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="102" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B102" s="8" t="s">
-        <v>105</v>
+      <c r="C102" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="104" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B104" s="9" t="s">
+      <c r="C104" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B105" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="105" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B105" s="9" t="s">
+    </row>
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B106" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B106" s="8" t="s">
+      <c r="C106" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="107" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B107" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B107" s="9" t="s">
+      <c r="C107" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B108" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="108" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B108" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="C108" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D108" s="11" t="n">
-        <v>235</v>
+        <v>815</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true" outlineLevel="1">
       <c r="B109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="110" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B110" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="110" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B110" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="11" t="n">
-        <v>312</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B112" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B112" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="C112" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>62</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B114" s="9" t="s">
+      <c r="D113" s="12" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B114" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
@@ -2031,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
         <v>119</v>
       </c>
@@ -2042,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>168</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="true" outlineLevel="1">
@@ -2053,18 +2086,12 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B118" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B118" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="11" t="n">
-        <v>816</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
@@ -2075,10 +2102,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" ht="33" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" ht="22" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2086,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="true" outlineLevel="1">
@@ -2097,10 +2124,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2108,12 +2135,18 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B123" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B123" s="9" t="s">
         <v>126</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="11" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
@@ -2124,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>295</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
@@ -2135,32 +2168,32 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" ht="22" customHeight="true" outlineLevel="1">
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="128" ht="33" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" ht="22" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2168,43 +2201,43 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="130" ht="33" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="131" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D130" s="11" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="B131" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D131" s="12" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="132" ht="33" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2212,12 +2245,18 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="133" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B133" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B133" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="11" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="true" outlineLevel="1">
@@ -2225,24 +2264,18 @@
         <v>137</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B135" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B135" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D135" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
@@ -2250,7 +2283,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>180</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
@@ -2261,32 +2294,32 @@
         <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" ht="22" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" ht="33" customHeight="true" outlineLevel="1">
       <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
@@ -2294,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>420</v>
+        <v>950</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="1">
@@ -2302,48 +2335,48 @@
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="142" ht="33" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D142" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="143" ht="33" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="144" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B144" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="144" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B145" s="9" t="s">
+      <c r="C144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="11" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="145" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B145" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="12" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="146" ht="22" customHeight="true" outlineLevel="1">
@@ -2351,26 +2384,32 @@
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B147" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C147" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
@@ -2378,10 +2417,10 @@
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
@@ -2389,32 +2428,32 @@
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" ht="22" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D151" s="12" t="n">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="152" ht="11" customHeight="true" outlineLevel="1">
+        <v>85</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="152" ht="22" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>650</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
@@ -2422,15 +2461,21 @@
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D153" s="12" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="154" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B154" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="11" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B154" s="9" t="s">
         <v>157</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="11" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="155" ht="22" customHeight="true" outlineLevel="1">
@@ -2441,40 +2486,34 @@
         <v>5</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="156" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" ht="11" customHeight="true" outlineLevel="1">
       <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="157" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B157" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="157" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B157" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D157" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="158" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D158" s="12" t="n">
-        <v>2100</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="159" ht="22" customHeight="true" outlineLevel="1">
@@ -2482,21 +2521,15 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B160" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B160" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="11" t="n">
-        <v>295</v>
       </c>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="1">
@@ -2504,43 +2537,43 @@
         <v>164</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D162" s="12" t="n">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
+        <v>85</v>
+      </c>
+      <c r="D162" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D163" s="12" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="164" ht="22" customHeight="true" outlineLevel="1">
+        <v>85</v>
+      </c>
+      <c r="D163" s="11" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="B164" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D164" s="11" t="n">
-        <v>860</v>
+        <v>85</v>
+      </c>
+      <c r="D164" s="12" t="n">
+        <v>1670</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="1">
@@ -2548,37 +2581,37 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D165" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="166" ht="22" customHeight="true" outlineLevel="1">
+        <v>85</v>
+      </c>
+      <c r="D165" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" ht="11" customHeight="true" outlineLevel="1">
       <c r="B166" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D166" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B167" s="9" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="167" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B167" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D167" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="168" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B168" s="8" t="s">
+    </row>
+    <row r="168" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B168" s="9" t="s">
         <v>171</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="169" ht="22" customHeight="true" outlineLevel="1">
@@ -2586,21 +2619,21 @@
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="170" ht="33" customHeight="true" outlineLevel="1">
+        <v>85</v>
+      </c>
+      <c r="D169" s="11" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D170" s="12" t="n">
-        <v>1420</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="171" ht="22" customHeight="true" outlineLevel="1">
@@ -2608,10 +2641,10 @@
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D171" s="12" t="n">
-        <v>1670</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
@@ -2619,15 +2652,21 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D172" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="173" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B173" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B173" s="9" t="s">
         <v>176</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="11" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="1">
@@ -2635,43 +2674,43 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D174" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D175" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="176" ht="22" customHeight="true" outlineLevel="1">
       <c r="B176" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D176" s="12" t="n">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="12" t="n">
-        <v>2000</v>
+        <v>85</v>
+      </c>
+      <c r="D177" s="11" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
@@ -2679,87 +2718,81 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D178" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="179" ht="22" customHeight="true" outlineLevel="1">
       <c r="B179" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D179" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="180" ht="22" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="180" ht="11" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="12" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B181" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D180" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="181" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B181" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C181" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D182" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="183" ht="33" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D184" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="185" ht="11" customHeight="true" outlineLevel="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="185" ht="22" customHeight="true" outlineLevel="1">
       <c r="B185" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1700</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="186" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2767,7 +2800,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" ht="22" customHeight="true" outlineLevel="1">
+    <row r="187" ht="11" customHeight="true" outlineLevel="1">
       <c r="B187" s="9" t="s">
         <v>190</v>
       </c>
@@ -2775,10 +2808,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="188" ht="22" customHeight="true" outlineLevel="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="188" ht="11" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
@@ -2786,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>1140</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="1">
@@ -2796,8 +2829,8 @@
       <c r="C189" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="11" t="n">
-        <v>770</v>
+      <c r="D189" s="12" t="n">
+        <v>3050</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="1">
@@ -2807,8 +2840,8 @@
       <c r="C190" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D190" s="11" t="n">
-        <v>800</v>
+      <c r="D190" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="1">
@@ -2818,8 +2851,8 @@
       <c r="C191" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="11" t="n">
-        <v>660</v>
+      <c r="D191" s="12" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="1">
@@ -2829,8 +2862,8 @@
       <c r="C192" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="11" t="n">
-        <v>170</v>
+      <c r="D192" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
@@ -2840,8 +2873,8 @@
       <c r="C193" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="11" t="n">
-        <v>388</v>
+      <c r="D193" s="12" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="1">
@@ -2851,8 +2884,8 @@
       <c r="C194" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D194" s="11" t="n">
-        <v>450</v>
+      <c r="D194" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="1">
@@ -2863,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="D195" s="11" t="n">
-        <v>390</v>
+        <v>115</v>
       </c>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="1">
@@ -2873,8 +2906,8 @@
       <c r="C196" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="11" t="n">
-        <v>500</v>
+      <c r="D196" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
@@ -2884,8 +2917,8 @@
       <c r="C197" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="11" t="n">
-        <v>530</v>
+      <c r="D197" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
@@ -2895,22 +2928,16 @@
       <c r="C198" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B199" s="9" t="s">
+      <c r="D198" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="199" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B199" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D199" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="200" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="200" ht="22" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
@@ -2918,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="11" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
     </row>
     <row r="201" ht="22" customHeight="true" outlineLevel="1">
@@ -2928,8 +2955,8 @@
       <c r="C201" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="11" t="n">
-        <v>210</v>
+      <c r="D201" s="12" t="n">
+        <v>1140</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -2940,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="11" t="n">
-        <v>265</v>
+        <v>800</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -2951,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>858</v>
+        <v>660</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -2962,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="11" t="n">
-        <v>545</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" ht="22" customHeight="true" outlineLevel="1">
@@ -2972,11 +2999,11 @@
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="12" t="n">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="206" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D205" s="11" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="206" ht="11" customHeight="true" outlineLevel="1">
       <c r="B206" s="9" t="s">
         <v>209</v>
       </c>
@@ -2984,10 +3011,10 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="207" ht="22" customHeight="true" outlineLevel="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
       <c r="B207" s="9" t="s">
         <v>210</v>
       </c>
@@ -2995,10 +3022,10 @@
         <v>5</v>
       </c>
       <c r="D207" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="208" ht="22" customHeight="true" outlineLevel="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
       <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
@@ -3006,10 +3033,10 @@
         <v>5</v>
       </c>
       <c r="D208" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
@@ -3017,15 +3044,21 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="210" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B210" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="211" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C210" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="211" ht="11" customHeight="true" outlineLevel="1">
       <c r="B211" s="9" t="s">
         <v>214</v>
       </c>
@@ -3033,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>990</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" ht="22" customHeight="true" outlineLevel="1">
@@ -3043,8 +3076,8 @@
       <c r="C212" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="12" t="n">
-        <v>2100</v>
+      <c r="D212" s="11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3054,18 +3087,133 @@
       <c r="C213" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="12" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D213" s="11" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C214" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D214" s="12" t="n">
+      <c r="D214" s="11" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B215" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="11" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="216" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B216" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="12" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="217" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B217" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B218" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="219" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B219" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="11" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B220" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="11" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="221" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B221" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B222" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="11" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B223" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B224" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="12" t="n">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B225" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="12" t="n">
         <v>1495</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -49,6 +49,12 @@
     <t>Каперсы с уксусом "Antica Napoli" (720 мл/0,700кг) Турция, упак 6 шт</t>
   </si>
   <si>
+    <t>Лимонад газированный Дюшес ЧЕРНОГОЛОВКА, ПЭТ 0,5</t>
+  </si>
+  <si>
+    <t>Лимонад газированный Кола ЧЕРНОГОЛОВКА, ПЭТ 0,5</t>
+  </si>
+  <si>
     <t>Маслины Alisa резаные (3,000 кг) ж/б, Испания</t>
   </si>
   <si>
@@ -82,580 +88,604 @@
     <t>Бульоны. Основы для супов. Приправа</t>
   </si>
   <si>
+    <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста мисо, темная, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
+  </si>
+  <si>
+    <t>Паста Том Ям CHANG, Таиланд, 400г</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 0,400гр. AROY- D, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 1 кг AROY- D, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
+  </si>
+  <si>
+    <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
+  </si>
+  <si>
+    <t>Рыбный бульон "Хондаши"</t>
+  </si>
+  <si>
+    <t>Стружка тунца Бонито, уп.500г.</t>
+  </si>
+  <si>
+    <t>Васаби. Водоросли</t>
+  </si>
+  <si>
+    <t>Водоросли Комбу, Китай</t>
+  </si>
+  <si>
+    <t>Водоросли нори "Risma" 100л, Китай</t>
+  </si>
+  <si>
+    <t>Водоросли Нори Голд, 100л, 300г, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "OSHI Премиум"</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
+  </si>
+  <si>
+    <t>Вьетнамская кухня</t>
+  </si>
+  <si>
+    <t>Вермишель Бун (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Вьетнамская соль (190гр.) Вьетнам</t>
+  </si>
+  <si>
+    <t>Рисовая лапша (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Изделия из бамбука</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
+  </si>
+  <si>
+    <t>упак</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые, в наборе с зубочистками уп. 100шт</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 24*24 см</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 27*27 см</t>
+  </si>
+  <si>
+    <t>Икра</t>
+  </si>
+  <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" красная 500г 1/6 NEW</t>
+  </si>
+  <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
+  </si>
+  <si>
+    <t>Икра деликатесная Люкс "Масаго Амай" красная, 500г </t>
+  </si>
+  <si>
+    <t>Икра деликатесная Люкс "Масаго Амай" оранжевая, 500г </t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
+  </si>
+  <si>
+    <t>Картофель</t>
+  </si>
+  <si>
+    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
+  </si>
+  <si>
+    <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
+  </si>
+  <si>
+    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
+  </si>
+  <si>
+    <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
+  </si>
+  <si>
+    <t>Колбасы</t>
+  </si>
+  <si>
+    <t>Вяленая классик с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
+    <t>Итальяно с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
+    <t>Колбаса Кантри с ароматом перца халапеньо с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Фуэт с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Корейские пасты и соусы</t>
+  </si>
+  <si>
+    <t>Обжаренные соленые листья порфиры Долким 80 г 1/20</t>
+  </si>
+  <si>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
+  </si>
+  <si>
+    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
+  </si>
+  <si>
+    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
+  </si>
+  <si>
+    <t>Приправа дашида со вкусом говядины, 500 г</t>
+  </si>
+  <si>
+    <t>Сироп кукурузный 700г 1/20 т.м. DAESANG</t>
+  </si>
+  <si>
+    <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
+  </si>
+  <si>
+    <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Краб. Гребешок. Мидии. Кальмар</t>
+  </si>
+  <si>
+    <t>Гребешок курильский, размер М, с/м, Россия</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Гребешок Приморский, размер М, с/м, Россия</t>
+  </si>
+  <si>
+    <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
+  </si>
+  <si>
+    <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
+  </si>
+  <si>
+    <t>Мидии в раковинах (голубые) в/м 40/60, 1кг, Чили</t>
+  </si>
+  <si>
+    <t>Мидии зеленые в половинке раковины М (30-45шт), Новая Зеландия</t>
+  </si>
+  <si>
+    <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
+  </si>
+  <si>
+    <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
+  </si>
+  <si>
+    <t>Мясо мидии в/м н/ф (200-300) Чили</t>
+  </si>
+  <si>
+    <t>Осьминог целый очищ. 1/10 40-60 0,5кг, 8%, Китай</t>
+  </si>
+  <si>
+    <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
+  </si>
+  <si>
+    <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
+  </si>
+  <si>
+    <t>Салат крабовый (опилио)</t>
+  </si>
+  <si>
+    <t>Салат крабовый, Восточно-Сахалинская подзона</t>
+  </si>
+  <si>
+    <t>Салат крабовый, Приморская подзона</t>
+  </si>
+  <si>
+    <t>Креветка блочная</t>
+  </si>
+  <si>
+    <t>Креветка ваннамей с/м б/г очищ без вены, 41-50 , блок 1,7 кг, Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г в панцире 26/30 1.8кг (блок) Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка мелкая</t>
+  </si>
+  <si>
+    <t>Креветка 200/300, 7%, вар.зам.пошт."Стандарт" 1000г 1/6 р/р</t>
+  </si>
+  <si>
+    <t>Креветка ваннамей очищ с хвост, 41-50 ,кор 10 кг, навалом 7%, Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка очищенная в/м с хвостом (31-40), 7%, Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка россыпь</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г 26/30 уп.1 кг Индия</t>
+  </si>
+  <si>
+    <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
+  </si>
+  <si>
+    <t>Креветка с/м, б/г, 16/20, (Китай)</t>
+  </si>
+  <si>
+    <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
+  </si>
+  <si>
+    <t>Масла</t>
+  </si>
+  <si>
+    <t>Масло кунжутное, 0,42 л, Китай</t>
+  </si>
+  <si>
+    <t>Масло оливковое рафинированное Санса тз."La Espanola" пл.б 1л. кор. 15 шт</t>
+  </si>
+  <si>
+    <t>Масло фритюрное Печагин 1шт/5л</t>
+  </si>
+  <si>
+    <t>бут</t>
+  </si>
+  <si>
+    <t>Молочная продукция</t>
+  </si>
+  <si>
+    <t>Молоко кокосовое AROY-D, 0,5л. тетра пак</t>
+  </si>
+  <si>
+    <t>Молоко кокосовое AROY-D, 1л.</t>
+  </si>
+  <si>
+    <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
+  </si>
+  <si>
+    <t>Мучная продукция</t>
+  </si>
+  <si>
+    <t>Бумага рисовая "AROY-D" 22см, 454 гр.</t>
+  </si>
+  <si>
+    <t>Вермишель из батата 500 г 1/20 т.м. СингСонг</t>
+  </si>
+  <si>
+    <t>Вермишель крахмальная Харусаме "Kekeshi" резаная, Китай, 0,5кг</t>
+  </si>
+  <si>
+    <t>Куксу Пшеничная лапша 900 г 1/15 т.м. Оттоги</t>
+  </si>
+  <si>
+    <t>Лапша гречневая Соба, уп. 300г. Китай</t>
+  </si>
+  <si>
+    <t>Лапша пшеничная Удон, уп. 300г. Китай</t>
+  </si>
+  <si>
+    <t>Лапша Рамен яичная в брикетах 1кг</t>
+  </si>
+  <si>
+    <t>Лапша Сомен, уп. 300г. Китай</t>
+  </si>
+  <si>
+    <t>Лапша Яичная Kekeshi, Китай, 0,3кг</t>
+  </si>
+  <si>
+    <t>Макароны № 004 Спагетти "Дельверде" (0,500кг) кор 24 шт.</t>
+  </si>
+  <si>
+    <t>Макароны № 081 Феттучине "Дельверде" (0,250кг) кор. 12 шт.</t>
+  </si>
+  <si>
+    <t>Мука высшего сорта (СуперМука для пиццы) СТАНДАРТ, 10 кг/мешок</t>
+  </si>
+  <si>
+    <t>Рисовая лапша 5мм AROY-D 454 г</t>
+  </si>
+  <si>
+    <t>Смесь темпурная 1уп/1кг</t>
+  </si>
+  <si>
+    <t>Смесь темпурная OSHI уп/18 кг</t>
+  </si>
+  <si>
+    <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
+  </si>
+  <si>
+    <t>Сухари панировочные "Панко", 10кг, Россия</t>
+  </si>
+  <si>
+    <t>Сухари панировочные, Kaneshiro, уп. 1кг, Малайзия</t>
+  </si>
+  <si>
+    <t>Сухари панировочные, Kasho, уп. 1кг, Малайзия</t>
+  </si>
+  <si>
+    <t>Мясо и полуфабрикаты</t>
+  </si>
+  <si>
+    <t>Бекон Классический в/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
+    <t>Бекон с/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
+    <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
+  </si>
+  <si>
+    <t>Бекон с/к мясное ассорти № 4</t>
+  </si>
+  <si>
+    <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
+  </si>
+  <si>
+    <t>Колбаса Пепперони в/к "Пикантная"</t>
+  </si>
+  <si>
+    <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
+  </si>
+  <si>
+    <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
+  </si>
+  <si>
+    <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
+  </si>
+  <si>
+    <t>Растения и грибы</t>
+  </si>
+  <si>
+    <t>Бобы соевые очищенные "Эдамаме" ТМ Якимал 1 кг</t>
+  </si>
+  <si>
+    <t>Грибы шиитаке уп. 1кг, Китай</t>
+  </si>
+  <si>
+    <t>Имбирь маринованный, белый, уп. 1.5кг, Китай</t>
+  </si>
+  <si>
+    <t>Имбирь маринованный, розовый, Китай</t>
+  </si>
+  <si>
+    <t>Кунжут белый сырой, уп.1кг</t>
+  </si>
+  <si>
+    <t>Кунжут необжаренный, черный, уп. 1кг, Индия</t>
+  </si>
+  <si>
     <t>Лемонграсс сушеный HOM-D, ResFood, Таиланд, 100гр*30</t>
   </si>
   <si>
+    <t>Лемонграсс сушеный резаный, 300 гр.</t>
+  </si>
+  <si>
     <t>Листья каффир-лайма сушеные HOM-D, ResFood, Таиланд, 100гр*12   </t>
   </si>
   <si>
-    <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
-  </si>
-  <si>
-    <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста мисо, темная, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
-  </si>
-  <si>
-    <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
-  </si>
-  <si>
-    <t>Приправа рыбная Дашида- Анчоус 100г 1/40</t>
-  </si>
-  <si>
-    <t>Рыбный бульон "Хондаши"</t>
+    <t>Лук жареный 1 кг/уп</t>
+  </si>
+  <si>
+    <t>Редька маринованная Hikari 0,6 кг, Китай</t>
+  </si>
+  <si>
+    <t>Салат из водорослей "Чука" </t>
+  </si>
+  <si>
+    <t>Рис</t>
+  </si>
+  <si>
+    <t>Рис IKIGAI 22.68 кг</t>
+  </si>
+  <si>
+    <t>Рис Премиум, красный мешок 25 кг, Китай</t>
+  </si>
+  <si>
+    <t>Рис Премиум, мешок 25 кг, Китай</t>
+  </si>
+  <si>
+    <t>Рыба ПСГ, ПБГ, С/М</t>
+  </si>
+  <si>
+    <t>Дорадо н/р 300-400 Турция</t>
+  </si>
+  <si>
+    <t>Корюшка н/р, дальневосточная</t>
+  </si>
+  <si>
+    <t>Палтус с/м, размер М, Россия</t>
+  </si>
+  <si>
+    <t>Семга ПСГ, р/вес, Premium, 5-6 кг, Чили</t>
+  </si>
+  <si>
+    <t>Сибас, целый, 300-400г, Турция</t>
+  </si>
+  <si>
+    <t>Форель ПБГ (2,7- 4,1кг ) Турция</t>
+  </si>
+  <si>
+    <t>Форель радужная, 1,8-2,7кг, Турция</t>
+  </si>
+  <si>
+    <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
+  </si>
+  <si>
+    <t>Кларий угревидный жареный в соусе (5-10%), Россия</t>
+  </si>
+  <si>
+    <t>Окунь Изумидай 9-11 oz "RISMA" (Китай)</t>
+  </si>
+  <si>
+    <t>Угорь жарен в соусе 20% морож филе (13-14 унц), Китай</t>
+  </si>
+  <si>
+    <t>Угорь жареный, б/в (тех), морож филе, Китай</t>
+  </si>
+  <si>
+    <t>Филе тилапии 5-7 Китай</t>
+  </si>
+  <si>
+    <t>Филе тунца желтоперого с/м ЛОИН А 2кг+, КНР</t>
+  </si>
+  <si>
+    <t>Филе тунца желтоперого с/м САКУ АА (300-600г) Вьетнам</t>
+  </si>
+  <si>
+    <t>Филе тунца желтоперого СТЕЙК (100г+), уп. 0,5 кг</t>
+  </si>
+  <si>
+    <t>Филе тунца желтоперого СТЕЙК (50-100г), уп. 0,5 кг</t>
+  </si>
+  <si>
+    <t>Форель филе 0.6-1,5 кг с/м, Китай</t>
+  </si>
+  <si>
+    <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
+  </si>
+  <si>
+    <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
+  </si>
+  <si>
+    <t>Форель филе полуфабрикат для суши ( 600г-900г) с/с, в/у, Трим С, (Фуд Тим) </t>
+  </si>
+  <si>
+    <t>Форель филе полуфабрикат для суши 2% с/с, в/у, Трим С (Фуд Тим) Мурманск</t>
+  </si>
+  <si>
+    <t>Форель филе слабосол 5%, в/у, Трим С (Фуд Тим) Мурманск</t>
+  </si>
+  <si>
+    <t>Соевый соус. Уксус. Мирин</t>
+  </si>
+  <si>
+    <t>Соевый соус "Yakimal", 1л</t>
+  </si>
+  <si>
+    <t>Соевый соус "Yakimal", 20л</t>
+  </si>
+  <si>
+    <t>Соевый соус Padam, 18л, Китай</t>
+  </si>
+  <si>
+    <t>Соевый соус Tamaki Pro 1уп/20л</t>
+  </si>
+  <si>
+    <t>Соевый соус ТМ "Канимори", 20л</t>
+  </si>
+  <si>
+    <t>Соус "Мирин" ТМ "Yakimal" (ПРО), 18л</t>
+  </si>
+  <si>
+    <t>Соус рисовый Мирин "Padam", Россия, 20 л*1</t>
+  </si>
+  <si>
+    <t>Соус рисовый Мирин, Россия, 20 л*1</t>
+  </si>
+  <si>
+    <t>Уксус рисовый "Yakimal" 1л</t>
+  </si>
+  <si>
+    <t>Уксус рисовый ASA, 20л</t>
+  </si>
+  <si>
+    <t>Уксус рисовый Padam, Россия, 20л*1</t>
+  </si>
+  <si>
+    <t>Соусы паназиатские</t>
+  </si>
+  <si>
+    <t>Соус Ворчестер (Вустерский) 1ст.б/140 мл, Appel, Германия</t>
+  </si>
+  <si>
+    <t>Соус Ворчестер (Вустерский) 4л/шт HEINZ</t>
+  </si>
+  <si>
+    <t>Соус Гурмикс Барбекю, 1кг, Россия</t>
+  </si>
+  <si>
+    <t>Соус Кимчи Tamaki, 1,8л</t>
+  </si>
+  <si>
+    <t>Соус Кимчи, 1,8л, 2,2 кг вес, Китай</t>
+  </si>
+  <si>
+    <t>Соус ореховый TAMAKI Pro 1 уп/1.5л.</t>
+  </si>
+  <si>
+    <t>Соус Пад Тай 270г</t>
+  </si>
+  <si>
+    <t>Соус Рыбный AROY-D, 0,7л (0,84кг), ст/б</t>
   </si>
   <si>
     <t>Соус сырный HAINZ 1 кг</t>
   </si>
   <si>
-    <t>Стружка тунца Бонито, уп.500г.</t>
-  </si>
-  <si>
-    <t>Васаби. Водоросли</t>
-  </si>
-  <si>
-    <t>Водоросли Вакаме, уп 0,5кг, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли Комбу, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли нори "Risma" 100л, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли Нори Голд, 100л, 300г, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "OSHI Премиум"</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
-  </si>
-  <si>
-    <t>Вьетнамская кухня</t>
-  </si>
-  <si>
-    <t>Вермишель Бун (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Вьетнамская соль (190гр.) Вьетнам</t>
-  </si>
-  <si>
-    <t>Рисовая лапша (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Изделия из бамбука</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
-  </si>
-  <si>
-    <t>упак</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые, в наборе с зубочистками уп. 100шт</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 24*24 см</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 27*27 см</t>
-  </si>
-  <si>
-    <t>Икра</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
-  </si>
-  <si>
-    <t>Картофель</t>
-  </si>
-  <si>
-    <t>Картофельное пюре "Фарм Фритес"  (2,5кг) кор. 4 шт</t>
-  </si>
-  <si>
-    <t>Картофельные дольки в кожуре "Маккейн" со специями  (2,5 кг) упак. 4шт/ кор.</t>
-  </si>
-  <si>
-    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
-  </si>
-  <si>
-    <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
-  </si>
-  <si>
-    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
-    <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
-    <t>Колбасы</t>
-  </si>
-  <si>
-    <t>Вяленая классик с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
-    <t>Итальяно с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
-    <t>Колбаса Кантри с ароматом перца халапеньо с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Фуэт с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Корейские пасты и соусы</t>
-  </si>
-  <si>
-    <t>Обжаренные соленые листья порфиры Долким 80 г 1/20</t>
-  </si>
-  <si>
-    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
-  </si>
-  <si>
-    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
-  </si>
-  <si>
-    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
-  </si>
-  <si>
-    <t>Приправа дашида со вкусом говядины, 500 г</t>
-  </si>
-  <si>
-    <t>Сироп кукурузный 700г 1/20 т.м. DAESANG</t>
-  </si>
-  <si>
-    <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
-  </si>
-  <si>
-    <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Краб. Гребешок. Мидии. Кальмар</t>
-  </si>
-  <si>
-    <t>Гребешок курильский, размер М, с/м, Россия</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Гребешок Приморский, размер М, с/м, Россия</t>
-  </si>
-  <si>
-    <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
-  </si>
-  <si>
-    <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
-  </si>
-  <si>
-    <t>Мидии в раковинах (голубые) в/м 40/60, 1кг, Чили</t>
-  </si>
-  <si>
-    <t>Мидии зеленые в половинке раковины М (30-45шт), Новая Зеландия</t>
-  </si>
-  <si>
-    <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
-  </si>
-  <si>
-    <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
-  </si>
-  <si>
-    <t>Мясо мидии в/м н/ф (100-200) Чили</t>
-  </si>
-  <si>
-    <t>Осьминог целый очищ. 1/10 40-60 0,5кг, 8%, Китай</t>
-  </si>
-  <si>
-    <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
-  </si>
-  <si>
-    <t>Салат крабовый (опилио)</t>
-  </si>
-  <si>
-    <t>Салат крабовый, Восточно-Сахалинская подзона</t>
-  </si>
-  <si>
-    <t>Салат крабовый, Приморская подзона</t>
-  </si>
-  <si>
-    <t>Фаланга чищенная,  8-10см, камчатский краб, в/у</t>
-  </si>
-  <si>
-    <t>Креветка блочная</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка мелкая</t>
-  </si>
-  <si>
-    <t>Креветка 200/300, 7%, вар.зам.пошт."Стандарт" 1000г 1/6 р/р</t>
-  </si>
-  <si>
-    <t>Креветка ваннамей очищ с хвост, 41-50 ,кор 10 кг, навалом 7%, Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка очищенная в/м с хвостом (31-40), 7%, Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка россыпь</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г 26/30 уп.1 кг Индия</t>
-  </si>
-  <si>
-    <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
-  </si>
-  <si>
-    <t>Креветка с/м, б/г, 16/20, (Китай)</t>
-  </si>
-  <si>
-    <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
-  </si>
-  <si>
-    <t>Масла</t>
-  </si>
-  <si>
-    <t>Масло кунжутное, 0,42 л, Китай</t>
-  </si>
-  <si>
-    <t>Масло оливковое рафинированное Санса тз."La Espanola" пл.б 1л. кор. 15 шт</t>
-  </si>
-  <si>
-    <t>Масло фритюрное Печагин 1шт/5л</t>
-  </si>
-  <si>
-    <t>бут</t>
-  </si>
-  <si>
-    <t>Молочная продукция</t>
-  </si>
-  <si>
-    <t>Молоко кокосовое AROY-D, 0,5л. тетра пак</t>
-  </si>
-  <si>
-    <t>Молоко кокосовое AROY-D, 1л.</t>
-  </si>
-  <si>
-    <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
-  </si>
-  <si>
-    <t>Мучная продукция</t>
-  </si>
-  <si>
-    <t>Бумага рисовая "AROY-D" 22см, 454 гр.</t>
-  </si>
-  <si>
-    <t>Вермишель крахмальная Харусаме "Kekeshi" резаная, Китай, 0,5кг</t>
-  </si>
-  <si>
-    <t>Куксу Пшеничная лапша 900 г 1/15 т.м. Оттоги</t>
-  </si>
-  <si>
-    <t>Лапша гречневая Соба, уп. 300г. Китай</t>
-  </si>
-  <si>
-    <t>Лапша пшеничная Удон, уп. 300г. Китай</t>
-  </si>
-  <si>
-    <t>Лапша Рамен яичная в брикетах 1кг</t>
-  </si>
-  <si>
-    <t>Лапша Сомен, уп. 300г. Китай</t>
-  </si>
-  <si>
-    <t>Лапша Яичная Kekeshi, Китай, 0,3кг</t>
-  </si>
-  <si>
-    <t>Макароны № 004 Спагетти "Дельверде" (0,500кг) кор 24 шт.</t>
-  </si>
-  <si>
-    <t>Макароны № 081 Феттучине "Дельверде" (0,250кг) кор. 12 шт.</t>
-  </si>
-  <si>
-    <t>Мука высшего сорта (СуперМука для пиццы) СТАНДАРТ, 10 кг/мешок</t>
-  </si>
-  <si>
-    <t>Рисовая лапша 5мм AROY-D 454 г</t>
-  </si>
-  <si>
-    <t>Смесь темпурная OSHI уп/18 кг</t>
-  </si>
-  <si>
-    <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
-  </si>
-  <si>
-    <t>Сухари панировочные, Kaneshiro, уп. 1кг, Малайзия</t>
-  </si>
-  <si>
-    <t>Сухари панировочные, Kasho, уп. 1кг, Малайзия</t>
-  </si>
-  <si>
-    <t>Мясо и полуфабрикаты</t>
-  </si>
-  <si>
-    <t>Бекон Классический в/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
-    <t>Бекон с/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
-    <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
-  </si>
-  <si>
-    <t>Бекон с/к мясное ассорти № 4</t>
-  </si>
-  <si>
-    <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
-  </si>
-  <si>
-    <t>Колбаса Пепперони в/к "Пикантная"</t>
-  </si>
-  <si>
-    <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
-  </si>
-  <si>
-    <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
-  </si>
-  <si>
-    <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
-  </si>
-  <si>
-    <t>Растения и грибы</t>
-  </si>
-  <si>
-    <t>Бобы соевые очищенные "Эдамаме" ТМ Якимал 1 кг</t>
-  </si>
-  <si>
-    <t>Грибы шиитаке уп. 1кг, Китай</t>
-  </si>
-  <si>
-    <t>Имбирь маринованный, белый, уп. 1.5кг, Китай</t>
-  </si>
-  <si>
-    <t>Имбирь маринованный, розовый, Китай</t>
-  </si>
-  <si>
-    <t>Кунжут белый сырой, уп.1кг</t>
-  </si>
-  <si>
-    <t>Кунжут необжаренный, черный, уп. 1кг, Индия</t>
-  </si>
-  <si>
-    <t>Кунжут обжаренный, белый, уп. 1кг, Индия</t>
-  </si>
-  <si>
-    <t>Лемонграсс сушеный резаный, 300 гр.</t>
-  </si>
-  <si>
-    <t>Лук жареный 1 кг/уп</t>
-  </si>
-  <si>
-    <t>Редька маринованная Hikari 0,6 кг, Китай</t>
-  </si>
-  <si>
-    <t>Салат из водорослей "Чука" </t>
-  </si>
-  <si>
-    <t>Рис</t>
-  </si>
-  <si>
-    <t>Рис IKIGAI 22.68 кг</t>
-  </si>
-  <si>
-    <t>Рис Премиум, красный мешок 25 кг, Китай</t>
-  </si>
-  <si>
-    <t>Рыба ПСГ, ПБГ, С/М</t>
-  </si>
-  <si>
-    <t>Дорадо н/р 300-400 Турция</t>
-  </si>
-  <si>
-    <t>Корюшка н/р, дальневосточная</t>
-  </si>
-  <si>
-    <t>Палтус с/м, размер М, Россия</t>
-  </si>
-  <si>
-    <t>Семга ПСГ, р/вес, Premium, 5-6 кг, Чили</t>
-  </si>
-  <si>
-    <t>Сибас, целый, 300-400г, Турция</t>
-  </si>
-  <si>
-    <t>Форель ПБГ (2,7- 4,1кг ) Турция</t>
-  </si>
-  <si>
-    <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
-  </si>
-  <si>
-    <t>Кларий угревидный жареный в соусе (5-10%), Россия</t>
-  </si>
-  <si>
-    <t>Окунь Изумидай 9-11 oz "RISMA" (Китай)</t>
-  </si>
-  <si>
-    <t>Угорь жарен в соусе 20% морож филе (13-14 унц), Китай</t>
-  </si>
-  <si>
-    <t>Угорь жареный, б/в (тех), морож филе, Китай</t>
-  </si>
-  <si>
-    <t>Филе минтая без кожи фас*700гр, 1/21, штуч. замор</t>
-  </si>
-  <si>
-    <t>Филе минтая, блок 7,5 кг</t>
-  </si>
-  <si>
-    <t>Филе тилапии 5-7 Китай</t>
-  </si>
-  <si>
-    <t>Филе тунца желтоперого с/м САКУ АА (300-600г) Вьетнам</t>
-  </si>
-  <si>
-    <t>Филе тунца желтоперого СТЕЙК (100г+), уп. 0,5 кг</t>
-  </si>
-  <si>
-    <t>Филе тунца желтоперого СТЕЙК (50-100г), уп. 0,5 кг</t>
-  </si>
-  <si>
-    <t>Форель филе 0.6-1,5 кг с/м, Китай</t>
-  </si>
-  <si>
-    <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
-  </si>
-  <si>
-    <t>Щука филе б/к, с/м, 5%, ГОСТ</t>
-  </si>
-  <si>
-    <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
-  </si>
-  <si>
-    <t>Форель филе полуфабрикат для суши ( 600г-900г) с/с, в/у, Трим С, (Фуд Тим) </t>
-  </si>
-  <si>
-    <t>Форель филе полуфабрикат для суши 2% с/с, в/у, Трим С (Фуд Тим) Мурманск</t>
-  </si>
-  <si>
-    <t>Форель филе слабосол 5%, в/у, Трим С (Фуд Тим) Мурманск</t>
-  </si>
-  <si>
-    <t>Форель филе, в/у, 0,6-0,9 кг, Трим С (тм "АльянсПромСнаб")</t>
-  </si>
-  <si>
-    <t>Соевый соус. Уксус. Мирин</t>
-  </si>
-  <si>
-    <t>Соевый соус "Yakimal", 1л</t>
-  </si>
-  <si>
-    <t>Соевый соус "Yakimal", 20л</t>
-  </si>
-  <si>
-    <t>Соевый соус Padam, 18л, Китай</t>
-  </si>
-  <si>
-    <t>Соевый соус Tamaki Pro 1уп/20л</t>
-  </si>
-  <si>
-    <t>Соевый соус ТМ "Канимори", 20л</t>
-  </si>
-  <si>
-    <t>Соус "Мирин" ТМ "Yakimal" (ПРО), 18л</t>
-  </si>
-  <si>
-    <t>Соус рисовый Мирин "Padam", Россия, 20 л*1</t>
-  </si>
-  <si>
-    <t>Соус рисовый Мирин, Россия, 20 л*1</t>
-  </si>
-  <si>
-    <t>Уксус рисовый "Yakimal" 1л</t>
-  </si>
-  <si>
-    <t>Уксус рисовый "Yakimal" 20л</t>
-  </si>
-  <si>
-    <t>Уксус рисовый ASA, 20л</t>
-  </si>
-  <si>
-    <t>Уксус рисовый Padam, Россия, 20л*1</t>
-  </si>
-  <si>
-    <t>Соусы паназиатские</t>
-  </si>
-  <si>
-    <t>Соус Ворчестер (Вустерский) 1ст.б/140 мл, Appel, Германия</t>
-  </si>
-  <si>
-    <t>Соус Ворчестер (Вустерский) 4л/шт HEINZ</t>
-  </si>
-  <si>
-    <t>Соус Кимчи, 1,8л, 2,2 кг вес, Китай</t>
-  </si>
-  <si>
-    <t>Соус ореховый TAMAKI Pro 1 уп/1.5л.</t>
-  </si>
-  <si>
-    <t>Соус Пад Тай 270г</t>
-  </si>
-  <si>
-    <t>Соус Рыбный AROY-D, 0,7л (0,84кг), ст/б</t>
-  </si>
-  <si>
     <t>Соус Терияки ТМ "Yakimal", 1,8л</t>
   </si>
   <si>
-    <t>Соус Терияки, 1.5л, Genso Россия</t>
+    <t>Соус Терияки, Tamaki, 1,8л</t>
   </si>
   <si>
     <t>Соус Унаги ASA, 1.8</t>
@@ -664,12 +694,12 @@
     <t>Соус Унаги ТМ "Yakimal", 1,8л</t>
   </si>
   <si>
-    <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
-  </si>
-  <si>
     <t>Соус Унаги, Genso, 1,5л, Россия</t>
   </si>
   <si>
+    <t>Соус Унаги, Tamaki, 1.8л</t>
+  </si>
+  <si>
     <t>Соус устричный высшей категории 510 г. ст/бт</t>
   </si>
   <si>
@@ -682,9 +712,6 @@
     <t>Соус Хойсин, Китай, 1 кг*6</t>
   </si>
   <si>
-    <t>Соус чили сладкий для курицы AROY-D 5,4 кг пл/канистра</t>
-  </si>
-  <si>
     <t>Соус чили сладкий для курицы AROY-D, 925мл</t>
   </si>
   <si>
@@ -700,10 +727,10 @@
     <t>Сыр. Майонез</t>
   </si>
   <si>
+    <t>FriendChef CREAM CHEESE Сыр творожный сливочный с массовой долей жира в сухом веществе 65%  (10 кг) </t>
+  </si>
+  <si>
     <t>Крем сыр кулинарный "Париж" (3,3 кг) "УМК"</t>
-  </si>
-  <si>
-    <t>Майонез "Провансаль классический" SolPro, 67%, ведро 1/10000 мл.</t>
   </si>
   <si>
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
@@ -898,7 +925,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D225"/>
+  <dimension ref="D234"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -971,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>750</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="true" outlineLevel="1">
@@ -982,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>870</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="true" outlineLevel="1">
@@ -993,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="true" outlineLevel="1">
@@ -1004,21 +1031,21 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="true" outlineLevel="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="true" outlineLevel="1">
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="13" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D12" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="true" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>480</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="true" outlineLevel="1">
@@ -1037,29 +1064,29 @@
         <v>5</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="true" outlineLevel="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="true" outlineLevel="1">
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D15" s="11" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" ht="33" customHeight="true" outlineLevel="1">
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="11" t="n">
-        <v>956</v>
+      <c r="D16" s="12" t="n">
+        <v>1540</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true" outlineLevel="1">
@@ -1070,12 +1097,18 @@
         <v>5</v>
       </c>
       <c r="D17" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B18" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B18" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>956</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true" outlineLevel="1">
@@ -1085,19 +1118,13 @@
       <c r="C19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B20" s="9" t="s">
+      <c r="D19" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B20" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>465</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1144,7 +1171,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="25" ht="22" customHeight="true" outlineLevel="1">
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="true" outlineLevel="1">
@@ -1163,10 +1190,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="true" outlineLevel="1">
       <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
@@ -1174,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true" outlineLevel="1">
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1185,23 +1212,29 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="12" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="30" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B30" s="8" t="s">
+      <c r="D29" s="11" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B30" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="1">
@@ -1211,19 +1244,13 @@
       <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B32" s="9" t="s">
+      <c r="D31" s="12" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B32" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="12" t="n">
-        <v>1300</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
@@ -1233,8 +1260,8 @@
       <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="11" t="n">
-        <v>620</v>
+      <c r="D33" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="1">
@@ -1245,10 +1272,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="35" ht="22" customHeight="true" outlineLevel="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
@@ -1256,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>870</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="true" outlineLevel="1">
@@ -1267,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>425</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="true" outlineLevel="1">
@@ -1278,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="11" t="n">
-        <v>765</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="true" outlineLevel="1">
@@ -1289,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="true" outlineLevel="1">
@@ -1300,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="true" outlineLevel="1">
@@ -1311,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true" outlineLevel="1">
@@ -1322,23 +1349,23 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="11" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="42" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B42" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B43" s="9" t="s">
+    <row r="43" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B43" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>144</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
@@ -1349,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
@@ -1360,45 +1387,45 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="11" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B46" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B47" s="9" t="s">
+    <row r="47" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B47" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>125</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="true" outlineLevel="1">
       <c r="B48" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D48" s="11" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true" outlineLevel="1">
       <c r="B49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D49" s="11" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
@@ -1409,23 +1436,23 @@
         <v>5</v>
       </c>
       <c r="D50" s="11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="51" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B51" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B52" s="9" t="s">
+    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B52" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11" t="n">
-        <v>715</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="true" outlineLevel="1">
@@ -1436,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>715</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true" outlineLevel="1">
@@ -1447,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>715</v>
+        <v>760</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="true" outlineLevel="1">
@@ -1458,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
@@ -1469,12 +1496,18 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B57" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B57" s="9" t="s">
         <v>58</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="n">
+        <v>710</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1485,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="59" ht="33" customHeight="true" outlineLevel="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true" outlineLevel="1">
       <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
@@ -1496,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="1">
@@ -1507,10 +1540,10 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="61" ht="33" customHeight="true" outlineLevel="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true" outlineLevel="1">
       <c r="B61" s="9" t="s">
         <v>62</v>
       </c>
@@ -1518,18 +1551,12 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="62" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B62" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B62" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="11" t="n">
-        <v>720</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1540,15 +1567,21 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="64" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B64" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="64" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B64" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="true" outlineLevel="1">
       <c r="B65" s="9" t="s">
         <v>66</v>
       </c>
@@ -1556,10 +1589,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true" outlineLevel="1">
       <c r="B66" s="9" t="s">
         <v>67</v>
       </c>
@@ -1567,21 +1600,15 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B67" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B67" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="B68" s="9" t="s">
         <v>69</v>
       </c>
@@ -1589,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
@@ -1600,12 +1627,18 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B70" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B70" s="9" t="s">
         <v>71</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1616,10 +1649,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
@@ -1627,18 +1660,12 @@
         <v>5</v>
       </c>
       <c r="D72" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B73" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B73" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>950</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
@@ -1649,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1660,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1671,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>160</v>
+        <v>950</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1682,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>590</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1693,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1704,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1715,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>279</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
@@ -1726,12 +1753,18 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B82" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B82" s="9" t="s">
         <v>83</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="11" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="true" outlineLevel="1">
@@ -1739,43 +1772,37 @@
         <v>84</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="12" t="n">
-        <v>1530</v>
+        <v>5</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B85" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="85" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B85" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" s="12" t="n">
-        <v>2500</v>
       </c>
     </row>
     <row r="86" ht="22" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="11" t="n">
-        <v>480</v>
+        <v>88</v>
+      </c>
+      <c r="D86" s="12" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
@@ -1783,10 +1810,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="11" t="n">
-        <v>340</v>
+        <v>88</v>
+      </c>
+      <c r="D87" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1794,10 +1821,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="11" t="n">
-        <v>750</v>
+        <v>88</v>
+      </c>
+      <c r="D88" s="12" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1805,32 +1832,32 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D89" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="90" ht="33" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D90" s="11" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="91" ht="11" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>435</v>
+        <v>750</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1838,13 +1865,13 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" ht="33" customHeight="true" outlineLevel="1">
       <c r="B93" s="9" t="s">
         <v>95</v>
       </c>
@@ -1852,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="11" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
@@ -1860,10 +1887,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="12" t="n">
-        <v>1450</v>
+        <v>88</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1871,21 +1898,21 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="96" ht="22" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="12" t="n">
-        <v>1800</v>
+        <v>5</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="97" ht="22" customHeight="true" outlineLevel="1">
@@ -1893,37 +1920,43 @@
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="12" t="n">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="98" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="11" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C98" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="99" ht="22" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D100" s="12" t="n">
-        <v>1150</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1936,21 +1969,21 @@
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D102" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D103" s="12" t="n">
-        <v>1150</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true" outlineLevel="1">
@@ -1958,26 +1991,26 @@
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D104" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B105" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="105" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B105" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B106" s="9" t="s">
+      <c r="C105" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="12" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B106" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D106" s="11" t="n">
-        <v>900</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="true" outlineLevel="1">
@@ -1985,21 +2018,21 @@
         <v>109</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D107" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
       <c r="B108" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D108" s="11" t="n">
-        <v>815</v>
+        <v>88</v>
+      </c>
+      <c r="D108" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true" outlineLevel="1">
@@ -2007,7 +2040,7 @@
         <v>111</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D109" s="12" t="n">
         <v>1150</v>
@@ -2023,21 +2056,21 @@
         <v>113</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D111" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" ht="33" customHeight="true" outlineLevel="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="112" ht="22" customHeight="true" outlineLevel="1">
       <c r="B112" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="11" t="n">
-        <v>353</v>
+        <v>88</v>
+      </c>
+      <c r="D112" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
@@ -2045,64 +2078,64 @@
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B114" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D113" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B114" s="8" t="s">
+      <c r="C114" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D114" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="115" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B115" s="8" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B115" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B117" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="117" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B117" s="9" t="s">
+      <c r="C117" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="11" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B118" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B118" s="8" t="s">
+      <c r="C118" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B119" s="9" t="s">
+      <c r="D118" s="12" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="119" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B119" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="11" t="n">
-        <v>370</v>
       </c>
     </row>
     <row r="120" ht="22" customHeight="true" outlineLevel="1">
@@ -2113,10 +2146,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2124,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2135,18 +2168,12 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B123" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B123" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="11" t="n">
-        <v>62</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
@@ -2157,10 +2184,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2168,10 +2195,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2179,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" ht="22" customHeight="true" outlineLevel="1">
@@ -2190,10 +2217,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="128" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2201,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2212,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>816</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
@@ -2223,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2233,11 +2260,11 @@
       <c r="C131" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="12" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="132" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D131" s="11" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2245,7 +2272,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" ht="22" customHeight="true" outlineLevel="1">
@@ -2256,7 +2283,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>270</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="true" outlineLevel="1">
@@ -2267,12 +2294,18 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B135" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B135" s="9" t="s">
         <v>138</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="11" t="n">
+        <v>816</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
@@ -2283,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>295</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
@@ -2294,76 +2327,70 @@
         <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" ht="22" customHeight="true" outlineLevel="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D138" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D138" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="139" ht="33" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="140" ht="33" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
       <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D140" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="142" ht="33" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" ht="22" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="143" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B143" s="9" t="s">
+      <c r="D142" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B143" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="144" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
       <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
@@ -2371,12 +2398,18 @@
         <v>5</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="145" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B145" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B145" s="9" t="s">
         <v>148</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="11" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="146" ht="22" customHeight="true" outlineLevel="1">
@@ -2384,10 +2417,10 @@
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>420</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
@@ -2395,13 +2428,13 @@
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D147" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="148" ht="22" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D147" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="148" ht="33" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
@@ -2409,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>180</v>
+        <v>950</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
@@ -2417,32 +2450,32 @@
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="150" ht="33" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D150" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="151" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D150" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="151" ht="33" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>399</v>
+        <v>820</v>
       </c>
     </row>
     <row r="152" ht="22" customHeight="true" outlineLevel="1">
@@ -2453,56 +2486,56 @@
         <v>5</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="153" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B153" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="153" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B153" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="154" ht="22" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="155" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" ht="11" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D155" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="156" ht="22" customHeight="true" outlineLevel="1">
       <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B157" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B157" s="9" t="s">
         <v>160</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="11" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
@@ -2510,10 +2543,10 @@
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="12" t="n">
-        <v>3500</v>
+        <v>88</v>
+      </c>
+      <c r="D158" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="159" ht="22" customHeight="true" outlineLevel="1">
@@ -2521,15 +2554,21 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="160" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B160" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B160" s="9" t="s">
         <v>163</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="1">
@@ -2537,21 +2576,21 @@
         <v>164</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>360</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" ht="11" customHeight="true" outlineLevel="1">
@@ -2559,21 +2598,21 @@
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="164" ht="22" customHeight="true" outlineLevel="1">
       <c r="B164" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D164" s="12" t="n">
-        <v>1670</v>
+        <v>5</v>
+      </c>
+      <c r="D164" s="11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="1">
@@ -2581,26 +2620,26 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="166" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B166" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B166" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D166" s="12" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="167" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B167" s="8" t="s">
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B167" s="9" t="s">
         <v>170</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="12" t="n">
+        <v>3500</v>
       </c>
     </row>
     <row r="168" ht="22" customHeight="true" outlineLevel="1">
@@ -2608,54 +2647,48 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D168" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D169" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B170" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B170" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C170" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D170" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="171" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="171" ht="11" customHeight="true" outlineLevel="1">
       <c r="B171" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D171" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="172" ht="22" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D171" s="11" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="172" ht="11" customHeight="true" outlineLevel="1">
       <c r="B172" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D172" s="11" t="n">
-        <v>294</v>
+        <v>360</v>
       </c>
     </row>
     <row r="173" ht="11" customHeight="true" outlineLevel="1">
@@ -2663,10 +2696,10 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>295</v>
+        <v>840</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="1">
@@ -2674,54 +2707,48 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D174" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D174" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D175" s="12" t="n">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="176" ht="11" customHeight="true" outlineLevel="1">
       <c r="B176" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D176" s="12" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="177" ht="22" customHeight="true" outlineLevel="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D177" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B178" s="9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="178" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B178" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D178" s="12" t="n">
-        <v>1420</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="true" outlineLevel="1">
@@ -2729,26 +2756,32 @@
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D179" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D179" s="11" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D180" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="181" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B181" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B181" s="9" t="s">
         <v>184</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D181" s="12" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="true" outlineLevel="1">
@@ -2756,21 +2789,21 @@
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D182" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="183" ht="33" customHeight="true" outlineLevel="1">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="183" ht="11" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D183" s="12" t="n">
-        <v>1420</v>
+        <v>88</v>
+      </c>
+      <c r="D183" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="184" ht="22" customHeight="true" outlineLevel="1">
@@ -2778,10 +2811,10 @@
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D184" s="12" t="n">
-        <v>1670</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2789,26 +2822,32 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="186" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B186" s="8" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="186" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="187" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C186" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D186" s="12" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="187" ht="22" customHeight="true" outlineLevel="1">
       <c r="B187" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D187" s="11" t="n">
-        <v>115</v>
+        <v>860</v>
       </c>
     </row>
     <row r="188" ht="11" customHeight="true" outlineLevel="1">
@@ -2816,35 +2855,29 @@
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="189" ht="22" customHeight="true" outlineLevel="1">
       <c r="B189" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="190" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B190" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="190" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B190" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C190" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D190" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="191" ht="22" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
@@ -2852,18 +2885,18 @@
         <v>5</v>
       </c>
       <c r="D191" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="192" ht="11" customHeight="true" outlineLevel="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="192" ht="33" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
@@ -2871,21 +2904,15 @@
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="194" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B194" s="9" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B194" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194" s="12" t="n">
-        <v>2300</v>
       </c>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="1">
@@ -2907,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
@@ -2918,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>1600</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
@@ -2929,23 +2956,29 @@
         <v>5</v>
       </c>
       <c r="D198" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B199" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="12" t="n">
         <v>1700</v>
       </c>
     </row>
-    <row r="199" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B199" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" ht="22" customHeight="true" outlineLevel="1">
+    <row r="200" ht="11" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="11" t="n">
-        <v>410</v>
+      <c r="D200" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="201" ht="22" customHeight="true" outlineLevel="1">
@@ -2956,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -2966,8 +2999,8 @@
       <c r="C202" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="11" t="n">
-        <v>800</v>
+      <c r="D202" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -2978,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="11" t="n">
-        <v>660</v>
+        <v>115</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -2988,33 +3021,27 @@
       <c r="C204" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="205" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D204" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="205" ht="11" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="11" t="n">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="206" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B206" s="9" t="s">
+      <c r="D205" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="206" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B206" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C206" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D206" s="11" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="207" ht="22" customHeight="true" outlineLevel="1">
       <c r="B207" s="9" t="s">
         <v>210</v>
       </c>
@@ -3022,18 +3049,18 @@
         <v>5</v>
       </c>
       <c r="D207" s="11" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C208" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="11" t="n">
-        <v>530</v>
+      <c r="D208" s="12" t="n">
+        <v>1140</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="1">
@@ -3044,7 +3071,7 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="1">
@@ -3055,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>650</v>
+        <v>760</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3066,10 +3093,10 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="212" ht="22" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="212" ht="11" customHeight="true" outlineLevel="1">
       <c r="B212" s="9" t="s">
         <v>215</v>
       </c>
@@ -3077,7 +3104,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>210</v>
+        <v>660</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3088,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="214" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" ht="22" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
@@ -3099,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>858</v>
+        <v>388</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3110,21 +3137,21 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="216" ht="22" customHeight="true" outlineLevel="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="216" ht="11" customHeight="true" outlineLevel="1">
       <c r="B216" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C216" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D216" s="12" t="n">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="217" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D216" s="11" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="217" ht="11" customHeight="true" outlineLevel="1">
       <c r="B217" s="9" t="s">
         <v>220</v>
       </c>
@@ -3132,10 +3159,10 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="218" ht="11" customHeight="true" outlineLevel="1">
       <c r="B218" s="9" t="s">
         <v>221</v>
       </c>
@@ -3143,10 +3170,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="219" ht="22" customHeight="true" outlineLevel="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" ht="11" customHeight="true" outlineLevel="1">
       <c r="B219" s="9" t="s">
         <v>222</v>
       </c>
@@ -3154,10 +3181,10 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="220" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="220" ht="11" customHeight="true" outlineLevel="1">
       <c r="B220" s="9" t="s">
         <v>223</v>
       </c>
@@ -3165,12 +3192,18 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="221" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B221" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="221" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B221" s="9" t="s">
         <v>224</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="11" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="222" ht="22" customHeight="true" outlineLevel="1">
@@ -3181,18 +3214,18 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C223" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D223" s="12" t="n">
-        <v>2000</v>
+      <c r="D223" s="11" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="1">
@@ -3202,18 +3235,111 @@
       <c r="C224" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D224" s="12" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D224" s="11" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
       <c r="C225" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="12" t="n">
+      <c r="D225" s="11" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B226" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B227" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B228" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="11" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B229" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="11" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="230" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B230" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" ht="44" customHeight="true" outlineLevel="1">
+      <c r="B231" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="12" t="n">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="232" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B232" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="11" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B233" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="234" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B234" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="12" t="n">
         <v>1495</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -49,450 +49,456 @@
     <t>Каперсы с уксусом "Antica Napoli" (720 мл/0,700кг) Турция, упак 6 шт</t>
   </si>
   <si>
+    <t>Маслины Alisa резаные (3,000 кг) ж/б, Испания</t>
+  </si>
+  <si>
+    <t>Огурцы марин. слайсы т.м. Домашняя Трапеза (1,700) упак. 5шт</t>
+  </si>
+  <si>
+    <t>Оливки зеленые "Alisa" без косточки (0,350 кг) ж/б кор. 12 шт. </t>
+  </si>
+  <si>
+    <t>Паста из анчоуса европейского с оливковым маслом (12%) "Delicius" ст.бан 0,720, Италия</t>
+  </si>
+  <si>
+    <t>Перец Халапеньо маринованный резанный (2,75 кг) ж/б "Сан Маркос" Мексика</t>
+  </si>
+  <si>
+    <t>Перец Халапеньо резаный маринованный "Antica Napoli" (2,270 кг/2,37 л) Турция</t>
+  </si>
+  <si>
+    <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
+  </si>
+  <si>
+    <t>Томаты вяленые "Antica Napoli" в масле ст./б. (1,500 кг) упак. 6 шт.</t>
+  </si>
+  <si>
+    <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
+  </si>
+  <si>
+    <t>Тунец филе в с/с ж/б 1,7 кг, Blue Oceano, Тайланд</t>
+  </si>
+  <si>
+    <t>Тунец филе кусочки в с/с ж/б 1,7 кг, Эквадор</t>
+  </si>
+  <si>
+    <t>Бульоны. Основы для супов. Приправа</t>
+  </si>
+  <si>
+    <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста мисо, темная, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
+  </si>
+  <si>
+    <t>Паста Том Ям CHANG, Таиланд, 400г</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 0,400гр. AROY- D, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 1 кг AROY- D, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
+  </si>
+  <si>
+    <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
+  </si>
+  <si>
+    <t>Рыбный бульон "Хондаши"</t>
+  </si>
+  <si>
+    <t>Стружка тунца Бонито, уп.500г.</t>
+  </si>
+  <si>
+    <t>Васаби. Водоросли</t>
+  </si>
+  <si>
+    <t>Водоросли Комбу, Китай</t>
+  </si>
+  <si>
+    <t>Водоросли нори "Risma" 100л, Китай</t>
+  </si>
+  <si>
+    <t>Водоросли Нори Голд, 100л, 300г, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "OSHI Премиум"</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
+  </si>
+  <si>
+    <t>Вьетнамская кухня</t>
+  </si>
+  <si>
+    <t>Вермишель Бун (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Вьетнамская соль (190гр.) Вьетнам</t>
+  </si>
+  <si>
+    <t>Рисовая лапша (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Соус чили для Фо Бо (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Изделия из бамбука</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
+  </si>
+  <si>
+    <t>упак</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые, в наборе с зубочистками уп. 100шт</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 24*24 см</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 27*27 см</t>
+  </si>
+  <si>
+    <t>Икра</t>
+  </si>
+  <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" красная 500г 1/6 NEW</t>
+  </si>
+  <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
+  </si>
+  <si>
+    <t>Икра деликатесная Люкс "Масаго Амай" красная, 500г </t>
+  </si>
+  <si>
+    <t>Икра деликатесная Люкс "Масаго Амай" оранжевая, 500г </t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
+  </si>
+  <si>
+    <t>Картофель</t>
+  </si>
+  <si>
+    <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
+  </si>
+  <si>
+    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
+  </si>
+  <si>
+    <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
+  </si>
+  <si>
+    <t>Колбасы</t>
+  </si>
+  <si>
+    <t>Вяленая классик с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
+    <t>Итальяно с/в вак. 0,17 кг/шт</t>
+  </si>
+  <si>
+    <t>Колбаса Кантри с ароматом перца халапеньо с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Фуэт с/в вак. 0,15кг/шт</t>
+  </si>
+  <si>
+    <t>Корейские пасты и соусы</t>
+  </si>
+  <si>
+    <t>Обжаренные соленые листья порфиры Долким 80 г 1/20</t>
+  </si>
+  <si>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
+  </si>
+  <si>
+    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
+  </si>
+  <si>
+    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
+  </si>
+  <si>
+    <t>Приправа дашида со вкусом говядины, 500 г</t>
+  </si>
+  <si>
+    <t>Сироп кукурузный 700г 1/20 т.м. DAESANG</t>
+  </si>
+  <si>
+    <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
+  </si>
+  <si>
+    <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Краб. Гребешок. Мидии. Кальмар</t>
+  </si>
+  <si>
+    <t>Гребешок курильский, размер М, с/м, Россия</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Гребешок Приморский, размер М, с/м, Россия</t>
+  </si>
+  <si>
+    <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
+  </si>
+  <si>
+    <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
+  </si>
+  <si>
+    <t>Мидии в раковинах (голубые) в/м 40/60, 1кг, Чили</t>
+  </si>
+  <si>
+    <t>Мидии в раковине в/м, 60-80 Чили</t>
+  </si>
+  <si>
+    <t>Мидии зеленые в половинке раковины М (30-45шт), Новая Зеландия</t>
+  </si>
+  <si>
+    <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
+  </si>
+  <si>
+    <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
+  </si>
+  <si>
+    <t>Мясо мидии в/м н/ф (200-300) Чили</t>
+  </si>
+  <si>
+    <t>Осьминог целый очищ. 1/10 40-60 0,5кг, 8%, Китай</t>
+  </si>
+  <si>
+    <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
+  </si>
+  <si>
+    <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
+  </si>
+  <si>
+    <t>Салат крабовый (опилио)</t>
+  </si>
+  <si>
+    <t>Салат крабовый, Восточно-Сахалинская подзона</t>
+  </si>
+  <si>
+    <t>Салат крабовый, Приморская подзона</t>
+  </si>
+  <si>
+    <t>Фаланга чищенная,  8-10см, камчатский краб, в/у</t>
+  </si>
+  <si>
+    <t>Креветка блочная</t>
+  </si>
+  <si>
+    <t>Креветка ваннамей с/м б/г очищ без вены, 41-50 , блок 1,7 кг, Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г в панцире 26/30 1.8кг (блок) Эквадор</t>
+  </si>
+  <si>
+    <t>Креветка мелкая</t>
+  </si>
+  <si>
+    <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг. Индия</t>
+  </si>
+  <si>
+    <t>Креветка россыпь</t>
+  </si>
+  <si>
+    <t>Креветка с/м б/г 26/30 уп.1 кг Индия</t>
+  </si>
+  <si>
+    <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
+  </si>
+  <si>
+    <t>Креветка с/м, б/г, 16/20, (Китай)</t>
+  </si>
+  <si>
+    <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
+  </si>
+  <si>
+    <t>Масла</t>
+  </si>
+  <si>
+    <t>Масло кунжутное, 0,42 л, Китай</t>
+  </si>
+  <si>
+    <t>Масло оливковое рафинированное Санса тз."La Espanola" пл.б 1л. кор. 15 шт</t>
+  </si>
+  <si>
+    <t>Масло фритюрное Печагин 1шт/5л</t>
+  </si>
+  <si>
+    <t>бут</t>
+  </si>
+  <si>
+    <t>Молочная продукция</t>
+  </si>
+  <si>
+    <t>Молоко кокосовое AROY-D, 0,5л. тетра пак</t>
+  </si>
+  <si>
+    <t>Молоко кокосовое AROY-D, 1л.</t>
+  </si>
+  <si>
+    <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
+  </si>
+  <si>
+    <t>Мучная продукция</t>
+  </si>
+  <si>
+    <t>Бумага рисовая "AROY-D" 22см, 454 гр.</t>
+  </si>
+  <si>
+    <t>Вермишель из батата 500 г 1/20 т.м. СингСонг</t>
+  </si>
+  <si>
+    <t>Вермишель крахмальная Харусаме "Kekeshi" резаная, Китай, 0,5кг</t>
+  </si>
+  <si>
+    <t>Куксу Пшеничная лапша 900 г 1/15 т.м. Оттоги</t>
+  </si>
+  <si>
+    <t>Лапша гречневая Соба, уп. 300г. Китай</t>
+  </si>
+  <si>
+    <t>Лапша пшеничная Удон, уп. 300г. Китай</t>
+  </si>
+  <si>
+    <t>Лапша Рамен яичная в брикетах 1кг</t>
+  </si>
+  <si>
+    <t>Лапша Сомен, уп. 300г. Китай</t>
+  </si>
+  <si>
+    <t>Лапша Яичная Kekeshi, Китай, 0,3кг</t>
+  </si>
+  <si>
+    <t>Макароны № 004 Спагетти "Дельверде" (0,500кг) кор 24 шт.</t>
+  </si>
+  <si>
+    <t>Макароны № 081 Феттучине "Дельверде" (0,250кг) кор. 12 шт.</t>
+  </si>
+  <si>
+    <t>Мука высшего сорта (СуперМука для пиццы) СТАНДАРТ, 10 кг/мешок</t>
+  </si>
+  <si>
+    <t>Рисовая лапша 5мм AROY-D 454 г</t>
+  </si>
+  <si>
+    <t>Смесь темпурная 1уп/1кг</t>
+  </si>
+  <si>
+    <t>Смесь темпурная OSHI уп/18 кг</t>
+  </si>
+  <si>
+    <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
+  </si>
+  <si>
+    <t>Сухари панировочные "Панко", 10кг, Россия</t>
+  </si>
+  <si>
+    <t>Сухари панировочные, Kaneshiro, уп. 1кг, Малайзия</t>
+  </si>
+  <si>
+    <t>Сухари панировочные, Kasho, уп. 1кг, Малайзия</t>
+  </si>
+  <si>
+    <t>Мясо и полуфабрикаты</t>
+  </si>
+  <si>
+    <t>Бекон Классический в/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
+    <t>Бекон с/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
+    <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
+  </si>
+  <si>
+    <t>Бекон с/к мясное ассорти № 4</t>
+  </si>
+  <si>
+    <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
+  </si>
+  <si>
+    <t>Колбаса Пепперони в/к "Пикантная"</t>
+  </si>
+  <si>
+    <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
+  </si>
+  <si>
+    <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
+  </si>
+  <si>
+    <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
     <t>Лимонад газированный Дюшес ЧЕРНОГОЛОВКА, ПЭТ 0,5</t>
   </si>
   <si>
     <t>Лимонад газированный Кола ЧЕРНОГОЛОВКА, ПЭТ 0,5</t>
   </si>
   <si>
-    <t>Маслины Alisa резаные (3,000 кг) ж/б, Испания</t>
-  </si>
-  <si>
-    <t>Маслины резаные Green King 3100 мл, ж/б, Испания</t>
-  </si>
-  <si>
-    <t>Огурцы марин. слайсы т.м. Домашняя Трапеза (1,700) упак. 5шт</t>
-  </si>
-  <si>
-    <t>Оливки зеленые "Alisa" без косточки (0,350 кг) ж/б кор. 12 шт. </t>
-  </si>
-  <si>
-    <t>Паста из анчоуса европейского с оливковым маслом (12%) "Delicius" ст.бан 0,720, Италия</t>
-  </si>
-  <si>
-    <t>Перец Халапеньо резаный маринованный "Antica Napoli" (2,270 кг/2,37 л) Турция</t>
-  </si>
-  <si>
-    <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
-  </si>
-  <si>
-    <t>Томаты вяленые "Antica Napoli" в масле ст./б. (1,500 кг) упак. 6 шт.</t>
-  </si>
-  <si>
-    <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
-  </si>
-  <si>
-    <t>Тунец филе кусочки в с/с ж/б 1,7 кг, Эквадор</t>
-  </si>
-  <si>
-    <t>Бульоны. Основы для супов. Приправа</t>
-  </si>
-  <si>
-    <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
-  </si>
-  <si>
-    <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста мисо, темная, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
-  </si>
-  <si>
-    <t>Паста Том Ям CHANG, Таиланд, 400г</t>
-  </si>
-  <si>
-    <t>Паста Том Ям, уп. 0,400гр. AROY- D, Тайланд</t>
-  </si>
-  <si>
-    <t>Паста Том Ям, уп. 1 кг AROY- D, Тайланд</t>
-  </si>
-  <si>
-    <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
-  </si>
-  <si>
-    <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
-  </si>
-  <si>
-    <t>Рыбный бульон "Хондаши"</t>
-  </si>
-  <si>
-    <t>Стружка тунца Бонито, уп.500г.</t>
-  </si>
-  <si>
-    <t>Васаби. Водоросли</t>
-  </si>
-  <si>
-    <t>Водоросли Комбу, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли нори "Risma" 100л, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли Нори Голд, 100л, 300г, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "OSHI Премиум"</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
-  </si>
-  <si>
-    <t>Вьетнамская кухня</t>
-  </si>
-  <si>
-    <t>Вермишель Бун (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Вьетнамская соль (190гр.) Вьетнам</t>
-  </si>
-  <si>
-    <t>Рисовая лапша (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Изделия из бамбука</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
-  </si>
-  <si>
-    <t>упак</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые, в наборе с зубочистками уп. 100шт</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 24*24 см</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 27*27 см</t>
-  </si>
-  <si>
-    <t>Икра</t>
-  </si>
-  <si>
-    <t>Икра деликатесная "Люкс" "Масаго Энко" красная 500г 1/6 NEW</t>
-  </si>
-  <si>
-    <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
-  </si>
-  <si>
-    <t>Икра деликатесная Люкс "Масаго Амай" красная, 500г </t>
-  </si>
-  <si>
-    <t>Икра деликатесная Люкс "Масаго Амай" оранжевая, 500г </t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
-  </si>
-  <si>
-    <t>Картофель</t>
-  </si>
-  <si>
-    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
-  </si>
-  <si>
-    <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
-  </si>
-  <si>
-    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
-    <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
-    <t>Колбасы</t>
-  </si>
-  <si>
-    <t>Вяленая классик с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
-    <t>Итальяно с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
-    <t>Колбаса Кантри с ароматом перца халапеньо с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Фуэт с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Корейские пасты и соусы</t>
-  </si>
-  <si>
-    <t>Обжаренные соленые листья порфиры Долким 80 г 1/20</t>
-  </si>
-  <si>
-    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
-  </si>
-  <si>
-    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
-  </si>
-  <si>
-    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
-  </si>
-  <si>
-    <t>Приправа дашида со вкусом говядины, 500 г</t>
-  </si>
-  <si>
-    <t>Сироп кукурузный 700г 1/20 т.м. DAESANG</t>
-  </si>
-  <si>
-    <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
-  </si>
-  <si>
-    <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Краб. Гребешок. Мидии. Кальмар</t>
-  </si>
-  <si>
-    <t>Гребешок курильский, размер М, с/м, Россия</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Гребешок Приморский, размер М, с/м, Россия</t>
-  </si>
-  <si>
-    <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
-  </si>
-  <si>
-    <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
-  </si>
-  <si>
-    <t>Мидии в раковинах (голубые) в/м 40/60, 1кг, Чили</t>
-  </si>
-  <si>
-    <t>Мидии зеленые в половинке раковины М (30-45шт), Новая Зеландия</t>
-  </si>
-  <si>
-    <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
-  </si>
-  <si>
-    <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
-  </si>
-  <si>
-    <t>Мясо мидии в/м н/ф (200-300) Чили</t>
-  </si>
-  <si>
-    <t>Осьминог целый очищ. 1/10 40-60 0,5кг, 8%, Китай</t>
-  </si>
-  <si>
-    <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
-  </si>
-  <si>
-    <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
-  </si>
-  <si>
-    <t>Салат крабовый (опилио)</t>
-  </si>
-  <si>
-    <t>Салат крабовый, Восточно-Сахалинская подзона</t>
-  </si>
-  <si>
-    <t>Салат крабовый, Приморская подзона</t>
-  </si>
-  <si>
-    <t>Креветка блочная</t>
-  </si>
-  <si>
-    <t>Креветка ваннамей с/м б/г очищ без вены, 41-50 , блок 1,7 кг, Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г в панцире 26/30 1.8кг (блок) Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка мелкая</t>
-  </si>
-  <si>
-    <t>Креветка 200/300, 7%, вар.зам.пошт."Стандарт" 1000г 1/6 р/р</t>
-  </si>
-  <si>
-    <t>Креветка ваннамей очищ с хвост, 41-50 ,кор 10 кг, навалом 7%, Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка очищенная в/м с хвостом (31-40), 7%, Эквадор</t>
-  </si>
-  <si>
-    <t>Креветка россыпь</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г 26/30 уп.1 кг Индия</t>
-  </si>
-  <si>
-    <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
-  </si>
-  <si>
-    <t>Креветка с/м, б/г, 16/20, (Китай)</t>
-  </si>
-  <si>
-    <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
-  </si>
-  <si>
-    <t>Масла</t>
-  </si>
-  <si>
-    <t>Масло кунжутное, 0,42 л, Китай</t>
-  </si>
-  <si>
-    <t>Масло оливковое рафинированное Санса тз."La Espanola" пл.б 1л. кор. 15 шт</t>
-  </si>
-  <si>
-    <t>Масло фритюрное Печагин 1шт/5л</t>
-  </si>
-  <si>
-    <t>бут</t>
-  </si>
-  <si>
-    <t>Молочная продукция</t>
-  </si>
-  <si>
-    <t>Молоко кокосовое AROY-D, 0,5л. тетра пак</t>
-  </si>
-  <si>
-    <t>Молоко кокосовое AROY-D, 1л.</t>
-  </si>
-  <si>
-    <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
-  </si>
-  <si>
-    <t>Мучная продукция</t>
-  </si>
-  <si>
-    <t>Бумага рисовая "AROY-D" 22см, 454 гр.</t>
-  </si>
-  <si>
-    <t>Вермишель из батата 500 г 1/20 т.м. СингСонг</t>
-  </si>
-  <si>
-    <t>Вермишель крахмальная Харусаме "Kekeshi" резаная, Китай, 0,5кг</t>
-  </si>
-  <si>
-    <t>Куксу Пшеничная лапша 900 г 1/15 т.м. Оттоги</t>
-  </si>
-  <si>
-    <t>Лапша гречневая Соба, уп. 300г. Китай</t>
-  </si>
-  <si>
-    <t>Лапша пшеничная Удон, уп. 300г. Китай</t>
-  </si>
-  <si>
-    <t>Лапша Рамен яичная в брикетах 1кг</t>
-  </si>
-  <si>
-    <t>Лапша Сомен, уп. 300г. Китай</t>
-  </si>
-  <si>
-    <t>Лапша Яичная Kekeshi, Китай, 0,3кг</t>
-  </si>
-  <si>
-    <t>Макароны № 004 Спагетти "Дельверде" (0,500кг) кор 24 шт.</t>
-  </si>
-  <si>
-    <t>Макароны № 081 Феттучине "Дельверде" (0,250кг) кор. 12 шт.</t>
-  </si>
-  <si>
-    <t>Мука высшего сорта (СуперМука для пиццы) СТАНДАРТ, 10 кг/мешок</t>
-  </si>
-  <si>
-    <t>Рисовая лапша 5мм AROY-D 454 г</t>
-  </si>
-  <si>
-    <t>Смесь темпурная 1уп/1кг</t>
-  </si>
-  <si>
-    <t>Смесь темпурная OSHI уп/18 кг</t>
-  </si>
-  <si>
-    <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
-  </si>
-  <si>
-    <t>Сухари панировочные "Панко", 10кг, Россия</t>
-  </si>
-  <si>
-    <t>Сухари панировочные, Kaneshiro, уп. 1кг, Малайзия</t>
-  </si>
-  <si>
-    <t>Сухари панировочные, Kasho, уп. 1кг, Малайзия</t>
-  </si>
-  <si>
-    <t>Мясо и полуфабрикаты</t>
-  </si>
-  <si>
-    <t>Бекон Классический в/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
-    <t>Бекон с/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
-    <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
-  </si>
-  <si>
-    <t>Бекон с/к мясное ассорти № 4</t>
-  </si>
-  <si>
-    <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
-  </si>
-  <si>
-    <t>Колбаса Пепперони в/к "Пикантная"</t>
-  </si>
-  <si>
-    <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
-  </si>
-  <si>
-    <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
-  </si>
-  <si>
-    <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
-  </si>
-  <si>
     <t>Растения и грибы</t>
   </si>
   <si>
@@ -523,9 +529,6 @@
     <t>Листья каффир-лайма сушеные HOM-D, ResFood, Таиланд, 100гр*12   </t>
   </si>
   <si>
-    <t>Лук жареный 1 кг/уп</t>
-  </si>
-  <si>
     <t>Редька маринованная Hikari 0,6 кг, Китай</t>
   </si>
   <si>
@@ -607,6 +610,9 @@
     <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
   </si>
   <si>
+    <t>Форель с/с пласт Трим Д ( тм АльянсПромСнаб )</t>
+  </si>
+  <si>
     <t>Форель филе полуфабрикат для суши ( 600г-900г) с/с, в/у, Трим С, (Фуд Тим) </t>
   </si>
   <si>
@@ -616,6 +622,9 @@
     <t>Форель филе слабосол 5%, в/у, Трим С (Фуд Тим) Мурманск</t>
   </si>
   <si>
+    <t>Форель филе, в/у, 0,6-0,9 кг, Трим С (тм "АльянсПромСнаб")</t>
+  </si>
+  <si>
     <t>Соевый соус. Уксус. Мирин</t>
   </si>
   <si>
@@ -658,9 +667,6 @@
     <t>Соус Ворчестер (Вустерский) 1ст.б/140 мл, Appel, Германия</t>
   </si>
   <si>
-    <t>Соус Ворчестер (Вустерский) 4л/шт HEINZ</t>
-  </si>
-  <si>
     <t>Соус Гурмикс Барбекю, 1кг, Россия</t>
   </si>
   <si>
@@ -697,9 +703,6 @@
     <t>Соус Унаги, Genso, 1,5л, Россия</t>
   </si>
   <si>
-    <t>Соус Унаги, Tamaki, 1.8л</t>
-  </si>
-  <si>
     <t>Соус устричный высшей категории 510 г. ст/бт</t>
   </si>
   <si>
@@ -721,22 +724,22 @@
     <t>Соус Шрирача острая, CHANG, ResFood, Таиланд, 500гр.</t>
   </si>
   <si>
-    <t>Соус Шрирача острый Uni- Eagle 475г, пл/б</t>
-  </si>
-  <si>
     <t>Сыр. Майонез</t>
   </si>
   <si>
     <t>FriendChef CREAM CHEESE Сыр творожный сливочный с массовой долей жира в сухом веществе 65%  (10 кг) </t>
   </si>
   <si>
-    <t>Крем сыр кулинарный "Париж" (3,3 кг) "УМК"</t>
-  </si>
-  <si>
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
   </si>
   <si>
+    <t>Сыр творожный Professional 65% 2,2 кг, SERVOLUX PROFESSIONAL, Беларусь</t>
+  </si>
+  <si>
     <t>Сыр творожный сливочный Милетто ROLL CHEESE, мдж 62% (3,3 кг)</t>
+  </si>
+  <si>
+    <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
   </si>
 </sst>
 </file>
@@ -925,7 +928,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D234"/>
+  <dimension ref="D235"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -998,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>41</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="true" outlineLevel="1">
@@ -1009,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>41</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="true" outlineLevel="1">
@@ -1020,21 +1023,21 @@
         <v>5</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" ht="22" customHeight="true" outlineLevel="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="true" outlineLevel="1">
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="12" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D11" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="true" outlineLevel="1">
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1042,10 +1045,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="true" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="true" outlineLevel="1">
@@ -1064,29 +1067,29 @@
         <v>5</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="15" ht="33" customHeight="true" outlineLevel="1">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="15" ht="22" customHeight="true" outlineLevel="1">
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D15" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" ht="22" customHeight="true" outlineLevel="1">
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="12" t="n">
-        <v>1540</v>
+      <c r="D16" s="11" t="n">
+        <v>956</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true" outlineLevel="1">
@@ -1097,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="12" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true" outlineLevel="1">
@@ -1107,27 +1110,27 @@
       <c r="C18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="11" t="n">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="19" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B19" s="9" t="s">
+      <c r="D18" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="20" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true" outlineLevel="1">
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="1">
@@ -1149,7 +1152,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
+    <row r="23" ht="22" customHeight="true" outlineLevel="1">
       <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
@@ -1157,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1168,10 +1171,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="true" outlineLevel="1">
@@ -1190,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" ht="22" customHeight="true" outlineLevel="1">
@@ -1201,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="true" outlineLevel="1">
@@ -1212,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
@@ -1233,24 +1236,24 @@
       <c r="C30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="11" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B31" s="9" t="s">
+      <c r="D30" s="12" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="12" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B32" s="8" t="s">
+    </row>
+    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B32" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
@@ -1260,8 +1263,8 @@
       <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="12" t="n">
-        <v>1300</v>
+      <c r="D33" s="11" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="1">
@@ -1272,10 +1275,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true" outlineLevel="1">
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>720</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="true" outlineLevel="1">
@@ -1294,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>870</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="true" outlineLevel="1">
@@ -1305,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="11" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="true" outlineLevel="1">
@@ -1316,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="true" outlineLevel="1">
@@ -1327,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="true" outlineLevel="1">
@@ -1338,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true" outlineLevel="1">
@@ -1349,23 +1352,23 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="42" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B42" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B43" s="8" t="s">
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B43" s="9" t="s">
         <v>43</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
@@ -1376,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
@@ -1387,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>60</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
@@ -1398,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="11" t="n">
-        <v>143</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1414,7 +1417,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="22" customHeight="true" outlineLevel="1">
@@ -1463,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>760</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true" outlineLevel="1">
@@ -1474,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>760</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="true" outlineLevel="1">
@@ -1485,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
@@ -1496,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="true" outlineLevel="1">
@@ -1507,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="11" t="n">
-        <v>710</v>
+        <v>670</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1518,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>710</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
@@ -1529,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>710</v>
+        <v>670</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="1">
@@ -1540,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>710</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true" outlineLevel="1">
@@ -1559,7 +1562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" ht="22" customHeight="true" outlineLevel="1">
+    <row r="63" ht="33" customHeight="true" outlineLevel="1">
       <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
@@ -1567,10 +1570,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="64" ht="33" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="true" outlineLevel="1">
       <c r="B64" s="9" t="s">
         <v>65</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1592,20 +1595,20 @@
         <v>720</v>
       </c>
     </row>
-    <row r="66" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B66" s="9" t="s">
+    <row r="66" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B66" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="67" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="67" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B67" s="9" t="s">
         <v>68</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="11" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
@@ -1616,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
@@ -1627,10 +1630,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" ht="11" customHeight="true" outlineLevel="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" ht="22" customHeight="true" outlineLevel="1">
       <c r="B70" s="9" t="s">
         <v>71</v>
       </c>
@@ -1638,10 +1641,10 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" ht="22" customHeight="true" outlineLevel="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true" outlineLevel="1">
       <c r="B71" s="9" t="s">
         <v>72</v>
       </c>
@@ -1649,23 +1652,23 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B72" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B72" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B73" s="8" t="s">
+    </row>
+    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B73" s="9" t="s">
         <v>74</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
@@ -1676,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1687,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1698,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1709,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1720,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1731,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>160</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1742,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>590</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
@@ -1753,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
@@ -1764,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="true" outlineLevel="1">
@@ -1778,31 +1781,31 @@
         <v>279</v>
       </c>
     </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B84" s="9" t="s">
+    <row r="84" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="85" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B85" s="8" t="s">
+    </row>
+    <row r="85" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B85" s="9" t="s">
         <v>86</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="12" t="n">
+        <v>1460</v>
       </c>
     </row>
     <row r="86" ht="22" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D86" s="12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
@@ -1810,10 +1813,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1821,10 +1824,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88" s="12" t="n">
-        <v>2500</v>
+        <v>87</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1832,21 +1835,21 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="11" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="true" outlineLevel="1">
@@ -1854,10 +1857,10 @@
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1865,7 +1868,7 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="11" t="n">
         <v>320</v>
@@ -1879,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="11" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
@@ -1887,10 +1890,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>450</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1898,7 +1901,7 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D95" s="11" t="n">
         <v>620</v>
@@ -1923,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="11" t="n">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
@@ -1931,7 +1934,7 @@
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D98" s="12" t="n">
         <v>1150</v>
@@ -1942,10 +1945,10 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
@@ -1953,48 +1956,48 @@
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D100" s="12" t="n">
         <v>1600</v>
       </c>
     </row>
-    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B101" s="8" t="s">
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B102" s="9" t="s">
+      <c r="C101" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" s="12" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="102" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B102" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D102" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D103" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="104" ht="22" customHeight="true" outlineLevel="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D104" s="12" t="n">
-        <v>1022</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="105" ht="22" customHeight="true" outlineLevel="1">
@@ -2002,26 +2005,26 @@
         <v>107</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D105" s="12" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B106" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" s="12" t="n">
         <v>1010</v>
       </c>
     </row>
-    <row r="106" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B106" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B107" s="9" t="s">
+    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B107" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="12" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true" outlineLevel="1">
@@ -2029,78 +2032,78 @@
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D108" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B109" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B109" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="110" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B110" s="8" t="s">
+    </row>
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B110" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C110" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
+        <v>87</v>
+      </c>
+      <c r="D111" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="B112" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D112" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+        <v>87</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D113" s="11" t="n">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B114" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B114" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D114" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="115" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B115" s="8" t="s">
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B115" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="116" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C115" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" ht="33" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
         <v>118</v>
       </c>
@@ -2108,37 +2111,37 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" ht="33" customHeight="true" outlineLevel="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="B117" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B118" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B118" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="119" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B119" s="8" t="s">
+    </row>
+    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2146,10 +2149,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" ht="22" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2157,26 +2160,26 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B122" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B122" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B123" s="8" t="s">
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C123" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="11" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>370</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" ht="22" customHeight="true" outlineLevel="1">
@@ -2195,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" ht="22" customHeight="true" outlineLevel="1">
@@ -2206,10 +2209,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>312</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
@@ -2239,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>62</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
@@ -2250,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2261,10 +2264,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" ht="22" customHeight="true" outlineLevel="1">
@@ -2283,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="true" outlineLevel="1">
@@ -2294,10 +2297,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>816</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
@@ -2316,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
@@ -2326,30 +2329,30 @@
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="11" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D137" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="138" ht="33" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="139" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D138" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="11" t="n">
-        <v>270</v>
+      <c r="D139" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="true" outlineLevel="1">
@@ -2359,8 +2362,8 @@
       <c r="C140" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="12" t="n">
-        <v>2000</v>
+      <c r="D140" s="11" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="141" ht="22" customHeight="true" outlineLevel="1">
@@ -2371,23 +2374,23 @@
         <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="142" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B142" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B142" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B143" s="8" t="s">
+    </row>
+    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B143" s="9" t="s">
         <v>146</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="11" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="1">
@@ -2401,59 +2404,59 @@
         <v>295</v>
       </c>
     </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+    <row r="145" ht="22" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" ht="33" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="148" ht="33" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="149" ht="33" customHeight="true" outlineLevel="1">
       <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D149" s="11" t="n">
-        <v>518</v>
+        <v>5</v>
+      </c>
+      <c r="D149" s="12" t="n">
+        <v>1210</v>
       </c>
     </row>
     <row r="150" ht="33" customHeight="true" outlineLevel="1">
@@ -2463,11 +2466,11 @@
       <c r="C150" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="151" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D150" s="11" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="151" ht="22" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
@@ -2475,23 +2478,23 @@
         <v>5</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="152" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B152" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="152" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B152" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="153" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B153" s="8" t="s">
+    </row>
+    <row r="153" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B153" s="9" t="s">
         <v>156</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="11" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="154" ht="22" customHeight="true" outlineLevel="1">
@@ -2499,21 +2502,15 @@
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="155" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B155" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B155" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D155" s="12" t="n">
-        <v>1300</v>
       </c>
     </row>
     <row r="156" ht="22" customHeight="true" outlineLevel="1">
@@ -2521,10 +2518,10 @@
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="1">
@@ -2532,54 +2529,54 @@
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="158" ht="11" customHeight="true" outlineLevel="1">
+        <v>87</v>
+      </c>
+      <c r="D157" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="158" ht="22" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D158" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="159" ht="22" customHeight="true" outlineLevel="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" ht="22" customHeight="true" outlineLevel="1">
       <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>570</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" ht="22" customHeight="true" outlineLevel="1">
@@ -2590,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>465</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" ht="11" customHeight="true" outlineLevel="1">
@@ -2601,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
@@ -2612,72 +2609,72 @@
         <v>5</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="165" ht="11" customHeight="true" outlineLevel="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D165" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B166" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D166" s="11" t="n">
         <v>280</v>
       </c>
     </row>
-    <row r="166" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B166" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B167" s="9" t="s">
+    <row r="167" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B167" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="168" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="168" ht="11" customHeight="true" outlineLevel="1">
       <c r="B168" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D168" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D168" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="169" ht="22" customHeight="true" outlineLevel="1">
       <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D169" s="11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B170" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D170" s="11" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="170" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B170" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B171" s="9" t="s">
+    <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B171" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D171" s="11" t="n">
-        <v>640</v>
       </c>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="1">
@@ -2685,10 +2682,10 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D172" s="11" t="n">
-        <v>360</v>
+        <v>640</v>
       </c>
     </row>
     <row r="173" ht="11" customHeight="true" outlineLevel="1">
@@ -2696,10 +2693,10 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>840</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="1">
@@ -2707,10 +2704,10 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D174" s="12" t="n">
-        <v>1600</v>
+        <v>87</v>
+      </c>
+      <c r="D174" s="11" t="n">
+        <v>840</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
@@ -2718,10 +2715,10 @@
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D175" s="11" t="n">
-        <v>650</v>
+        <v>87</v>
+      </c>
+      <c r="D175" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="1">
@@ -2729,10 +2726,10 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D176" s="12" t="n">
-        <v>1500</v>
+        <v>87</v>
+      </c>
+      <c r="D176" s="11" t="n">
+        <v>650</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="1">
@@ -2740,26 +2737,26 @@
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D177" s="11" t="n">
+        <v>87</v>
+      </c>
+      <c r="D177" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="178" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B178" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" s="11" t="n">
         <v>970</v>
       </c>
     </row>
-    <row r="178" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B178" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="179" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B179" s="9" t="s">
+    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B179" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" s="11" t="n">
-        <v>965</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="true" outlineLevel="1">
@@ -2767,10 +2764,10 @@
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D180" s="11" t="n">
-        <v>780</v>
+        <v>965</v>
       </c>
     </row>
     <row r="181" ht="22" customHeight="true" outlineLevel="1">
@@ -2778,10 +2775,10 @@
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D181" s="12" t="n">
-        <v>1700</v>
+        <v>87</v>
+      </c>
+      <c r="D181" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="true" outlineLevel="1">
@@ -2789,32 +2786,32 @@
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D182" s="12" t="n">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="183" ht="22" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D183" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
+        <v>87</v>
+      </c>
+      <c r="D183" s="12" t="n">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D184" s="12" t="n">
-        <v>1020</v>
+        <v>87</v>
+      </c>
+      <c r="D184" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2822,10 +2819,10 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1539</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="186" ht="22" customHeight="true" outlineLevel="1">
@@ -2833,10 +2830,10 @@
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D186" s="12" t="n">
-        <v>1100</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2844,59 +2841,59 @@
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D187" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="188" ht="22" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D188" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
+        <v>87</v>
+      </c>
+      <c r="D188" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
       <c r="B189" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D189" s="12" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="190" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B190" s="8" t="s">
+    <row r="190" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B190" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="191" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B191" s="9" t="s">
+      <c r="C190" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D190" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="191" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B191" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C191" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="192" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>1400</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
@@ -2904,48 +2901,48 @@
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D193" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="194" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B194" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D194" s="12" t="n">
         <v>1400</v>
       </c>
     </row>
-    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B194" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+        <v>87</v>
+      </c>
+      <c r="D195" s="12" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B197" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="197" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B197" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="12" t="n">
-        <v>3050</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
@@ -2955,8 +2952,8 @@
       <c r="C198" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="12" t="n">
-        <v>2000</v>
+      <c r="D198" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
@@ -2967,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2978,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="201" ht="22" customHeight="true" outlineLevel="1">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="201" ht="11" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
@@ -2989,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -3000,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -3010,11 +3007,11 @@
       <c r="C203" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D203" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="204" ht="22" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>1600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="1">
@@ -3033,26 +3030,32 @@
         <v>5</v>
       </c>
       <c r="D205" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="206" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B206" s="8" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B206" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="207" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C206" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
       <c r="B207" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="208" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D207" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
       <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
@@ -3060,21 +3063,15 @@
         <v>5</v>
       </c>
       <c r="D208" s="12" t="n">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B209" s="9" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="209" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B209" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C209" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D209" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>760</v>
+        <v>410</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3093,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3104,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>660</v>
+        <v>760</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3115,10 +3112,10 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
@@ -3126,7 +3123,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>388</v>
+        <v>660</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3137,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="216" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216" ht="22" customHeight="true" outlineLevel="1">
       <c r="B216" s="9" t="s">
         <v>219</v>
       </c>
@@ -3148,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>450</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3159,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="1">
@@ -3170,7 +3167,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3192,7 +3189,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3203,10 +3200,10 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="222" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="222" ht="11" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
@@ -3214,10 +3211,10 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="1">
@@ -3236,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>858</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" ht="11" customHeight="true" outlineLevel="1">
@@ -3247,10 +3244,10 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="226" ht="11" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>500</v>
+        <v>545</v>
       </c>
     </row>
     <row r="227" ht="22" customHeight="true" outlineLevel="1">
@@ -3269,7 +3266,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" ht="22" customHeight="true" outlineLevel="1">
@@ -3280,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="D228" s="11" t="n">
-        <v>242</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" ht="22" customHeight="true" outlineLevel="1">
@@ -3291,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="D229" s="11" t="n">
-        <v>365</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" ht="16" customHeight="true" s="7" customFormat="true">
@@ -3310,26 +3307,26 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="232" ht="22" customHeight="true" outlineLevel="1">
+    <row r="232" ht="11" customHeight="true" outlineLevel="1">
       <c r="B232" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="11" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D232" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="233" ht="22" customHeight="true" outlineLevel="1">
       <c r="B233" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C233" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D233" s="12" t="n">
-        <v>1900</v>
+      <c r="D233" s="11" t="n">
+        <v>924</v>
       </c>
     </row>
     <row r="234" ht="22" customHeight="true" outlineLevel="1">
@@ -3341,6 +3338,17 @@
       </c>
       <c r="D234" s="12" t="n">
         <v>1495</v>
+      </c>
+    </row>
+    <row r="235" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B235" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="11" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Маслины Alisa резаные (3,000 кг) ж/б, Испания</t>
   </si>
   <si>
+    <t>Маслины резаные Green King 3100 мл, ж/б, Испания</t>
+  </si>
+  <si>
     <t>Огурцы марин. слайсы т.м. Домашняя Трапеза (1,700) упак. 5шт</t>
   </si>
   <si>
@@ -79,15 +82,18 @@
     <t>Тунец филе в с/с ж/б 1,7 кг, Blue Oceano, Тайланд</t>
   </si>
   <si>
-    <t>Тунец филе кусочки в с/с ж/б 1,7 кг, Эквадор</t>
-  </si>
-  <si>
     <t>Бульоны. Основы для супов. Приправа</t>
   </si>
   <si>
     <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
   </si>
   <si>
+    <t>Паста мисо Genzo, светлая, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста мисо Genzo, темная, уп. 1 кг. Китай</t>
+  </si>
+  <si>
     <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
   </si>
   <si>
+    <t>Паста острая Табаджан, 0,92 кг</t>
+  </si>
+  <si>
     <t>Паста Том Ям CHANG, Таиланд, 400г</t>
   </si>
   <si>
@@ -127,9 +136,6 @@
     <t>Водоросли нори "Risma" 100л, Китай</t>
   </si>
   <si>
-    <t>Водоросли Нори Голд, 100л, 300г, Китай</t>
-  </si>
-  <si>
     <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
   </si>
   <si>
+    <t>Мясо камчатского краба Роза</t>
+  </si>
+  <si>
     <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
   </si>
   <si>
@@ -490,15 +499,6 @@
     <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
   </si>
   <si>
-    <t>Напитки</t>
-  </si>
-  <si>
-    <t>Лимонад газированный Дюшес ЧЕРНОГОЛОВКА, ПЭТ 0,5</t>
-  </si>
-  <si>
-    <t>Лимонад газированный Кола ЧЕРНОГОЛОВКА, ПЭТ 0,5</t>
-  </si>
-  <si>
     <t>Растения и грибы</t>
   </si>
   <si>
@@ -508,9 +508,6 @@
     <t>Грибы шиитаке уп. 1кг, Китай</t>
   </si>
   <si>
-    <t>Имбирь маринованный, белый, уп. 1.5кг, Китай</t>
-  </si>
-  <si>
     <t>Имбирь маринованный, розовый, Китай</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
     <t>Рис</t>
   </si>
   <si>
+    <t>Рис "Hansey", Россия, 25кг*1</t>
+  </si>
+  <si>
     <t>Рис IKIGAI 22.68 кг</t>
   </si>
   <si>
@@ -604,18 +604,12 @@
     <t>Форель филе 0.6-1,5 кг с/м, Китай</t>
   </si>
   <si>
-    <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
-  </si>
-  <si>
     <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
   </si>
   <si>
     <t>Форель с/с пласт Трим Д ( тм АльянсПромСнаб )</t>
   </si>
   <si>
-    <t>Форель филе полуфабрикат для суши ( 600г-900г) с/с, в/у, Трим С, (Фуд Тим) </t>
-  </si>
-  <si>
     <t>Форель филе полуфабрикат для суши 2% с/с, в/у, Трим С (Фуд Тим) Мурманск</t>
   </si>
   <si>
@@ -634,6 +628,9 @@
     <t>Соевый соус "Yakimal", 20л</t>
   </si>
   <si>
+    <t>Соевый соус Padam Premium 1/18л, Китай</t>
+  </si>
+  <si>
     <t>Соевый соус Padam, 18л, Китай</t>
   </si>
   <si>
@@ -685,24 +682,36 @@
     <t>Соус Рыбный AROY-D, 0,7л (0,84кг), ст/б</t>
   </si>
   <si>
+    <t>Соус сладкий чили, Россия, 1кг, пакет</t>
+  </si>
+  <si>
     <t>Соус сырный HAINZ 1 кг</t>
   </si>
   <si>
     <t>Соус Терияки ТМ "Yakimal", 1,8л</t>
   </si>
   <si>
+    <t>Соус Терияки, 1.5л, Genso Россия</t>
+  </si>
+  <si>
+    <t>Соус Терияки, 1.8л, вес 2.2 кг, Китай</t>
+  </si>
+  <si>
     <t>Соус Терияки, Tamaki, 1,8л</t>
   </si>
   <si>
-    <t>Соус Унаги ASA, 1.8</t>
-  </si>
-  <si>
     <t>Соус Унаги ТМ "Yakimal", 1,8л</t>
   </si>
   <si>
+    <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
+  </si>
+  <si>
     <t>Соус Унаги, Genso, 1,5л, Россия</t>
   </si>
   <si>
+    <t>Соус Унаги, Tamaki, 1.8л</t>
+  </si>
+  <si>
     <t>Соус устричный высшей категории 510 г. ст/бт</t>
   </si>
   <si>
@@ -727,10 +736,10 @@
     <t>Сыр. Майонез</t>
   </si>
   <si>
-    <t>FriendChef CREAM CHEESE Сыр творожный сливочный с массовой долей жира в сухом веществе 65%  (10 кг) </t>
-  </si>
-  <si>
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
+  </si>
+  <si>
+    <t>Сыр творожный FriendChef CREAM CHEESE сливочный с массовой долей жира в сухом веществе 65%  (10 кг) </t>
   </si>
   <si>
     <t>Сыр творожный Professional 65% 2,2 кг, SERVOLUX PROFESSIONAL, Беларусь</t>
@@ -928,7 +937,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D235"/>
+  <dimension ref="D238"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1012,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>305</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="true" outlineLevel="1">
@@ -1023,18 +1032,18 @@
         <v>5</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="true" outlineLevel="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="true" outlineLevel="1">
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="n">
-        <v>1900</v>
+      <c r="D11" s="11" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="true" outlineLevel="1">
@@ -1044,8 +1053,8 @@
       <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="n">
-        <v>650</v>
+      <c r="D12" s="12" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="true" outlineLevel="1">
@@ -1056,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="true" outlineLevel="1">
@@ -1066,11 +1075,11 @@
       <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D14" s="11" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="true" outlineLevel="1">
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>1000</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="16" ht="22" customHeight="true" outlineLevel="1">
@@ -1088,8 +1097,8 @@
       <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="11" t="n">
-        <v>956</v>
+      <c r="D16" s="12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true" outlineLevel="1">
@@ -1099,8 +1108,8 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12" t="n">
-        <v>1150</v>
+      <c r="D17" s="11" t="n">
+        <v>956</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true" outlineLevel="1">
@@ -1111,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="12" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1130,7 +1139,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" ht="11" customHeight="true" outlineLevel="1">
+    <row r="21" ht="22" customHeight="true" outlineLevel="1">
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
@@ -1138,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true" outlineLevel="1">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -1149,10 +1158,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true" outlineLevel="1">
       <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="1">
@@ -1171,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="true" outlineLevel="1">
@@ -1182,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
       <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
@@ -1193,10 +1202,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="27" ht="22" customHeight="true" outlineLevel="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="true" outlineLevel="1">
@@ -1215,10 +1224,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1226,23 +1235,29 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true" outlineLevel="1">
       <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="12" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="31" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B31" s="8" t="s">
+      <c r="D30" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B31" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="1">
@@ -1252,8 +1267,8 @@
       <c r="C32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="12" t="n">
-        <v>1300</v>
+      <c r="D32" s="11" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
@@ -1263,33 +1278,27 @@
       <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B34" s="9" t="s">
+      <c r="D33" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="35" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="36" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D35" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true" outlineLevel="1">
       <c r="B36" s="9" t="s">
         <v>36</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>425</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="true" outlineLevel="1">
@@ -1308,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="11" t="n">
-        <v>600</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="true" outlineLevel="1">
@@ -1319,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="true" outlineLevel="1">
@@ -1330,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="true" outlineLevel="1">
@@ -1341,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true" outlineLevel="1">
@@ -1352,15 +1361,21 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B42" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true" outlineLevel="1">
       <c r="B43" s="9" t="s">
         <v>43</v>
       </c>
@@ -1368,18 +1383,12 @@
         <v>5</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B44" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B44" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
@@ -1390,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
@@ -1401,64 +1410,70 @@
         <v>5</v>
       </c>
       <c r="D46" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B47" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B49" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="11" t="n">
+    </row>
+    <row r="50" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B50" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="11" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="49" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B50" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+    <row r="51" ht="22" customHeight="true" outlineLevel="1">
       <c r="B51" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B52" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B52" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
       <c r="B53" s="9" t="s">
         <v>54</v>
       </c>
@@ -1466,18 +1481,12 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="54" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B54" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B54" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="11" t="n">
-        <v>694</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="true" outlineLevel="1">
@@ -1488,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>650</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
@@ -1499,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>650</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="true" outlineLevel="1">
@@ -1510,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="11" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1521,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
@@ -1554,15 +1563,21 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B62" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B62" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true" outlineLevel="1">
       <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
@@ -1570,21 +1585,15 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="64" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B64" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B64" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="65" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="65" ht="33" customHeight="true" outlineLevel="1">
       <c r="B65" s="9" t="s">
         <v>66</v>
       </c>
@@ -1592,15 +1601,21 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B66" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="11" t="n">
         <v>720</v>
       </c>
     </row>
-    <row r="66" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B66" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="1">
+    <row r="67" ht="22" customHeight="true" outlineLevel="1">
       <c r="B67" s="9" t="s">
         <v>68</v>
       </c>
@@ -1608,18 +1623,12 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B68" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B68" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="11" t="n">
-        <v>212</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
@@ -1630,10 +1639,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" ht="22" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="B70" s="9" t="s">
         <v>71</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
@@ -1652,15 +1661,21 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B72" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
         <v>74</v>
       </c>
@@ -1668,18 +1683,12 @@
         <v>5</v>
       </c>
       <c r="D73" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B74" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B74" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="11" t="n">
-        <v>250</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1690,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>950</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1701,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1712,7 +1721,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1723,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1734,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>590</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1745,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
@@ -1756,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
@@ -1767,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="true" outlineLevel="1">
@@ -1778,12 +1787,18 @@
         <v>5</v>
       </c>
       <c r="D83" s="11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B84" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="11" t="n">
         <v>279</v>
-      </c>
-    </row>
-    <row r="84" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B84" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1791,32 +1806,26 @@
         <v>86</v>
       </c>
       <c r="C85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B86" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="D85" s="12" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B86" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="12" t="n">
-        <v>2000</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>2500</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1824,10 +1833,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="11" t="n">
-        <v>480</v>
+        <v>89</v>
+      </c>
+      <c r="D88" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1835,21 +1844,21 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
+        <v>89</v>
+      </c>
+      <c r="D89" s="12" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D90" s="11" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="true" outlineLevel="1">
@@ -1857,57 +1866,57 @@
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="92" ht="22" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="B92" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="93" ht="33" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" ht="22" customHeight="true" outlineLevel="1">
       <c r="B93" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D93" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="94" ht="22" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="96" ht="22" customHeight="true" outlineLevel="1">
+        <v>89</v>
+      </c>
+      <c r="D95" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="96" ht="33" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
@@ -1915,29 +1924,29 @@
         <v>5</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="B97" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D97" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" ht="22" customHeight="true" outlineLevel="1">
       <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" s="12" t="n">
-        <v>1150</v>
+        <v>89</v>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true" outlineLevel="1">
@@ -1945,70 +1954,70 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D99" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="11" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D101" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="102" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B102" s="8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C102" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="12" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D103" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="104" ht="22" customHeight="true" outlineLevel="1">
       <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D104" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="105" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B105" s="9" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B105" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="12" t="n">
-        <v>1022</v>
       </c>
     </row>
     <row r="106" ht="22" customHeight="true" outlineLevel="1">
@@ -2016,15 +2025,21 @@
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D106" s="12" t="n">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B107" s="8" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B107" s="9" t="s">
         <v>109</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true" outlineLevel="1">
@@ -2032,26 +2047,26 @@
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B109" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" s="12" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="109" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B109" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B110" s="9" t="s">
+      <c r="C109" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="12" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="110" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B110" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D110" s="11" t="n">
-        <v>900</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="true" outlineLevel="1">
@@ -2059,37 +2074,37 @@
         <v>113</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D111" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B112" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B112" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D112" s="11" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D113" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B114" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B114" s="9" t="s">
         <v>116</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D114" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
@@ -2097,75 +2112,75 @@
         <v>117</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="116" ht="33" customHeight="true" outlineLevel="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="116" ht="22" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="11" t="n">
+        <v>89</v>
+      </c>
+      <c r="D116" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="117" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B117" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B118" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B119" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="11" t="n">
         <v>353</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B117" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D117" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B118" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B119" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="D120" s="11" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B121" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="121" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B121" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="122" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B122" s="8" t="s">
+    </row>
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B122" s="9" t="s">
         <v>125</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
@@ -2176,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" ht="22" customHeight="true" outlineLevel="1">
@@ -2187,21 +2202,15 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B125" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B125" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2209,10 +2218,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" ht="22" customHeight="true" outlineLevel="1">
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
@@ -2220,10 +2229,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" ht="22" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2231,10 +2240,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>200</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
@@ -2253,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2264,10 +2273,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2275,10 +2284,10 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="B133" s="9" t="s">
         <v>136</v>
       </c>
@@ -2286,10 +2295,10 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2297,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" ht="22" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
@@ -2308,10 +2317,10 @@
         <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
@@ -2319,21 +2328,21 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="138" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D137" s="11" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
@@ -2341,32 +2350,32 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D139" s="11" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D140" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="141" ht="33" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
@@ -2374,15 +2383,21 @@
         <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B142" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C142" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="143" ht="22" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
@@ -2390,10 +2405,10 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" ht="22" customHeight="true" outlineLevel="1">
       <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
@@ -2401,18 +2416,12 @@
         <v>5</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B145" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B145" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D145" s="11" t="n">
-        <v>325</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="1">
@@ -2420,13 +2429,13 @@
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" ht="33" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
@@ -2434,29 +2443,29 @@
         <v>5</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="149" ht="33" customHeight="true" outlineLevel="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="12" t="n">
-        <v>1210</v>
+        <v>89</v>
+      </c>
+      <c r="D149" s="11" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="150" ht="33" customHeight="true" outlineLevel="1">
@@ -2467,26 +2476,32 @@
         <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="151" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="152" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B152" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="153" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C152" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="153" ht="33" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
@@ -2494,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>41</v>
+        <v>820</v>
       </c>
     </row>
     <row r="154" ht="22" customHeight="true" outlineLevel="1">
@@ -2505,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>41</v>
+        <v>635</v>
       </c>
     </row>
     <row r="155" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2518,7 +2533,7 @@
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D156" s="11" t="n">
         <v>420</v>
@@ -2529,13 +2544,13 @@
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D157" s="12" t="n">
         <v>1300</v>
       </c>
     </row>
-    <row r="158" ht="22" customHeight="true" outlineLevel="1">
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
@@ -2543,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="11" t="n">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
@@ -2551,18 +2566,18 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" ht="22" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D160" s="11" t="n">
         <v>360</v>
@@ -2573,13 +2588,13 @@
         <v>164</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
@@ -2587,10 +2602,10 @@
         <v>5</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>570</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
@@ -2609,34 +2624,34 @@
         <v>5</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" ht="11" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B166" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B166" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D166" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="167" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B167" s="8" t="s">
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B167" s="9" t="s">
         <v>170</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" s="11" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2655,7 +2670,7 @@
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D169" s="11" t="n">
         <v>80</v>
@@ -2666,10 +2681,10 @@
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D170" s="11" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2682,7 +2697,7 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D172" s="11" t="n">
         <v>640</v>
@@ -2693,7 +2708,7 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D173" s="11" t="n">
         <v>360</v>
@@ -2704,7 +2719,7 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D174" s="11" t="n">
         <v>840</v>
@@ -2715,7 +2730,7 @@
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D175" s="12" t="n">
         <v>1600</v>
@@ -2726,7 +2741,7 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D176" s="11" t="n">
         <v>650</v>
@@ -2737,7 +2752,7 @@
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D177" s="12" t="n">
         <v>1500</v>
@@ -2748,7 +2763,7 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D178" s="11" t="n">
         <v>970</v>
@@ -2775,7 +2790,7 @@
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D181" s="11" t="n">
         <v>780</v>
@@ -2786,7 +2801,7 @@
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D182" s="12" t="n">
         <v>1550</v>
@@ -2797,7 +2812,7 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D183" s="12" t="n">
         <v>1785</v>
@@ -2808,7 +2823,7 @@
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D184" s="11" t="n">
         <v>760</v>
@@ -2819,7 +2834,7 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D185" s="12" t="n">
         <v>1020</v>
@@ -2830,10 +2845,10 @@
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D186" s="12" t="n">
-        <v>1460</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2841,7 +2856,7 @@
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D187" s="11" t="n">
         <v>750</v>
@@ -2852,7 +2867,7 @@
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D188" s="11" t="n">
         <v>860</v>
@@ -2863,37 +2878,37 @@
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D189" s="12" t="n">
         <v>1420</v>
       </c>
     </row>
-    <row r="190" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B190" s="9" t="s">
+    <row r="190" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B190" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C190" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D190" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="191" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B191" s="8" t="s">
+    </row>
+    <row r="191" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C191" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D191" s="12" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="192" ht="33" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>2350</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
@@ -2901,59 +2916,59 @@
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="194" ht="33" customHeight="true" outlineLevel="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="194" ht="22" customHeight="true" outlineLevel="1">
       <c r="B194" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D194" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="195" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B195" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B195" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C195" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D195" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D196" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="197" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B197" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C197" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="198" ht="22" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="11" t="n">
-        <v>115</v>
+      <c r="D198" s="12" t="n">
+        <v>3675</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
@@ -2964,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>1800</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2975,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>3050</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -2986,7 +3001,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -2997,10 +3012,10 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="203" ht="11" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="203" ht="22" customHeight="true" outlineLevel="1">
       <c r="B203" s="9" t="s">
         <v>206</v>
       </c>
@@ -3008,10 +3023,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="204" ht="22" customHeight="true" outlineLevel="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="204" ht="11" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
@@ -3019,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="1">
@@ -3029,8 +3044,8 @@
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="12" t="n">
-        <v>2300</v>
+      <c r="D205" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3040,8 +3055,8 @@
       <c r="C206" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="11" t="n">
-        <v>115</v>
+      <c r="D206" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3052,26 +3067,26 @@
         <v>5</v>
       </c>
       <c r="D207" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B208" s="9" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="208" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B208" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C208" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="209" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B209" s="8" t="s">
+    </row>
+    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="210" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C209" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="210" ht="11" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3090,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>350</v>
+        <v>760</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3101,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3112,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>800</v>
+        <v>660</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3123,10 +3138,10 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="215" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" ht="22" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
         <v>218</v>
       </c>
@@ -3134,10 +3149,10 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="216" ht="22" customHeight="true" outlineLevel="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" ht="11" customHeight="true" outlineLevel="1">
       <c r="B216" s="9" t="s">
         <v>219</v>
       </c>
@@ -3145,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>388</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3178,7 +3193,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3189,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>530</v>
+        <v>750</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3211,10 +3226,10 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="1">
@@ -3233,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>265</v>
+        <v>380</v>
       </c>
     </row>
     <row r="225" ht="11" customHeight="true" outlineLevel="1">
@@ -3244,10 +3259,10 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="226" ht="11" customHeight="true" outlineLevel="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
@@ -3255,10 +3270,10 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="227" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" ht="11" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
@@ -3266,10 +3281,10 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="228" ht="22" customHeight="true" outlineLevel="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="228" ht="11" customHeight="true" outlineLevel="1">
       <c r="B228" s="9" t="s">
         <v>231</v>
       </c>
@@ -3277,10 +3292,10 @@
         <v>5</v>
       </c>
       <c r="D228" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="229" ht="11" customHeight="true" outlineLevel="1">
       <c r="B229" s="9" t="s">
         <v>232</v>
       </c>
@@ -3288,48 +3303,48 @@
         <v>5</v>
       </c>
       <c r="D229" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="230" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B230" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="230" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B230" s="9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="231" ht="44" customHeight="true" outlineLevel="1">
+      <c r="C230" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="231" ht="22" customHeight="true" outlineLevel="1">
       <c r="B231" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C231" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D231" s="12" t="n">
-        <v>4220</v>
-      </c>
-    </row>
-    <row r="232" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D231" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232" ht="22" customHeight="true" outlineLevel="1">
       <c r="B232" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="233" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B233" s="9" t="s">
+      <c r="D232" s="11" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B233" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C233" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="11" t="n">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="234" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="234" ht="11" customHeight="true" outlineLevel="1">
       <c r="B234" s="9" t="s">
         <v>237</v>
       </c>
@@ -3337,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="D234" s="12" t="n">
-        <v>1495</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="235" ht="33" customHeight="true" outlineLevel="1">
@@ -3347,7 +3362,40 @@
       <c r="C235" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D235" s="11" t="n">
+      <c r="D235" s="12" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="236" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B236" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="11" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="237" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B237" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="12" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="238" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B238" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="11" t="n">
         <v>500</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Перец Халапеньо маринованный резанный (2,75 кг) ж/б "Сан Маркос" Мексика</t>
   </si>
   <si>
-    <t>Перец Халапеньо резаный маринованный "Antica Napoli" (2,270 кг/2,37 л) Турция</t>
-  </si>
-  <si>
     <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
     <t>Паста острая Табаджан, 0,92 кг</t>
   </si>
   <si>
+    <t>Паста Том Кха AROY- D, Тайланд, 1кг</t>
+  </si>
+  <si>
     <t>Паста Том Ям CHANG, Таиланд, 400г</t>
   </si>
   <si>
@@ -223,6 +223,9 @@
     <t>Картофель</t>
   </si>
   <si>
+    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
+  </si>
+  <si>
     <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
   </si>
   <si>
@@ -268,9 +271,6 @@
     <t>Приправа дашида со вкусом говядины, 500 г</t>
   </si>
   <si>
-    <t>Сироп кукурузный 700г 1/20 т.м. DAESANG</t>
-  </si>
-  <si>
     <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
   </si>
   <si>
@@ -295,9 +295,6 @@
     <t>кг</t>
   </si>
   <si>
-    <t>Гребешок Приморский, размер М, с/м, Россия</t>
-  </si>
-  <si>
     <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
     <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
   </si>
   <si>
+    <t>Сливки Крем сливочный 33%, 1л, Петмол, Россия</t>
+  </si>
+  <si>
     <t>Мучная продукция</t>
   </si>
   <si>
@@ -460,6 +460,9 @@
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
+    <t>Сухари панировочные "Панко" "Тамаки", 1кг</t>
+  </si>
+  <si>
     <t>Сухари панировочные "Панко", 10кг, Россия</t>
   </si>
   <si>
@@ -475,9 +478,6 @@
     <t>Бекон Классический в/к 500гр, МК ЭКО</t>
   </si>
   <si>
-    <t>Бекон с/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
     <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
   </si>
   <si>
@@ -565,9 +565,6 @@
     <t>Сибас, целый, 300-400г, Турция</t>
   </si>
   <si>
-    <t>Форель ПБГ (2,7- 4,1кг ) Турция</t>
-  </si>
-  <si>
     <t>Форель радужная, 1,8-2,7кг, Турция</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>Соусы паназиатские</t>
   </si>
   <si>
-    <t>Соус Ворчестер (Вустерский) 1ст.б/140 мл, Appel, Германия</t>
-  </si>
-  <si>
     <t>Соус Гурмикс Барбекю, 1кг, Россия</t>
   </si>
   <si>
@@ -697,7 +691,10 @@
     <t>Соус Терияки, 1.8л, вес 2.2 кг, Китай</t>
   </si>
   <si>
-    <t>Соус Терияки, Tamaki, 1,8л</t>
+    <t>Соус Терияки, ТМ "Тамаки", 1,8л</t>
+  </si>
+  <si>
+    <t>Соус Унаги Тамаки, 1.8 л</t>
   </si>
   <si>
     <t>Соус Унаги ТМ "Yakimal", 1,8л</t>
@@ -709,15 +706,9 @@
     <t>Соус Унаги, Genso, 1,5л, Россия</t>
   </si>
   <si>
-    <t>Соус Унаги, Tamaki, 1.8л</t>
-  </si>
-  <si>
     <t>Соус устричный высшей категории 510 г. ст/бт</t>
   </si>
   <si>
-    <t>Соус устричный, Тайланд 815г</t>
-  </si>
-  <si>
     <t>Соус Хойсин  PRB 2,20кг пл/бут</t>
   </si>
   <si>
@@ -736,10 +727,13 @@
     <t>Сыр. Майонез</t>
   </si>
   <si>
+    <t>Крем сыр кулинарный "Париж" (3,3 кг) "УМК"</t>
+  </si>
+  <si>
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
   </si>
   <si>
-    <t>Сыр творожный FriendChef CREAM CHEESE сливочный с массовой долей жира в сухом веществе 65%  (10 кг) </t>
+    <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
   </si>
   <si>
     <t>Сыр творожный Professional 65% 2,2 кг, SERVOLUX PROFESSIONAL, Беларусь</t>
@@ -749,6 +743,9 @@
   </si>
   <si>
     <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
+  </si>
+  <si>
+    <t>Тофу натуральный, продукт белковый, 400г</t>
   </si>
 </sst>
 </file>
@@ -937,7 +934,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D238"/>
+  <dimension ref="D237"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1075,11 +1072,11 @@
       <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D14" s="12" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="15" ht="22" customHeight="true" outlineLevel="1">
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>1320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" ht="22" customHeight="true" outlineLevel="1">
@@ -1097,8 +1094,8 @@
       <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="12" t="n">
-        <v>1000</v>
+      <c r="D16" s="11" t="n">
+        <v>956</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="true" outlineLevel="1">
@@ -1108,24 +1105,24 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="11" t="n">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B18" s="9" t="s">
+      <c r="D17" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="19" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B19" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true" outlineLevel="1">
@@ -1136,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1150,7 +1147,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" ht="22" customHeight="true" outlineLevel="1">
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="1">
@@ -1172,7 +1169,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+    <row r="24" ht="22" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1180,10 +1177,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>750</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="1">
@@ -1202,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>690</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1224,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" ht="22" customHeight="true" outlineLevel="1">
@@ -1339,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="true" outlineLevel="1">
@@ -1593,7 +1590,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" ht="33" customHeight="true" outlineLevel="1">
+    <row r="65" ht="22" customHeight="true" outlineLevel="1">
       <c r="B65" s="9" t="s">
         <v>66</v>
       </c>
@@ -1601,10 +1598,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="66" ht="22" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="66" ht="33" customHeight="true" outlineLevel="1">
       <c r="B66" s="9" t="s">
         <v>67</v>
       </c>
@@ -1612,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1626,20 +1623,20 @@
         <v>720</v>
       </c>
     </row>
-    <row r="68" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B68" s="8" t="s">
+    <row r="68" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B68" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B69" s="9" t="s">
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B69" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="11" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
@@ -1650,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
@@ -1661,10 +1658,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
@@ -1672,10 +1669,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="11" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" ht="11" customHeight="true" outlineLevel="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
         <v>74</v>
       </c>
@@ -1683,23 +1680,23 @@
         <v>5</v>
       </c>
       <c r="D73" s="11" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B74" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="11" t="n">
         <v>182</v>
       </c>
     </row>
-    <row r="74" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B74" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B75" s="9" t="s">
+    <row r="75" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B75" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1710,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1721,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1732,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1743,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1754,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
@@ -1836,7 +1833,7 @@
         <v>89</v>
       </c>
       <c r="D88" s="12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1846,8 +1843,8 @@
       <c r="C89" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="12" t="n">
-        <v>2500</v>
+      <c r="D89" s="11" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="90" ht="22" customHeight="true" outlineLevel="1">
@@ -1858,10 +1855,10 @@
         <v>89</v>
       </c>
       <c r="D90" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
@@ -1869,10 +1866,10 @@
         <v>89</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92" ht="22" customHeight="true" outlineLevel="1">
       <c r="B92" s="9" t="s">
         <v>94</v>
       </c>
@@ -1880,7 +1877,7 @@
         <v>89</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" ht="22" customHeight="true" outlineLevel="1">
@@ -1891,43 +1888,43 @@
         <v>89</v>
       </c>
       <c r="D93" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="94" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D94" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D94" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="95" ht="33" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D95" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="96" ht="33" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" ht="22" customHeight="true" outlineLevel="1">
       <c r="B97" s="9" t="s">
         <v>99</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>89</v>
       </c>
       <c r="D97" s="11" t="n">
-        <v>370</v>
+        <v>620</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="true" outlineLevel="1">
@@ -1943,10 +1940,10 @@
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D98" s="11" t="n">
-        <v>620</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true" outlineLevel="1">
@@ -1957,21 +1954,21 @@
         <v>5</v>
       </c>
       <c r="D99" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+        <v>89</v>
+      </c>
+      <c r="D100" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
       <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
@@ -1979,10 +1976,10 @@
         <v>89</v>
       </c>
       <c r="D101" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
@@ -1990,10 +1987,10 @@
         <v>89</v>
       </c>
       <c r="D102" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
@@ -2001,37 +1998,37 @@
         <v>89</v>
       </c>
       <c r="D103" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="104" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B104" s="9" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B104" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B105" s="8" t="s">
+    </row>
+    <row r="105" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B105" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C105" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D106" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="107" ht="22" customHeight="true" outlineLevel="1">
       <c r="B107" s="9" t="s">
         <v>109</v>
       </c>
@@ -2039,7 +2036,7 @@
         <v>89</v>
       </c>
       <c r="D107" s="12" t="n">
-        <v>1050</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true" outlineLevel="1">
@@ -2049,92 +2046,92 @@
       <c r="C108" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D108" s="12" t="n">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B109" s="9" t="s">
+      <c r="D108" s="11" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B109" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D109" s="12" t="n">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="110" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B110" s="8" t="s">
+    </row>
+    <row r="110" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B110" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B111" s="9" t="s">
+      <c r="C110" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="111" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B111" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B112" s="8" t="s">
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B112" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C112" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D113" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D113" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D114" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D114" s="11" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D115" s="11" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="116" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B116" s="9" t="s">
+      <c r="D115" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="116" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B116" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D116" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="117" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B117" s="8" t="s">
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B117" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C117" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" ht="33" customHeight="true" outlineLevel="1">
       <c r="B118" s="9" t="s">
         <v>120</v>
       </c>
@@ -2142,37 +2139,37 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="119" ht="33" customHeight="true" outlineLevel="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B120" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="120" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B120" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="121" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B121" s="8" t="s">
+    </row>
+    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2180,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="123" ht="22" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
@@ -2191,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>410</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" ht="22" customHeight="true" outlineLevel="1">
@@ -2202,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>210</v>
+        <v>734</v>
       </c>
     </row>
     <row r="125" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2393,8 +2390,8 @@
       <c r="C142" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="12" t="n">
-        <v>2000</v>
+      <c r="D142" s="11" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="143" ht="22" customHeight="true" outlineLevel="1">
@@ -2404,8 +2401,8 @@
       <c r="C143" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="11" t="n">
-        <v>270</v>
+      <c r="D143" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="144" ht="22" customHeight="true" outlineLevel="1">
@@ -2416,23 +2413,23 @@
         <v>5</v>
       </c>
       <c r="D144" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B145" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="11" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="145" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B145" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B146" s="9" t="s">
+    <row r="146" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B146" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" s="11" t="n">
-        <v>295</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
@@ -2733,7 +2730,7 @@
         <v>89</v>
       </c>
       <c r="D175" s="12" t="n">
-        <v>1600</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="1">
@@ -2754,24 +2751,24 @@
       <c r="C177" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D177" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B178" s="9" t="s">
+      <c r="D177" s="11" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="178" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B178" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C178" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D178" s="11" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B179" s="8" t="s">
+    </row>
+    <row r="179" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B179" s="9" t="s">
         <v>182</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="true" outlineLevel="1">
@@ -2779,10 +2776,10 @@
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D180" s="11" t="n">
-        <v>965</v>
+        <v>780</v>
       </c>
     </row>
     <row r="181" ht="22" customHeight="true" outlineLevel="1">
@@ -2792,8 +2789,8 @@
       <c r="C181" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D181" s="11" t="n">
-        <v>780</v>
+      <c r="D181" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="true" outlineLevel="1">
@@ -2804,29 +2801,29 @@
         <v>89</v>
       </c>
       <c r="D182" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="183" ht="22" customHeight="true" outlineLevel="1">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="183" ht="11" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D183" s="12" t="n">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D183" s="11" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D184" s="11" t="n">
-        <v>760</v>
+      <c r="D184" s="12" t="n">
+        <v>1020</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2837,7 +2834,7 @@
         <v>89</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1020</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="186" ht="22" customHeight="true" outlineLevel="1">
@@ -2847,8 +2844,8 @@
       <c r="C186" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D186" s="12" t="n">
-        <v>1540</v>
+      <c r="D186" s="11" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2859,37 +2856,37 @@
         <v>89</v>
       </c>
       <c r="D187" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="188" ht="22" customHeight="true" outlineLevel="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="188" ht="11" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D188" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B189" s="9" t="s">
+      <c r="D188" s="12" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="189" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B189" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C189" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D189" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="190" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B190" s="8" t="s">
+    </row>
+    <row r="190" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B190" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="191" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C190" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D190" s="12" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="191" ht="33" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
@@ -2897,10 +2894,10 @@
         <v>89</v>
       </c>
       <c r="D191" s="12" t="n">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="192" ht="33" customHeight="true" outlineLevel="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
@@ -2919,23 +2916,23 @@
         <v>89</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="194" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B194" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B194" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C194" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D194" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B195" s="8" t="s">
+    </row>
+    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B195" s="9" t="s">
         <v>198</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="1">
@@ -2945,11 +2942,11 @@
       <c r="C196" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D196" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="197" ht="22" customHeight="true" outlineLevel="1">
       <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
@@ -2957,10 +2954,10 @@
         <v>5</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="198" ht="22" customHeight="true" outlineLevel="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="198" ht="11" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
@@ -2968,7 +2965,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="12" t="n">
-        <v>3675</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
@@ -2979,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>3050</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2990,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -3001,10 +2998,10 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="202" ht="11" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="202" ht="22" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
@@ -3012,10 +3009,10 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="203" ht="22" customHeight="true" outlineLevel="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="203" ht="11" customHeight="true" outlineLevel="1">
       <c r="B203" s="9" t="s">
         <v>206</v>
       </c>
@@ -3023,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -3033,8 +3030,8 @@
       <c r="C204" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="12" t="n">
-        <v>2300</v>
+      <c r="D204" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="1">
@@ -3044,8 +3041,8 @@
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="11" t="n">
-        <v>115</v>
+      <c r="D205" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3056,26 +3053,26 @@
         <v>5</v>
       </c>
       <c r="D206" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B207" s="9" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="207" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B207" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C207" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="208" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B208" s="8" t="s">
+    </row>
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C208" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
@@ -3083,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>410</v>
+        <v>760</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="1">
@@ -3094,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3105,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3116,10 +3113,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" ht="22" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>660</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3138,10 +3135,10 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
         <v>218</v>
       </c>
@@ -3149,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>388</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3160,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3171,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>550</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="1">
@@ -3182,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3193,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3204,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3226,7 +3223,7 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="223" ht="11" customHeight="true" outlineLevel="1">
@@ -3237,10 +3234,10 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="224" ht="22" customHeight="true" outlineLevel="1">
       <c r="B224" s="9" t="s">
         <v>227</v>
       </c>
@@ -3248,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" ht="11" customHeight="true" outlineLevel="1">
@@ -3259,10 +3256,10 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="226" ht="11" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
@@ -3270,10 +3267,10 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="227" ht="11" customHeight="true" outlineLevel="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="227" ht="22" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
@@ -3281,10 +3278,10 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="228" ht="22" customHeight="true" outlineLevel="1">
       <c r="B228" s="9" t="s">
         <v>231</v>
       </c>
@@ -3292,10 +3289,10 @@
         <v>5</v>
       </c>
       <c r="D228" s="11" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="1">
       <c r="B229" s="9" t="s">
         <v>232</v>
       </c>
@@ -3303,18 +3300,12 @@
         <v>5</v>
       </c>
       <c r="D229" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="230" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B230" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="230" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B230" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D230" s="11" t="n">
-        <v>500</v>
       </c>
     </row>
     <row r="231" ht="22" customHeight="true" outlineLevel="1">
@@ -3325,37 +3316,43 @@
         <v>5</v>
       </c>
       <c r="D231" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="232" ht="22" customHeight="true" outlineLevel="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="232" ht="11" customHeight="true" outlineLevel="1">
       <c r="B232" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="233" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B233" s="8" t="s">
+      <c r="D232" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="233" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B233" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="234" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C233" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="11" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="234" ht="22" customHeight="true" outlineLevel="1">
       <c r="B234" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D234" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="235" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D234" s="11" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="235" ht="22" customHeight="true" outlineLevel="1">
       <c r="B235" s="9" t="s">
         <v>238</v>
       </c>
@@ -3363,10 +3360,10 @@
         <v>5</v>
       </c>
       <c r="D235" s="12" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="236" ht="22" customHeight="true" outlineLevel="1">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="236" ht="33" customHeight="true" outlineLevel="1">
       <c r="B236" s="9" t="s">
         <v>239</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="11" t="n">
-        <v>924</v>
+        <v>500</v>
       </c>
     </row>
     <row r="237" ht="22" customHeight="true" outlineLevel="1">
@@ -3384,19 +3381,8 @@
       <c r="C237" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D237" s="12" t="n">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="238" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B238" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" s="11" t="n">
-        <v>500</v>
+      <c r="D237" s="11" t="n">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
   </si>
   <si>
-    <t>Картофельные дольки со специями, с кожурой "Триумф" (2,500кг) упак. 4 шт. Россия</t>
-  </si>
-  <si>
     <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
     <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
   </si>
   <si>
+    <t>Креветка с/м б/г в панцире 16/20 1.8кг (блок) Индия</t>
+  </si>
+  <si>
     <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Эквадор</t>
   </si>
   <si>
@@ -400,9 +400,6 @@
     <t>Молоко кокосовое AROY-D, 0,5л. тетра пак</t>
   </si>
   <si>
-    <t>Молоко кокосовое AROY-D, 1л.</t>
-  </si>
-  <si>
     <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
   </si>
   <si>
@@ -472,6 +469,18 @@
     <t>Сухари панировочные, Kasho, уп. 1кг, Малайзия</t>
   </si>
   <si>
+    <t>Торт чизкейк New York 1.2кг, ТД Чизберри, Россия</t>
+  </si>
+  <si>
+    <t>Торт Чизкейк New York с клубникой, 1.2кг, ТД Чизберри, Россия</t>
+  </si>
+  <si>
+    <t>Торт чизкейк шоколадный 1,66 кг,(16кус/уп) ТД Чизберри, Россия</t>
+  </si>
+  <si>
+    <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
+  </si>
+  <si>
     <t>Мясо и полуфабрикаты</t>
   </si>
   <si>
@@ -682,9 +691,6 @@
     <t>Соус сырный HAINZ 1 кг</t>
   </si>
   <si>
-    <t>Соус Терияки ТМ "Yakimal", 1,8л</t>
-  </si>
-  <si>
     <t>Соус Терияки, 1.5л, Genso Россия</t>
   </si>
   <si>
@@ -697,9 +703,6 @@
     <t>Соус Унаги Тамаки, 1.8 л</t>
   </si>
   <si>
-    <t>Соус Унаги ТМ "Yakimal", 1,8л</t>
-  </si>
-  <si>
     <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
   </si>
   <si>
@@ -715,6 +718,9 @@
     <t>Соус Хойсин, Китай, 1 кг*6</t>
   </si>
   <si>
+    <t>Соус чили сладкий для курицы AROY-D 5,4 кг пл/канистра</t>
+  </si>
+  <si>
     <t>Соус чили сладкий для курицы AROY-D, 925мл</t>
   </si>
   <si>
@@ -722,6 +728,9 @@
   </si>
   <si>
     <t>Соус Шрирача острая, CHANG, ResFood, Таиланд, 500гр.</t>
+  </si>
+  <si>
+    <t>Соус Шрирача острый Uni- Eagle 475г, пл/б</t>
   </si>
   <si>
     <t>Сыр. Майонез</t>
@@ -934,7 +943,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D237"/>
+  <dimension ref="D240"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1549,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true" outlineLevel="1">
@@ -1560,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1601,7 +1610,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="66" ht="33" customHeight="true" outlineLevel="1">
+    <row r="66" ht="22" customHeight="true" outlineLevel="1">
       <c r="B66" s="9" t="s">
         <v>67</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1623,20 +1632,20 @@
         <v>720</v>
       </c>
     </row>
-    <row r="68" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B68" s="9" t="s">
+    <row r="68" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B68" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B69" s="8" t="s">
+    </row>
+    <row r="69" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B69" s="9" t="s">
         <v>70</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="11" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
@@ -1647,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
@@ -1658,10 +1667,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
@@ -1669,10 +1678,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
         <v>74</v>
       </c>
@@ -1680,23 +1689,23 @@
         <v>5</v>
       </c>
       <c r="D73" s="11" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B74" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B74" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B75" s="8" t="s">
+    </row>
+    <row r="75" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B75" s="9" t="s">
         <v>76</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="11" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1707,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1718,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1729,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1740,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1751,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>400</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
@@ -1762,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>590</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
@@ -1773,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="true" outlineLevel="1">
@@ -1784,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="11" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
@@ -1798,31 +1807,31 @@
         <v>279</v>
       </c>
     </row>
-    <row r="85" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B85" s="9" t="s">
+    <row r="85" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B85" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="86" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B86" s="8" t="s">
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B86" s="9" t="s">
         <v>87</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="12" t="n">
+        <v>1460</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>1460</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1830,10 +1839,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="12" t="n">
-        <v>2500</v>
+        <v>88</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1841,32 +1850,32 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1874,54 +1883,54 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="B93" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D93" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="94" ht="33" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="95" ht="33" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D95" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" ht="22" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>370</v>
+        <v>620</v>
       </c>
     </row>
     <row r="97" ht="22" customHeight="true" outlineLevel="1">
@@ -1929,10 +1938,10 @@
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D97" s="11" t="n">
-        <v>620</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="true" outlineLevel="1">
@@ -1943,89 +1952,89 @@
         <v>5</v>
       </c>
       <c r="D98" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="99" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D99" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D100" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D101" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
       <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D102" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B103" s="9" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="103" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B103" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B104" s="8" t="s">
+    </row>
+    <row r="104" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C104" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="B105" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D105" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D105" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D106" s="11" t="n">
-        <v>960</v>
+        <v>88</v>
+      </c>
+      <c r="D106" s="12" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="true" outlineLevel="1">
@@ -2033,7 +2042,7 @@
         <v>109</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D107" s="12" t="n">
         <v>1022</v>
@@ -2044,7 +2053,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D108" s="11" t="n">
         <v>980</v>
@@ -2060,7 +2069,7 @@
         <v>112</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D110" s="11" t="n">
         <v>960</v>
@@ -2076,7 +2085,7 @@
         <v>114</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D112" s="11" t="n">
         <v>900</v>
@@ -2087,7 +2096,7 @@
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D113" s="12" t="n">
         <v>1050</v>
@@ -2098,7 +2107,7 @@
         <v>116</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D114" s="11" t="n">
         <v>790</v>
@@ -2109,7 +2118,7 @@
         <v>117</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D115" s="12" t="n">
         <v>1220</v>
@@ -2169,7 +2178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>410</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="true" outlineLevel="1">
@@ -2188,26 +2197,26 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B124" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="124" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B124" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="11" t="n">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="125" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B125" s="8" t="s">
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C125" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="11" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>370</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" ht="22" customHeight="true" outlineLevel="1">
@@ -2226,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" ht="22" customHeight="true" outlineLevel="1">
@@ -2237,10 +2246,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="129" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2248,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>312</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
@@ -2270,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>62</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
@@ -2281,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
@@ -2292,10 +2301,10 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" ht="22" customHeight="true" outlineLevel="1">
@@ -2314,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" ht="22" customHeight="true" outlineLevel="1">
@@ -2325,10 +2334,10 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="137" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>816</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="1">
@@ -2347,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
@@ -2357,22 +2366,22 @@
       <c r="C139" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="11" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D139" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="140" ht="33" customHeight="true" outlineLevel="1">
       <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="141" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D140" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
@@ -2380,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>270</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="true" outlineLevel="1">
@@ -2390,8 +2399,8 @@
       <c r="C142" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="11" t="n">
-        <v>183</v>
+      <c r="D142" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="143" ht="22" customHeight="true" outlineLevel="1">
@@ -2401,8 +2410,8 @@
       <c r="C143" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="12" t="n">
-        <v>2000</v>
+      <c r="D143" s="11" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="144" ht="22" customHeight="true" outlineLevel="1">
@@ -2413,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" ht="22" customHeight="true" outlineLevel="1">
@@ -2424,23 +2433,29 @@
         <v>5</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B146" s="8" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C146" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="11" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="147" ht="22" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D147" s="11" t="n">
-        <v>295</v>
+      <c r="D147" s="12" t="n">
+        <v>1788</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="true" outlineLevel="1">
@@ -2448,24 +2463,18 @@
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B149" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B149" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="150" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
@@ -2473,29 +2482,29 @@
         <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" ht="22" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="152" ht="33" customHeight="true" outlineLevel="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="12" t="n">
-        <v>1210</v>
+        <v>88</v>
+      </c>
+      <c r="D152" s="11" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="153" ht="33" customHeight="true" outlineLevel="1">
@@ -2506,81 +2515,81 @@
         <v>5</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="154" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="155" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B155" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="155" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="156" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C155" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="156" ht="33" customHeight="true" outlineLevel="1">
       <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="157" ht="22" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D157" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="158" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B158" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="11" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="158" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B158" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="159" ht="22" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D160" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="161" ht="22" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D160" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
       <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>220</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
@@ -2596,10 +2605,10 @@
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>570</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
@@ -2607,10 +2616,10 @@
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>465</v>
+        <v>360</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
@@ -2621,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="1">
@@ -2629,26 +2638,32 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="166" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B166" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="166" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B166" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C166" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="11" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>106</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2656,21 +2671,15 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B169" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D168" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B169" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D169" s="11" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="1">
@@ -2678,26 +2687,32 @@
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D170" s="11" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B171" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B171" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="172" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C171" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="172" ht="22" customHeight="true" outlineLevel="1">
       <c r="B172" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D172" s="11" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" ht="11" customHeight="true" outlineLevel="1">
@@ -2705,21 +2720,15 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="174" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B174" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B174" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D174" s="11" t="n">
-        <v>840</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
@@ -2727,10 +2736,10 @@
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D175" s="12" t="n">
-        <v>1530</v>
+        <v>88</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="1">
@@ -2738,10 +2747,10 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D176" s="11" t="n">
-        <v>650</v>
+        <v>360</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="1">
@@ -2749,48 +2758,48 @@
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D177" s="11" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="178" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B178" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="178" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B178" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="179" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C178" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D178" s="12" t="n">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="179" ht="11" customHeight="true" outlineLevel="1">
       <c r="B179" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D179" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="180" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="180" ht="11" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D180" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="181" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B181" s="9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="181" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B181" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D181" s="12" t="n">
-        <v>1550</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="true" outlineLevel="1">
@@ -2798,21 +2807,21 @@
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D182" s="12" t="n">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D182" s="11" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="183" ht="22" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D183" s="11" t="n">
-        <v>760</v>
+        <v>780</v>
       </c>
     </row>
     <row r="184" ht="22" customHeight="true" outlineLevel="1">
@@ -2820,10 +2829,10 @@
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D184" s="12" t="n">
-        <v>1020</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2831,21 +2840,21 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="186" ht="22" customHeight="true" outlineLevel="1">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="186" ht="11" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D186" s="11" t="n">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2853,26 +2862,32 @@
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D187" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D187" s="12" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="188" ht="22" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="189" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B189" s="8" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="189" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B189" s="9" t="s">
         <v>192</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D189" s="11" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="190" ht="22" customHeight="true" outlineLevel="1">
@@ -2880,32 +2895,26 @@
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D190" s="12" t="n">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="191" ht="33" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D190" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="191" ht="11" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D191" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B192" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="192" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B192" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D192" s="12" t="n">
-        <v>1400</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
@@ -2913,48 +2922,48 @@
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B194" s="8" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="194" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B194" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C194" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D194" s="12" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+        <v>88</v>
+      </c>
+      <c r="D195" s="12" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="197" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B197" s="9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="197" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B197" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" s="12" t="n">
-        <v>3790</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
@@ -2964,8 +2973,8 @@
       <c r="C198" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="12" t="n">
-        <v>3200</v>
+      <c r="D198" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
@@ -2976,10 +2985,10 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="200" ht="11" customHeight="true" outlineLevel="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="200" ht="22" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
@@ -2987,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>1700</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -2998,10 +3007,10 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="202" ht="22" customHeight="true" outlineLevel="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="202" ht="11" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -3020,7 +3029,7 @@
         <v>5</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -3030,11 +3039,11 @@
       <c r="C204" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D204" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="205" ht="22" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="12" t="n">
-        <v>1600</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3053,12 +3062,18 @@
         <v>5</v>
       </c>
       <c r="D206" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="207" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B207" s="8" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B207" s="9" t="s">
         <v>210</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="1">
@@ -3068,8 +3083,8 @@
       <c r="C208" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="11" t="n">
-        <v>350</v>
+      <c r="D208" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="1">
@@ -3079,19 +3094,13 @@
       <c r="C209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B210" s="9" t="s">
+      <c r="D209" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="210" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B210" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210" s="11" t="n">
-        <v>800</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3102,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3113,10 +3122,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="213" ht="22" customHeight="true" outlineLevel="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="213" ht="11" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
@@ -3124,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>388</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3135,7 +3144,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>220</v>
+        <v>700</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3146,10 +3155,10 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="216" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216" ht="22" customHeight="true" outlineLevel="1">
       <c r="B216" s="9" t="s">
         <v>219</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>450</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3168,7 +3177,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>390</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="1">
@@ -3179,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3190,7 +3199,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3201,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>520</v>
+        <v>750</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3223,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>650</v>
+        <v>520</v>
       </c>
     </row>
     <row r="223" ht="11" customHeight="true" outlineLevel="1">
@@ -3234,10 +3243,10 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="224" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="224" ht="11" customHeight="true" outlineLevel="1">
       <c r="B224" s="9" t="s">
         <v>227</v>
       </c>
@@ -3245,10 +3254,10 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>858</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" ht="11" customHeight="true" outlineLevel="1">
@@ -3267,10 +3276,10 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="227" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="227" ht="11" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
@@ -3278,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>500</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" ht="22" customHeight="true" outlineLevel="1">
@@ -3288,8 +3297,8 @@
       <c r="C228" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="11" t="n">
-        <v>400</v>
+      <c r="D228" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="229" ht="22" customHeight="true" outlineLevel="1">
@@ -3300,12 +3309,18 @@
         <v>5</v>
       </c>
       <c r="D229" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="230" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B230" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B230" s="9" t="s">
         <v>233</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="11" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="231" ht="22" customHeight="true" outlineLevel="1">
@@ -3316,29 +3331,23 @@
         <v>5</v>
       </c>
       <c r="D231" s="11" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="232" ht="11" customHeight="true" outlineLevel="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" ht="22" customHeight="true" outlineLevel="1">
       <c r="B232" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="233" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B233" s="9" t="s">
+      <c r="D232" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="233" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B233" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="11" t="n">
-        <v>740</v>
       </c>
     </row>
     <row r="234" ht="22" customHeight="true" outlineLevel="1">
@@ -3349,10 +3358,10 @@
         <v>5</v>
       </c>
       <c r="D234" s="11" t="n">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="235" ht="22" customHeight="true" outlineLevel="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="235" ht="11" customHeight="true" outlineLevel="1">
       <c r="B235" s="9" t="s">
         <v>238</v>
       </c>
@@ -3360,10 +3369,10 @@
         <v>5</v>
       </c>
       <c r="D235" s="12" t="n">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="236" ht="33" customHeight="true" outlineLevel="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="236" ht="22" customHeight="true" outlineLevel="1">
       <c r="B236" s="9" t="s">
         <v>239</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="11" t="n">
-        <v>500</v>
+        <v>740</v>
       </c>
     </row>
     <row r="237" ht="22" customHeight="true" outlineLevel="1">
@@ -3382,6 +3391,39 @@
         <v>5</v>
       </c>
       <c r="D237" s="11" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="238" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B238" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="12" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="239" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B239" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="240" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B240" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Бульоны. Основы для супов. Приправа</t>
   </si>
   <si>
+    <t>Глутомат натрия в гранулах, 454 гр*50, Китай</t>
+  </si>
+  <si>
     <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
   </si>
   <si>
-    <t>Рыбный бульон "Хондаши"</t>
-  </si>
-  <si>
     <t>Стружка тунца Бонито, уп.500г.</t>
   </si>
   <si>
@@ -199,9 +199,6 @@
     <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
   </si>
   <si>
-    <t>Икра деликатесная Люкс "Масаго Амай" красная, 500г </t>
-  </si>
-  <si>
     <t>Икра деликатесная Люкс "Масаго Амай" оранжевая, 500г </t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
-    <t>Обжаренные соленые листья порфиры Долким 80 г 1/20</t>
-  </si>
-  <si>
     <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
   </si>
   <si>
@@ -292,18 +286,15 @@
     <t>кг</t>
   </si>
   <si>
-    <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
-  </si>
-  <si>
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
+    <t>Кальмар щупальца 1/24</t>
+  </si>
+  <si>
     <t>Мидии в раковинах (голубые) в/м 40/60, 1кг, Чили</t>
   </si>
   <si>
-    <t>Мидии в раковине в/м, 60-80 Чили</t>
-  </si>
-  <si>
     <t>Мидии зеленые в половинке раковины М (30-45шт), Новая Зеландия</t>
   </si>
   <si>
@@ -319,6 +310,9 @@
     <t>Мясо мидии в/м н/ф (200-300) Чили</t>
   </si>
   <si>
+    <t>Мясо трубача с/м</t>
+  </si>
+  <si>
     <t>Осьминог целый очищ. 1/10 40-60 0,5кг, 8%, Китай</t>
   </si>
   <si>
@@ -469,15 +463,6 @@
     <t>Сухари панировочные, Kasho, уп. 1кг, Малайзия</t>
   </si>
   <si>
-    <t>Торт чизкейк New York 1.2кг, ТД Чизберри, Россия</t>
-  </si>
-  <si>
-    <t>Торт Чизкейк New York с клубникой, 1.2кг, ТД Чизберри, Россия</t>
-  </si>
-  <si>
-    <t>Торт чизкейк шоколадный 1,66 кг,(16кус/уп) ТД Чизберри, Россия</t>
-  </si>
-  <si>
     <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
   </si>
   <si>
@@ -487,6 +472,12 @@
     <t>Бекон Классический в/к 500гр, МК ЭКО</t>
   </si>
   <si>
+    <t>Бекон с/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
+    <t>Бекон с/к зам. в/у, 500 гр. Аргус</t>
+  </si>
+  <si>
     <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
   </si>
   <si>
@@ -535,12 +526,21 @@
     <t>Листья каффир-лайма сушеные HOM-D, ResFood, Таиланд, 100гр*12   </t>
   </si>
   <si>
+    <t>Лук жареный 1 кг/уп</t>
+  </si>
+  <si>
+    <t>Пюре из манго с/м 10% сахара, 1кг, Ravifruit, Франция</t>
+  </si>
+  <si>
     <t>Редька маринованная Hikari 0,6 кг, Китай</t>
   </si>
   <si>
     <t>Салат из водорослей "Чука" </t>
   </si>
   <si>
+    <t>Фасоль зеленая нарезанная шок. заморозка, класс А, Agro Green</t>
+  </si>
+  <si>
     <t>Рис</t>
   </si>
   <si>
@@ -613,9 +613,6 @@
     <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
   </si>
   <si>
-    <t>Форель с/с пласт Трим Д ( тм АльянсПромСнаб )</t>
-  </si>
-  <si>
     <t>Форель филе полуфабрикат для суши 2% с/с, в/у, Трим С (Фуд Тим) Мурманск</t>
   </si>
   <si>
@@ -667,9 +664,6 @@
     <t>Соусы паназиатские</t>
   </si>
   <si>
-    <t>Соус Гурмикс Барбекю, 1кг, Россия</t>
-  </si>
-  <si>
     <t>Соус Кимчи Tamaki, 1,8л</t>
   </si>
   <si>
@@ -740,6 +734,9 @@
   </si>
   <si>
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
+  </si>
+  <si>
+    <t>Майонез SOLPRO 60%, 1/10 кг</t>
   </si>
   <si>
     <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
@@ -943,7 +940,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D240"/>
+  <dimension ref="D239"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1115,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="12" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1131,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="11" t="n">
-        <v>330</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true" outlineLevel="1">
@@ -1142,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1156,7 +1153,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+    <row r="22" ht="22" customHeight="true" outlineLevel="1">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="1">
@@ -1178,7 +1175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" ht="22" customHeight="true" outlineLevel="1">
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1186,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>690</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="1">
@@ -1208,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1219,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" ht="22" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true" outlineLevel="1">
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" ht="22" customHeight="true" outlineLevel="1">
@@ -1241,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>650</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" ht="22" customHeight="true" outlineLevel="1">
@@ -1252,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="true" outlineLevel="1">
@@ -1263,10 +1260,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true" outlineLevel="1">
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>610</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
@@ -1536,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>650</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
@@ -1547,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="1">
@@ -1569,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>630</v>
+        <v>670</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1580,23 +1577,23 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="63" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B63" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="64" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B64" s="8" t="s">
+    </row>
+    <row r="64" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B64" s="9" t="s">
         <v>65</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1607,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>820</v>
+        <v>720</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1621,20 +1618,20 @@
         <v>720</v>
       </c>
     </row>
-    <row r="67" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B67" s="9" t="s">
+    <row r="67" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B67" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="68" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B68" s="8" t="s">
+    </row>
+    <row r="68" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B68" s="9" t="s">
         <v>69</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
@@ -1645,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
@@ -1656,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true" outlineLevel="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" ht="22" customHeight="true" outlineLevel="1">
       <c r="B71" s="9" t="s">
         <v>72</v>
       </c>
@@ -1667,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
@@ -1678,23 +1675,23 @@
         <v>5</v>
       </c>
       <c r="D72" s="11" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B73" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B73" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B74" s="8" t="s">
+    </row>
+    <row r="74" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B74" s="9" t="s">
         <v>75</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1705,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>180</v>
+        <v>950</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1716,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1727,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1738,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>800</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1749,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1760,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
@@ -1771,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
@@ -1782,18 +1779,12 @@
         <v>5</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B83" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B83" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>279</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
@@ -1801,26 +1792,32 @@
         <v>85</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="85" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B85" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+        <v>86</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="85" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B85" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="12" t="n">
-        <v>1460</v>
+        <v>86</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
@@ -1828,10 +1825,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" s="12" t="n">
-        <v>2500</v>
+        <v>86</v>
+      </c>
+      <c r="D87" s="11" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1839,10 +1836,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D88" s="11" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true" outlineLevel="1">
@@ -1850,10 +1847,10 @@
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D89" s="11" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
@@ -1861,32 +1858,32 @@
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D90" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+        <v>86</v>
+      </c>
+      <c r="D90" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="91" ht="33" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="92" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="B92" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
@@ -1894,32 +1891,32 @@
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D93" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="94" ht="33" customHeight="true" outlineLevel="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="94" ht="22" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" ht="22" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D95" s="11" t="n">
-        <v>370</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1927,21 +1924,21 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="97" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="B97" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="11" t="n">
-        <v>230</v>
+        <v>86</v>
+      </c>
+      <c r="D97" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="true" outlineLevel="1">
@@ -1949,10 +1946,10 @@
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="11" t="n">
-        <v>220</v>
+        <v>86</v>
+      </c>
+      <c r="D98" s="12" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
@@ -1960,10 +1957,10 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>1150</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="true" outlineLevel="1">
@@ -1971,21 +1968,15 @@
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D100" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B101" s="9" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B101" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" s="12" t="n">
-        <v>1600</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="true" outlineLevel="1">
@@ -1993,15 +1984,21 @@
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D102" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="103" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B103" s="8" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B103" s="9" t="s">
         <v>105</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="11" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true" outlineLevel="1">
@@ -2009,21 +2006,21 @@
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D104" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="105" ht="22" customHeight="true" outlineLevel="1">
       <c r="B105" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D105" s="11" t="n">
-        <v>960</v>
+        <v>990</v>
       </c>
     </row>
     <row r="106" ht="22" customHeight="true" outlineLevel="1">
@@ -2031,21 +2028,15 @@
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="12" t="n">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="107" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B107" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" s="11" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B107" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" s="12" t="n">
-        <v>1022</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true" outlineLevel="1">
@@ -2053,10 +2044,10 @@
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D108" s="11" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2064,20 +2055,26 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" ht="22" customHeight="true" outlineLevel="1">
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="B110" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="111" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B111" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B111" s="9" t="s">
         <v>113</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
@@ -2085,10 +2082,10 @@
         <v>114</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>900</v>
+        <v>790</v>
       </c>
     </row>
     <row r="113" ht="22" customHeight="true" outlineLevel="1">
@@ -2096,37 +2093,37 @@
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D113" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B114" s="9" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B114" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D114" s="11" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D115" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="116" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B116" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B116" s="9" t="s">
         <v>118</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
@@ -2134,37 +2131,37 @@
         <v>119</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="118" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B118" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="11" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B118" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" ht="22" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="120" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B120" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B120" s="9" t="s">
         <v>123</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="true" outlineLevel="1">
@@ -2175,21 +2172,15 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B122" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="122" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B122" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
@@ -2197,15 +2188,21 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="124" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B124" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C124" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="11" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2213,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" ht="22" customHeight="true" outlineLevel="1">
@@ -2224,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="127" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
@@ -2235,10 +2232,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2246,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>312</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="1">
@@ -2257,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>62</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
@@ -2268,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2279,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2290,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" ht="22" customHeight="true" outlineLevel="1">
       <c r="B133" s="9" t="s">
         <v>136</v>
       </c>
@@ -2301,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="true" outlineLevel="1">
@@ -2312,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
@@ -2323,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
@@ -2334,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>816</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
@@ -2344,11 +2341,11 @@
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D137" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="138" ht="33" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
@@ -2356,29 +2353,29 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="140" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D139" s="11" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
       <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="11" t="n">
-        <v>270</v>
+      <c r="D140" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="141" ht="22" customHeight="true" outlineLevel="1">
@@ -2389,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>183</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="true" outlineLevel="1">
@@ -2399,8 +2396,8 @@
       <c r="C142" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="12" t="n">
-        <v>2000</v>
+      <c r="D142" s="11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="143" ht="22" customHeight="true" outlineLevel="1">
@@ -2411,21 +2408,15 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="144" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B144" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B144" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
@@ -2433,10 +2424,10 @@
         <v>5</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
@@ -2444,18 +2435,18 @@
         <v>5</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="147" ht="22" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D147" s="12" t="n">
-        <v>1788</v>
+      <c r="D147" s="11" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="true" outlineLevel="1">
@@ -2463,18 +2454,24 @@
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B149" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C149" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D149" s="11" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="150" ht="33" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
@@ -2482,29 +2479,29 @@
         <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="152" ht="11" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" ht="33" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D152" s="11" t="n">
-        <v>350</v>
+        <v>5</v>
+      </c>
+      <c r="D152" s="12" t="n">
+        <v>1210</v>
       </c>
     </row>
     <row r="153" ht="33" customHeight="true" outlineLevel="1">
@@ -2515,81 +2512,81 @@
         <v>5</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="154" ht="22" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="155" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B155" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="155" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B155" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="156" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="156" ht="22" customHeight="true" outlineLevel="1">
       <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="157" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="158" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B158" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="159" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C158" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="11" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" ht="22" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D160" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+        <v>86</v>
+      </c>
+      <c r="D160" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" ht="22" customHeight="true" outlineLevel="1">
       <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
@@ -2597,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>137</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
@@ -2605,10 +2602,10 @@
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>360</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
@@ -2616,13 +2613,13 @@
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="164" ht="22" customHeight="true" outlineLevel="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="B164" s="9" t="s">
         <v>167</v>
       </c>
@@ -2630,10 +2627,10 @@
         <v>5</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="165" ht="11" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>570</v>
+        <v>694</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
@@ -2652,29 +2649,29 @@
         <v>5</v>
       </c>
       <c r="D166" s="11" t="n">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" ht="11" customHeight="true" outlineLevel="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D168" s="11" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2687,10 +2684,10 @@
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D170" s="11" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="1">
@@ -2709,7 +2706,7 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D172" s="11" t="n">
         <v>80</v>
@@ -2720,10 +2717,10 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2736,7 +2733,7 @@
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D175" s="11" t="n">
         <v>640</v>
@@ -2747,10 +2744,10 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D176" s="11" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="1">
@@ -2758,7 +2755,7 @@
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D177" s="11" t="n">
         <v>840</v>
@@ -2769,7 +2766,7 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D178" s="12" t="n">
         <v>1530</v>
@@ -2780,7 +2777,7 @@
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D179" s="11" t="n">
         <v>650</v>
@@ -2791,7 +2788,7 @@
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D180" s="11" t="n">
         <v>970</v>
@@ -2818,7 +2815,7 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D183" s="11" t="n">
         <v>780</v>
@@ -2829,7 +2826,7 @@
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D184" s="12" t="n">
         <v>1550</v>
@@ -2840,10 +2837,10 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1785</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="186" ht="11" customHeight="true" outlineLevel="1">
@@ -2851,7 +2848,7 @@
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D186" s="11" t="n">
         <v>760</v>
@@ -2862,7 +2859,7 @@
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D187" s="12" t="n">
         <v>1020</v>
@@ -2873,7 +2870,7 @@
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D188" s="12" t="n">
         <v>1540</v>
@@ -2884,7 +2881,7 @@
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D189" s="11" t="n">
         <v>750</v>
@@ -2895,7 +2892,7 @@
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D190" s="11" t="n">
         <v>860</v>
@@ -2906,10 +2903,10 @@
         <v>194</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D191" s="12" t="n">
-        <v>1420</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="192" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2917,26 +2914,26 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" ht="22" customHeight="true" outlineLevel="1">
+    <row r="193" ht="33" customHeight="true" outlineLevel="1">
       <c r="B193" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="194" ht="33" customHeight="true" outlineLevel="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="194" ht="22" customHeight="true" outlineLevel="1">
       <c r="B194" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D194" s="12" t="n">
-        <v>1400</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="195" ht="22" customHeight="true" outlineLevel="1">
@@ -2944,26 +2941,26 @@
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D195" s="12" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B196" s="9" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="196" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B196" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C196" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D196" s="12" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="197" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B197" s="8" t="s">
+    </row>
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B197" s="9" t="s">
         <v>200</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
@@ -2973,11 +2970,11 @@
       <c r="C198" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D198" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="199" ht="22" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
@@ -2985,10 +2982,10 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="200" ht="22" customHeight="true" outlineLevel="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="200" ht="11" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
@@ -2996,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>3790</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -3007,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -3018,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -3029,10 +3026,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="204" ht="22" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
@@ -3040,10 +3037,10 @@
         <v>5</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="205" ht="22" customHeight="true" outlineLevel="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="205" ht="11" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="12" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3061,8 +3058,8 @@
       <c r="C206" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="12" t="n">
-        <v>2300</v>
+      <c r="D206" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3072,8 +3069,8 @@
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="11" t="n">
-        <v>115</v>
+      <c r="D207" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="1">
@@ -3084,23 +3081,23 @@
         <v>5</v>
       </c>
       <c r="D208" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B209" s="9" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="209" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B209" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C209" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D209" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="210" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B210" s="8" t="s">
+    </row>
+    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B210" s="9" t="s">
         <v>213</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3111,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3122,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>760</v>
+        <v>700</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3133,10 +3130,10 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="214" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" ht="22" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
@@ -3144,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>700</v>
+        <v>388</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3155,10 +3152,10 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="216" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" ht="11" customHeight="true" outlineLevel="1">
       <c r="B216" s="9" t="s">
         <v>219</v>
       </c>
@@ -3166,7 +3163,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>388</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3177,7 +3174,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="1">
@@ -3188,7 +3185,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3199,7 +3196,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3210,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3221,7 +3218,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="222" ht="11" customHeight="true" outlineLevel="1">
@@ -3232,10 +3229,10 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>650</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="1">
@@ -3254,10 +3251,10 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
@@ -3265,21 +3262,21 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="226" ht="11" customHeight="true" outlineLevel="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="11" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="227" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D226" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="227" ht="22" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
@@ -3287,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>545</v>
+        <v>370</v>
       </c>
     </row>
     <row r="228" ht="22" customHeight="true" outlineLevel="1">
@@ -3297,8 +3294,8 @@
       <c r="C228" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="12" t="n">
-        <v>1600</v>
+      <c r="D228" s="11" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="229" ht="22" customHeight="true" outlineLevel="1">
@@ -3309,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="D229" s="11" t="n">
-        <v>370</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" ht="22" customHeight="true" outlineLevel="1">
@@ -3320,18 +3317,12 @@
         <v>5</v>
       </c>
       <c r="D230" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="231" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B231" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B231" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" s="11" t="n">
-        <v>242</v>
       </c>
     </row>
     <row r="232" ht="22" customHeight="true" outlineLevel="1">
@@ -3342,34 +3333,40 @@
         <v>5</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="233" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B233" s="8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B233" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="234" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C233" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="234" ht="11" customHeight="true" outlineLevel="1">
       <c r="B234" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D234" s="11" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="235" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D234" s="12" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="235" ht="22" customHeight="true" outlineLevel="1">
       <c r="B235" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C235" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D235" s="12" t="n">
-        <v>1900</v>
+      <c r="D235" s="11" t="n">
+        <v>740</v>
       </c>
     </row>
     <row r="236" ht="22" customHeight="true" outlineLevel="1">
@@ -3380,7 +3377,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="11" t="n">
-        <v>740</v>
+        <v>858</v>
       </c>
     </row>
     <row r="237" ht="22" customHeight="true" outlineLevel="1">
@@ -3390,22 +3387,22 @@
       <c r="C237" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D237" s="11" t="n">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="238" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D237" s="12" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="238" ht="33" customHeight="true" outlineLevel="1">
       <c r="B238" s="9" t="s">
         <v>241</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D238" s="12" t="n">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="239" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D238" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" ht="22" customHeight="true" outlineLevel="1">
       <c r="B239" s="9" t="s">
         <v>242</v>
       </c>
@@ -3413,17 +3410,6 @@
         <v>5</v>
       </c>
       <c r="D239" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="240" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B240" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D240" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -76,12 +76,21 @@
     <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
   </si>
   <si>
+    <t>Топпинг клубника 1 кг,ЗОЛОТАЯ КОЛИБРИ,РОССИЯ</t>
+  </si>
+  <si>
+    <t>Топпинг шоколад 1 кг,ЗОЛОТАЯ КОЛИБРИ,РОССИЯ</t>
+  </si>
+  <si>
     <t>Тунец филе в с/с ж/б 1,7 кг, Blue Oceano, Тайланд</t>
   </si>
   <si>
     <t>Бульоны. Основы для супов. Приправа</t>
   </si>
   <si>
+    <t>Бульон куриный 850 г, МАРЕВЕН ФУД</t>
+  </si>
+  <si>
     <t>Глутомат натрия в гранулах, 454 гр*50, Китай</t>
   </si>
   <si>
@@ -121,144 +130,123 @@
     <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
   </si>
   <si>
+    <t>Рыбный бульон "Хондаши"</t>
+  </si>
+  <si>
+    <t>Стружка тунца Бонито, уп.500г.</t>
+  </si>
+  <si>
+    <t>Васаби. Водоросли</t>
+  </si>
+  <si>
+    <t>Водоросли Комбу, Китай</t>
+  </si>
+  <si>
+    <t>Водоросли нори "Risma" 100л, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "OSHI Премиум"</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
+  </si>
+  <si>
+    <t>Вьетнамская кухня</t>
+  </si>
+  <si>
+    <t>Вермишель Бун (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Вьетнамская соль (190гр.) Вьетнам</t>
+  </si>
+  <si>
+    <t>Рисовая лапша (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Соус чили для Фо Бо (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Изделия из бамбука</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
+  </si>
+  <si>
+    <t>упак</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые, в наборе с зубочистками уп. 100шт</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 24*24 см</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 27*27 см</t>
+  </si>
+  <si>
+    <t>Икра</t>
+  </si>
+  <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" красная 500г 1/6 NEW</t>
+  </si>
+  <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
+  </si>
+  <si>
+    <t>Картофель</t>
+  </si>
+  <si>
+    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
+  </si>
+  <si>
+    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
+  </si>
+  <si>
+    <t>Корейские пасты и соусы</t>
+  </si>
+  <si>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
+  </si>
+  <si>
+    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
+  </si>
+  <si>
+    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
+  </si>
+  <si>
     <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
   </si>
   <si>
-    <t>Стружка тунца Бонито, уп.500г.</t>
-  </si>
-  <si>
-    <t>Васаби. Водоросли</t>
-  </si>
-  <si>
-    <t>Водоросли Комбу, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли нори "Risma" 100л, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "OSHI Премиум"</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
-  </si>
-  <si>
-    <t>Вьетнамская кухня</t>
-  </si>
-  <si>
-    <t>Вермишель Бун (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Вьетнамская соль (190гр.) Вьетнам</t>
-  </si>
-  <si>
-    <t>Рисовая лапша (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Соус чили для Фо Бо (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Изделия из бамбука</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
-  </si>
-  <si>
-    <t>упак</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые, в наборе с зубочистками уп. 100шт</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 24*24 см</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 27*27 см</t>
-  </si>
-  <si>
-    <t>Икра</t>
-  </si>
-  <si>
-    <t>Икра деликатесная "Люкс" "Масаго Энко" красная 500г 1/6 NEW</t>
-  </si>
-  <si>
-    <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
-  </si>
-  <si>
-    <t>Икра деликатесная Люкс "Масаго Амай" оранжевая, 500г </t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
-  </si>
-  <si>
-    <t>Картофель</t>
-  </si>
-  <si>
-    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
-  </si>
-  <si>
-    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
-    <t>Треугольный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
-    <t>Колбасы</t>
-  </si>
-  <si>
-    <t>Вяленая классик с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Испаньоло с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
-    <t>Итальяно с/в вак. 0,17 кг/шт</t>
-  </si>
-  <si>
-    <t>Колбаса Кантри с ароматом перца халапеньо с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Фуэт с/в вак. 0,15кг/шт</t>
-  </si>
-  <si>
-    <t>Корейские пасты и соусы</t>
-  </si>
-  <si>
-    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
-  </si>
-  <si>
-    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
-  </si>
-  <si>
-    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
-  </si>
-  <si>
     <t>Приправа дашида со вкусом говядины, 500 г</t>
   </si>
   <si>
@@ -379,7 +367,7 @@
     <t>Масло кунжутное, 0,42 л, Китай</t>
   </si>
   <si>
-    <t>Масло оливковое рафинированное Санса тз."La Espanola" пл.б 1л. кор. 15 шт</t>
+    <t>Масло подсолнечное рафинированное 1л/920 г,SUNNY GOLD,РОССИЯ</t>
   </si>
   <si>
     <t>Масло фритюрное Печагин 1шт/5л</t>
@@ -517,6 +505,12 @@
     <t>Кунжут необжаренный, черный, уп. 1кг, Индия</t>
   </si>
   <si>
+    <t>Кунжут обжаренный, белый, уп. 1кг, Индия</t>
+  </si>
+  <si>
+    <t>Кунжут обжаренный, черный, уп. 1кг, Индия</t>
+  </si>
+  <si>
     <t>Лемонграсс сушеный HOM-D, ResFood, Таиланд, 100гр*30</t>
   </si>
   <si>
@@ -610,6 +604,9 @@
     <t>Форель филе 0.6-1,5 кг с/м, Китай</t>
   </si>
   <si>
+    <t>Щука филе б/к, с/м, 5%, ГОСТ</t>
+  </si>
+  <si>
     <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
   </si>
   <si>
@@ -710,6 +707,9 @@
   </si>
   <si>
     <t>Соус Хойсин, Китай, 1 кг*6</t>
+  </si>
+  <si>
+    <t>Соус Черный перец, кулинарный, ГУРМИКС, 2 кг</t>
   </si>
   <si>
     <t>Соус чили сладкий для курицы AROY-D 5,4 кг пл/канистра</t>
@@ -1111,13 +1111,19 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B18" s="8" t="s">
+      <c r="D17" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B18" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true" outlineLevel="1">
@@ -1127,22 +1133,16 @@
       <c r="C19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B20" s="9" t="s">
+      <c r="D19" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="21" ht="11" customHeight="true" outlineLevel="1">
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true" outlineLevel="1">
@@ -1161,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true" outlineLevel="1">
       <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
@@ -1172,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="true" outlineLevel="1">
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>750</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="1">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>690</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1216,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true" outlineLevel="1">
       <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
@@ -1227,10 +1227,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1238,10 +1238,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" ht="22" customHeight="true" outlineLevel="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1249,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="11" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true" outlineLevel="1">
@@ -1271,23 +1271,29 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="33" ht="11" customHeight="true" outlineLevel="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true" outlineLevel="1">
       <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="34" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B34" s="8" t="s">
+      <c r="D33" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B34" s="9" t="s">
         <v>34</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
@@ -1297,8 +1303,8 @@
       <c r="C35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="12" t="n">
-        <v>1300</v>
+      <c r="D35" s="11" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="1">
@@ -1308,33 +1314,27 @@
       <c r="C36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="37" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B37" s="9" t="s">
+      <c r="D36" s="12" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="38" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
       <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="11" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="39" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D38" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true" outlineLevel="1">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>550</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="true" outlineLevel="1">
@@ -1353,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>380</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true" outlineLevel="1">
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>540</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="true" outlineLevel="1">
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true" outlineLevel="1">
@@ -1386,15 +1386,21 @@
         <v>5</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B44" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true" outlineLevel="1">
       <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
@@ -1402,10 +1408,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true" outlineLevel="1">
       <c r="B46" s="9" t="s">
         <v>46</v>
       </c>
@@ -1413,18 +1419,12 @@
         <v>5</v>
       </c>
       <c r="D46" s="11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B47" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B47" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>143</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="1">
@@ -1435,64 +1435,70 @@
         <v>5</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B49" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B49" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="B50" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="C51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B52" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="11" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="51" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B52" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B53" s="9" t="s">
+    <row r="54" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B54" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D54" s="11" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="B55" s="9" t="s">
         <v>56</v>
       </c>
@@ -1500,10 +1506,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="56" ht="22" customHeight="true" outlineLevel="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -1511,18 +1517,12 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="57" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B57" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B57" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>650</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1533,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>670</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>630</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="1">
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>630</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true" outlineLevel="1">
@@ -1566,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>670</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1577,12 +1577,18 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="63" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B63" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B63" s="9" t="s">
         <v>64</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="11" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1593,18 +1599,12 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="65" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B65" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B65" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="11" t="n">
-        <v>720</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1615,26 +1615,26 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B67" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="11" t="n">
         <v>720</v>
       </c>
     </row>
-    <row r="67" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B67" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B68" s="9" t="s">
+    <row r="68" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B68" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="69" ht="22" customHeight="true" outlineLevel="1">
       <c r="B69" s="9" t="s">
         <v>70</v>
       </c>
@@ -1642,10 +1642,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" ht="22" customHeight="true" outlineLevel="1">
       <c r="B70" s="9" t="s">
         <v>71</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>221</v>
+        <v>950</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1664,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
@@ -1675,12 +1675,18 @@
         <v>5</v>
       </c>
       <c r="D72" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B73" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B73" s="9" t="s">
         <v>74</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
@@ -1691,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>250</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1702,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>950</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1713,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
@@ -1724,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>400</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1735,18 +1741,12 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="79" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B79" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B79" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="11" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1754,48 +1754,54 @@
         <v>81</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="11" t="n">
-        <v>300</v>
+        <v>82</v>
+      </c>
+      <c r="D80" s="12" t="n">
+        <v>1460</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" ht="22" customHeight="true" outlineLevel="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B83" s="8" t="s">
-        <v>84</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B83" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="12" t="n">
-        <v>1460</v>
+        <v>82</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1803,10 +1809,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D85" s="11" t="n">
-        <v>510</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
@@ -1814,57 +1820,57 @@
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D86" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="87" ht="33" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D87" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="B88" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D88" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D89" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="91" ht="33" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D90" s="11" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
@@ -1872,18 +1878,18 @@
         <v>5</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" ht="22" customHeight="true" outlineLevel="1">
       <c r="B92" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>370</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
@@ -1891,10 +1897,10 @@
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D93" s="12" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="94" ht="22" customHeight="true" outlineLevel="1">
@@ -1902,21 +1908,21 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="95" ht="22" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D94" s="12" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="11" t="n">
-        <v>230</v>
+        <v>82</v>
+      </c>
+      <c r="D95" s="12" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1924,21 +1930,15 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B97" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="12" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B97" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" s="12" t="n">
-        <v>1150</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="true" outlineLevel="1">
@@ -1946,10 +1946,10 @@
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D98" s="12" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
@@ -1957,10 +1957,10 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D99" s="12" t="n">
-        <v>1800</v>
+        <v>82</v>
+      </c>
+      <c r="D99" s="11" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="true" outlineLevel="1">
@@ -1968,15 +1968,21 @@
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D100" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B101" s="8" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B101" s="9" t="s">
         <v>103</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="11" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="true" outlineLevel="1">
@@ -1984,21 +1990,15 @@
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D102" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B103" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="103" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B103" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D103" s="11" t="n">
-        <v>960</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true" outlineLevel="1">
@@ -2006,135 +2006,135 @@
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" s="12" t="n">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="105" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B105" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B105" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D105" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B107" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="107" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B107" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C107" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="B108" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D108" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B109" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="109" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B109" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B110" s="9" t="s">
+      <c r="C109" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="110" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B110" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D110" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" ht="22" customHeight="true" outlineLevel="1">
       <c r="B112" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" s="12" t="n">
-        <v>1220</v>
+        <v>116</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
       <c r="B114" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="116" ht="33" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" ht="22" customHeight="true" outlineLevel="1">
       <c r="B116" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" ht="22" customHeight="true" outlineLevel="1">
       <c r="B117" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>730</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2142,7 +2142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" ht="22" customHeight="true" outlineLevel="1">
@@ -2161,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="true" outlineLevel="1">
@@ -2172,12 +2172,18 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="122" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B122" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B122" s="9" t="s">
         <v>125</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="11" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
@@ -2188,10 +2194,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2199,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2210,10 +2216,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>312</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
@@ -2232,10 +2238,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" ht="22" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2243,10 +2249,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2254,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" ht="22" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>55</v>
+        <v>816</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
@@ -2276,10 +2282,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2287,21 +2293,21 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="B133" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D133" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="134" ht="33" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2309,10 +2315,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" ht="22" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
@@ -2320,32 +2326,32 @@
         <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="11" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D136" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="138" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D137" s="11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" ht="22" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" ht="22" customHeight="true" outlineLevel="1">
@@ -2364,21 +2370,15 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B140" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B140" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
@@ -2386,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="142" ht="22" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
@@ -2397,10 +2397,10 @@
         <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" ht="22" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
@@ -2408,12 +2408,18 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B144" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B144" s="9" t="s">
         <v>147</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D144" s="11" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="1">
@@ -2421,13 +2427,13 @@
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" ht="33" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>295</v>
+        <v>950</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
@@ -2443,35 +2449,35 @@
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="148" ht="22" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="148" ht="33" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D148" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D148" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="149" ht="33" customHeight="true" outlineLevel="1">
       <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="150" ht="33" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="150" ht="22" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
@@ -2479,43 +2485,37 @@
         <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B151" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="151" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B151" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D151" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="152" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="152" ht="22" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="153" ht="33" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D152" s="11" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="154" ht="22" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D153" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
@@ -2523,12 +2523,18 @@
         <v>5</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="155" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B155" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B155" s="9" t="s">
         <v>158</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D155" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="156" ht="22" customHeight="true" outlineLevel="1">
@@ -2536,24 +2542,24 @@
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" ht="22" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="158" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D157" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" ht="22" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
@@ -2561,29 +2567,29 @@
         <v>5</v>
       </c>
       <c r="D158" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" ht="22" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>360</v>
+        <v>570</v>
       </c>
     </row>
     <row r="161" ht="22" customHeight="true" outlineLevel="1">
@@ -2594,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>220</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
@@ -2605,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>570</v>
+        <v>680</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
@@ -2616,10 +2622,10 @@
         <v>5</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="164" ht="22" customHeight="true" outlineLevel="1">
       <c r="B164" s="9" t="s">
         <v>167</v>
       </c>
@@ -2627,18 +2633,18 @@
         <v>5</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" ht="11" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>694</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
@@ -2646,48 +2652,48 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D166" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B167" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B167" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D167" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="168" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="168" ht="11" customHeight="true" outlineLevel="1">
       <c r="B168" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D168" s="11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B169" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C169" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D170" s="11" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="1">
@@ -2695,21 +2701,15 @@
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D171" s="12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="172" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B172" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171" s="11" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B172" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D172" s="11" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="173" ht="11" customHeight="true" outlineLevel="1">
@@ -2717,15 +2717,21 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="174" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B174" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="174" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B174" s="9" t="s">
         <v>177</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D174" s="11" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
@@ -2733,10 +2739,10 @@
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D175" s="11" t="n">
-        <v>640</v>
+        <v>840</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="1">
@@ -2744,10 +2750,10 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D176" s="11" t="n">
-        <v>330</v>
+        <v>82</v>
+      </c>
+      <c r="D176" s="12" t="n">
+        <v>1530</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="1">
@@ -2755,10 +2761,10 @@
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D177" s="11" t="n">
-        <v>840</v>
+        <v>650</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
@@ -2766,37 +2772,37 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D178" s="12" t="n">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B179" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D178" s="11" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B179" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D179" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D180" s="11" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="181" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B181" s="8" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B181" s="9" t="s">
         <v>184</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D181" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="true" outlineLevel="1">
@@ -2804,10 +2810,10 @@
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" s="11" t="n">
-        <v>965</v>
+        <v>82</v>
+      </c>
+      <c r="D182" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
@@ -2815,21 +2821,21 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D183" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D183" s="12" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D184" s="12" t="n">
-        <v>1550</v>
+        <v>82</v>
+      </c>
+      <c r="D184" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2837,21 +2843,21 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="186" ht="11" customHeight="true" outlineLevel="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="186" ht="22" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D186" s="11" t="n">
-        <v>760</v>
+        <v>82</v>
+      </c>
+      <c r="D186" s="12" t="n">
+        <v>1540</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2859,10 +2865,10 @@
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D187" s="12" t="n">
-        <v>1020</v>
+        <v>82</v>
+      </c>
+      <c r="D187" s="11" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="true" outlineLevel="1">
@@ -2870,56 +2876,56 @@
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D188" s="12" t="n">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D188" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
       <c r="B189" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D189" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="190" ht="22" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+      <c r="D189" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="190" ht="11" customHeight="true" outlineLevel="1">
       <c r="B190" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D190" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B191" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="191" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B191" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C191" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D191" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="192" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B192" s="8" t="s">
+    </row>
+    <row r="192" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="193" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C192" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D192" s="12" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="193" ht="22" customHeight="true" outlineLevel="1">
       <c r="B193" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D193" s="12" t="n">
         <v>1490</v>
@@ -2930,26 +2936,26 @@
         <v>197</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D194" s="12" t="n">
         <v>1490</v>
       </c>
     </row>
-    <row r="195" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B195" s="9" t="s">
+    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B195" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C195" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D195" s="12" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="196" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B196" s="8" t="s">
+    </row>
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B196" s="9" t="s">
         <v>199</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
@@ -2959,11 +2965,11 @@
       <c r="C197" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D197" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="198" ht="22" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
@@ -2971,10 +2977,10 @@
         <v>5</v>
       </c>
       <c r="D198" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="199" ht="22" customHeight="true" outlineLevel="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="199" ht="11" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>3790</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2993,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -3004,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
@@ -3015,10 +3021,10 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="203" ht="11" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="203" ht="22" customHeight="true" outlineLevel="1">
       <c r="B203" s="9" t="s">
         <v>206</v>
       </c>
@@ -3026,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="204" ht="22" customHeight="true" outlineLevel="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="204" ht="11" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="205" ht="11" customHeight="true" outlineLevel="1">
@@ -3047,8 +3053,8 @@
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="12" t="n">
-        <v>2300</v>
+      <c r="D205" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3058,8 +3064,8 @@
       <c r="C206" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="11" t="n">
-        <v>115</v>
+      <c r="D206" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3070,23 +3076,23 @@
         <v>5</v>
       </c>
       <c r="D207" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B208" s="9" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="208" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B208" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C208" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="209" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B209" s="8" t="s">
+    </row>
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B209" s="9" t="s">
         <v>212</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="1">
@@ -3097,7 +3103,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>760</v>
+        <v>800</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3108,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="11" t="n">
-        <v>800</v>
+        <v>815</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3119,10 +3125,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" ht="22" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
@@ -3130,10 +3136,10 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="9" t="s">
         <v>217</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>388</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3152,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3163,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>550</v>
+        <v>390</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3174,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>390</v>
+        <v>660</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="1">
@@ -3185,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>750</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3196,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3207,7 +3213,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3218,10 +3224,10 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
@@ -3229,10 +3235,10 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>230</v>
+        <v>858</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="1">
@@ -3251,18 +3257,18 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
       <c r="C225" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="11" t="n">
-        <v>545</v>
+      <c r="D225" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="226" ht="22" customHeight="true" outlineLevel="1">

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -67,9 +67,21 @@
     <t>Перец Халапеньо маринованный резанный (2,75 кг) ж/б "Сан Маркос" Мексика</t>
   </si>
   <si>
+    <t>Сахар, мешок 1кг</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Соль пищевая 1кг</t>
+  </si>
+  <si>
     <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
   </si>
   <si>
+    <t>Спагетти 400 г, Россия</t>
+  </si>
+  <si>
     <t>Томаты вяленые "Antica Napoli" в масле ст./б. (1,500 кг) упак. 6 шт.</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
   </si>
   <si>
+    <t>Паста Лакса AYAM 185г</t>
+  </si>
+  <si>
     <t>Паста мисо Genzo, светлая, уп. 1 кг. Китай</t>
   </si>
   <si>
@@ -139,6 +154,9 @@
     <t>Васаби. Водоросли</t>
   </si>
   <si>
+    <t>Водоросли Вакаме, уп 0,5кг, Китай</t>
+  </si>
+  <si>
     <t>Водоросли Комбу, Китай</t>
   </si>
   <si>
@@ -190,7 +208,7 @@
     <t>упак</t>
   </si>
   <si>
-    <t>Палочки бамбуковые, в наборе с зубочистками уп. 100шт</t>
+    <t>Палочки бамбуковые, прозрач.уп. 100шт</t>
   </si>
   <si>
     <t>Циновка для роллов 24*24 см</t>
@@ -202,9 +220,6 @@
     <t>Икра</t>
   </si>
   <si>
-    <t>Икра деликатесная "Люкс" "Масаго Энко" красная 500г 1/6 NEW</t>
-  </si>
-  <si>
     <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
   </si>
   <si>
@@ -271,9 +286,6 @@
     <t>Гребешок курильский, размер М, с/м, Россия</t>
   </si>
   <si>
-    <t>кг</t>
-  </si>
-  <si>
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
@@ -340,12 +352,6 @@
     <t>Креветка с/м б/г в панцире 26/30 1.8кг (блок) Эквадор</t>
   </si>
   <si>
-    <t>Креветка мелкая</t>
-  </si>
-  <si>
-    <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг. Индия</t>
-  </si>
-  <si>
     <t>Креветка россыпь</t>
   </si>
   <si>
@@ -382,6 +388,9 @@
     <t>Молоко кокосовое AROY-D, 0,5л. тетра пак</t>
   </si>
   <si>
+    <t>Молоко кокосовое AROY-D, 1л.</t>
+  </si>
+  <si>
     <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
   </si>
   <si>
@@ -424,6 +433,9 @@
     <t>Макароны № 081 Феттучине "Дельверде" (0,250кг) кор. 12 шт.</t>
   </si>
   <si>
+    <t>Мука высшего сорта "СуперМука", 1 кг</t>
+  </si>
+  <si>
     <t>Мука высшего сорта (СуперМука для пиццы) СТАНДАРТ, 10 кг/мешок</t>
   </si>
   <si>
@@ -484,12 +496,18 @@
     <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
   </si>
   <si>
+    <t>Окорочка куринные 1кг</t>
+  </si>
+  <si>
     <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
   </si>
   <si>
     <t>Растения и грибы</t>
   </si>
   <si>
+    <t>Арахис не жар. 1 кг</t>
+  </si>
+  <si>
     <t>Бобы соевые очищенные "Эдамаме" ТМ Якимал 1 кг</t>
   </si>
   <si>
@@ -550,6 +568,9 @@
     <t>Рис Премиум, мешок 25 кг, Китай</t>
   </si>
   <si>
+    <t>Рис Фушигон, среднезерный, Китай, 1кг</t>
+  </si>
+  <si>
     <t>Рыба ПСГ, ПБГ, С/М</t>
   </si>
   <si>
@@ -568,7 +589,7 @@
     <t>Сибас, целый, 300-400г, Турция</t>
   </si>
   <si>
-    <t>Форель радужная, 1,8-2,7кг, Турция</t>
+    <t>Форель ПБГ (2,7- 3,6 кг ) Турция</t>
   </si>
   <si>
     <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
@@ -601,7 +622,13 @@
     <t>Филе тунца желтоперого СТЕЙК (50-100г), уп. 0,5 кг</t>
   </si>
   <si>
-    <t>Форель филе 0.6-1,5 кг с/м, Китай</t>
+    <t>Филе форели, с/м, в/у, (900-1200г.) Трим D (Рафт), Турция</t>
+  </si>
+  <si>
+    <t>Форель филе с/м, пласт 1+ кг (тм "АльянсПромСнаб")</t>
+  </si>
+  <si>
+    <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
   </si>
   <si>
     <t>Щука филе б/к, с/м, 5%, ГОСТ</t>
@@ -613,6 +640,9 @@
     <t>Форель филе полуфабрикат для суши 2% с/с, в/у, Трим С (Фуд Тим) Мурманск</t>
   </si>
   <si>
+    <t>Форель филе слабосол 5%, в/у, Трим С (Альянс)</t>
+  </si>
+  <si>
     <t>Форель филе слабосол 5%, в/у, Трим С (Фуд Тим) Мурманск</t>
   </si>
   <si>
@@ -694,18 +724,15 @@
     <t>Соус Унаги Тамаки, 1.8 л</t>
   </si>
   <si>
-    <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
-  </si>
-  <si>
     <t>Соус Унаги, Genso, 1,5л, Россия</t>
   </si>
   <si>
+    <t>Соус устричный PRB 2,40 кг пл/бут</t>
+  </si>
+  <si>
     <t>Соус устричный высшей категории 510 г. ст/бт</t>
   </si>
   <si>
-    <t>Соус Хойсин  PRB 2,20кг пл/бут</t>
-  </si>
-  <si>
     <t>Соус Хойсин, Китай, 1 кг*6</t>
   </si>
   <si>
@@ -743,9 +770,6 @@
   </si>
   <si>
     <t>Сыр творожный Professional 65% 2,2 кг, SERVOLUX PROFESSIONAL, Беларусь</t>
-  </si>
-  <si>
-    <t>Сыр творожный сливочный Милетто ROLL CHEESE, мдж 62% (3,3 кг)</t>
   </si>
   <si>
     <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
@@ -940,7 +964,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D239"/>
+  <dimension ref="D247"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1071,431 +1095,437 @@
         <v>650</v>
       </c>
     </row>
-    <row r="14" ht="33" customHeight="true" outlineLevel="1">
+    <row r="14" ht="11" customHeight="true" outlineLevel="1">
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="n">
         <v>1320</v>
       </c>
     </row>
-    <row r="15" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="17" ht="22" customHeight="true" outlineLevel="1">
+    <row r="17" ht="11" customHeight="true" outlineLevel="1">
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="11" t="n">
-        <v>360</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="true" outlineLevel="1">
       <c r="B18" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="11" t="n">
-        <v>360</v>
+      <c r="D18" s="12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="true" outlineLevel="1">
       <c r="B19" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D19" s="11" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="20" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true" outlineLevel="1">
       <c r="B21" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true" outlineLevel="1">
       <c r="B22" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D22" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true" outlineLevel="1">
       <c r="B26" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="B27" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="true" outlineLevel="1">
       <c r="B28" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>690</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="B30" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="1">
       <c r="B31" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="11" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true" outlineLevel="1">
       <c r="B32" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" ht="22" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="B33" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="34" ht="22" customHeight="true" outlineLevel="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
       <c r="B34" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="true" outlineLevel="1">
       <c r="B36" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="12" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B37" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D36" s="11" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="true" outlineLevel="1">
       <c r="B38" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="12" t="n">
-        <v>1300</v>
+      <c r="D38" s="11" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="1">
       <c r="B39" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="12" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B41" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="11" t="n">
         <v>620</v>
-      </c>
-    </row>
-    <row r="40" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="41" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="42" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B42" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <v>540</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="true" outlineLevel="1">
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>530</v>
+        <v>870</v>
       </c>
     </row>
     <row r="46" ht="22" customHeight="true" outlineLevel="1">
       <c r="B46" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="11" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="48" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="50" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11" t="n">
         <v>360</v>
-      </c>
-    </row>
-    <row r="47" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B47" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B48" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B49" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B50" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B51" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
       <c r="B52" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true" outlineLevel="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
       <c r="B53" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="22" customHeight="true" outlineLevel="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="B54" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
@@ -1506,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
@@ -1517,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1530,234 +1560,234 @@
         <v>59</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>694</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
       <c r="B59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="D59" s="11" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true" outlineLevel="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="B60" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="B61" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="62" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B62" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="11" t="n">
-        <v>605</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B62" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
       <c r="B63" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>670</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
       <c r="B64" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="65" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B65" s="8" t="s">
-        <v>66</v>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B65" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="11" t="n">
+        <v>605</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
       <c r="B66" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>820</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
       <c r="B67" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="68" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B68" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B69" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="68" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="11" t="n">
-        <v>250</v>
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B69" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
       <c r="B70" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>950</v>
+        <v>820</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
       <c r="B71" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B72" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>540</v>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B72" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="11" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>590</v>
+        <v>950</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
       <c r="B75" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>280</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
       <c r="B76" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true" outlineLevel="1">
       <c r="B77" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>279</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
       <c r="B78" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B79" s="8" t="s">
-        <v>80</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B79" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="11" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
       <c r="B80" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="12" t="n">
-        <v>1460</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
@@ -1765,32 +1795,26 @@
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" ht="22" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B83" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B83" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>340</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
@@ -1798,10 +1822,10 @@
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>800</v>
+        <v>15</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>1460</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1809,10 +1833,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D85" s="11" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
@@ -1820,57 +1844,57 @@
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="87" ht="33" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" ht="22" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D87" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" ht="11" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" ht="22" customHeight="true" outlineLevel="1">
       <c r="B88" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D88" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" ht="11" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" ht="22" customHeight="true" outlineLevel="1">
       <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D89" s="11" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D90" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="91" ht="33" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
@@ -1878,18 +1902,18 @@
         <v>5</v>
       </c>
       <c r="D91" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="B92" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
@@ -1897,10 +1921,10 @@
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D93" s="12" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="94" ht="22" customHeight="true" outlineLevel="1">
@@ -1908,21 +1932,21 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" ht="22" customHeight="true" outlineLevel="1">
       <c r="B95" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" s="12" t="n">
-        <v>1800</v>
+        <v>5</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1930,15 +1954,21 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B97" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B97" s="9" t="s">
         <v>99</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="true" outlineLevel="1">
@@ -1946,10 +1976,10 @@
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D98" s="12" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
@@ -1957,10 +1987,10 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D99" s="11" t="n">
-        <v>960</v>
+        <v>15</v>
+      </c>
+      <c r="D99" s="12" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="true" outlineLevel="1">
@@ -1968,21 +1998,15 @@
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D100" s="12" t="n">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B101" s="9" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B101" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" s="11" t="n">
-        <v>990</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="true" outlineLevel="1">
@@ -1990,15 +2014,21 @@
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D102" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B103" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="11" t="n">
         <v>960</v>
-      </c>
-    </row>
-    <row r="103" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B103" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true" outlineLevel="1">
@@ -2006,37 +2036,37 @@
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B105" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="12" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="105" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B105" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C105" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="11" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="107" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B107" s="9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B107" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D107" s="12" t="n">
-        <v>1050</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
@@ -2044,10 +2074,10 @@
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D108" s="11" t="n">
-        <v>790</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true" outlineLevel="1">
@@ -2055,37 +2085,37 @@
         <v>111</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D109" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="110" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B110" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B110" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C110" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="11" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B112" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B112" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="11" t="n">
-        <v>166</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
@@ -2093,37 +2123,37 @@
         <v>115</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B114" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D113" s="11" t="n">
+      <c r="C114" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B115" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="11" t="n">
         <v>730</v>
       </c>
     </row>
-    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B114" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B115" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B116" s="9" t="s">
+    <row r="116" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B116" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="11" t="n">
-        <v>210</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="true" outlineLevel="1">
@@ -2134,15 +2164,21 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B118" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B118" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C118" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" ht="22" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
@@ -2150,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>370</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" ht="22" customHeight="true" outlineLevel="1">
@@ -2161,21 +2197,15 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B121" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="121" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B121" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2183,10 +2213,10 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" ht="22" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
@@ -2194,10 +2224,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2205,10 +2235,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2216,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>200</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
@@ -2227,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
@@ -2238,10 +2268,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2249,10 +2279,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="129" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2260,10 +2290,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" ht="22" customHeight="true" outlineLevel="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
@@ -2271,10 +2301,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" ht="22" customHeight="true" outlineLevel="1">
       <c r="B131" s="9" t="s">
         <v>134</v>
       </c>
@@ -2282,10 +2312,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2293,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
@@ -2301,13 +2331,13 @@
         <v>136</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="134" ht="33" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D133" s="11" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2315,10 +2345,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="135" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
@@ -2326,32 +2356,32 @@
         <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="137" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D136" s="11" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D137" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="138" ht="33" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
@@ -2359,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" ht="22" customHeight="true" outlineLevel="1">
@@ -2370,15 +2400,21 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B140" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C140" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
@@ -2386,10 +2422,10 @@
         <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="142" ht="22" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
@@ -2397,10 +2433,10 @@
         <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" ht="22" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
@@ -2408,18 +2444,12 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="144" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B144" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B144" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D144" s="11" t="n">
-        <v>325</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="1">
@@ -2427,13 +2457,13 @@
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="146" ht="33" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
@@ -2441,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>950</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
@@ -2449,35 +2479,35 @@
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="148" ht="33" customHeight="true" outlineLevel="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="149" ht="33" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D148" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="150" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="150" ht="33" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
@@ -2485,34 +2515,40 @@
         <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="151" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B151" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="152" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C151" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" ht="33" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D152" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="153" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D152" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="153" ht="33" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D153" s="12" t="n">
-        <v>1300</v>
+        <v>5</v>
+      </c>
+      <c r="D153" s="11" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="1">
@@ -2520,43 +2556,37 @@
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" ht="11" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" ht="22" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="156" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B156" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B156" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D156" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="157" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" ht="22" customHeight="true" outlineLevel="1">
@@ -2564,21 +2594,21 @@
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D158" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="11" t="n">
-        <v>220</v>
+        <v>15</v>
+      </c>
+      <c r="D159" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
@@ -2589,29 +2619,29 @@
         <v>5</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="161" ht="22" customHeight="true" outlineLevel="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
       <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>680</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
@@ -2622,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>694</v>
+        <v>360</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
@@ -2633,34 +2663,40 @@
         <v>5</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="165" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="166" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" ht="11" customHeight="true" outlineLevel="1">
       <c r="B166" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D166" s="11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B167" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B167" s="9" t="s">
         <v>170</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="11" t="n">
+        <v>465</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2668,21 +2704,21 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D168" s="11" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="169" ht="22" customHeight="true" outlineLevel="1">
       <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="12" t="n">
-        <v>3500</v>
+      <c r="D169" s="11" t="n">
+        <v>694</v>
       </c>
     </row>
     <row r="170" ht="22" customHeight="true" outlineLevel="1">
@@ -2690,10 +2726,10 @@
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D170" s="11" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="1">
@@ -2701,26 +2737,26 @@
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D171" s="11" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="172" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B172" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B172" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B173" s="9" t="s">
+      <c r="C172" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B173" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D173" s="11" t="n">
-        <v>640</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="1">
@@ -2728,10 +2764,10 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D174" s="11" t="n">
-        <v>330</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
@@ -2739,21 +2775,21 @@
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D175" s="11" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D175" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="176" ht="22" customHeight="true" outlineLevel="1">
       <c r="B176" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D176" s="12" t="n">
-        <v>1530</v>
+        <v>15</v>
+      </c>
+      <c r="D176" s="11" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="1">
@@ -2761,10 +2797,10 @@
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D177" s="11" t="n">
-        <v>650</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
@@ -2772,10 +2808,10 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D178" s="11" t="n">
-        <v>970</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2783,48 +2819,48 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" ht="22" customHeight="true" outlineLevel="1">
+    <row r="180" ht="11" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D180" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D181" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="182" ht="11" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D182" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="183" ht="22" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D182" s="11" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="183" ht="11" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1620</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="184" ht="11" customHeight="true" outlineLevel="1">
@@ -2832,32 +2868,26 @@
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D184" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="185" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="185" ht="11" customHeight="true" outlineLevel="1">
       <c r="B185" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="186" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B186" s="9" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="186" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B186" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D186" s="12" t="n">
-        <v>1540</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2865,10 +2895,10 @@
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D187" s="11" t="n">
-        <v>750</v>
+        <v>965</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="true" outlineLevel="1">
@@ -2876,48 +2906,54 @@
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D188" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="189" ht="22" customHeight="true" outlineLevel="1">
       <c r="B189" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="190" ht="11" customHeight="true" outlineLevel="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="190" ht="22" customHeight="true" outlineLevel="1">
       <c r="B190" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D190" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="191" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B191" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="12" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="192" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="11" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>1490</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
@@ -2925,10 +2961,10 @@
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>1490</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="194" ht="22" customHeight="true" outlineLevel="1">
@@ -2936,37 +2972,43 @@
         <v>197</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D194" s="12" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B195" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="11" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C195" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="11" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+        <v>15</v>
+      </c>
+      <c r="D196" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="197" ht="22" customHeight="true" outlineLevel="1">
       <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="198" ht="22" customHeight="true" outlineLevel="1">
@@ -2974,10 +3016,10 @@
         <v>201</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D198" s="12" t="n">
-        <v>3790</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
@@ -2985,43 +3027,37 @@
         <v>202</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D199" s="12" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="200" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B200" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="200" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B200" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C200" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="201" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="201" ht="33" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="202" ht="11" customHeight="true" outlineLevel="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="202" ht="22" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="203" ht="22" customHeight="true" outlineLevel="1">
@@ -3029,32 +3065,26 @@
         <v>206</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="204" ht="22" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B205" s="9" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="205" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B205" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="11" t="n">
-        <v>115</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3064,8 +3094,8 @@
       <c r="C206" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="12" t="n">
-        <v>1600</v>
+      <c r="D206" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3076,12 +3106,18 @@
         <v>5</v>
       </c>
       <c r="D207" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="208" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B208" s="8" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="208" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B208" s="9" t="s">
         <v>211</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="12" t="n">
+        <v>3790</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="1">
@@ -3091,8 +3127,8 @@
       <c r="C209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="11" t="n">
-        <v>760</v>
+      <c r="D209" s="12" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="210" ht="11" customHeight="true" outlineLevel="1">
@@ -3102,8 +3138,8 @@
       <c r="C210" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D210" s="11" t="n">
-        <v>800</v>
+      <c r="D210" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3113,8 +3149,8 @@
       <c r="C211" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="11" t="n">
-        <v>815</v>
+      <c r="D211" s="12" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3124,8 +3160,8 @@
       <c r="C212" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="11" t="n">
-        <v>170</v>
+      <c r="D212" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="213" ht="22" customHeight="true" outlineLevel="1">
@@ -3135,8 +3171,8 @@
       <c r="C213" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="11" t="n">
-        <v>388</v>
+      <c r="D213" s="12" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3146,8 +3182,8 @@
       <c r="C214" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D214" s="11" t="n">
-        <v>220</v>
+      <c r="D214" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3158,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>550</v>
+        <v>115</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3168,8 +3204,8 @@
       <c r="C216" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D216" s="11" t="n">
-        <v>390</v>
+      <c r="D216" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3179,19 +3215,13 @@
       <c r="C217" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D217" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="218" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B218" s="9" t="s">
+      <c r="D217" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="218" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B218" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="11" t="n">
-        <v>480</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3202,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3213,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3224,10 +3254,10 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="222" ht="22" customHeight="true" outlineLevel="1">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="222" ht="11" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
@@ -3235,10 +3265,10 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
@@ -3246,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>858</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" ht="11" customHeight="true" outlineLevel="1">
@@ -3257,32 +3287,32 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
       <c r="C225" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D225" s="11" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="226" ht="11" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="227" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D226" s="11" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="227" ht="11" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
@@ -3290,10 +3320,10 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="228" ht="22" customHeight="true" outlineLevel="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="228" ht="11" customHeight="true" outlineLevel="1">
       <c r="B228" s="9" t="s">
         <v>231</v>
       </c>
@@ -3301,10 +3331,10 @@
         <v>5</v>
       </c>
       <c r="D228" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229" ht="11" customHeight="true" outlineLevel="1">
       <c r="B229" s="9" t="s">
         <v>232</v>
       </c>
@@ -3312,10 +3342,10 @@
         <v>5</v>
       </c>
       <c r="D229" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="230" ht="22" customHeight="true" outlineLevel="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="230" ht="11" customHeight="true" outlineLevel="1">
       <c r="B230" s="9" t="s">
         <v>233</v>
       </c>
@@ -3323,12 +3353,18 @@
         <v>5</v>
       </c>
       <c r="D230" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="231" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B231" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="231" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B231" s="9" t="s">
         <v>234</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="11" t="n">
+        <v>680</v>
       </c>
     </row>
     <row r="232" ht="22" customHeight="true" outlineLevel="1">
@@ -3339,7 +3375,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>792</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" ht="11" customHeight="true" outlineLevel="1">
@@ -3349,11 +3385,11 @@
       <c r="C233" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D233" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="234" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D233" s="11" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="234" ht="22" customHeight="true" outlineLevel="1">
       <c r="B234" s="9" t="s">
         <v>237</v>
       </c>
@@ -3361,7 +3397,7 @@
         <v>5</v>
       </c>
       <c r="D234" s="12" t="n">
-        <v>1890</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="235" ht="22" customHeight="true" outlineLevel="1">
@@ -3371,8 +3407,8 @@
       <c r="C235" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D235" s="11" t="n">
-        <v>740</v>
+      <c r="D235" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="236" ht="22" customHeight="true" outlineLevel="1">
@@ -3383,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="11" t="n">
-        <v>858</v>
+        <v>370</v>
       </c>
     </row>
     <row r="237" ht="22" customHeight="true" outlineLevel="1">
@@ -3393,11 +3429,11 @@
       <c r="C237" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D237" s="12" t="n">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="238" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D237" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238" ht="22" customHeight="true" outlineLevel="1">
       <c r="B238" s="9" t="s">
         <v>241</v>
       </c>
@@ -3405,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="D238" s="11" t="n">
-        <v>500</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" ht="22" customHeight="true" outlineLevel="1">
@@ -3416,6 +3452,88 @@
         <v>5</v>
       </c>
       <c r="D239" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B240" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B241" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241" s="11" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="242" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B242" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="243" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B243" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="12" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="244" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B244" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="11" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="245" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B245" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="11" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="246" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B246" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B247" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -58,234 +58,207 @@
     <t>Огурцы марин. слайсы т.м. Домашняя Трапеза (1,700) упак. 5шт</t>
   </si>
   <si>
-    <t>Оливки зеленые "Alisa" без косточки (0,350 кг) ж/б кор. 12 шт. </t>
-  </si>
-  <si>
     <t>Паста из анчоуса европейского с оливковым маслом (12%) "Delicius" ст.бан 0,720, Италия</t>
   </si>
   <si>
-    <t>Перец Халапеньо маринованный резанный (2,75 кг) ж/б "Сан Маркос" Мексика</t>
-  </si>
-  <si>
-    <t>Сахар, мешок 1кг</t>
+    <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
+  </si>
+  <si>
+    <t>Томаты вяленые "Antica Napoli" в масле ст./б. (1,500 кг) упак. 6 шт.</t>
+  </si>
+  <si>
+    <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
+  </si>
+  <si>
+    <t>Топпинг клубника 1 кг,ЗОЛОТАЯ КОЛИБРИ,РОССИЯ</t>
+  </si>
+  <si>
+    <t>Топпинг шоколад 1 кг,ЗОЛОТАЯ КОЛИБРИ,РОССИЯ</t>
+  </si>
+  <si>
+    <t>Тунец филе в с/с ж/б 1,7 кг, Blue Oceano, Тайланд</t>
+  </si>
+  <si>
+    <t>Бульоны. Основы для супов. Приправа</t>
+  </si>
+  <si>
+    <t>Бульон куриный 850 г, МАРЕВЕН ФУД</t>
+  </si>
+  <si>
+    <t>Глутомат натрия в гранулах, 454 гр*50, Китай</t>
+  </si>
+  <si>
+    <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста Лакса AYAM 185г</t>
+  </si>
+  <si>
+    <t>Паста мисо Genzo, светлая, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста мисо Genzo, темная, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста мисо, темная, уп. 1 кг. Китай</t>
+  </si>
+  <si>
+    <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
+  </si>
+  <si>
+    <t>Паста острая Табаджан, 0,92 кг</t>
+  </si>
+  <si>
+    <t>Паста Том Кха AROY- D, Тайланд, 1кг</t>
+  </si>
+  <si>
+    <t>Паста Том Ям CHANG, Таиланд, 400г</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 0,400гр. AROY- D, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 1 кг AROY- D, Тайланд</t>
+  </si>
+  <si>
+    <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
+  </si>
+  <si>
+    <t>Рыбный бульон "Хондаши"</t>
+  </si>
+  <si>
+    <t>Стружка тунца Бонито, уп.500г.</t>
+  </si>
+  <si>
+    <t>Васаби. Водоросли</t>
+  </si>
+  <si>
+    <t>Водоросли Вакаме, уп 0,5кг, Китай</t>
+  </si>
+  <si>
+    <t>Водоросли Комбу, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
+  </si>
+  <si>
+    <t>Горчичный порошок васаби "OSHI Премиум"</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
+  </si>
+  <si>
+    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
+  </si>
+  <si>
+    <t>Вьетнамская кухня</t>
+  </si>
+  <si>
+    <t>Вермишель Бун (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Рисовая лапша (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Соус чили для Фо Бо (500гр.), Вьетнам</t>
+  </si>
+  <si>
+    <t>Изделия из бамбука</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
+  </si>
+  <si>
+    <t>упак</t>
+  </si>
+  <si>
+    <t>Палочки бамбуковые, прозрач.уп. 100шт</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 24*24 см</t>
+  </si>
+  <si>
+    <t>Циновка для роллов 27*27 см</t>
+  </si>
+  <si>
+    <t>Икра</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
+  </si>
+  <si>
+    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
+  </si>
+  <si>
+    <t>Картофель</t>
+  </si>
+  <si>
+    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
+  </si>
+  <si>
+    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
+  </si>
+  <si>
+    <t>Корейские пасты и соусы</t>
+  </si>
+  <si>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
+  </si>
+  <si>
+    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
+  </si>
+  <si>
+    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
+  </si>
+  <si>
+    <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
+  </si>
+  <si>
+    <t>Приправа дашида со вкусом говядины, 500 г</t>
+  </si>
+  <si>
+    <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
+  </si>
+  <si>
+    <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
+  </si>
+  <si>
+    <t>Краб. Гребешок. Мидии. Кальмар</t>
+  </si>
+  <si>
+    <t>Гребешок курильский, размер М, с/м, Россия</t>
   </si>
   <si>
     <t>кг</t>
   </si>
   <si>
-    <t>Соль пищевая 1кг</t>
-  </si>
-  <si>
-    <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
-  </si>
-  <si>
-    <t>Спагетти 400 г, Россия</t>
-  </si>
-  <si>
-    <t>Томаты вяленые "Antica Napoli" в масле ст./б. (1,500 кг) упак. 6 шт.</t>
-  </si>
-  <si>
-    <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
-  </si>
-  <si>
-    <t>Топпинг клубника 1 кг,ЗОЛОТАЯ КОЛИБРИ,РОССИЯ</t>
-  </si>
-  <si>
-    <t>Топпинг шоколад 1 кг,ЗОЛОТАЯ КОЛИБРИ,РОССИЯ</t>
-  </si>
-  <si>
-    <t>Тунец филе в с/с ж/б 1,7 кг, Blue Oceano, Тайланд</t>
-  </si>
-  <si>
-    <t>Бульоны. Основы для супов. Приправа</t>
-  </si>
-  <si>
-    <t>Бульон куриный 850 г, МАРЕВЕН ФУД</t>
-  </si>
-  <si>
-    <t>Глутомат натрия в гранулах, 454 гр*50, Китай</t>
-  </si>
-  <si>
-    <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
-  </si>
-  <si>
-    <t>Паста Лакса AYAM 185г</t>
-  </si>
-  <si>
-    <t>Паста мисо Genzo, светлая, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста мисо Genzo, темная, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста мисо, светлая, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста мисо, темная, уп. 1 кг. Китай</t>
-  </si>
-  <si>
-    <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
-  </si>
-  <si>
-    <t>Паста острая Табаджан, 0,92 кг</t>
-  </si>
-  <si>
-    <t>Паста Том Кха AROY- D, Тайланд, 1кг</t>
-  </si>
-  <si>
-    <t>Паста Том Ям CHANG, Таиланд, 400г</t>
-  </si>
-  <si>
-    <t>Паста Том Ям, уп. 0,400гр. AROY- D, Тайланд</t>
-  </si>
-  <si>
-    <t>Паста Том Ям, уп. 1 кг AROY- D, Тайланд</t>
-  </si>
-  <si>
-    <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
-  </si>
-  <si>
-    <t>Рыбный бульон "Хондаши"</t>
-  </si>
-  <si>
-    <t>Стружка тунца Бонито, уп.500г.</t>
-  </si>
-  <si>
-    <t>Васаби. Водоросли</t>
-  </si>
-  <si>
-    <t>Водоросли Вакаме, уп 0,5кг, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли Комбу, Китай</t>
-  </si>
-  <si>
-    <t>Водоросли нори "Risma" 100л, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA Professional" уп. 2кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "ASA" 1уп/ 1кг.</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
-  </si>
-  <si>
-    <t>Горчичный порошок васаби "OSHI Премиум"</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
-  </si>
-  <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
-  </si>
-  <si>
-    <t>Вьетнамская кухня</t>
-  </si>
-  <si>
-    <t>Вермишель Бун (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Вьетнамская соль (190гр.) Вьетнам</t>
-  </si>
-  <si>
-    <t>Рисовая лапша (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Соус чили для Фо Бо (500гр.), Вьетнам</t>
-  </si>
-  <si>
-    <t>Изделия из бамбука</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые в/у 210, Китай, 100 пар/1уп</t>
-  </si>
-  <si>
-    <t>упак</t>
-  </si>
-  <si>
-    <t>Палочки бамбуковые, прозрач.уп. 100шт</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 24*24 см</t>
-  </si>
-  <si>
-    <t>Циновка для роллов 27*27 см</t>
-  </si>
-  <si>
-    <t>Икра</t>
-  </si>
-  <si>
-    <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум оранжевая, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра Масаго OSHI премиум черная, уп.0.5кг, Россия</t>
-  </si>
-  <si>
-    <t>Икра МАСАГО оранжевая, Путина пл/к 500 г</t>
-  </si>
-  <si>
-    <t>Картофель</t>
-  </si>
-  <si>
-    <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
-  </si>
-  <si>
-    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
-    <t>Корейские пасты и соусы</t>
-  </si>
-  <si>
-    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
-  </si>
-  <si>
-    <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
-  </si>
-  <si>
-    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
-  </si>
-  <si>
-    <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
-  </si>
-  <si>
-    <t>Приправа дашида со вкусом говядины, 500 г</t>
-  </si>
-  <si>
-    <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
-  </si>
-  <si>
-    <t>Соус для Бульгоги оригинал 480г 1/12 т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус для Бульгоги острый и пряный  480г 1/12 т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
-  </si>
-  <si>
-    <t>Краб. Гребешок. Мидии. Кальмар</t>
-  </si>
-  <si>
-    <t>Гребешок курильский, размер М, с/м, Россия</t>
-  </si>
-  <si>
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
@@ -301,9 +274,6 @@
     <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
   </si>
   <si>
-    <t>Мясо камчатского краба Роза</t>
-  </si>
-  <si>
     <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
   </si>
   <si>
@@ -334,6 +304,9 @@
     <t>Фаланга чищенная,  8-10см, камчатский краб, в/у</t>
   </si>
   <si>
+    <t>Фаланга чищенная,  средняя, камчатский краб, в/у</t>
+  </si>
+  <si>
     <t>Креветка блочная</t>
   </si>
   <si>
@@ -352,6 +325,12 @@
     <t>Креветка с/м б/г в панцире 26/30 1.8кг (блок) Эквадор</t>
   </si>
   <si>
+    <t>Креветка мелкая</t>
+  </si>
+  <si>
+    <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг. Индия</t>
+  </si>
+  <si>
     <t>Креветка россыпь</t>
   </si>
   <si>
@@ -361,9 +340,6 @@
     <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
   </si>
   <si>
-    <t>Креветка с/м, б/г, 16/20, (Китай)</t>
-  </si>
-  <si>
     <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
   </si>
   <si>
@@ -454,54 +430,45 @@
     <t>Сухари панировочные "Панко" "Тамаки", 1кг</t>
   </si>
   <si>
-    <t>Сухари панировочные "Панко", 10кг, Россия</t>
-  </si>
-  <si>
-    <t>Сухари панировочные, Kaneshiro, уп. 1кг, Малайзия</t>
-  </si>
-  <si>
-    <t>Сухари панировочные, Kasho, уп. 1кг, Малайзия</t>
-  </si>
-  <si>
     <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
   </si>
   <si>
     <t>Мясо и полуфабрикаты</t>
   </si>
   <si>
+    <t>Бекон с/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
+    <t>Бекон с/к зам. в/у, 500 гр. Аргус</t>
+  </si>
+  <si>
+    <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
+  </si>
+  <si>
+    <t>Бекон с/к мясное ассорти № 4</t>
+  </si>
+  <si>
+    <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
+  </si>
+  <si>
+    <t>Колбаса Пепперони в/к "Пикантная"</t>
+  </si>
+  <si>
+    <t>Колбаса с/к "Пепперони" полусухая 500г, Таганский МК</t>
+  </si>
+  <si>
+    <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
+  </si>
+  <si>
+    <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
+  </si>
+  <si>
+    <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
+  </si>
+  <si>
     <t>Бекон Классический в/к 500гр, МК ЭКО</t>
   </si>
   <si>
-    <t>Бекон с/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
-    <t>Бекон с/к зам. в/у, 500 гр. Аргус</t>
-  </si>
-  <si>
-    <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
-  </si>
-  <si>
-    <t>Бекон с/к мясное ассорти № 4</t>
-  </si>
-  <si>
-    <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
-  </si>
-  <si>
-    <t>Колбаса Пепперони в/к "Пикантная"</t>
-  </si>
-  <si>
-    <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
-  </si>
-  <si>
-    <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
-  </si>
-  <si>
-    <t>Окорочка куринные 1кг</t>
-  </si>
-  <si>
-    <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
-  </si>
-  <si>
     <t>Растения и грибы</t>
   </si>
   <si>
@@ -538,9 +505,6 @@
     <t>Листья каффир-лайма сушеные HOM-D, ResFood, Таиланд, 100гр*12   </t>
   </si>
   <si>
-    <t>Лук жареный 1 кг/уп</t>
-  </si>
-  <si>
     <t>Пюре из манго с/м 10% сахара, 1кг, Ravifruit, Франция</t>
   </si>
   <si>
@@ -556,15 +520,9 @@
     <t>Рис</t>
   </si>
   <si>
-    <t>Рис "Hansey", Россия, 25кг*1</t>
-  </si>
-  <si>
     <t>Рис IKIGAI 22.68 кг</t>
   </si>
   <si>
-    <t>Рис Премиум, красный мешок 25 кг, Китай</t>
-  </si>
-  <si>
     <t>Рис Премиум, мешок 25 кг, Китай</t>
   </si>
   <si>
@@ -580,6 +538,9 @@
     <t>Корюшка н/р, дальневосточная</t>
   </si>
   <si>
+    <t>Осетр Сибирский псг,с/г, с/м, 2,5 кг+</t>
+  </si>
+  <si>
     <t>Палтус с/м, размер М, Россия</t>
   </si>
   <si>
@@ -652,6 +613,9 @@
     <t>Соевый соус. Уксус. Мирин</t>
   </si>
   <si>
+    <t>Заправка для риса на основе рисового уксуса, Izumi Food, 19л, Россия</t>
+  </si>
+  <si>
     <t>Соевый соус "Yakimal", 1л</t>
   </si>
   <si>
@@ -682,9 +646,6 @@
     <t>Уксус рисовый "Yakimal" 1л</t>
   </si>
   <si>
-    <t>Уксус рисовый ASA, 20л</t>
-  </si>
-  <si>
     <t>Уксус рисовый Padam, Россия, 20л*1</t>
   </si>
   <si>
@@ -724,6 +685,9 @@
     <t>Соус Унаги Тамаки, 1.8 л</t>
   </si>
   <si>
+    <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
+  </si>
+  <si>
     <t>Соус Унаги, Genso, 1,5л, Россия</t>
   </si>
   <si>
@@ -755,9 +719,6 @@
   </si>
   <si>
     <t>Сыр. Майонез</t>
-  </si>
-  <si>
-    <t>Крем сыр кулинарный "Париж" (3,3 кг) "УМК"</t>
   </si>
   <si>
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
@@ -964,7 +925,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D247"/>
+  <dimension ref="D234"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1062,15 +1023,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="true" outlineLevel="1">
+    <row r="11" ht="33" customHeight="true" outlineLevel="1">
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11" t="n">
-        <v>110</v>
+      <c r="D11" s="12" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="true" outlineLevel="1">
@@ -1081,429 +1042,423 @@
         <v>5</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="13" ht="33" customHeight="true" outlineLevel="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="true" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D13" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="true" outlineLevel="1">
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="17" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="19" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="C19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="11" t="n">
-        <v>956</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" ht="22" customHeight="true" outlineLevel="1">
       <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>360</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
       <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B29" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="C29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B31" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="C31" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="11" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true" outlineLevel="1">
       <c r="B32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="33" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B33" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>690</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="1">
       <c r="B34" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="12" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="38" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="11" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="40" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="40" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="11" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="12" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="41" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B44" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="C44" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>620</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="true" outlineLevel="1">
       <c r="B45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="46" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B46" s="9" t="s">
+    </row>
+    <row r="47" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="11" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="47" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="48" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="49" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B49" s="9" t="s">
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B50" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="50" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B50" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="11" t="n">
-        <v>530</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="true" outlineLevel="1">
       <c r="B51" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="D51" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B52" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B52" s="9" t="s">
         <v>53</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="1">
@@ -1514,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>144</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
@@ -1525,21 +1480,15 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B55" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -1547,12 +1496,18 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B57" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B57" s="9" t="s">
         <v>58</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1560,179 +1515,179 @@
         <v>59</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>146</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
       <c r="B59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="11" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="60" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="61" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B61" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B62" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B63" s="8" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="63" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B63" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>694</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
       <c r="B64" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>670</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
       <c r="B65" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>605</v>
+        <v>950</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
       <c r="B66" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>605</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
       <c r="B67" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>670</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
       <c r="B68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B69" s="8" t="s">
-        <v>71</v>
+      <c r="C69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="11" t="n">
+        <v>590</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
       <c r="B70" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>820</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
       <c r="B71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="72" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B72" s="8" t="s">
-        <v>74</v>
+      <c r="C72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B74" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B74" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="11" t="n">
-        <v>950</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
       <c r="B75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>800</v>
+        <v>77</v>
+      </c>
+      <c r="D75" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="true" outlineLevel="1">
@@ -1740,21 +1695,21 @@
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="77" ht="22" customHeight="true" outlineLevel="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="B77" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D77" s="11" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1762,10 +1717,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>590</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1773,10 +1728,10 @@
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>280</v>
+        <v>800</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
@@ -1784,13 +1739,13 @@
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" ht="33" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
@@ -1798,23 +1753,29 @@
         <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B83" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B83" s="9" t="s">
         <v>85</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="12" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
@@ -1822,10 +1783,10 @@
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="12" t="n">
-        <v>1460</v>
+        <v>77</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1833,32 +1794,32 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D85" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D86" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="11" t="n">
-        <v>340</v>
+        <v>77</v>
+      </c>
+      <c r="D87" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1866,76 +1827,70 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D88" s="12" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D89" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D90" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="91" ht="33" customHeight="true" outlineLevel="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B92" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="12" t="n">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="92" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B92" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="93" ht="22" customHeight="true" outlineLevel="1">
       <c r="B93" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D93" s="12" t="n">
         <v>1200</v>
       </c>
     </row>
-    <row r="94" ht="22" customHeight="true" outlineLevel="1">
+    <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>620</v>
+        <v>960</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1943,10 +1898,10 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="11" t="n">
-        <v>230</v>
+        <v>77</v>
+      </c>
+      <c r="D95" s="12" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1954,59 +1909,53 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="97" ht="22" customHeight="true" outlineLevel="1">
       <c r="B97" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="98" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B98" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="98" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B98" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="99" ht="22" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B100" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="11" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="100" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B100" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="12" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B101" s="8" t="s">
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B101" s="9" t="s">
         <v>103</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="true" outlineLevel="1">
@@ -2014,43 +1963,37 @@
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D102" s="11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="104" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B104" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B104" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="12" t="n">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="105" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="B105" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D105" s="11" t="n">
-        <v>990</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" ht="22" customHeight="true" outlineLevel="1">
@@ -2058,102 +2001,108 @@
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="107" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B107" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B107" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B108" s="9" t="s">
+      <c r="C107" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="11" t="n">
-        <v>900</v>
+      <c r="D107" s="11" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="108" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B108" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true" outlineLevel="1">
       <c r="B109" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="12" t="n">
-        <v>1050</v>
+        <v>5</v>
+      </c>
+      <c r="D109" s="11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="B110" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>790</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B112" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B112" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="11" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B113" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="116" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B116" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B116" s="9" t="s">
         <v>119</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="11" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="true" outlineLevel="1">
@@ -2164,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>200</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
@@ -2175,10 +2124,10 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
@@ -2186,10 +2135,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2197,12 +2146,18 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="121" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B121" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B121" s="9" t="s">
         <v>124</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="11" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
@@ -2213,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>370</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="true" outlineLevel="1">
@@ -2224,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>235</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" ht="22" customHeight="true" outlineLevel="1">
@@ -2235,21 +2190,21 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2257,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>62</v>
+        <v>816</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
@@ -2268,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
@@ -2279,7 +2234,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="1">
@@ -2289,11 +2244,11 @@
       <c r="C129" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D129" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="130" ht="33" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
@@ -2301,7 +2256,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" ht="22" customHeight="true" outlineLevel="1">
@@ -2312,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" ht="22" customHeight="true" outlineLevel="1">
@@ -2323,21 +2278,15 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B133" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B133" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="11" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2345,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>816</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="1">
@@ -2356,18 +2305,18 @@
         <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
@@ -2375,10 +2324,10 @@
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="12" t="n">
-        <v>1800</v>
+        <v>77</v>
+      </c>
+      <c r="D137" s="11" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="138" ht="33" customHeight="true" outlineLevel="1">
@@ -2389,18 +2338,18 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>183</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="true" outlineLevel="1">
@@ -2408,24 +2357,24 @@
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D140" s="11" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" ht="33" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D141" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="142" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D141" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="142" ht="33" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
@@ -2433,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>200</v>
+        <v>820</v>
       </c>
     </row>
     <row r="143" ht="22" customHeight="true" outlineLevel="1">
@@ -2444,23 +2393,23 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B144" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B145" s="9" t="s">
+      <c r="C144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B145" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="11" t="n">
-        <v>295</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="1">
@@ -2468,32 +2417,32 @@
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" ht="22" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="148" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" s="11" t="n">
-        <v>325</v>
+        <v>77</v>
+      </c>
+      <c r="D148" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
@@ -2501,46 +2450,46 @@
         <v>152</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="150" ht="33" customHeight="true" outlineLevel="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" ht="22" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="152" ht="33" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" ht="22" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="153" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D152" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" ht="22" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
@@ -2548,21 +2497,21 @@
         <v>5</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" ht="22" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="155" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
@@ -2570,23 +2519,29 @@
         <v>5</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B156" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="156" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C156" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="11" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="157" ht="22" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>300</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" ht="22" customHeight="true" outlineLevel="1">
@@ -2594,10 +2549,10 @@
         <v>161</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D158" s="11" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
@@ -2605,76 +2560,64 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D159" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="160" ht="22" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B161" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B161" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D162" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="164" ht="22" customHeight="true" outlineLevel="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="B164" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B165" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B165" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="11" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="1">
@@ -2682,21 +2625,21 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D166" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="B167" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>465</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2704,32 +2647,32 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="11" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D168" s="12" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D169" s="11" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="170" ht="11" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="11" t="n">
-        <v>200</v>
+        <v>77</v>
+      </c>
+      <c r="D170" s="12" t="n">
+        <v>1210</v>
       </c>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="1">
@@ -2737,21 +2680,21 @@
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D171" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="172" ht="22" customHeight="true" outlineLevel="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="172" ht="11" customHeight="true" outlineLevel="1">
       <c r="B172" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D172" s="11" t="n">
-        <v>190</v>
+        <v>77</v>
+      </c>
+      <c r="D172" s="12" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="173" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2759,26 +2702,26 @@
         <v>176</v>
       </c>
     </row>
-    <row r="174" ht="11" customHeight="true" outlineLevel="1">
+    <row r="174" ht="22" customHeight="true" outlineLevel="1">
       <c r="B174" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D174" s="11" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="1">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" s="12" t="n">
-        <v>3500</v>
+        <v>77</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="176" ht="22" customHeight="true" outlineLevel="1">
@@ -2786,21 +2729,21 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D176" s="12" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D177" s="11" t="n">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D177" s="12" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
@@ -2808,108 +2751,114 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D178" s="11" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B179" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="179" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B179" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C179" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D179" s="12" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
       <c r="B180" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="11" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D180" s="12" t="n">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D181" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
       <c r="B182" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D182" s="11" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="183" ht="22" customHeight="true" outlineLevel="1">
       <c r="B183" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D184" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="185" ht="11" customHeight="true" outlineLevel="1">
+        <v>77</v>
+      </c>
+      <c r="D184" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="185" ht="22" customHeight="true" outlineLevel="1">
       <c r="B185" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="186" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B186" s="8" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="186" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="187" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B187" s="9" t="s">
+      <c r="C186" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D186" s="11" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B187" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C187" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D187" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="188" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="188" ht="33" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="11" t="n">
-        <v>780</v>
+        <v>77</v>
+      </c>
+      <c r="D188" s="12" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="189" ht="22" customHeight="true" outlineLevel="1">
@@ -2917,10 +2866,10 @@
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>1550</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="190" ht="22" customHeight="true" outlineLevel="1">
@@ -2928,32 +2877,26 @@
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D190" s="12" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="191" ht="22" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B192" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D191" s="12" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="192" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B192" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="12" t="n">
-        <v>1020</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
@@ -2961,32 +2904,32 @@
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="194" ht="22" customHeight="true" outlineLevel="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="194" ht="11" customHeight="true" outlineLevel="1">
       <c r="B194" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D194" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="195" ht="22" customHeight="true" outlineLevel="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" s="11" t="n">
-        <v>860</v>
+        <v>5</v>
+      </c>
+      <c r="D195" s="12" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="196" ht="22" customHeight="true" outlineLevel="1">
@@ -2994,32 +2937,32 @@
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="197" ht="22" customHeight="true" outlineLevel="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="198" ht="22" customHeight="true" outlineLevel="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="198" ht="11" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D198" s="12" t="n">
-        <v>1550</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="199" ht="11" customHeight="true" outlineLevel="1">
@@ -3027,59 +2970,65 @@
         <v>202</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="200" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B200" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="200" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="201" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C200" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="201" ht="22" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="202" ht="22" customHeight="true" outlineLevel="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="202" ht="11" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="203" ht="22" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="203" ht="11" customHeight="true" outlineLevel="1">
       <c r="B203" s="9" t="s">
         <v>206</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" s="12" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="204" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D203" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="204" ht="11" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="205" ht="16" customHeight="true" s="7" customFormat="true">
@@ -3095,7 +3044,7 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>115</v>
+        <v>820</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3105,19 +3054,19 @@
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="208" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D207" s="11" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
       <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C208" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="12" t="n">
-        <v>3790</v>
+      <c r="D208" s="11" t="n">
+        <v>815</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="1">
@@ -3127,19 +3076,19 @@
       <c r="C209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="12" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D209" s="11" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
       <c r="C210" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D210" s="12" t="n">
-        <v>2000</v>
+      <c r="D210" s="11" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3149,8 +3098,8 @@
       <c r="C211" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="12" t="n">
-        <v>1700</v>
+      <c r="D211" s="11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3160,19 +3109,19 @@
       <c r="C212" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="213" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D212" s="11" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="213" ht="11" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
       <c r="C213" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D213" s="12" t="n">
-        <v>2900</v>
+      <c r="D213" s="11" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3182,8 +3131,8 @@
       <c r="C214" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D214" s="12" t="n">
-        <v>2300</v>
+      <c r="D214" s="11" t="n">
+        <v>770</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3194,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>115</v>
+        <v>480</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3204,8 +3153,8 @@
       <c r="C216" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D216" s="12" t="n">
-        <v>1600</v>
+      <c r="D216" s="11" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3215,13 +3164,19 @@
       <c r="C217" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D217" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="218" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B218" s="8" t="s">
+      <c r="D217" s="11" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="218" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B218" s="9" t="s">
         <v>221</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="11" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3232,10 +3187,10 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="220" ht="11" customHeight="true" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="220" ht="22" customHeight="true" outlineLevel="1">
       <c r="B220" s="9" t="s">
         <v>223</v>
       </c>
@@ -3243,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3254,18 +3209,18 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C222" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="11" t="n">
-        <v>170</v>
+      <c r="D222" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="223" ht="22" customHeight="true" outlineLevel="1">
@@ -3275,11 +3230,11 @@
       <c r="C223" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D223" s="11" t="n">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D223" s="12" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="224" ht="22" customHeight="true" outlineLevel="1">
       <c r="B224" s="9" t="s">
         <v>227</v>
       </c>
@@ -3287,10 +3242,10 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
@@ -3298,10 +3253,10 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="226" ht="11" customHeight="true" outlineLevel="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
@@ -3309,10 +3264,10 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="227" ht="11" customHeight="true" outlineLevel="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="227" ht="22" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
@@ -3320,18 +3275,12 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B228" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="228" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B228" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D228" s="11" t="n">
-        <v>480</v>
       </c>
     </row>
     <row r="229" ht="11" customHeight="true" outlineLevel="1">
@@ -3341,8 +3290,8 @@
       <c r="C229" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="11" t="n">
-        <v>520</v>
+      <c r="D229" s="12" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="230" ht="11" customHeight="true" outlineLevel="1">
@@ -3352,11 +3301,11 @@
       <c r="C230" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D230" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="231" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D230" s="12" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="231" ht="22" customHeight="true" outlineLevel="1">
       <c r="B231" s="9" t="s">
         <v>234</v>
       </c>
@@ -3364,7 +3313,7 @@
         <v>5</v>
       </c>
       <c r="D231" s="11" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
     </row>
     <row r="232" ht="22" customHeight="true" outlineLevel="1">
@@ -3375,10 +3324,10 @@
         <v>5</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="233" ht="33" customHeight="true" outlineLevel="1">
       <c r="B233" s="9" t="s">
         <v>236</v>
       </c>
@@ -3386,7 +3335,7 @@
         <v>5</v>
       </c>
       <c r="D233" s="11" t="n">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234" ht="22" customHeight="true" outlineLevel="1">
@@ -3396,144 +3345,7 @@
       <c r="C234" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D234" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="235" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B235" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="236" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B236" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="237" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B237" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="238" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B238" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="239" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B239" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="240" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B240" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="241" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B241" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D241" s="11" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="242" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B242" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D242" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="243" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B243" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D243" s="12" t="n">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="244" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B244" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D244" s="11" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="245" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B245" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D245" s="11" t="n">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="246" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B246" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D246" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="247" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B247" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D247" s="11" t="n">
+      <c r="D234" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -55,15 +55,18 @@
     <t>Маслины резаные Green King 3100 мл, ж/б, Испания</t>
   </si>
   <si>
-    <t>Огурцы марин. слайсы т.м. Домашняя Трапеза (1,700) упак. 5шт</t>
-  </si>
-  <si>
     <t>Паста из анчоуса европейского с оливковым маслом (12%) "Delicius" ст.бан 0,720, Италия</t>
   </si>
   <si>
+    <t>Паста томатная 500г</t>
+  </si>
+  <si>
     <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
   </si>
   <si>
+    <t>Стружка кокосовая 1кг</t>
+  </si>
+  <si>
     <t>Томаты вяленые "Antica Napoli" в масле ст./б. (1,500 кг) упак. 6 шт.</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>Глутомат натрия в гранулах, 454 гр*50, Китай</t>
   </si>
   <si>
+    <t>Нити чили сушеные 400мл</t>
+  </si>
+  <si>
     <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
   </si>
   <si>
@@ -112,7 +118,7 @@
     <t>Паста острая Табаджан, 0,92 кг</t>
   </si>
   <si>
-    <t>Паста Том Кха AROY- D, Тайланд, 1кг</t>
+    <t>Паста Том Кха AROY- D, Тайланд, 0,4 кг</t>
   </si>
   <si>
     <t>Паста Том Ям CHANG, Таиланд, 400г</t>
@@ -253,12 +259,15 @@
     <t>Краб. Гребешок. Мидии. Кальмар</t>
   </si>
   <si>
+    <t>Гребешок курильский, размер L, с/м, Россия</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
     <t>Гребешок курильский, размер М, с/м, Россия</t>
   </si>
   <si>
-    <t>кг</t>
-  </si>
-  <si>
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
   </si>
   <si>
+    <t>Мясо камчатского краба Роза</t>
+  </si>
+  <si>
     <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
   </si>
   <si>
@@ -289,6 +301,9 @@
     <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
   </si>
   <si>
+    <t>Палочки крабовые Сочный краб имитация пастериз. морож. 500г, 12 шт/кор</t>
+  </si>
+  <si>
     <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
   </si>
   <si>
@@ -370,7 +385,7 @@
     <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
   </si>
   <si>
-    <t>Сливки Крем сливочный 33%, 1л, Петмол, Россия</t>
+    <t>Молоко кокосовое консерв.HOM-D, уп. 1л.</t>
   </si>
   <si>
     <t>Мучная продукция</t>
@@ -418,6 +433,9 @@
     <t>Рисовая лапша 5мм AROY-D 454 г</t>
   </si>
   <si>
+    <t>Смесь темпурная "Kaneshiro" Россия, уп. 1кг</t>
+  </si>
+  <si>
     <t>Смесь темпурная 1уп/1кг</t>
   </si>
   <si>
@@ -430,9 +448,6 @@
     <t>Сухари панировочные "Панко" "Тамаки", 1кг</t>
   </si>
   <si>
-    <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
-  </si>
-  <si>
     <t>Мясо и полуфабрикаты</t>
   </si>
   <si>
@@ -502,7 +517,7 @@
     <t>Лемонграсс сушеный резаный, 300 гр.</t>
   </si>
   <si>
-    <t>Листья каффир-лайма сушеные HOM-D, ResFood, Таиланд, 100гр*12   </t>
+    <t>Лук жареный 1 кг/уп</t>
   </si>
   <si>
     <t>Пюре из манго с/м 10% сахара, 1кг, Ravifruit, Франция</t>
@@ -520,6 +535,9 @@
     <t>Рис</t>
   </si>
   <si>
+    <t>Рис "Hansey", Россия, 25кг*1</t>
+  </si>
+  <si>
     <t>Рис IKIGAI 22.68 кг</t>
   </si>
   <si>
@@ -592,6 +610,9 @@
     <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
   </si>
   <si>
+    <t>Форель филе, в/у, 0,6-0,9 кг, Трим С (тм "АльянсПромСнаб")</t>
+  </si>
+  <si>
     <t>Щука филе б/к, с/м, 5%, ГОСТ</t>
   </si>
   <si>
@@ -607,9 +628,6 @@
     <t>Форель филе слабосол 5%, в/у, Трим С (Фуд Тим) Мурманск</t>
   </si>
   <si>
-    <t>Форель филе, в/у, 0,6-0,9 кг, Трим С (тм "АльянсПромСнаб")</t>
-  </si>
-  <si>
     <t>Соевый соус. Уксус. Мирин</t>
   </si>
   <si>
@@ -652,9 +670,6 @@
     <t>Соусы паназиатские</t>
   </si>
   <si>
-    <t>Соус Кимчи Tamaki, 1,8л</t>
-  </si>
-  <si>
     <t>Соус Кимчи, 1,8л, 2,2 кг вес, Китай</t>
   </si>
   <si>
@@ -667,9 +682,6 @@
     <t>Соус Рыбный AROY-D, 0,7л (0,84кг), ст/б</t>
   </si>
   <si>
-    <t>Соус сладкий чили, Россия, 1кг, пакет</t>
-  </si>
-  <si>
     <t>Соус сырный HAINZ 1 кг</t>
   </si>
   <si>
@@ -695,6 +707,9 @@
   </si>
   <si>
     <t>Соус устричный высшей категории 510 г. ст/бт</t>
+  </si>
+  <si>
+    <t>Соус устричный, Chang, Тайланд 815г</t>
   </si>
   <si>
     <t>Соус Хойсин, Китай, 1 кг*6</t>
@@ -925,7 +940,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D234"/>
+  <dimension ref="D239"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -965,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="true" outlineLevel="1">
@@ -1012,26 +1027,26 @@
         <v>870</v>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="true" outlineLevel="1">
+    <row r="10" ht="33" customHeight="true" outlineLevel="1">
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="11" t="n">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D10" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true" outlineLevel="1">
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="n">
-        <v>1900</v>
+      <c r="D11" s="11" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="true" outlineLevel="1">
@@ -1045,15 +1060,15 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="13" ht="22" customHeight="true" outlineLevel="1">
+    <row r="13" ht="11" customHeight="true" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="12" t="n">
-        <v>1000</v>
+      <c r="D13" s="11" t="n">
+        <v>550</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="true" outlineLevel="1">
@@ -1063,8 +1078,8 @@
       <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="n">
-        <v>956</v>
+      <c r="D14" s="12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="true" outlineLevel="1">
@@ -1075,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>360</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" ht="22" customHeight="true" outlineLevel="1">
@@ -1096,27 +1111,27 @@
       <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="12" t="n">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B18" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B19" s="9" t="s">
+    <row r="19" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>182</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1135,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>330</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="1">
@@ -1146,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="true" outlineLevel="1">
@@ -1157,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true" outlineLevel="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1168,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1179,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true" outlineLevel="1">
       <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
@@ -1190,10 +1205,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="1">
@@ -1212,10 +1227,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1223,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
@@ -1234,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" ht="22" customHeight="true" outlineLevel="1">
+    <row r="32" ht="11" customHeight="true" outlineLevel="1">
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
@@ -1256,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>590</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true" outlineLevel="1">
@@ -1267,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true" outlineLevel="1">
       <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
@@ -1278,23 +1293,29 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true" outlineLevel="1">
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="12" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="36" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B36" s="8" t="s">
+      <c r="D35" s="11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B36" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true" outlineLevel="1">
@@ -1304,22 +1325,16 @@
       <c r="C37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="11" t="n">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B38" s="9" t="s">
+      <c r="D37" s="12" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="39" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="39" ht="11" customHeight="true" outlineLevel="1">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
@@ -1327,18 +1342,18 @@
         <v>5</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="40" ht="22" customHeight="true" outlineLevel="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="11" t="n">
-        <v>425</v>
+      <c r="D40" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true" outlineLevel="1">
@@ -1349,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>550</v>
+        <v>870</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="true" outlineLevel="1">
@@ -1360,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true" outlineLevel="1">
@@ -1371,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="true" outlineLevel="1">
@@ -1382,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>530</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="true" outlineLevel="1">
@@ -1393,15 +1408,21 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B46" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B46" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true" outlineLevel="1">
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -1409,18 +1430,12 @@
         <v>5</v>
       </c>
       <c r="D47" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B48" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B48" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="11" t="n">
-        <v>143</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="1">
@@ -1431,64 +1446,70 @@
         <v>5</v>
       </c>
       <c r="D49" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B50" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B50" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="B51" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B52" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="11" t="n">
+    </row>
+    <row r="53" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="11" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="52" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B52" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="11" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" ht="11" customHeight="true" outlineLevel="1">
+    <row r="54" ht="22" customHeight="true" outlineLevel="1">
       <c r="B54" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B55" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B55" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -1496,18 +1517,12 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B57" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B57" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1518,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>670</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
@@ -1529,12 +1544,18 @@
         <v>5</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="60" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B60" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B60" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true" outlineLevel="1">
@@ -1545,23 +1566,23 @@
         <v>5</v>
       </c>
       <c r="D61" s="11" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B62" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="11" t="n">
         <v>820</v>
-      </c>
-    </row>
-    <row r="62" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B62" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="63" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B63" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1572,18 +1593,12 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B65" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B65" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="11" t="n">
-        <v>950</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1594,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1605,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>580</v>
+        <v>950</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1616,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true" outlineLevel="1">
@@ -1627,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
@@ -1638,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1649,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>280</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
@@ -1660,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="11" t="n">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
@@ -1671,12 +1686,18 @@
         <v>5</v>
       </c>
       <c r="D73" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B74" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B74" s="9" t="s">
         <v>75</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="11" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
@@ -1684,32 +1705,26 @@
         <v>76</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B76" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="76" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B76" s="9" t="s">
+    </row>
+    <row r="77" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B77" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="77" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B77" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="C77" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>360</v>
+        <v>79</v>
+      </c>
+      <c r="D77" s="12" t="n">
+        <v>1400</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1717,10 +1732,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="11" t="n">
-        <v>340</v>
+        <v>79</v>
+      </c>
+      <c r="D78" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1728,68 +1743,68 @@
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="80" ht="22" customHeight="true" outlineLevel="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="B80" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" ht="33" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" ht="22" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
       <c r="B83" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="1">
+        <v>79</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="85" ht="22" customHeight="true" outlineLevel="1">
+        <v>79</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" ht="33" customHeight="true" outlineLevel="1">
       <c r="B85" s="9" t="s">
         <v>87</v>
       </c>
@@ -1797,18 +1812,18 @@
         <v>5</v>
       </c>
       <c r="D85" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D86" s="11" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
@@ -1816,10 +1831,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>1150</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1827,32 +1842,32 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="89" ht="11" customHeight="true" outlineLevel="1">
+        <v>79</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="89" ht="22" customHeight="true" outlineLevel="1">
       <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D89" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="11" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" ht="33" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D90" s="12" t="n">
-        <v>4000</v>
+        <v>5</v>
+      </c>
+      <c r="D90" s="11" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="true" outlineLevel="1">
@@ -1860,15 +1875,21 @@
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D91" s="12" t="n">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="92" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B92" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B92" s="9" t="s">
         <v>94</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="12" t="n">
+        <v>1150</v>
       </c>
     </row>
     <row r="93" ht="22" customHeight="true" outlineLevel="1">
@@ -1876,10 +1897,10 @@
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D93" s="12" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
@@ -1887,10 +1908,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="11" t="n">
-        <v>960</v>
+        <v>79</v>
+      </c>
+      <c r="D94" s="12" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1898,10 +1919,10 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D95" s="12" t="n">
-        <v>1030</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1909,53 +1930,59 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="97" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B97" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="12" t="n">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B97" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="98" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B98" s="8" t="s">
+    </row>
+    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C98" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D99" s="11" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="100" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B100" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C100" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="12" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
       <c r="B101" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D101" s="11" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="true" outlineLevel="1">
@@ -1963,108 +1990,102 @@
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D102" s="11" t="n">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B103" s="9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="103" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B103" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" s="12" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="104" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B104" s="8" t="s">
+    </row>
+    <row r="104" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B105" s="9" t="s">
+      <c r="C104" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B105" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="107" ht="22" customHeight="true" outlineLevel="1">
       <c r="B107" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C107" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B108" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D107" s="11" t="n">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="108" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B108" s="8" t="s">
+      <c r="C108" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B109" s="8" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B109" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="B110" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B112" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="D112" s="11" t="n">
-        <v>497</v>
+        <v>800</v>
       </c>
     </row>
     <row r="113" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2072,7 +2093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
       <c r="B114" s="9" t="s">
         <v>117</v>
       </c>
@@ -2080,10 +2101,10 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
@@ -2091,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>235</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="true" outlineLevel="1">
@@ -2102,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="true" outlineLevel="1">
@@ -2113,18 +2134,12 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B118" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B118" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="11" t="n">
-        <v>62</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
@@ -2135,10 +2150,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" ht="22" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2146,10 +2161,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" ht="22" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2157,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2168,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
@@ -2179,10 +2194,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
@@ -2198,13 +2213,13 @@
         <v>128</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2212,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>816</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
@@ -2223,10 +2238,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" ht="22" customHeight="true" outlineLevel="1">
       <c r="B128" s="9" t="s">
         <v>131</v>
       </c>
@@ -2234,29 +2249,29 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="130" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D129" s="11" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>270</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" ht="22" customHeight="true" outlineLevel="1">
@@ -2267,10 +2282,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="B132" s="9" t="s">
         <v>135</v>
       </c>
@@ -2278,12 +2293,18 @@
         <v>5</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B133" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B133" s="9" t="s">
         <v>136</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="11" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
@@ -2294,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>295</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="1">
@@ -2304,41 +2325,35 @@
       <c r="C135" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="11" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D135" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="136" ht="33" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="138" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B138" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B138" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="11" t="n">
-        <v>950</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
@@ -2346,46 +2361,46 @@
         <v>142</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="141" ht="33" customHeight="true" outlineLevel="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="142" ht="33" customHeight="true" outlineLevel="1">
+        <v>79</v>
+      </c>
+      <c r="D141" s="11" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="143" ht="22" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="143" ht="33" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>635</v>
+        <v>950</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="1">
@@ -2401,48 +2416,54 @@
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="145" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B145" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C145" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="11" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" ht="33" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D146" s="11" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D146" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="147" ht="33" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D148" s="12" t="n">
-        <v>1300</v>
+        <v>5</v>
+      </c>
+      <c r="D148" s="11" t="n">
+        <v>635</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
@@ -2453,29 +2474,23 @@
         <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B150" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B150" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D150" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="151" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" ht="22" customHeight="true" outlineLevel="1">
@@ -2483,24 +2498,24 @@
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="153" ht="22" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="154" ht="22" customHeight="true" outlineLevel="1">
+        <v>79</v>
+      </c>
+      <c r="D153" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
@@ -2508,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>220</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
@@ -2516,10 +2531,10 @@
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>570</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156" ht="22" customHeight="true" outlineLevel="1">
@@ -2527,10 +2542,10 @@
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>465</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157" ht="22" customHeight="true" outlineLevel="1">
@@ -2541,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>694</v>
+        <v>360</v>
       </c>
     </row>
     <row r="158" ht="22" customHeight="true" outlineLevel="1">
@@ -2552,56 +2567,62 @@
         <v>5</v>
       </c>
       <c r="D158" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" ht="22" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B161" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C161" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="11" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D162" s="11" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="1">
@@ -2609,26 +2630,26 @@
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D164" s="11" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B165" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="166" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B166" s="9" t="s">
+      <c r="C165" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D165" s="11" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B166" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D166" s="11" t="n">
-        <v>640</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="1">
@@ -2636,10 +2657,10 @@
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>330</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2647,10 +2668,10 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D168" s="12" t="n">
-        <v>1160</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="169" ht="11" customHeight="true" outlineLevel="1">
@@ -2658,10 +2679,10 @@
         <v>172</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D169" s="11" t="n">
-        <v>840</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="1">
@@ -2669,21 +2690,15 @@
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D170" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B171" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D170" s="11" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B171" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D171" s="11" t="n">
-        <v>650</v>
       </c>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="1">
@@ -2691,59 +2706,65 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D172" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="173" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B173" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B173" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="174" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C173" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" s="11" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" ht="11" customHeight="true" outlineLevel="1">
       <c r="B174" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D174" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+        <v>79</v>
+      </c>
+      <c r="D174" s="12" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D175" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="176" ht="11" customHeight="true" outlineLevel="1">
       <c r="B176" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D176" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="177" ht="22" customHeight="true" outlineLevel="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
       <c r="B177" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D177" s="12" t="n">
-        <v>1500</v>
+        <v>79</v>
+      </c>
+      <c r="D177" s="11" t="n">
+        <v>650</v>
       </c>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
@@ -2751,21 +2772,15 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D178" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="179" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B179" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D178" s="12" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B179" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D179" s="12" t="n">
-        <v>1020</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="true" outlineLevel="1">
@@ -2773,10 +2788,10 @@
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D180" s="12" t="n">
-        <v>1540</v>
+        <v>5</v>
+      </c>
+      <c r="D180" s="11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="181" ht="22" customHeight="true" outlineLevel="1">
@@ -2784,10 +2799,10 @@
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D181" s="11" t="n">
-        <v>750</v>
+        <v>780</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="true" outlineLevel="1">
@@ -2795,10 +2810,10 @@
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D182" s="11" t="n">
-        <v>860</v>
+        <v>79</v>
+      </c>
+      <c r="D182" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
@@ -2806,21 +2821,21 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D184" s="12" t="n">
-        <v>1600</v>
+        <v>79</v>
+      </c>
+      <c r="D184" s="11" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2828,37 +2843,43 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D185" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="186" ht="11" customHeight="true" outlineLevel="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="186" ht="22" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D186" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="187" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B187" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D186" s="12" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="187" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B187" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="188" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C187" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D187" s="11" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="188" ht="22" customHeight="true" outlineLevel="1">
       <c r="B188" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D188" s="12" t="n">
-        <v>1490</v>
+        <v>79</v>
+      </c>
+      <c r="D188" s="11" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="189" ht="22" customHeight="true" outlineLevel="1">
@@ -2866,10 +2887,10 @@
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>2100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="190" ht="22" customHeight="true" outlineLevel="1">
@@ -2877,10 +2898,10 @@
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D190" s="12" t="n">
-        <v>1490</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="191" ht="22" customHeight="true" outlineLevel="1">
@@ -2888,48 +2909,48 @@
         <v>194</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D191" s="12" t="n">
         <v>1550</v>
       </c>
     </row>
-    <row r="192" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B192" s="8" t="s">
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="193" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C192" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D192" s="12" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="193" ht="11" customHeight="true" outlineLevel="1">
       <c r="B193" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="194" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B194" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D193" s="11" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B194" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C194" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="195" ht="33" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D195" s="12" t="n">
-        <v>1800</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="196" ht="22" customHeight="true" outlineLevel="1">
@@ -2937,35 +2958,29 @@
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="197" ht="22" customHeight="true" outlineLevel="1">
       <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B198" s="9" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="198" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B198" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C198" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="199" ht="22" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>1700</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="200" ht="11" customHeight="true" outlineLevel="1">
@@ -2983,11 +2998,11 @@
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="201" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D200" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="201" ht="11" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
@@ -2995,10 +3010,10 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="202" ht="11" customHeight="true" outlineLevel="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="202" ht="22" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
@@ -3006,7 +3021,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>2300</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="203" ht="11" customHeight="true" outlineLevel="1">
@@ -3016,8 +3031,8 @@
       <c r="C203" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="11" t="n">
-        <v>115</v>
+      <c r="D203" s="12" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="204" ht="11" customHeight="true" outlineLevel="1">
@@ -3028,12 +3043,18 @@
         <v>5</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="205" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B205" s="8" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B205" s="9" t="s">
         <v>208</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="12" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3043,19 +3064,19 @@
       <c r="C206" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D206" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="207" ht="22" customHeight="true" outlineLevel="1">
       <c r="B207" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="11" t="n">
-        <v>800</v>
+      <c r="D207" s="12" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="208" ht="11" customHeight="true" outlineLevel="1">
@@ -3065,8 +3086,8 @@
       <c r="C208" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="11" t="n">
-        <v>815</v>
+      <c r="D208" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="1">
@@ -3077,29 +3098,23 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="210" ht="22" customHeight="true" outlineLevel="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210" ht="11" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
       <c r="C210" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D210" s="11" t="n">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="211" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B211" s="9" t="s">
+      <c r="D210" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="211" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B211" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D211" s="11" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3110,7 +3125,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3121,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>390</v>
+        <v>815</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3132,10 +3147,10 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="215" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" ht="22" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
         <v>218</v>
       </c>
@@ -3143,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3154,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>520</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3165,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>770</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="1">
@@ -3176,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>380</v>
+        <v>770</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3187,10 +3202,10 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="220" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="220" ht="11" customHeight="true" outlineLevel="1">
       <c r="B220" s="9" t="s">
         <v>223</v>
       </c>
@@ -3198,7 +3213,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>230</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3209,29 +3224,29 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="222" ht="22" customHeight="true" outlineLevel="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="222" ht="11" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C222" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D222" s="11" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C223" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D223" s="12" t="n">
-        <v>1600</v>
+      <c r="D223" s="11" t="n">
+        <v>680</v>
       </c>
     </row>
     <row r="224" ht="22" customHeight="true" outlineLevel="1">
@@ -3242,10 +3257,10 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
@@ -3253,10 +3268,10 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" ht="11" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
@@ -3264,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>242</v>
+        <v>545</v>
       </c>
     </row>
     <row r="227" ht="22" customHeight="true" outlineLevel="1">
@@ -3274,35 +3289,41 @@
       <c r="C227" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D227" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="228" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B228" s="8" t="s">
+      <c r="D227" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="228" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B228" s="9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C228" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="12" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="1">
       <c r="B229" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C229" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D229" s="11" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="230" ht="22" customHeight="true" outlineLevel="1">
       <c r="B230" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C230" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D230" s="12" t="n">
-        <v>1890</v>
+      <c r="D230" s="11" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="231" ht="22" customHeight="true" outlineLevel="1">
@@ -3313,7 +3334,7 @@
         <v>5</v>
       </c>
       <c r="D231" s="11" t="n">
-        <v>740</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" ht="22" customHeight="true" outlineLevel="1">
@@ -3324,28 +3345,77 @@
         <v>5</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="233" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B233" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="233" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B233" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C233" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="234" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="234" ht="11" customHeight="true" outlineLevel="1">
       <c r="B234" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D234" s="11" t="n">
+      <c r="D234" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="235" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B235" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="12" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="236" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B236" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="11" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="237" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B237" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="11" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="238" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B238" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B239" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Паста из анчоуса европейского с оливковым маслом (12%) "Delicius" ст.бан 0,720, Италия</t>
   </si>
   <si>
-    <t>Паста томатная 500г</t>
+    <t>Перец Халапеньо маринованный резанный (2,75 кг) ж/б "Сан Маркос" Мексика</t>
   </si>
   <si>
     <t>Соус томатный для пиццы "Классический" 5,000кг, MUTTI, пакет, Италия</t>
@@ -112,9 +112,6 @@
     <t>Паста мисо, темная, уп. 1 кг. Китай</t>
   </si>
   <si>
-    <t>Паста острая Табаджан (Chill Bean) 2.05 кг</t>
-  </si>
-  <si>
     <t>Паста острая Табаджан, 0,92 кг</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
   </si>
   <si>
-    <t>Морская капуста сушеная нори "Tidori", Корея, 50л</t>
-  </si>
-  <si>
     <t>Вьетнамская кухня</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Циновка для роллов 24*24 см</t>
   </si>
   <si>
-    <t>Циновка для роллов 27*27 см</t>
-  </si>
-  <si>
     <t>Икра</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
     <t>Картофельные дольки со специями, с кожурой "Лэм Уэстон" (2,500кг) упак.</t>
   </si>
   <si>
-    <t>Овальный Хэшбраун 2,5кг 1/5 Фарм Фритес</t>
-  </si>
-  <si>
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
@@ -259,15 +247,12 @@
     <t>Краб. Гребешок. Мидии. Кальмар</t>
   </si>
   <si>
-    <t>Гребешок курильский, размер L, с/м, Россия</t>
+    <t>Гребешок курильский, размер М, с/м, Россия</t>
   </si>
   <si>
     <t>кг</t>
   </si>
   <si>
-    <t>Гребешок курильский, размер М, с/м, Россия</t>
-  </si>
-  <si>
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
@@ -277,6 +262,9 @@
     <t>Мидии в раковинах (голубые) в/м 40/60, 1кг, Чили</t>
   </si>
   <si>
+    <t>Мидии в раковине в/м, 60-80 Чили</t>
+  </si>
+  <si>
     <t>Мидии зеленые в половинке раковины М (30-45шт), Новая Зеландия</t>
   </si>
   <si>
@@ -301,9 +289,6 @@
     <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
   </si>
   <si>
-    <t>Палочки крабовые Сочный краб имитация пастериз. морож. 500г, 12 шт/кор</t>
-  </si>
-  <si>
     <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
   </si>
   <si>
@@ -319,9 +304,6 @@
     <t>Фаланга чищенная,  8-10см, камчатский краб, в/у</t>
   </si>
   <si>
-    <t>Фаланга чищенная,  средняя, камчатский краб, в/у</t>
-  </si>
-  <si>
     <t>Креветка блочная</t>
   </si>
   <si>
@@ -346,6 +328,12 @@
     <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг. Индия</t>
   </si>
   <si>
+    <t>Креветка очищенная с хвостом (30/50) фас 0,5кг, 7% гл  Китай</t>
+  </si>
+  <si>
+    <t>Креветка северная в/м (70-90) фас*1кг</t>
+  </si>
+  <si>
     <t>Креветка россыпь</t>
   </si>
   <si>
@@ -400,6 +388,9 @@
     <t>Вермишель крахмальная Харусаме "Kekeshi" резаная, Китай, 0,5кг</t>
   </si>
   <si>
+    <t>Куксу Пшеничная лапша 500 г 1/24 т.м. Оттоги</t>
+  </si>
+  <si>
     <t>Куксу Пшеничная лапша 900 г 1/15 т.м. Оттоги</t>
   </si>
   <si>
@@ -448,6 +439,12 @@
     <t>Сухари панировочные "Панко" "Тамаки", 1кг</t>
   </si>
   <si>
+    <t>Тесто слоёное бездрожжевое, 1кг, Россия</t>
+  </si>
+  <si>
+    <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
+  </si>
+  <si>
     <t>Мясо и полуфабрикаты</t>
   </si>
   <si>
@@ -487,10 +484,7 @@
     <t>Растения и грибы</t>
   </si>
   <si>
-    <t>Арахис не жар. 1 кг</t>
-  </si>
-  <si>
-    <t>Бобы соевые очищенные "Эдамаме" ТМ Якимал 1 кг</t>
+    <t>Бобы соевые очищенные "Эдамаме"  1 кг</t>
   </si>
   <si>
     <t>Грибы шиитаке уп. 1кг, Китай</t>
@@ -580,9 +574,6 @@
     <t>Окунь Изумидай 9-11 oz "RISMA" (Китай)</t>
   </si>
   <si>
-    <t>Угорь жарен в соусе 20% морож филе (13-14 унц), Китай</t>
-  </si>
-  <si>
     <t>Угорь жареный, б/в (тех), морож филе, Китай</t>
   </si>
   <si>
@@ -595,15 +586,15 @@
     <t>Филе тунца желтоперого с/м САКУ АА (300-600г) Вьетнам</t>
   </si>
   <si>
+    <t>Филе тунца желтоперого с/м САКУ ААА (300-500г), Китай</t>
+  </si>
+  <si>
     <t>Филе тунца желтоперого СТЕЙК (100г+), уп. 0,5 кг</t>
   </si>
   <si>
     <t>Филе тунца желтоперого СТЕЙК (50-100г), уп. 0,5 кг</t>
   </si>
   <si>
-    <t>Филе форели, с/м, в/у, (900-1200г.) Трим D (Рафт), Турция</t>
-  </si>
-  <si>
     <t>Форель филе с/м, пласт 1+ кг (тм "АльянсПромСнаб")</t>
   </si>
   <si>
@@ -619,21 +610,12 @@
     <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
   </si>
   <si>
-    <t>Форель филе полуфабрикат для суши 2% с/с, в/у, Трим С (Фуд Тим) Мурманск</t>
-  </si>
-  <si>
-    <t>Форель филе слабосол 5%, в/у, Трим С (Альянс)</t>
-  </si>
-  <si>
     <t>Форель филе слабосол 5%, в/у, Трим С (Фуд Тим) Мурманск</t>
   </si>
   <si>
     <t>Соевый соус. Уксус. Мирин</t>
   </si>
   <si>
-    <t>Заправка для риса на основе рисового уксуса, Izumi Food, 19л, Россия</t>
-  </si>
-  <si>
     <t>Соевый соус "Yakimal", 1л</t>
   </si>
   <si>
@@ -646,9 +628,6 @@
     <t>Соевый соус Padam, 18л, Китай</t>
   </si>
   <si>
-    <t>Соевый соус Tamaki Pro 1уп/20л</t>
-  </si>
-  <si>
     <t>Соевый соус ТМ "Канимори", 20л</t>
   </si>
   <si>
@@ -661,18 +640,48 @@
     <t>Соус рисовый Мирин, Россия, 20 л*1</t>
   </si>
   <si>
-    <t>Уксус рисовый "Yakimal" 1л</t>
-  </si>
-  <si>
     <t>Уксус рисовый Padam, Россия, 20л*1</t>
   </si>
   <si>
     <t>Соусы паназиатские</t>
   </si>
   <si>
+    <t>Горчица сладкая баварская "MILD", - 1,1 кг , Provil, Греция</t>
+  </si>
+  <si>
+    <t>Заправка "Греческий салат" 1,9кг, Provil, Греция</t>
+  </si>
+  <si>
+    <t>Релиш из корнишонов , - 1,05 кг, Provil, Греция</t>
+  </si>
+  <si>
+    <t>Соус "Барбекю Америка", - 2,3 кг, Provil, Греция</t>
+  </si>
+  <si>
+    <t>Соус "Барбекю Голд",2,4 кг,  Provil, Греция</t>
+  </si>
+  <si>
+    <t>Соус "Барбекю Копченый", - 2,3 кг, Provil, Греция</t>
+  </si>
+  <si>
+    <t>Соус "Барбекю Миссури", - 2,5 кг, Provil, Греция</t>
+  </si>
+  <si>
+    <t>Соус "Карри", - 2,3 кг Provil, Греция</t>
+  </si>
+  <si>
+    <t>Соус "Чили" , - 2,25 кг, Provil, Греция</t>
+  </si>
+  <si>
+    <t>Соус Кимчи Tamaki, 1,8л</t>
+  </si>
+  <si>
     <t>Соус Кимчи, 1,8л, 2,2 кг вес, Китай</t>
   </si>
   <si>
+    <t>Соус Мексиканский, 2,2 кг, Provil, Греция</t>
+  </si>
+  <si>
     <t>Соус ореховый TAMAKI Pro 1 уп/1.5л.</t>
   </si>
   <si>
@@ -682,9 +691,6 @@
     <t>Соус Рыбный AROY-D, 0,7л (0,84кг), ст/б</t>
   </si>
   <si>
-    <t>Соус сырный HAINZ 1 кг</t>
-  </si>
-  <si>
     <t>Соус Терияки, 1.5л, Genso Россия</t>
   </si>
   <si>
@@ -731,6 +737,9 @@
   </si>
   <si>
     <t>Соус Шрирача острый Uni- Eagle 475г, пл/б</t>
+  </si>
+  <si>
+    <t>Сырный соус "Чеддер Сэндвич крим", - 2,0 к</t>
   </si>
   <si>
     <t>Сыр. Майонез</t>
@@ -940,7 +949,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D239"/>
+  <dimension ref="D242"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -980,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="true" outlineLevel="1">
@@ -1038,7 +1047,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="11" ht="11" customHeight="true" outlineLevel="1">
+    <row r="11" ht="33" customHeight="true" outlineLevel="1">
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>172</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="true" outlineLevel="1">
@@ -1230,7 +1239,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" ht="22" customHeight="true" outlineLevel="1">
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>750</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
@@ -1249,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>690</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="1">
@@ -1260,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true" outlineLevel="1">
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true" outlineLevel="1">
@@ -1282,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <v>260</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="true" outlineLevel="1">
@@ -1293,10 +1302,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="35" ht="22" customHeight="true" outlineLevel="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>300</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="1">
@@ -1314,24 +1323,24 @@
       <c r="C36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="11" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B37" s="9" t="s">
+      <c r="D36" s="12" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="12" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="38" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B38" s="8" t="s">
+    </row>
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B38" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>955</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="1">
@@ -1341,19 +1350,19 @@
       <c r="C39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="11" t="n">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="40" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D39" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="40" ht="22" customHeight="true" outlineLevel="1">
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="12" t="n">
-        <v>1300</v>
+      <c r="D40" s="11" t="n">
+        <v>870</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true" outlineLevel="1">
@@ -1364,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>870</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="true" outlineLevel="1">
@@ -1375,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>425</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true" outlineLevel="1">
@@ -1386,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="true" outlineLevel="1">
@@ -1397,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>380</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="true" outlineLevel="1">
@@ -1408,21 +1417,15 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="46" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B46" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="11" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
@@ -1430,12 +1433,18 @@
         <v>5</v>
       </c>
       <c r="D47" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B48" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B48" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="1">
@@ -1446,59 +1455,53 @@
         <v>5</v>
       </c>
       <c r="D49" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B50" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B50" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="51" ht="22" customHeight="true" outlineLevel="1">
       <c r="B51" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B52" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D52" s="11" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
       <c r="B53" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B54" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B54" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="11" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="55" ht="22" customHeight="true" outlineLevel="1">
       <c r="B55" s="9" t="s">
         <v>56</v>
       </c>
@@ -1506,10 +1509,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true" outlineLevel="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="9" t="s">
         <v>57</v>
       </c>
@@ -1517,12 +1520,18 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B57" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B57" s="9" t="s">
         <v>58</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1533,18 +1542,12 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="59" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B59" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B59" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>580</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="1">
@@ -1555,23 +1558,23 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B61" s="9" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="62" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B62" s="8" t="s">
+    </row>
+    <row r="62" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B62" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1582,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>820</v>
+        <v>950</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1593,12 +1596,18 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="65" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B65" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B65" s="9" t="s">
         <v>66</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="11" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1609,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1620,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>950</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1631,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true" outlineLevel="1">
@@ -1642,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
@@ -1653,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="11" t="n">
-        <v>400</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
@@ -1664,18 +1673,12 @@
         <v>5</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B72" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B72" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
@@ -1683,48 +1686,54 @@
         <v>74</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>280</v>
+        <v>75</v>
+      </c>
+      <c r="D73" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="B75" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B76" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" ht="22" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B76" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="B77" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="12" t="n">
-        <v>1400</v>
+        <v>75</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
@@ -1732,10 +1741,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="12" t="n">
-        <v>1550</v>
+        <v>75</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
@@ -1743,10 +1752,10 @@
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
@@ -1754,57 +1763,57 @@
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D80" s="12" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="81" ht="33" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="82" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="83" ht="22" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="B83" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D83" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="12" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="85" ht="33" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="85" ht="22" customHeight="true" outlineLevel="1">
       <c r="B85" s="9" t="s">
         <v>87</v>
       </c>
@@ -1812,18 +1821,18 @@
         <v>5</v>
       </c>
       <c r="D85" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D86" s="11" t="n">
-        <v>370</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
@@ -1831,10 +1840,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
@@ -1842,76 +1851,70 @@
         <v>90</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="11" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D88" s="12" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" ht="33" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D89" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="11" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B91" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="12" t="n">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="91" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B91" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="92" ht="22" customHeight="true" outlineLevel="1">
       <c r="B92" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D92" s="12" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="B93" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D93" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="94" ht="22" customHeight="true" outlineLevel="1">
       <c r="B94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D94" s="12" t="n">
-        <v>1900</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1919,10 +1922,10 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" s="12" t="n">
-        <v>4000</v>
+        <v>75</v>
+      </c>
+      <c r="D95" s="11" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="true" outlineLevel="1">
@@ -1930,10 +1933,10 @@
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="12" t="n">
-        <v>3800</v>
+        <v>75</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1946,59 +1949,59 @@
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D98" s="11" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="99" ht="22" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D99" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D100" s="12" t="n">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B101" s="9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B101" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D101" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="B102" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D102" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="103" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B103" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="103" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B103" s="9" t="s">
         <v>105</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" s="11" t="n">
+        <v>940</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true" outlineLevel="1">
@@ -2006,10 +2009,10 @@
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" s="11" t="n">
-        <v>980</v>
+        <v>75</v>
+      </c>
+      <c r="D104" s="12" t="n">
+        <v>1220</v>
       </c>
     </row>
     <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2022,10 +2025,10 @@
         <v>108</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>900</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="true" outlineLevel="1">
@@ -2033,75 +2036,75 @@
         <v>109</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D107" s="11" t="n">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="108" ht="22" customHeight="true" outlineLevel="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="B108" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" s="12" t="n">
-        <v>1220</v>
+        <v>111</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
       <c r="B109" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" ht="22" customHeight="true" outlineLevel="1">
       <c r="B110" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="B111" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="11" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" ht="22" customHeight="true" outlineLevel="1">
       <c r="B112" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="113" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B113" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B113" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B114" s="9" t="s">
+      <c r="C113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="11" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B114" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
@@ -2112,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="true" outlineLevel="1">
@@ -2123,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="true" outlineLevel="1">
@@ -2134,15 +2137,21 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B118" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B118" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C118" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="11" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" ht="22" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
@@ -2150,10 +2159,10 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="B120" s="9" t="s">
         <v>123</v>
       </c>
@@ -2161,10 +2170,10 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="B121" s="9" t="s">
         <v>124</v>
       </c>
@@ -2172,10 +2181,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2183,7 +2192,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
@@ -2194,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
@@ -2205,10 +2214,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2216,10 +2225,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
@@ -2235,10 +2244,10 @@
         <v>130</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" ht="22" customHeight="true" outlineLevel="1">
@@ -2249,10 +2258,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="129" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
@@ -2260,21 +2269,21 @@
         <v>5</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" ht="22" customHeight="true" outlineLevel="1">
       <c r="B130" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" ht="22" customHeight="true" outlineLevel="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="B131" s="9" t="s">
         <v>134</v>
       </c>
@@ -2282,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="11" t="n">
-        <v>816</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
@@ -2292,11 +2301,11 @@
       <c r="C132" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D132" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="133" ht="33" customHeight="true" outlineLevel="1">
       <c r="B133" s="9" t="s">
         <v>136</v>
       </c>
@@ -2304,10 +2313,10 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="134" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2315,21 +2324,21 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" ht="22" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="136" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D135" s="11" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
@@ -2337,23 +2346,23 @@
         <v>5</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B137" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B137" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="11" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B138" s="8" t="s">
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B138" s="9" t="s">
         <v>141</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="11" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
@@ -2364,73 +2373,73 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="140" ht="11" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
       <c r="B140" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" ht="33" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="143" ht="33" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="144" ht="22" customHeight="true" outlineLevel="1">
       <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" ht="33" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D145" s="11" t="n">
-        <v>330</v>
+        <v>5</v>
+      </c>
+      <c r="D145" s="12" t="n">
+        <v>1210</v>
       </c>
     </row>
     <row r="146" ht="33" customHeight="true" outlineLevel="1">
@@ -2440,11 +2449,11 @@
       <c r="C146" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D146" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="147" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D146" s="11" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="147" ht="22" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
@@ -2452,10 +2461,10 @@
         <v>5</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="148" ht="22" customHeight="true" outlineLevel="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
@@ -2463,23 +2472,23 @@
         <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B149" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B149" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="150" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B150" s="8" t="s">
+    </row>
+    <row r="150" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B150" s="9" t="s">
         <v>153</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D150" s="11" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="1">
@@ -2487,21 +2496,21 @@
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D151" s="11" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="152" ht="22" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D151" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>420</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
@@ -2509,29 +2518,29 @@
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D153" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D153" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" ht="22" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" ht="22" customHeight="true" outlineLevel="1">
       <c r="B155" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D155" s="11" t="n">
         <v>360</v>
@@ -2542,10 +2551,10 @@
         <v>159</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D156" s="11" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" ht="22" customHeight="true" outlineLevel="1">
@@ -2556,10 +2565,10 @@
         <v>5</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="158" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="B158" s="9" t="s">
         <v>161</v>
       </c>
@@ -2567,10 +2576,10 @@
         <v>5</v>
       </c>
       <c r="D158" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" ht="22" customHeight="true" outlineLevel="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="9" t="s">
         <v>162</v>
       </c>
@@ -2578,10 +2587,10 @@
         <v>5</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="160" ht="22" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
@@ -2589,10 +2598,10 @@
         <v>5</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="161" ht="22" customHeight="true" outlineLevel="1">
       <c r="B161" s="9" t="s">
         <v>164</v>
       </c>
@@ -2600,18 +2609,18 @@
         <v>5</v>
       </c>
       <c r="D161" s="11" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>694</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
@@ -2619,37 +2628,37 @@
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B164" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B164" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D164" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="165" ht="11" customHeight="true" outlineLevel="1">
       <c r="B165" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="166" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B166" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B166" s="9" t="s">
         <v>169</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="12" t="n">
+        <v>3500</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="1">
@@ -2657,10 +2666,10 @@
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2668,21 +2677,15 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" s="12" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B169" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D168" s="11" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="169" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B169" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D169" s="11" t="n">
-        <v>76</v>
       </c>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="1">
@@ -2690,15 +2693,21 @@
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D170" s="11" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B171" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="171" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B171" s="9" t="s">
         <v>174</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D171" s="11" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="1">
@@ -2706,10 +2715,10 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D172" s="11" t="n">
-        <v>640</v>
+        <v>75</v>
+      </c>
+      <c r="D172" s="12" t="n">
+        <v>1160</v>
       </c>
     </row>
     <row r="173" ht="11" customHeight="true" outlineLevel="1">
@@ -2717,10 +2726,10 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>330</v>
+        <v>860</v>
       </c>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="1">
@@ -2728,10 +2737,10 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D174" s="12" t="n">
-        <v>1160</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
@@ -2739,10 +2748,10 @@
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D175" s="11" t="n">
-        <v>860</v>
+        <v>650</v>
       </c>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="1">
@@ -2750,37 +2759,37 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D176" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B177" s="9" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="177" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B177" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C177" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D177" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="178" ht="22" customHeight="true" outlineLevel="1">
       <c r="B178" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D178" s="12" t="n">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="179" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B179" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D178" s="11" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="179" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B179" s="9" t="s">
         <v>182</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D179" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="true" outlineLevel="1">
@@ -2788,21 +2797,21 @@
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="11" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+        <v>75</v>
+      </c>
+      <c r="D180" s="12" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D181" s="11" t="n">
-        <v>780</v>
+        <v>760</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="true" outlineLevel="1">
@@ -2810,10 +2819,10 @@
         <v>185</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D182" s="12" t="n">
-        <v>1550</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
@@ -2821,21 +2830,21 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D184" s="11" t="n">
-        <v>760</v>
+        <v>75</v>
+      </c>
+      <c r="D184" s="12" t="n">
+        <v>1260</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2843,10 +2852,10 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D185" s="12" t="n">
-        <v>1020</v>
+        <v>75</v>
+      </c>
+      <c r="D185" s="11" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="186" ht="22" customHeight="true" outlineLevel="1">
@@ -2854,10 +2863,10 @@
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D186" s="12" t="n">
-        <v>1380</v>
+        <v>75</v>
+      </c>
+      <c r="D186" s="11" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
@@ -2865,10 +2874,10 @@
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D187" s="11" t="n">
-        <v>750</v>
+        <v>75</v>
+      </c>
+      <c r="D187" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="true" outlineLevel="1">
@@ -2876,10 +2885,10 @@
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D188" s="11" t="n">
-        <v>860</v>
+        <v>75</v>
+      </c>
+      <c r="D188" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="189" ht="22" customHeight="true" outlineLevel="1">
@@ -2887,32 +2896,26 @@
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="190" ht="22" customHeight="true" outlineLevel="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="190" ht="11" customHeight="true" outlineLevel="1">
       <c r="B190" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D190" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="191" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B191" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D190" s="11" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="191" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B191" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D191" s="12" t="n">
-        <v>1550</v>
       </c>
     </row>
     <row r="192" ht="22" customHeight="true" outlineLevel="1">
@@ -2920,37 +2923,37 @@
         <v>195</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="193" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B193" s="9" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="193" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B193" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C193" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D193" s="11" t="n">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="194" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B194" s="8" t="s">
+    </row>
+    <row r="194" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B194" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="195" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C194" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="11" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D195" s="12" t="n">
-        <v>1490</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="196" ht="22" customHeight="true" outlineLevel="1">
@@ -2958,29 +2961,35 @@
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D196" s="12" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="197" ht="22" customHeight="true" outlineLevel="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="198" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B198" s="8" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="199" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C198" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="199" ht="11" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
@@ -2988,18 +2997,18 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="200" ht="11" customHeight="true" outlineLevel="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="200" ht="22" customHeight="true" outlineLevel="1">
       <c r="B200" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="11" t="n">
-        <v>115</v>
+      <c r="D200" s="12" t="n">
+        <v>2900</v>
       </c>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
@@ -3010,10 +3019,10 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="202" ht="22" customHeight="true" outlineLevel="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="202" ht="11" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
@@ -3021,32 +3030,26 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="203" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B203" s="9" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="203" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B203" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C203" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" s="12" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="204" ht="22" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D204" s="11" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="205" ht="22" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
@@ -3054,18 +3057,18 @@
         <v>5</v>
       </c>
       <c r="D205" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="206" ht="22" customHeight="true" outlineLevel="1">
       <c r="B206" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C206" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="12" t="n">
-        <v>2000</v>
+      <c r="D206" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="207" ht="22" customHeight="true" outlineLevel="1">
@@ -3076,10 +3079,10 @@
         <v>5</v>
       </c>
       <c r="D207" s="12" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
@@ -3087,21 +3090,21 @@
         <v>5</v>
       </c>
       <c r="D208" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D209" s="12" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
@@ -3109,12 +3112,18 @@
         <v>5</v>
       </c>
       <c r="D210" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="211" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B211" s="8" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="211" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B211" s="9" t="s">
         <v>214</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3124,8 +3133,8 @@
       <c r="C212" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="11" t="n">
-        <v>800</v>
+      <c r="D212" s="12" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3136,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>815</v>
+        <v>838</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3147,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215" ht="22" customHeight="true" outlineLevel="1">
@@ -3157,8 +3166,8 @@
       <c r="C215" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="11" t="n">
-        <v>360</v>
+      <c r="D215" s="12" t="n">
+        <v>1430</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3169,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>550</v>
+        <v>815</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3180,10 +3189,10 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="218" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" ht="22" customHeight="true" outlineLevel="1">
       <c r="B218" s="9" t="s">
         <v>221</v>
       </c>
@@ -3191,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>770</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" ht="11" customHeight="true" outlineLevel="1">
@@ -3202,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3213,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>520</v>
+        <v>770</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3224,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>770</v>
+        <v>480</v>
       </c>
     </row>
     <row r="222" ht="11" customHeight="true" outlineLevel="1">
@@ -3235,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="D222" s="11" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
     </row>
     <row r="223" ht="11" customHeight="true" outlineLevel="1">
@@ -3246,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="D223" s="11" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="224" ht="22" customHeight="true" outlineLevel="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="224" ht="11" customHeight="true" outlineLevel="1">
       <c r="B224" s="9" t="s">
         <v>227</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
     </row>
     <row r="225" ht="11" customHeight="true" outlineLevel="1">
@@ -3268,10 +3277,10 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="226" ht="11" customHeight="true" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>229</v>
       </c>
@@ -3279,29 +3288,29 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="227" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" ht="11" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
       <c r="C227" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D227" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="228" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D227" s="11" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="228" ht="11" customHeight="true" outlineLevel="1">
       <c r="B228" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C228" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="12" t="n">
-        <v>1580</v>
+      <c r="D228" s="11" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="229" ht="22" customHeight="true" outlineLevel="1">
@@ -3311,8 +3320,8 @@
       <c r="C229" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D229" s="11" t="n">
-        <v>370</v>
+      <c r="D229" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="230" ht="22" customHeight="true" outlineLevel="1">
@@ -3322,8 +3331,8 @@
       <c r="C230" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D230" s="11" t="n">
-        <v>400</v>
+      <c r="D230" s="12" t="n">
+        <v>1580</v>
       </c>
     </row>
     <row r="231" ht="22" customHeight="true" outlineLevel="1">
@@ -3334,7 +3343,7 @@
         <v>5</v>
       </c>
       <c r="D231" s="11" t="n">
-        <v>242</v>
+        <v>370</v>
       </c>
     </row>
     <row r="232" ht="22" customHeight="true" outlineLevel="1">
@@ -3345,26 +3354,32 @@
         <v>5</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="233" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B233" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B233" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="234" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C233" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="11" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="234" ht="22" customHeight="true" outlineLevel="1">
       <c r="B234" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D234" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="235" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D234" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="235" ht="22" customHeight="true" outlineLevel="1">
       <c r="B235" s="9" t="s">
         <v>238</v>
       </c>
@@ -3372,40 +3387,34 @@
         <v>5</v>
       </c>
       <c r="D235" s="12" t="n">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="236" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B236" s="9" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="236" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B236" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C236" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236" s="11" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="237" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="237" ht="11" customHeight="true" outlineLevel="1">
       <c r="B237" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C237" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D237" s="11" t="n">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="238" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D237" s="12" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="238" ht="11" customHeight="true" outlineLevel="1">
       <c r="B238" s="9" t="s">
         <v>241</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D238" s="11" t="n">
-        <v>500</v>
+      <c r="D238" s="12" t="n">
+        <v>1890</v>
       </c>
     </row>
     <row r="239" ht="22" customHeight="true" outlineLevel="1">
@@ -3416,6 +3425,39 @@
         <v>5</v>
       </c>
       <c r="D239" s="11" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="240" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B240" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="11" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="241" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B241" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="242" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B242" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Каперсы с уксусом "Antica Napoli" (720 мл/0,700кг) Турция, упак 6 шт</t>
   </si>
   <si>
-    <t>Маслины Alisa резаные (3,000 кг) ж/б, Испания</t>
-  </si>
-  <si>
-    <t>Маслины резаные Green King 3100 мл, ж/б, Испания</t>
-  </si>
-  <si>
     <t>Паста из анчоуса европейского с оливковым маслом (12%) "Delicius" ст.бан 0,720, Италия</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Паста острая Табаджан, 0,92 кг</t>
   </si>
   <si>
-    <t>Паста Том Кха AROY- D, Тайланд, 0,4 кг</t>
-  </si>
-  <si>
     <t>Паста Том Ям CHANG, Таиланд, 400г</t>
   </si>
   <si>
@@ -190,6 +181,9 @@
     <t>Циновка для роллов 24*24 см</t>
   </si>
   <si>
+    <t>Циновка для роллов 27*27 см</t>
+  </si>
+  <si>
     <t>Икра</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
   </si>
   <si>
-    <t>Паста Самдян смешанная "СИНГСОНГ" 2кг, 1/6</t>
-  </si>
-  <si>
     <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
   </si>
   <si>
@@ -253,6 +244,9 @@
     <t>кг</t>
   </si>
   <si>
+    <t>Гребешок, штучная заморозка, с/м, размер L, Россия</t>
+  </si>
+  <si>
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>Мидии в раковине в/м, 60-80 Чили</t>
   </si>
   <si>
-    <t>Мидии зеленые в половинке раковины М (30-45шт), Новая Зеландия</t>
-  </si>
-  <si>
     <t>Морской коктейль, с/м, глазурь 7%, Китай</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     <t>Креветка с/м б/г в панцире 16/20 1.8кг (блок) Индия</t>
   </si>
   <si>
-    <t>Креветка с/м б/г в панцире 21/25 1.8кг (блок) Эквадор</t>
-  </si>
-  <si>
     <t>Креветка с/м б/г в панцире 26/30 1.8кг (блок) Эквадор</t>
   </si>
   <si>
@@ -376,6 +364,9 @@
     <t>Молоко кокосовое консерв.HOM-D, уп. 1л.</t>
   </si>
   <si>
+    <t>Сливки Свежее завтра  34%, 1л,  Россия</t>
+  </si>
+  <si>
     <t>Мучная продукция</t>
   </si>
   <si>
@@ -409,15 +400,9 @@
     <t>Лапша Яичная Kekeshi, Китай, 0,3кг</t>
   </si>
   <si>
-    <t>Макароны № 004 Спагетти "Дельверде" (0,500кг) кор 24 шт.</t>
-  </si>
-  <si>
     <t>Макароны № 081 Феттучине "Дельверде" (0,250кг) кор. 12 шт.</t>
   </si>
   <si>
-    <t>Мука высшего сорта "СуперМука", 1 кг</t>
-  </si>
-  <si>
     <t>Мука высшего сорта (СуперМука для пиццы) СТАНДАРТ, 10 кг/мешок</t>
   </si>
   <si>
@@ -430,16 +415,13 @@
     <t>Смесь темпурная 1уп/1кг</t>
   </si>
   <si>
-    <t>Смесь темпурная OSHI уп/18 кг</t>
-  </si>
-  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
     <t>Сухари панировочные "Панко" "Тамаки", 1кг</t>
   </si>
   <si>
-    <t>Тесто слоёное бездрожжевое, 1кг, Россия</t>
+    <t>Сухари панировочные, Тамаки 10кг мешок, Россия</t>
   </si>
   <si>
     <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
@@ -454,12 +436,6 @@
     <t>Бекон с/к зам. в/у, 500 гр. Аргус</t>
   </si>
   <si>
-    <t>Бекон с/к мясное ассорти № 3 (Толстые кусочки)</t>
-  </si>
-  <si>
-    <t>Бекон с/к мясное ассорти № 4</t>
-  </si>
-  <si>
     <t>Изделие из мяса цыплят- бройлеров "Филе нарезанное" запеченное зам, флоупак 2000, SERVOLUX, РБ</t>
   </si>
   <si>
@@ -478,9 +454,6 @@
     <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
   </si>
   <si>
-    <t>Бекон Классический в/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
     <t>Растения и грибы</t>
   </si>
   <si>
@@ -490,6 +463,9 @@
     <t>Грибы шиитаке уп. 1кг, Китай</t>
   </si>
   <si>
+    <t>Имбирь маринованный, белый, уп. 1.5кг, Китай</t>
+  </si>
+  <si>
     <t>Имбирь маринованный, розовый, Китай</t>
   </si>
   <si>
@@ -577,9 +553,6 @@
     <t>Угорь жареный, б/в (тех), морож филе, Китай</t>
   </si>
   <si>
-    <t>Филе тилапии 5-7 Китай</t>
-  </si>
-  <si>
     <t>Филе тунца желтоперого с/м ЛОИН А 2кг+, КНР</t>
   </si>
   <si>
@@ -595,12 +568,12 @@
     <t>Филе тунца желтоперого СТЕЙК (50-100г), уп. 0,5 кг</t>
   </si>
   <si>
+    <t>Форель филе с/м, в/у, 1,8кг+, Трим С (тм "АльянсПромСнаб")</t>
+  </si>
+  <si>
     <t>Форель филе с/м, пласт 1+ кг (тм "АльянсПромСнаб")</t>
   </si>
   <si>
-    <t>Форель филе с/м, пласт 1+ кг (тм "Фуд Тим")</t>
-  </si>
-  <si>
     <t>Форель филе, в/у, 0,6-0,9 кг, Трим С (тм "АльянсПромСнаб")</t>
   </si>
   <si>
@@ -610,12 +583,15 @@
     <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
   </si>
   <si>
-    <t>Форель филе слабосол 5%, в/у, Трим С (Фуд Тим) Мурманск</t>
+    <t>Форель филе 1,8кг+, слабосол 2%, в/у, Трим С (Альянс)</t>
   </si>
   <si>
     <t>Соевый соус. Уксус. Мирин</t>
   </si>
   <si>
+    <t>Заправка для риса на основе рисового уксуса, Izumi Food, 19л, Россия</t>
+  </si>
+  <si>
     <t>Соевый соус "Yakimal", 1л</t>
   </si>
   <si>
@@ -673,6 +649,9 @@
     <t>Соус "Чили" , - 2,25 кг, Provil, Греция</t>
   </si>
   <si>
+    <t>Соус Барбекю Ресфуд, 1кг, Россия</t>
+  </si>
+  <si>
     <t>Соус Кимчи Tamaki, 1,8л</t>
   </si>
   <si>
@@ -685,12 +664,12 @@
     <t>Соус ореховый TAMAKI Pro 1 уп/1.5л.</t>
   </si>
   <si>
-    <t>Соус Пад Тай 270г</t>
-  </si>
-  <si>
     <t>Соус Рыбный AROY-D, 0,7л (0,84кг), ст/б</t>
   </si>
   <si>
+    <t>Соус сырный HAINZ 1 кг</t>
+  </si>
+  <si>
     <t>Соус Терияки, 1.5л, Genso Россия</t>
   </si>
   <si>
@@ -745,19 +724,10 @@
     <t>Сыр. Майонез</t>
   </si>
   <si>
-    <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
-  </si>
-  <si>
     <t>Майонез SOLPRO 60%, 1/10 кг</t>
   </si>
   <si>
     <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
-  </si>
-  <si>
-    <t>Сыр творожный Professional 65% 2,2 кг, SERVOLUX PROFESSIONAL, Беларусь</t>
-  </si>
-  <si>
-    <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
   </si>
   <si>
     <t>Тофу натуральный, продукт белковый, 400г</t>
@@ -949,7 +919,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D242"/>
+  <dimension ref="D232"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1014,18 +984,18 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" ht="22" customHeight="true" outlineLevel="1">
+    <row r="8" ht="33" customHeight="true" outlineLevel="1">
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D8" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="9" ht="33" customHeight="true" outlineLevel="1">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>870</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="true" outlineLevel="1">
@@ -1044,10 +1014,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="true" outlineLevel="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true" outlineLevel="1">
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1055,10 +1025,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="true" outlineLevel="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="true" outlineLevel="1">
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1066,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="13" ht="11" customHeight="true" outlineLevel="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="true" outlineLevel="1">
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>550</v>
+        <v>956</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="true" outlineLevel="1">
@@ -1087,8 +1057,8 @@
       <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>1000</v>
+      <c r="D14" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="true" outlineLevel="1">
@@ -1099,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>956</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" ht="22" customHeight="true" outlineLevel="1">
@@ -1109,35 +1079,35 @@
       <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="18" ht="11" customHeight="true" outlineLevel="1">
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B19" s="8" t="s">
+      <c r="D18" s="11" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B19" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
@@ -1148,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true" outlineLevel="1">
@@ -1159,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>182</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="1">
@@ -1170,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="true" outlineLevel="1">
@@ -1181,10 +1151,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true" outlineLevel="1">
       <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
@@ -1192,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true" outlineLevel="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1203,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true" outlineLevel="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
       <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1225,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="11" t="n">
-        <v>250</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="1">
@@ -1236,10 +1206,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true" outlineLevel="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1247,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true" outlineLevel="1">
       <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1258,10 +1228,10 @@
         <v>5</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true" outlineLevel="1">
       <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1242,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" ht="22" customHeight="true" outlineLevel="1">
+    <row r="32" ht="11" customHeight="true" outlineLevel="1">
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
@@ -1280,29 +1250,23 @@
         <v>5</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" ht="22" customHeight="true" outlineLevel="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="11" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="34" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B34" s="9" t="s">
+      <c r="D33" s="12" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B34" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
@@ -1313,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>610</v>
+        <v>955</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="1">
@@ -1324,15 +1288,21 @@
         <v>5</v>
       </c>
       <c r="D36" s="12" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B37" s="8" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B37" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="true" outlineLevel="1">
       <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
@@ -1340,18 +1310,18 @@
         <v>5</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="39" ht="22" customHeight="true" outlineLevel="1">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="12" t="n">
-        <v>1300</v>
+      <c r="D39" s="11" t="n">
+        <v>550</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="true" outlineLevel="1">
@@ -1362,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>870</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="true" outlineLevel="1">
@@ -1373,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>425</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="true" outlineLevel="1">
@@ -1384,21 +1354,15 @@
         <v>5</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B43" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="43" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
@@ -1406,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="45" ht="22" customHeight="true" outlineLevel="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
@@ -1417,75 +1381,75 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="46" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B46" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B46" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B47" s="9" t="s">
+      <c r="C46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B47" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="48" ht="22" customHeight="true" outlineLevel="1">
       <c r="B48" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true" outlineLevel="1">
       <c r="B49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="D49" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B50" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true" outlineLevel="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="B51" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D51" s="11" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B52" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="11" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="53" ht="22" customHeight="true" outlineLevel="1">
       <c r="B53" s="9" t="s">
         <v>54</v>
       </c>
@@ -1493,12 +1457,18 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B54" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B54" s="9" t="s">
         <v>55</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="11" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="true" outlineLevel="1">
@@ -1509,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>580</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
@@ -1520,18 +1490,12 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="57" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B57" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B57" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>670</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1542,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>660</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1558,12 +1522,18 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="61" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B61" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B61" s="9" t="s">
         <v>62</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11" t="n">
+        <v>950</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1574,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1585,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1596,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>800</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1607,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1618,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1629,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>590</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1640,18 +1610,12 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B69" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B69" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="11" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
@@ -1659,37 +1623,43 @@
         <v>71</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="11" t="n">
-        <v>256</v>
+        <v>72</v>
+      </c>
+      <c r="D70" s="12" t="n">
+        <v>1660</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
       <c r="B71" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B72" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D71" s="12" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B72" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="12" t="n">
-        <v>1550</v>
+        <v>72</v>
+      </c>
+      <c r="D73" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
@@ -1697,10 +1667,10 @@
         <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
@@ -1708,7 +1678,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D75" s="11" t="n">
         <v>360</v>
@@ -1719,10 +1689,10 @@
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
@@ -1730,32 +1700,32 @@
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" ht="22" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D77" s="12" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="78" ht="33" customHeight="true" outlineLevel="1">
       <c r="B78" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="79" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="B79" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D79" s="11" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
@@ -1763,54 +1733,54 @@
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D80" s="12" t="n">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="81" ht="33" customHeight="true" outlineLevel="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="82" ht="22" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
       <c r="B83" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D83" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" s="11" t="n">
-        <v>560</v>
+        <v>72</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1818,70 +1788,70 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D85" s="12" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="B86" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D86" s="12" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="87" ht="22" customHeight="true" outlineLevel="1">
       <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="88" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B88" s="9" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="88" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B88" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88" s="12" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="89" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="89" ht="22" customHeight="true" outlineLevel="1">
       <c r="B89" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D89" s="12" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="12" t="n">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="91" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B91" s="9" t="s">
         <v>93</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="12" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1889,21 +1859,15 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D92" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B93" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="11" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B93" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" s="11" t="n">
-        <v>960</v>
       </c>
     </row>
     <row r="94" ht="22" customHeight="true" outlineLevel="1">
@@ -1911,10 +1875,10 @@
         <v>96</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" s="12" t="n">
-        <v>1030</v>
+        <v>72</v>
+      </c>
+      <c r="D94" s="11" t="n">
+        <v>980</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1922,21 +1886,21 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D95" s="11" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="96" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D96" s="11" t="n">
-        <v>960</v>
+        <v>72</v>
+      </c>
+      <c r="D96" s="12" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1944,15 +1908,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="B98" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D98" s="11" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true" outlineLevel="1">
@@ -1960,21 +1924,21 @@
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D99" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true" outlineLevel="1">
       <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D100" s="12" t="n">
-        <v>1000</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1987,10 +1951,10 @@
         <v>104</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D102" s="11" t="n">
-        <v>900</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="true" outlineLevel="1">
@@ -1998,64 +1962,70 @@
         <v>105</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D103" s="11" t="n">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="104" ht="22" customHeight="true" outlineLevel="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D104" s="12" t="n">
-        <v>1220</v>
+        <v>107</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
       <c r="B105" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
       <c r="B106" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="B107" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="11" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
       <c r="B108" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D108" s="11" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="109" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B109" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B109" s="9" t="s">
         <v>112</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="11" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="true" outlineLevel="1">
@@ -2066,21 +2036,15 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B111" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="111" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B111" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="B112" s="9" t="s">
         <v>115</v>
       </c>
@@ -2088,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="11" t="n">
-        <v>210</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" ht="22" customHeight="true" outlineLevel="1">
@@ -2099,15 +2063,21 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B114" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B114" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C114" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="9" t="s">
         <v>118</v>
       </c>
@@ -2115,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>370</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="true" outlineLevel="1">
@@ -2126,10 +2096,10 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" ht="22" customHeight="true" outlineLevel="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="B117" s="9" t="s">
         <v>120</v>
       </c>
@@ -2137,10 +2107,10 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="118" ht="22" customHeight="true" outlineLevel="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="B118" s="9" t="s">
         <v>121</v>
       </c>
@@ -2148,10 +2118,10 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="9" t="s">
         <v>122</v>
       </c>
@@ -2159,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>312</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
@@ -2170,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
@@ -2181,10 +2151,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2192,10 +2162,10 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" ht="22" customHeight="true" outlineLevel="1">
       <c r="B123" s="9" t="s">
         <v>126</v>
       </c>
@@ -2203,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>55</v>
+        <v>816</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
@@ -2214,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>100</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" ht="22" customHeight="true" outlineLevel="1">
@@ -2225,10 +2195,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2236,18 +2206,18 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" ht="33" customHeight="true" outlineLevel="1">
       <c r="B127" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D127" s="11" t="n">
-        <v>82</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" ht="22" customHeight="true" outlineLevel="1">
@@ -2258,18 +2228,18 @@
         <v>5</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="11" t="n">
-        <v>152</v>
+      <c r="D129" s="12" t="n">
+        <v>1680</v>
       </c>
     </row>
     <row r="130" ht="22" customHeight="true" outlineLevel="1">
@@ -2280,18 +2250,12 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B131" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B131" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="11" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
@@ -2301,11 +2265,11 @@
       <c r="C132" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="133" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D132" s="11" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="B133" s="9" t="s">
         <v>136</v>
       </c>
@@ -2313,10 +2277,10 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" ht="33" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2324,18 +2288,18 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>176</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136" ht="22" customHeight="true" outlineLevel="1">
@@ -2343,18 +2307,24 @@
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="137" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B137" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C137" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="138" ht="33" customHeight="true" outlineLevel="1">
       <c r="B138" s="9" t="s">
         <v>141</v>
       </c>
@@ -2362,10 +2332,10 @@
         <v>5</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
@@ -2373,84 +2343,78 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B140" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="140" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B140" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D140" s="11" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="142" ht="33" customHeight="true" outlineLevel="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
       <c r="B142" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D142" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="143" ht="22" customHeight="true" outlineLevel="1">
       <c r="B143" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="144" ht="22" customHeight="true" outlineLevel="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
       <c r="B144" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="145" ht="33" customHeight="true" outlineLevel="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="146" ht="33" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D145" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" ht="22" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>820</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" ht="22" customHeight="true" outlineLevel="1">
@@ -2461,10 +2425,10 @@
         <v>5</v>
       </c>
       <c r="D147" s="11" t="n">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
       <c r="B148" s="9" t="s">
         <v>151</v>
       </c>
@@ -2472,23 +2436,29 @@
         <v>5</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B149" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B149" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C149" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>420</v>
+        <v>570</v>
       </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="1">
@@ -2496,13 +2466,13 @@
         <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D151" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="152" ht="11" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D151" s="11" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" ht="22" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
@@ -2510,29 +2480,29 @@
         <v>5</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="153" ht="11" customHeight="true" outlineLevel="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="153" ht="22" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="154" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" ht="22" customHeight="true" outlineLevel="1">
@@ -2540,32 +2510,26 @@
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="156" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B156" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B156" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>220</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
@@ -2575,8 +2539,8 @@
       <c r="C158" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="11" t="n">
-        <v>570</v>
+      <c r="D158" s="12" t="n">
+        <v>3500</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
@@ -2584,32 +2548,26 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="160" ht="22" customHeight="true" outlineLevel="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="B160" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D160" s="11" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="161" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B161" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B161" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" s="11" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
@@ -2617,26 +2575,32 @@
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
       <c r="B163" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D163" s="11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="164" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B164" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B164" s="9" t="s">
         <v>167</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" s="12" t="n">
+        <v>1160</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="1">
@@ -2644,10 +2608,10 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>111</v>
+        <v>860</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="1">
@@ -2655,10 +2619,10 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D166" s="12" t="n">
-        <v>3500</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="1">
@@ -2666,10 +2630,10 @@
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>68</v>
+        <v>650</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2677,10 +2641,10 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D168" s="11" t="n">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="D168" s="12" t="n">
+        <v>1390</v>
       </c>
     </row>
     <row r="169" ht="16" customHeight="true" s="7" customFormat="true">
@@ -2688,86 +2652,92 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D170" s="11" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="171" ht="22" customHeight="true" outlineLevel="1">
       <c r="B171" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D171" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="172" ht="11" customHeight="true" outlineLevel="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="172" ht="22" customHeight="true" outlineLevel="1">
       <c r="B172" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D172" s="12" t="n">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="173" ht="22" customHeight="true" outlineLevel="1">
       <c r="B173" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="174" ht="11" customHeight="true" outlineLevel="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="174" ht="22" customHeight="true" outlineLevel="1">
       <c r="B174" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D174" s="12" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="1">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D175" s="11" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+        <v>72</v>
+      </c>
+      <c r="D175" s="12" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="176" ht="22" customHeight="true" outlineLevel="1">
       <c r="B176" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D176" s="12" t="n">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="177" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B177" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D176" s="11" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="177" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B177" s="9" t="s">
         <v>180</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D177" s="11" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="178" ht="22" customHeight="true" outlineLevel="1">
@@ -2775,10 +2745,10 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D178" s="11" t="n">
-        <v>880</v>
+        <v>72</v>
+      </c>
+      <c r="D178" s="12" t="n">
+        <v>1750</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="true" outlineLevel="1">
@@ -2786,10 +2756,10 @@
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D179" s="11" t="n">
-        <v>780</v>
+        <v>72</v>
+      </c>
+      <c r="D179" s="12" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="true" outlineLevel="1">
@@ -2797,10 +2767,10 @@
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D180" s="12" t="n">
-        <v>1430</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="181" ht="11" customHeight="true" outlineLevel="1">
@@ -2808,21 +2778,15 @@
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D181" s="11" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B182" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="182" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B182" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D182" s="12" t="n">
-        <v>1020</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
@@ -2830,21 +2794,15 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B184" s="9" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="184" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B184" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D184" s="12" t="n">
-        <v>1260</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
@@ -2852,32 +2810,32 @@
         <v>188</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D185" s="11" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="186" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D185" s="12" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="186" ht="11" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D186" s="11" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="187" ht="22" customHeight="true" outlineLevel="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" ht="11" customHeight="true" outlineLevel="1">
       <c r="B187" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D187" s="12" t="n">
-        <v>1600</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="true" outlineLevel="1">
@@ -2885,21 +2843,21 @@
         <v>191</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
       <c r="B189" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D189" s="12" t="n">
-        <v>1550</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="1">
@@ -2907,15 +2865,21 @@
         <v>193</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D190" s="11" t="n">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="191" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B191" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="12" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B191" s="9" t="s">
         <v>194</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="192" ht="22" customHeight="true" outlineLevel="1">
@@ -2923,15 +2887,21 @@
         <v>195</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="193" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B193" s="8" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="193" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B193" s="9" t="s">
         <v>196</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="12" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="1">
@@ -2941,19 +2911,13 @@
       <c r="C194" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D194" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B195" s="9" t="s">
+      <c r="D194" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B195" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195" s="12" t="n">
-        <v>1670</v>
       </c>
     </row>
     <row r="196" ht="22" customHeight="true" outlineLevel="1">
@@ -2963,11 +2927,11 @@
       <c r="C196" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="12" t="n">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D196" s="11" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="197" ht="22" customHeight="true" outlineLevel="1">
       <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
@@ -2975,21 +2939,21 @@
         <v>5</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="198" ht="22" customHeight="true" outlineLevel="1">
       <c r="B198" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D198" s="11" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="199" ht="22" customHeight="true" outlineLevel="1">
       <c r="B199" s="9" t="s">
         <v>202</v>
       </c>
@@ -2997,7 +2961,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="12" t="n">
-        <v>2000</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="200" ht="22" customHeight="true" outlineLevel="1">
@@ -3008,10 +2972,10 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="201" ht="11" customHeight="true" outlineLevel="1">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="201" ht="22" customHeight="true" outlineLevel="1">
       <c r="B201" s="9" t="s">
         <v>204</v>
       </c>
@@ -3019,10 +2983,10 @@
         <v>5</v>
       </c>
       <c r="D201" s="12" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="202" ht="11" customHeight="true" outlineLevel="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="202" ht="22" customHeight="true" outlineLevel="1">
       <c r="B202" s="9" t="s">
         <v>205</v>
       </c>
@@ -3030,37 +2994,43 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="203" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B203" s="8" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="203" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B203" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="204" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C203" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="12" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="204" ht="11" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="11" t="n">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="205" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D204" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="205" ht="11" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="12" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="206" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D205" s="11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="206" ht="11" customHeight="true" outlineLevel="1">
       <c r="B206" s="9" t="s">
         <v>209</v>
       </c>
@@ -3068,18 +3038,18 @@
         <v>5</v>
       </c>
       <c r="D206" s="11" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="207" ht="22" customHeight="true" outlineLevel="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
       <c r="B207" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="12" t="n">
-        <v>1220</v>
+      <c r="D207" s="11" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="208" ht="22" customHeight="true" outlineLevel="1">
@@ -3090,18 +3060,18 @@
         <v>5</v>
       </c>
       <c r="D208" s="12" t="n">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
       <c r="B209" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="12" t="n">
-        <v>1220</v>
+      <c r="D209" s="11" t="n">
+        <v>815</v>
       </c>
     </row>
     <row r="210" ht="22" customHeight="true" outlineLevel="1">
@@ -3111,8 +3081,8 @@
       <c r="C210" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D210" s="12" t="n">
-        <v>1620</v>
+      <c r="D210" s="11" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="211" ht="11" customHeight="true" outlineLevel="1">
@@ -3122,8 +3092,8 @@
       <c r="C211" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="12" t="n">
-        <v>1300</v>
+      <c r="D211" s="11" t="n">
+        <v>550</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3133,8 +3103,8 @@
       <c r="C212" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="12" t="n">
-        <v>1500</v>
+      <c r="D212" s="11" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="true" outlineLevel="1">
@@ -3145,7 +3115,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>838</v>
+        <v>770</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3156,18 +3126,18 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
       <c r="B215" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C215" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="12" t="n">
-        <v>1430</v>
+      <c r="D215" s="11" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3178,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="11" t="n">
-        <v>815</v>
+        <v>770</v>
       </c>
     </row>
     <row r="217" ht="11" customHeight="true" outlineLevel="1">
@@ -3189,10 +3159,10 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="218" ht="22" customHeight="true" outlineLevel="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="218" ht="11" customHeight="true" outlineLevel="1">
       <c r="B218" s="9" t="s">
         <v>221</v>
       </c>
@@ -3200,10 +3170,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="219" ht="11" customHeight="true" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="219" ht="22" customHeight="true" outlineLevel="1">
       <c r="B219" s="9" t="s">
         <v>222</v>
       </c>
@@ -3211,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>390</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3222,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>770</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3233,32 +3203,32 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C222" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="11" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D222" s="12" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C223" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D223" s="11" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D223" s="12" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="224" ht="22" customHeight="true" outlineLevel="1">
       <c r="B224" s="9" t="s">
         <v>227</v>
       </c>
@@ -3266,10 +3236,10 @@
         <v>5</v>
       </c>
       <c r="D224" s="11" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
       <c r="B225" s="9" t="s">
         <v>228</v>
       </c>
@@ -3277,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" ht="22" customHeight="true" outlineLevel="1">
@@ -3288,10 +3258,10 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="227" ht="11" customHeight="true" outlineLevel="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="227" ht="22" customHeight="true" outlineLevel="1">
       <c r="B227" s="9" t="s">
         <v>230</v>
       </c>
@@ -3299,32 +3269,26 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="228" ht="22" customHeight="true" outlineLevel="1">
       <c r="B228" s="9" t="s">
         <v>231</v>
       </c>
       <c r="C228" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B229" s="9" t="s">
+      <c r="D228" s="12" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="229" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B229" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C229" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D229" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="230" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="230" ht="11" customHeight="true" outlineLevel="1">
       <c r="B230" s="9" t="s">
         <v>233</v>
       </c>
@@ -3332,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="D230" s="12" t="n">
-        <v>1580</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="231" ht="22" customHeight="true" outlineLevel="1">
@@ -3343,7 +3307,7 @@
         <v>5</v>
       </c>
       <c r="D231" s="11" t="n">
-        <v>370</v>
+        <v>740</v>
       </c>
     </row>
     <row r="232" ht="22" customHeight="true" outlineLevel="1">
@@ -3354,110 +3318,6 @@
         <v>5</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="233" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B233" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="11" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="234" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B234" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D234" s="11" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="235" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B235" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="12" t="n">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="236" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B236" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="237" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B237" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237" s="12" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="238" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B238" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" s="12" t="n">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="239" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B239" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239" s="11" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="240" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B240" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D240" s="11" t="n">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="241" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B241" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D241" s="11" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="242" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B242" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D242" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -187,6 +187,12 @@
     <t>Икра</t>
   </si>
   <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" красная 500г 1/6 NEW</t>
+  </si>
+  <si>
+    <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
+  </si>
+  <si>
     <t>Икра Масаго OSHI премиум красная, уп.0.5кг, Россия</t>
   </si>
   <si>
@@ -289,9 +295,6 @@
     <t>Салат крабовый, Восточно-Сахалинская подзона</t>
   </si>
   <si>
-    <t>Салат крабовый, Приморская подзона</t>
-  </si>
-  <si>
     <t>Фаланга чищенная,  8-10см, камчатский краб, в/у</t>
   </si>
   <si>
@@ -412,9 +415,6 @@
     <t>Смесь темпурная "Kaneshiro" Россия, уп. 1кг</t>
   </si>
   <si>
-    <t>Смесь темпурная 1уп/1кг</t>
-  </si>
-  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
@@ -424,6 +424,9 @@
     <t>Сухари панировочные, Тамаки 10кг мешок, Россия</t>
   </si>
   <si>
+    <t>Тесто слоёное бездрожжевое, 1кг, Россия</t>
+  </si>
+  <si>
     <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
   </si>
   <si>
@@ -454,6 +457,9 @@
     <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
   </si>
   <si>
+    <t>Бекон Классический в/к 500гр, МК ЭКО</t>
+  </si>
+  <si>
     <t>Растения и грибы</t>
   </si>
   <si>
@@ -553,6 +559,9 @@
     <t>Угорь жареный, б/в (тех), морож филе, Китай</t>
   </si>
   <si>
+    <t>Филе минтая, блок 7,5 кг</t>
+  </si>
+  <si>
     <t>Филе тунца желтоперого с/м ЛОИН А 2кг+, КНР</t>
   </si>
   <si>
@@ -691,9 +700,6 @@
     <t>Соус устричный PRB 2,40 кг пл/бут</t>
   </si>
   <si>
-    <t>Соус устричный высшей категории 510 г. ст/бт</t>
-  </si>
-  <si>
     <t>Соус устричный, Chang, Тайланд 815г</t>
   </si>
   <si>
@@ -724,10 +730,16 @@
     <t>Сыр. Майонез</t>
   </si>
   <si>
+    <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
+  </si>
+  <si>
     <t>Майонез SOLPRO 60%, 1/10 кг</t>
   </si>
   <si>
     <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
+  </si>
+  <si>
+    <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
   </si>
   <si>
     <t>Тофу натуральный, продукт белковый, 400г</t>
@@ -863,41 +875,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf/>
-    <xf applyAlignment="true">
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf fontId="6" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="2" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -919,7 +931,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D232"/>
+  <dimension ref="D236"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1457,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>580</v>
+        <v>727</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true" outlineLevel="1">
@@ -1468,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="11" t="n">
-        <v>580</v>
+        <v>727</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="true" outlineLevel="1">
@@ -1479,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>670</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
@@ -1490,12 +1502,18 @@
         <v>5</v>
       </c>
       <c r="D56" s="11" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="57" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B57" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B57" s="9" t="s">
         <v>58</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
@@ -1506,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="11" t="n">
-        <v>810</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" ht="16" customHeight="true" s="7" customFormat="true">
@@ -1522,18 +1540,12 @@
         <v>5</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B61" s="9" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B61" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>950</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
@@ -1544,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="true" outlineLevel="1">
@@ -1555,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="true" outlineLevel="1">
@@ -1566,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
@@ -1577,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true" outlineLevel="1">
@@ -1588,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>280</v>
+        <v>590</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="true" outlineLevel="1">
@@ -1599,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
@@ -1610,12 +1622,18 @@
         <v>5</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B69" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B69" s="9" t="s">
         <v>70</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="11" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
@@ -1623,43 +1641,37 @@
         <v>71</v>
       </c>
       <c r="C70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B71" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D70" s="12" t="n">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="71" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B71" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="12" t="n">
-        <v>2500</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="11" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="73" ht="11" customHeight="true" outlineLevel="1">
+        <v>74</v>
+      </c>
+      <c r="D72" s="12" t="n">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>360</v>
+        <v>74</v>
+      </c>
+      <c r="D73" s="12" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true" outlineLevel="1">
@@ -1667,10 +1679,10 @@
         <v>76</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D74" s="11" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
@@ -1678,7 +1690,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D75" s="11" t="n">
         <v>360</v>
@@ -1689,10 +1701,10 @@
         <v>78</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D76" s="11" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
@@ -1700,21 +1712,21 @@
         <v>79</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="12" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="78" ht="33" customHeight="true" outlineLevel="1">
+        <v>74</v>
+      </c>
+      <c r="D77" s="11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" ht="22" customHeight="true" outlineLevel="1">
       <c r="B78" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
@@ -1722,43 +1734,43 @@
         <v>81</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+        <v>74</v>
+      </c>
+      <c r="D79" s="12" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="80" ht="33" customHeight="true" outlineLevel="1">
       <c r="B80" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D81" s="11" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="82" ht="22" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="B82" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="11" t="n">
-        <v>220</v>
+        <v>74</v>
+      </c>
+      <c r="D82" s="12" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="true" outlineLevel="1">
@@ -1766,21 +1778,21 @@
         <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D83" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="12" t="n">
-        <v>1250</v>
+        <v>5</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="true" outlineLevel="1">
@@ -1788,10 +1800,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="12" t="n">
-        <v>2200</v>
+        <v>5</v>
+      </c>
+      <c r="D85" s="11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
@@ -1799,10 +1811,10 @@
         <v>88</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D86" s="12" t="n">
-        <v>1900</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
@@ -1810,48 +1822,48 @@
         <v>89</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="88" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B88" s="8" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="88" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B88" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B89" s="9" t="s">
+      <c r="C88" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="12" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="89" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+        <v>74</v>
+      </c>
+      <c r="D90" s="12" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="B91" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="12" t="n">
-        <v>1030</v>
+        <v>74</v>
+      </c>
+      <c r="D91" s="11" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
@@ -1859,26 +1871,26 @@
         <v>94</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="11" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="93" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B93" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="12" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B93" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B94" s="9" t="s">
+      <c r="C93" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="11" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B94" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="11" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="true" outlineLevel="1">
@@ -1886,48 +1898,48 @@
         <v>97</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D95" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="96" ht="22" customHeight="true" outlineLevel="1">
       <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D96" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="D96" s="11" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B97" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="12" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="97" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B97" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B98" s="9" t="s">
+    <row r="98" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B98" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" s="11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="99" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="B99" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D99" s="11" t="n">
-        <v>940</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="true" outlineLevel="1">
@@ -1935,29 +1947,29 @@
         <v>102</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D100" s="12" t="n">
+        <v>74</v>
+      </c>
+      <c r="D100" s="11" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B101" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="12" t="n">
         <v>1220</v>
       </c>
     </row>
-    <row r="101" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B101" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B102" s="9" t="s">
+    <row r="102" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B102" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="11" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="B103" s="9" t="s">
         <v>105</v>
       </c>
@@ -1965,37 +1977,37 @@
         <v>5</v>
       </c>
       <c r="D103" s="11" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" ht="22" customHeight="true" outlineLevel="1">
       <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B105" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="11" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="105" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B105" s="8" t="s">
+      <c r="C105" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B106" s="9" t="s">
+      <c r="D105" s="11" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B106" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="107" ht="22" customHeight="true" outlineLevel="1">
       <c r="B107" s="9" t="s">
         <v>110</v>
       </c>
@@ -2003,10 +2015,10 @@
         <v>5</v>
       </c>
       <c r="D107" s="11" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" ht="22" customHeight="true" outlineLevel="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="B108" s="9" t="s">
         <v>111</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="11" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true" outlineLevel="1">
@@ -2025,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="11" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="true" outlineLevel="1">
@@ -2036,26 +2048,26 @@
         <v>5</v>
       </c>
       <c r="D110" s="11" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B111" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="11" t="n">
         <v>470</v>
       </c>
     </row>
-    <row r="111" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B111" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B112" s="9" t="s">
+    <row r="112" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B112" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="11" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="9" t="s">
         <v>116</v>
       </c>
@@ -2063,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>235</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="true" outlineLevel="1">
@@ -2074,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" ht="22" customHeight="true" outlineLevel="1">
@@ -2085,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>157</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="true" outlineLevel="1">
@@ -2096,10 +2108,10 @@
         <v>5</v>
       </c>
       <c r="D116" s="11" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" ht="22" customHeight="true" outlineLevel="1">
       <c r="B117" s="9" t="s">
         <v>120</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>60</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
@@ -2118,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="11" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
@@ -2129,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
@@ -2140,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
@@ -2151,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="B122" s="9" t="s">
         <v>125</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="true" outlineLevel="1">
@@ -2173,10 +2185,10 @@
         <v>5</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
       <c r="B124" s="9" t="s">
         <v>127</v>
       </c>
@@ -2184,10 +2196,10 @@
         <v>5</v>
       </c>
       <c r="D124" s="11" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="B125" s="9" t="s">
         <v>128</v>
       </c>
@@ -2195,10 +2207,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="9" t="s">
         <v>129</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" ht="33" customHeight="true" outlineLevel="1">
@@ -2250,23 +2262,23 @@
         <v>5</v>
       </c>
       <c r="D130" s="11" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B131" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="11" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="131" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B131" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B132" s="9" t="s">
+    <row r="132" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B132" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="11" t="n">
-        <v>295</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
@@ -2277,10 +2289,10 @@
         <v>5</v>
       </c>
       <c r="D133" s="11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="134" ht="33" customHeight="true" outlineLevel="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="B134" s="9" t="s">
         <v>137</v>
       </c>
@@ -2288,40 +2300,40 @@
         <v>5</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" ht="33" customHeight="true" outlineLevel="1">
       <c r="B135" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D135" s="11" t="n">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="137" ht="33" customHeight="true" outlineLevel="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="12" t="n">
-        <v>1210</v>
+        <v>74</v>
+      </c>
+      <c r="D137" s="11" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="138" ht="33" customHeight="true" outlineLevel="1">
@@ -2331,11 +2343,11 @@
       <c r="C138" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="11" t="n">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D138" s="12" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="139" ht="33" customHeight="true" outlineLevel="1">
       <c r="B139" s="9" t="s">
         <v>142</v>
       </c>
@@ -2343,34 +2355,34 @@
         <v>5</v>
       </c>
       <c r="D139" s="11" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B140" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="11" t="n">
         <v>635</v>
       </c>
     </row>
-    <row r="140" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B140" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="B141" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B142" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B142" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D142" s="12" t="n">
-        <v>1300</v>
       </c>
     </row>
     <row r="143" ht="22" customHeight="true" outlineLevel="1">
@@ -2378,10 +2390,10 @@
         <v>146</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D143" s="11" t="n">
-        <v>181</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="1">
@@ -2389,40 +2401,40 @@
         <v>147</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+        <v>74</v>
+      </c>
+      <c r="D144" s="12" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="145" ht="22" customHeight="true" outlineLevel="1">
       <c r="B145" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="147" ht="22" customHeight="true" outlineLevel="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="B147" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D147" s="11" t="n">
         <v>360</v>
@@ -2433,10 +2445,10 @@
         <v>151</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="149" ht="22" customHeight="true" outlineLevel="1">
@@ -2447,10 +2459,10 @@
         <v>5</v>
       </c>
       <c r="D149" s="11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" ht="22" customHeight="true" outlineLevel="1">
       <c r="B150" s="9" t="s">
         <v>153</v>
       </c>
@@ -2458,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" ht="22" customHeight="true" outlineLevel="1">
       <c r="B151" s="9" t="s">
         <v>154</v>
       </c>
@@ -2469,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="D151" s="11" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="152" ht="22" customHeight="true" outlineLevel="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="B152" s="9" t="s">
         <v>155</v>
       </c>
@@ -2480,10 +2492,10 @@
         <v>5</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="153" ht="22" customHeight="true" outlineLevel="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="9" t="s">
         <v>156</v>
       </c>
@@ -2491,18 +2503,18 @@
         <v>5</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="154" ht="22" customHeight="true" outlineLevel="1">
       <c r="B154" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>280</v>
+        <v>694</v>
       </c>
     </row>
     <row r="155" ht="22" customHeight="true" outlineLevel="1">
@@ -2510,37 +2522,37 @@
         <v>158</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B156" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B156" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C156" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D156" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="157" ht="22" customHeight="true" outlineLevel="1">
       <c r="B157" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D157" s="11" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="158" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B158" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B158" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="12" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
@@ -2548,10 +2560,10 @@
         <v>162</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D159" s="11" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
@@ -2559,15 +2571,21 @@
         <v>163</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D160" s="11" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="161" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B161" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="12" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B161" s="9" t="s">
         <v>164</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D161" s="11" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
@@ -2575,21 +2593,15 @@
         <v>165</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B163" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="163" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B163" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D163" s="11" t="n">
-        <v>330</v>
       </c>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="1">
@@ -2597,10 +2609,10 @@
         <v>167</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D164" s="12" t="n">
-        <v>1160</v>
+        <v>74</v>
+      </c>
+      <c r="D164" s="11" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="1">
@@ -2608,10 +2620,10 @@
         <v>168</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D165" s="11" t="n">
-        <v>860</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="1">
@@ -2619,10 +2631,10 @@
         <v>169</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D166" s="12" t="n">
-        <v>1210</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="1">
@@ -2630,10 +2642,10 @@
         <v>170</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D167" s="11" t="n">
-        <v>650</v>
+        <v>860</v>
       </c>
     </row>
     <row r="168" ht="11" customHeight="true" outlineLevel="1">
@@ -2641,37 +2653,37 @@
         <v>171</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D168" s="12" t="n">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="169" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B169" s="8" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B169" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C169" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D169" s="11" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="170" ht="11" customHeight="true" outlineLevel="1">
       <c r="B170" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D170" s="11" t="n">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="171" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B171" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D170" s="12" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="171" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B171" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D171" s="11" t="n">
-        <v>780</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="true" outlineLevel="1">
@@ -2679,10 +2691,10 @@
         <v>175</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D172" s="12" t="n">
-        <v>1430</v>
+        <v>74</v>
+      </c>
+      <c r="D172" s="11" t="n">
+        <v>880</v>
       </c>
     </row>
     <row r="173" ht="22" customHeight="true" outlineLevel="1">
@@ -2690,10 +2702,10 @@
         <v>176</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D173" s="11" t="n">
-        <v>990</v>
+        <v>780</v>
       </c>
     </row>
     <row r="174" ht="22" customHeight="true" outlineLevel="1">
@@ -2701,21 +2713,21 @@
         <v>177</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D174" s="12" t="n">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="B175" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D175" s="12" t="n">
-        <v>1260</v>
+        <v>74</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="176" ht="22" customHeight="true" outlineLevel="1">
@@ -2723,10 +2735,10 @@
         <v>179</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D176" s="11" t="n">
-        <v>750</v>
+        <v>990</v>
       </c>
     </row>
     <row r="177" ht="22" customHeight="true" outlineLevel="1">
@@ -2734,10 +2746,10 @@
         <v>180</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D177" s="11" t="n">
-        <v>690</v>
+        <v>74</v>
+      </c>
+      <c r="D177" s="12" t="n">
+        <v>1380</v>
       </c>
     </row>
     <row r="178" ht="22" customHeight="true" outlineLevel="1">
@@ -2745,10 +2757,10 @@
         <v>181</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D178" s="12" t="n">
-        <v>1750</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="true" outlineLevel="1">
@@ -2756,10 +2768,10 @@
         <v>182</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D179" s="12" t="n">
-        <v>1600</v>
+        <v>74</v>
+      </c>
+      <c r="D179" s="11" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="true" outlineLevel="1">
@@ -2767,26 +2779,32 @@
         <v>183</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D180" s="12" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+        <v>74</v>
+      </c>
+      <c r="D180" s="11" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
       <c r="B181" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D181" s="11" t="n">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="182" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B182" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D181" s="12" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B182" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D182" s="12" t="n">
+        <v>1550</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
@@ -2794,48 +2812,42 @@
         <v>186</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="184" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B184" s="8" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B184" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="185" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B185" s="9" t="s">
+      <c r="C184" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D184" s="11" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="185" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B185" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C185" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D185" s="12" t="n">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="186" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="186" ht="22" customHeight="true" outlineLevel="1">
       <c r="B186" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186" s="11" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="187" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B187" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D186" s="12" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="187" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B187" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D187" s="12" t="n">
-        <v>1670</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="true" outlineLevel="1">
@@ -2846,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="12" t="n">
-        <v>3790</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="189" ht="11" customHeight="true" outlineLevel="1">
@@ -2856,8 +2868,8 @@
       <c r="C189" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="12" t="n">
-        <v>3000</v>
+      <c r="D189" s="11" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="190" ht="11" customHeight="true" outlineLevel="1">
@@ -2868,10 +2880,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="12" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="191" ht="22" customHeight="true" outlineLevel="1">
       <c r="B191" s="9" t="s">
         <v>194</v>
       </c>
@@ -2879,10 +2891,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="12" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="192" ht="11" customHeight="true" outlineLevel="1">
       <c r="B192" s="9" t="s">
         <v>195</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="D192" s="12" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
@@ -2901,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="12" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="194" ht="11" customHeight="true" outlineLevel="1">
@@ -2912,26 +2924,32 @@
         <v>5</v>
       </c>
       <c r="D194" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="195" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B195" s="8" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B195" s="9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C195" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" s="12" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="11" t="n">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="197" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D196" s="12" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="9" t="s">
         <v>200</v>
       </c>
@@ -2939,18 +2957,12 @@
         <v>5</v>
       </c>
       <c r="D197" s="12" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="198" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B198" s="9" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="198" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B198" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" s="11" t="n">
-        <v>780</v>
       </c>
     </row>
     <row r="199" ht="22" customHeight="true" outlineLevel="1">
@@ -2960,8 +2972,8 @@
       <c r="C199" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="12" t="n">
-        <v>1220</v>
+      <c r="D199" s="11" t="n">
+        <v>675</v>
       </c>
     </row>
     <row r="200" ht="22" customHeight="true" outlineLevel="1">
@@ -2972,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="12" t="n">
-        <v>1560</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="201" ht="22" customHeight="true" outlineLevel="1">
@@ -2982,8 +2994,8 @@
       <c r="C201" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="12" t="n">
-        <v>1220</v>
+      <c r="D201" s="11" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="202" ht="22" customHeight="true" outlineLevel="1">
@@ -2994,10 +3006,10 @@
         <v>5</v>
       </c>
       <c r="D202" s="12" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="203" ht="11" customHeight="true" outlineLevel="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="203" ht="22" customHeight="true" outlineLevel="1">
       <c r="B203" s="9" t="s">
         <v>206</v>
       </c>
@@ -3005,10 +3017,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="12" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="204" ht="22" customHeight="true" outlineLevel="1">
       <c r="B204" s="9" t="s">
         <v>207</v>
       </c>
@@ -3016,18 +3028,18 @@
         <v>5</v>
       </c>
       <c r="D204" s="12" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="205" ht="22" customHeight="true" outlineLevel="1">
       <c r="B205" s="9" t="s">
         <v>208</v>
       </c>
       <c r="C205" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="11" t="n">
-        <v>300</v>
+      <c r="D205" s="12" t="n">
+        <v>1620</v>
       </c>
     </row>
     <row r="206" ht="11" customHeight="true" outlineLevel="1">
@@ -3037,8 +3049,8 @@
       <c r="C206" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D206" s="11" t="n">
-        <v>838</v>
+      <c r="D206" s="12" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="207" ht="11" customHeight="true" outlineLevel="1">
@@ -3048,19 +3060,19 @@
       <c r="C207" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D207" s="11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="208" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D207" s="12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
       <c r="B208" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C208" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="12" t="n">
-        <v>1430</v>
+      <c r="D208" s="11" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="209" ht="11" customHeight="true" outlineLevel="1">
@@ -3071,10 +3083,10 @@
         <v>5</v>
       </c>
       <c r="D209" s="11" t="n">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="210" ht="22" customHeight="true" outlineLevel="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="210" ht="11" customHeight="true" outlineLevel="1">
       <c r="B210" s="9" t="s">
         <v>213</v>
       </c>
@@ -3082,18 +3094,18 @@
         <v>5</v>
       </c>
       <c r="D210" s="11" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="211" ht="11" customHeight="true" outlineLevel="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="211" ht="22" customHeight="true" outlineLevel="1">
       <c r="B211" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C211" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D211" s="11" t="n">
-        <v>550</v>
+      <c r="D211" s="12" t="n">
+        <v>1430</v>
       </c>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
@@ -3104,10 +3116,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="11" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="1">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="213" ht="22" customHeight="true" outlineLevel="1">
       <c r="B213" s="9" t="s">
         <v>216</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="D213" s="11" t="n">
-        <v>770</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
@@ -3126,7 +3138,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="11" t="n">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" ht="11" customHeight="true" outlineLevel="1">
@@ -3137,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="11" t="n">
-        <v>520</v>
+        <v>390</v>
       </c>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
@@ -3159,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="11" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
     </row>
     <row r="218" ht="11" customHeight="true" outlineLevel="1">
@@ -3170,10 +3182,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="219" ht="22" customHeight="true" outlineLevel="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="219" ht="11" customHeight="true" outlineLevel="1">
       <c r="B219" s="9" t="s">
         <v>222</v>
       </c>
@@ -3181,7 +3193,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>230</v>
+        <v>770</v>
       </c>
     </row>
     <row r="220" ht="11" customHeight="true" outlineLevel="1">
@@ -3192,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="D220" s="11" t="n">
-        <v>265</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" ht="11" customHeight="true" outlineLevel="1">
@@ -3203,29 +3215,29 @@
         <v>5</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="222" ht="22" customHeight="true" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="222" ht="11" customHeight="true" outlineLevel="1">
       <c r="B222" s="9" t="s">
         <v>225</v>
       </c>
       <c r="C222" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D222" s="11" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="1">
       <c r="B223" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C223" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D223" s="12" t="n">
-        <v>1580</v>
+      <c r="D223" s="11" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="224" ht="22" customHeight="true" outlineLevel="1">
@@ -3235,8 +3247,8 @@
       <c r="C224" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D224" s="11" t="n">
-        <v>370</v>
+      <c r="D224" s="12" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="225" ht="22" customHeight="true" outlineLevel="1">
@@ -3246,8 +3258,8 @@
       <c r="C225" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="11" t="n">
-        <v>400</v>
+      <c r="D225" s="12" t="n">
+        <v>1580</v>
       </c>
     </row>
     <row r="226" ht="22" customHeight="true" outlineLevel="1">
@@ -3258,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="11" t="n">
-        <v>242</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" ht="22" customHeight="true" outlineLevel="1">
@@ -3269,7 +3281,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="11" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228" ht="22" customHeight="true" outlineLevel="1">
@@ -3279,16 +3291,22 @@
       <c r="C228" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="12" t="n">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="229" ht="16" customHeight="true" s="7" customFormat="true">
-      <c r="B229" s="8" t="s">
+      <c r="D228" s="11" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B229" s="9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C229" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="11" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="230" ht="22" customHeight="true" outlineLevel="1">
       <c r="B230" s="9" t="s">
         <v>233</v>
       </c>
@@ -3296,28 +3314,66 @@
         <v>5</v>
       </c>
       <c r="D230" s="12" t="n">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="231" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B231" s="9" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="231" ht="16" customHeight="true" s="7" customFormat="true">
+      <c r="B231" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C231" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" s="11" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="232" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="232" ht="11" customHeight="true" outlineLevel="1">
       <c r="B232" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="11" t="n">
+      <c r="D232" s="12" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B233" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="12" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="234" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B234" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="11" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="235" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B235" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="236" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B236" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="11" t="n">
         <v>198</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 12.01.23</t>
+    <t>Цены указаны на 24.01.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -202,6 +202,9 @@
     <t>Картофель фри  10*10 "Фарм Фритес" 2,5кг</t>
   </si>
   <si>
+    <t>Картофель фри 12*12 Pommes Frites Lamb Weston Нидерланды</t>
+  </si>
+  <si>
     <t>Картофельные дольки с кожурой, зам, 2.5кг Otomotiv TG San Ve Турция</t>
   </si>
   <si>
@@ -259,6 +262,9 @@
     <t>Мясо камчатского краба Роза</t>
   </si>
   <si>
+    <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
+  </si>
+  <si>
     <t>Мясо мидии в/м н/ф (200-300) Чили</t>
   </si>
   <si>
@@ -271,9 +277,6 @@
     <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
   </si>
   <si>
-    <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
-  </si>
-  <si>
     <t>Салат крабовый (опилио)</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
     <t>Креветка блочная</t>
   </si>
   <si>
-    <t>Креветка ваннамей с/м б/г очищ без вены, 41-50 , блок 1,7 кг, Эквадор</t>
-  </si>
-  <si>
     <t>Креветка с/м б/г 26/30 блок 1,8 Индия</t>
   </si>
   <si>
@@ -325,9 +325,6 @@
     <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
   </si>
   <si>
-    <t>Креветка с/м, б/г, очищ.без пищ.тракта 21/25, 7% глаз, Индия</t>
-  </si>
-  <si>
     <t>Масла</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
     <t>Бумага рисовая "AROY-D" 22см, 454 гр.</t>
   </si>
   <si>
+    <t>Вермишель из батата 500 г 1/20 т.м. СингСонг</t>
+  </si>
+  <si>
     <t>Вермишель крахмальная Харусаме "Kekeshi" резаная, Китай, 0,5кг</t>
   </si>
   <si>
@@ -373,6 +373,9 @@
     <t>Лапша гречневая Соба, уп. 300г. Китай</t>
   </si>
   <si>
+    <t>Лапша пшеничная Удон, уп. 300г. Китай</t>
+  </si>
+  <si>
     <t>Лапша Рамен яичная в брикетах 1кг</t>
   </si>
   <si>
@@ -391,18 +394,12 @@
     <t>Рисовая лапша 5мм AROY-D 454 г</t>
   </si>
   <si>
-    <t>Смесь темпурная "Kaneshiro" Россия, уп. 1кг</t>
-  </si>
-  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
     <t>Сухари панировочные Панко Тамаки, 1уп/1кг</t>
   </si>
   <si>
-    <t>Тесто слоёное бездрожжевое, 1кг, Россия</t>
-  </si>
-  <si>
     <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
   </si>
   <si>
@@ -487,6 +484,9 @@
     <t>Рис</t>
   </si>
   <si>
+    <t>Рис "Кипарис", мешок 25 кг, Китай</t>
+  </si>
+  <si>
     <t>Рис IKIGAI 22.68 кг</t>
   </si>
   <si>
@@ -517,6 +517,9 @@
     <t>Форель ПБГ (2,7- 3,6 кг ) Турция</t>
   </si>
   <si>
+    <t>Форель ПБГ (6-9) Китай</t>
+  </si>
+  <si>
     <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
   </si>
   <si>
@@ -592,9 +595,6 @@
     <t>Соусы паназиатские</t>
   </si>
   <si>
-    <t>Горчица сладкая баварская "MILD", - 1,1 кг , Provil, Греция</t>
-  </si>
-  <si>
     <t>Заправка "Греческий салат" 1,9кг, Provil, Греция</t>
   </si>
   <si>
@@ -634,6 +634,9 @@
     <t>Соус Рыбный AROY-D, 0,7л (0,84кг), ст/б</t>
   </si>
   <si>
+    <t>Соус сладкий чили для курицы CHANG, Таиланд, 835г</t>
+  </si>
+  <si>
     <t>Соус сырный HAINZ 1 кг</t>
   </si>
   <si>
@@ -649,9 +652,6 @@
     <t>Соус Терияки, ТМ "Тамаки", 1,8л</t>
   </si>
   <si>
-    <t>Соус Унаги Тамаки, 1.8 л</t>
-  </si>
-  <si>
     <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
   </si>
   <si>
@@ -700,13 +700,7 @@
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
   </si>
   <si>
-    <t>Майонез SOLPRO 60%, 1/10 кг</t>
-  </si>
-  <si>
     <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
-  </si>
-  <si>
-    <t>Сыр творожный Professional 65% 2,2 кг, SERVOLUX PROFESSIONAL, Беларусь</t>
   </si>
   <si>
     <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
@@ -911,7 +905,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="E229"/>
+  <dimension ref="E227"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1058,7 +1052,7 @@
       </c>
       <c r="C16" s="10" t="e"/>
       <c r="D16" s="11" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E16" s="11" t="e"/>
     </row>
@@ -1298,7 +1292,7 @@
       </c>
       <c r="C41" s="10" t="e"/>
       <c r="D41" s="11" t="n">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="E41" s="11" t="e"/>
     </row>
@@ -1308,7 +1302,7 @@
       </c>
       <c r="C42" s="10" t="e"/>
       <c r="D42" s="11" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E42" s="11" t="e"/>
     </row>
@@ -1458,24 +1452,24 @@
       </c>
       <c r="C59" s="10" t="e"/>
       <c r="D59" s="11" t="n">
+        <v>584</v>
+      </c>
+      <c r="E59" s="11" t="e"/>
+    </row>
+    <row r="60" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="10" t="e"/>
+      <c r="D60" s="11" t="n">
         <v>680</v>
       </c>
-      <c r="E59" s="11" t="e"/>
-    </row>
-    <row r="60" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B60" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B61" s="10" t="s">
+      <c r="E60" s="11" t="e"/>
+    </row>
+    <row r="61" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="10" t="e"/>
-      <c r="D61" s="11" t="n">
-        <v>170</v>
-      </c>
-      <c r="E61" s="11" t="e"/>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
       <c r="B62" s="10" t="s">
@@ -1483,7 +1477,7 @@
       </c>
       <c r="C62" s="10" t="e"/>
       <c r="D62" s="11" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E62" s="11" t="e"/>
     </row>
@@ -1493,7 +1487,7 @@
       </c>
       <c r="C63" s="10" t="e"/>
       <c r="D63" s="11" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E63" s="11" t="e"/>
     </row>
@@ -1503,7 +1497,7 @@
       </c>
       <c r="C64" s="10" t="e"/>
       <c r="D64" s="11" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="E64" s="11" t="e"/>
     </row>
@@ -1513,7 +1507,7 @@
       </c>
       <c r="C65" s="10" t="e"/>
       <c r="D65" s="11" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="E65" s="11" t="e"/>
     </row>
@@ -1523,7 +1517,7 @@
       </c>
       <c r="C66" s="10" t="e"/>
       <c r="D66" s="11" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="E66" s="11" t="e"/>
     </row>
@@ -1533,7 +1527,7 @@
       </c>
       <c r="C67" s="10" t="e"/>
       <c r="D67" s="11" t="n">
-        <v>280</v>
+        <v>590</v>
       </c>
       <c r="E67" s="11" t="e"/>
     </row>
@@ -1553,7 +1547,7 @@
       </c>
       <c r="C69" s="10" t="e"/>
       <c r="D69" s="11" t="n">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="E69" s="11" t="e"/>
     </row>
@@ -1563,62 +1557,62 @@
       </c>
       <c r="C70" s="10" t="e"/>
       <c r="D70" s="11" t="n">
+        <v>256</v>
+      </c>
+      <c r="E70" s="11" t="e"/>
+    </row>
+    <row r="71" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B71" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="10" t="e"/>
+      <c r="D71" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="E70" s="11" t="e"/>
-    </row>
-    <row r="71" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B71" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B72" s="10" t="s">
+      <c r="E71" s="11" t="e"/>
+    </row>
+    <row r="72" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B72" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="10" t="e"/>
-      <c r="D72" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="E72" s="12" t="e"/>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="10" t="e"/>
-      <c r="D73" s="11" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" s="11" t="e"/>
-    </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D73" s="12" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E73" s="12" t="e"/>
+    </row>
+    <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="10" t="e"/>
       <c r="D74" s="11" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="E74" s="11" t="e"/>
     </row>
-    <row r="75" ht="22" customHeight="true" outlineLevel="1">
+    <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="B75" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="10" t="e"/>
       <c r="D75" s="11" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E75" s="11" t="e"/>
     </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+    <row r="76" ht="22" customHeight="true" outlineLevel="1">
       <c r="B76" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="10" t="e"/>
       <c r="D76" s="11" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E76" s="11" t="e"/>
     </row>
@@ -1627,50 +1621,50 @@
         <v>77</v>
       </c>
       <c r="C77" s="10" t="e"/>
-      <c r="D77" s="12" t="n">
-        <v>2600</v>
-      </c>
-      <c r="E77" s="12" t="e"/>
+      <c r="D77" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="E77" s="11" t="e"/>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="B78" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="10" t="e"/>
-      <c r="D78" s="11" t="n">
-        <v>370</v>
-      </c>
-      <c r="E78" s="11" t="e"/>
-    </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D78" s="12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="E78" s="12" t="e"/>
+    </row>
+    <row r="79" ht="33" customHeight="true" outlineLevel="1">
       <c r="B79" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="10" t="e"/>
-      <c r="D79" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E79" s="12" t="e"/>
-    </row>
-    <row r="80" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D79" s="11" t="n">
+        <v>290</v>
+      </c>
+      <c r="E79" s="11" t="e"/>
+    </row>
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="B80" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="10" t="e"/>
       <c r="D80" s="11" t="n">
-        <v>560</v>
+        <v>395</v>
       </c>
       <c r="E80" s="11" t="e"/>
     </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="B81" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="10" t="e"/>
-      <c r="D81" s="11" t="n">
-        <v>210</v>
-      </c>
-      <c r="E81" s="11" t="e"/>
+      <c r="D81" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="12" t="e"/>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
       <c r="B82" s="10" t="s">
@@ -1678,27 +1672,27 @@
       </c>
       <c r="C82" s="10" t="e"/>
       <c r="D82" s="11" t="n">
-        <v>210</v>
+        <v>560</v>
       </c>
       <c r="E82" s="11" t="e"/>
     </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
       <c r="B83" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="10" t="e"/>
-      <c r="D83" s="12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E83" s="12" t="e"/>
-    </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D83" s="11" t="n">
+        <v>210</v>
+      </c>
+      <c r="E83" s="11" t="e"/>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="10" t="e"/>
       <c r="D84" s="12" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="E84" s="12" t="e"/>
     </row>
@@ -1708,24 +1702,24 @@
       </c>
       <c r="C85" s="10" t="e"/>
       <c r="D85" s="12" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E85" s="12" t="e"/>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B86" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="10" t="e"/>
+      <c r="D86" s="12" t="n">
         <v>5100</v>
       </c>
-      <c r="E85" s="12" t="e"/>
-    </row>
-    <row r="86" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B86" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B87" s="10" t="s">
+      <c r="E86" s="12" t="e"/>
+    </row>
+    <row r="87" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B87" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="10" t="e"/>
-      <c r="D87" s="12" t="n">
-        <v>1150</v>
-      </c>
-      <c r="E87" s="12" t="e"/>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="B88" s="10" t="s">
@@ -1837,20 +1831,20 @@
       </c>
       <c r="E99" s="11" t="e"/>
     </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B100" s="10" t="s">
+    <row r="100" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B100" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="10" t="e"/>
-      <c r="D100" s="12" t="n">
-        <v>1220</v>
-      </c>
-      <c r="E100" s="12" t="e"/>
-    </row>
-    <row r="101" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B101" s="9" t="s">
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B101" s="10" t="s">
         <v>101</v>
       </c>
+      <c r="C101" s="10" t="e"/>
+      <c r="D101" s="11" t="n">
+        <v>225</v>
+      </c>
+      <c r="E101" s="11" t="e"/>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="B102" s="10" t="s">
@@ -1858,42 +1852,42 @@
       </c>
       <c r="C102" s="10" t="e"/>
       <c r="D102" s="11" t="n">
-        <v>225</v>
+        <v>680</v>
       </c>
       <c r="E102" s="11" t="e"/>
     </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B103" s="10" t="s">
+    <row r="103" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B103" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="10" t="e"/>
-      <c r="D103" s="11" t="n">
-        <v>680</v>
-      </c>
-      <c r="E103" s="11" t="e"/>
-    </row>
-    <row r="104" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B104" s="9" t="s">
+    </row>
+    <row r="104" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B104" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C104" s="10" t="e"/>
+      <c r="D104" s="11" t="n">
+        <v>160</v>
+      </c>
+      <c r="E104" s="11" t="e"/>
+    </row>
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="B105" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C105" s="10" t="e"/>
       <c r="D105" s="11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E105" s="11" t="e"/>
     </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
       <c r="B106" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="10" t="e"/>
       <c r="D106" s="11" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="E106" s="11" t="e"/>
     </row>
@@ -1903,7 +1897,7 @@
       </c>
       <c r="C107" s="10" t="e"/>
       <c r="D107" s="11" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="E107" s="11" t="e"/>
     </row>
@@ -1913,32 +1907,32 @@
       </c>
       <c r="C108" s="10" t="e"/>
       <c r="D108" s="11" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="E108" s="11" t="e"/>
     </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B109" s="10" t="s">
+    <row r="109" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B109" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="10" t="e"/>
-      <c r="D109" s="11" t="n">
-        <v>470</v>
-      </c>
-      <c r="E109" s="11" t="e"/>
-    </row>
-    <row r="110" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B110" s="9" t="s">
+    </row>
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B110" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C110" s="10" t="e"/>
+      <c r="D110" s="11" t="n">
+        <v>370</v>
+      </c>
+      <c r="E110" s="11" t="e"/>
+    </row>
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C111" s="10" t="e"/>
       <c r="D111" s="11" t="n">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="E111" s="11" t="e"/>
     </row>
@@ -1988,7 +1982,7 @@
       </c>
       <c r="C116" s="10" t="e"/>
       <c r="D116" s="11" t="n">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E116" s="11" t="e"/>
     </row>
@@ -1998,7 +1992,7 @@
       </c>
       <c r="C117" s="10" t="e"/>
       <c r="D117" s="11" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="E117" s="11" t="e"/>
     </row>
@@ -2008,17 +2002,17 @@
       </c>
       <c r="C118" s="10" t="e"/>
       <c r="D118" s="11" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E118" s="11" t="e"/>
     </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C119" s="10" t="e"/>
       <c r="D119" s="11" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E119" s="11" t="e"/>
     </row>
@@ -2028,27 +2022,27 @@
       </c>
       <c r="C120" s="10" t="e"/>
       <c r="D120" s="11" t="n">
-        <v>836</v>
+        <v>127</v>
       </c>
       <c r="E120" s="11" t="e"/>
     </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+    <row r="121" ht="22" customHeight="true" outlineLevel="1">
       <c r="B121" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="10" t="e"/>
       <c r="D121" s="11" t="n">
-        <v>152</v>
+        <v>836</v>
       </c>
       <c r="E121" s="11" t="e"/>
     </row>
-    <row r="122" ht="22" customHeight="true" outlineLevel="1">
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="B122" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C122" s="10" t="e"/>
       <c r="D122" s="11" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E122" s="11" t="e"/>
     </row>
@@ -2078,24 +2072,24 @@
       </c>
       <c r="C125" s="10" t="e"/>
       <c r="D125" s="11" t="n">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E125" s="11" t="e"/>
     </row>
-    <row r="126" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B126" s="10" t="s">
+    <row r="126" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B126" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="10" t="e"/>
-      <c r="D126" s="11" t="n">
-        <v>163</v>
-      </c>
-      <c r="E126" s="11" t="e"/>
-    </row>
-    <row r="127" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B127" s="9" t="s">
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B127" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="C127" s="10" t="e"/>
+      <c r="D127" s="11" t="n">
+        <v>288</v>
+      </c>
+      <c r="E127" s="11" t="e"/>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="B128" s="10" t="s">
@@ -2103,7 +2097,7 @@
       </c>
       <c r="C128" s="10" t="e"/>
       <c r="D128" s="11" t="n">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E128" s="11" t="e"/>
     </row>
@@ -2113,122 +2107,122 @@
       </c>
       <c r="C129" s="10" t="e"/>
       <c r="D129" s="11" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="E129" s="11" t="e"/>
     </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+    <row r="130" ht="33" customHeight="true" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C130" s="10" t="e"/>
       <c r="D130" s="11" t="n">
-        <v>350</v>
+        <v>916</v>
       </c>
       <c r="E130" s="11" t="e"/>
     </row>
-    <row r="131" ht="33" customHeight="true" outlineLevel="1">
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C131" s="10" t="e"/>
       <c r="D131" s="11" t="n">
-        <v>916</v>
+        <v>518</v>
       </c>
       <c r="E131" s="11" t="e"/>
     </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+    <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C132" s="10" t="e"/>
       <c r="D132" s="11" t="n">
-        <v>518</v>
+        <v>330</v>
       </c>
       <c r="E132" s="11" t="e"/>
     </row>
-    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+    <row r="133" ht="33" customHeight="true" outlineLevel="1">
       <c r="B133" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="10" t="e"/>
-      <c r="D133" s="11" t="n">
-        <v>330</v>
-      </c>
-      <c r="E133" s="11" t="e"/>
+      <c r="D133" s="12" t="n">
+        <v>1210</v>
+      </c>
+      <c r="E133" s="12" t="e"/>
     </row>
     <row r="134" ht="33" customHeight="true" outlineLevel="1">
       <c r="B134" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="10" t="e"/>
-      <c r="D134" s="12" t="n">
-        <v>1210</v>
-      </c>
-      <c r="E134" s="12" t="e"/>
-    </row>
-    <row r="135" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D134" s="11" t="n">
+        <v>780</v>
+      </c>
+      <c r="E134" s="11" t="e"/>
+    </row>
+    <row r="135" ht="22" customHeight="true" outlineLevel="1">
       <c r="B135" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="10" t="e"/>
       <c r="D135" s="11" t="n">
-        <v>795</v>
+        <v>635</v>
       </c>
       <c r="E135" s="11" t="e"/>
     </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C136" s="10" t="e"/>
       <c r="D136" s="11" t="n">
-        <v>635</v>
+        <v>294</v>
       </c>
       <c r="E136" s="11" t="e"/>
     </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B137" s="10" t="s">
+    <row r="137" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B137" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="10" t="e"/>
-      <c r="D137" s="11" t="n">
-        <v>294</v>
-      </c>
-      <c r="E137" s="11" t="e"/>
-    </row>
-    <row r="138" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B138" s="9" t="s">
+    </row>
+    <row r="138" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B138" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C138" s="10" t="e"/>
+      <c r="D138" s="11" t="n">
+        <v>420</v>
+      </c>
+      <c r="E138" s="11" t="e"/>
+    </row>
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="B139" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C139" s="10" t="e"/>
-      <c r="D139" s="11" t="n">
-        <v>420</v>
-      </c>
-      <c r="E139" s="11" t="e"/>
-    </row>
-    <row r="140" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D139" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E139" s="12" t="e"/>
+    </row>
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
       <c r="B140" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C140" s="10" t="e"/>
-      <c r="D140" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E140" s="12" t="e"/>
-    </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D140" s="11" t="n">
+        <v>170</v>
+      </c>
+      <c r="E140" s="11" t="e"/>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="B141" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C141" s="10" t="e"/>
       <c r="D141" s="11" t="n">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="E141" s="11" t="e"/>
     </row>
@@ -2238,11 +2232,11 @@
       </c>
       <c r="C142" s="10" t="e"/>
       <c r="D142" s="11" t="n">
-        <v>115</v>
+        <v>360</v>
       </c>
       <c r="E142" s="11" t="e"/>
     </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+    <row r="143" ht="22" customHeight="true" outlineLevel="1">
       <c r="B143" s="10" t="s">
         <v>143</v>
       </c>
@@ -2258,7 +2252,7 @@
       </c>
       <c r="C144" s="10" t="e"/>
       <c r="D144" s="11" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E144" s="11" t="e"/>
     </row>
@@ -2268,17 +2262,17 @@
       </c>
       <c r="C145" s="10" t="e"/>
       <c r="D145" s="11" t="n">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="E145" s="11" t="e"/>
     </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="10" t="e"/>
       <c r="D146" s="11" t="n">
-        <v>220</v>
+        <v>570</v>
       </c>
       <c r="E146" s="11" t="e"/>
     </row>
@@ -2288,17 +2282,17 @@
       </c>
       <c r="C147" s="10" t="e"/>
       <c r="D147" s="11" t="n">
-        <v>570</v>
+        <v>680</v>
       </c>
       <c r="E147" s="11" t="e"/>
     </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
       <c r="B148" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C148" s="10" t="e"/>
       <c r="D148" s="11" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="E148" s="11" t="e"/>
     </row>
@@ -2308,44 +2302,44 @@
       </c>
       <c r="C149" s="10" t="e"/>
       <c r="D149" s="11" t="n">
-        <v>694</v>
+        <v>200</v>
       </c>
       <c r="E149" s="11" t="e"/>
     </row>
-    <row r="150" ht="22" customHeight="true" outlineLevel="1">
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="B150" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C150" s="10" t="e"/>
       <c r="D150" s="11" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="E150" s="11" t="e"/>
     </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+    <row r="151" ht="22" customHeight="true" outlineLevel="1">
       <c r="B151" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C151" s="10" t="e"/>
       <c r="D151" s="11" t="n">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="E151" s="11" t="e"/>
     </row>
-    <row r="152" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B152" s="10" t="s">
+    <row r="152" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B152" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C152" s="10" t="e"/>
-      <c r="D152" s="11" t="n">
-        <v>190</v>
-      </c>
-      <c r="E152" s="11" t="e"/>
-    </row>
-    <row r="153" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B153" s="9" t="s">
+    </row>
+    <row r="153" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B153" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="C153" s="10" t="e"/>
+      <c r="D153" s="11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E153" s="11" t="e"/>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="B154" s="10" t="s">
@@ -2388,7 +2382,7 @@
       </c>
       <c r="C158" s="10" t="e"/>
       <c r="D158" s="11" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="E158" s="11" t="e"/>
     </row>
@@ -2438,62 +2432,62 @@
       </c>
       <c r="C163" s="10" t="e"/>
       <c r="D163" s="12" t="n">
-        <v>1320</v>
+        <v>1250</v>
       </c>
       <c r="E163" s="12" t="e"/>
     </row>
-    <row r="164" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B164" s="9" t="s">
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B164" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B165" s="10" t="s">
+      <c r="C164" s="10" t="e"/>
+      <c r="D164" s="12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E164" s="12" t="e"/>
+    </row>
+    <row r="165" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B165" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="10" t="e"/>
-      <c r="D165" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="E165" s="11" t="e"/>
-    </row>
-    <row r="166" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="166" ht="22" customHeight="true" outlineLevel="1">
       <c r="B166" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C166" s="10" t="e"/>
       <c r="D166" s="11" t="n">
-        <v>720</v>
+        <v>950</v>
       </c>
       <c r="E166" s="11" t="e"/>
     </row>
-    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="B167" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C167" s="10" t="e"/>
-      <c r="D167" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E167" s="12" t="e"/>
-    </row>
-    <row r="168" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D167" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="E167" s="11" t="e"/>
+    </row>
+    <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C168" s="10" t="e"/>
-      <c r="D168" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="E168" s="11" t="e"/>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D168" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="E168" s="12" t="e"/>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="10" t="e"/>
       <c r="D169" s="11" t="n">
-        <v>990</v>
+        <v>280</v>
       </c>
       <c r="E169" s="11" t="e"/>
     </row>
@@ -2502,10 +2496,10 @@
         <v>170</v>
       </c>
       <c r="C170" s="10" t="e"/>
-      <c r="D170" s="12" t="n">
-        <v>1380</v>
-      </c>
-      <c r="E170" s="12" t="e"/>
+      <c r="D170" s="11" t="n">
+        <v>990</v>
+      </c>
+      <c r="E170" s="11" t="e"/>
     </row>
     <row r="171" ht="22" customHeight="true" outlineLevel="1">
       <c r="B171" s="10" t="s">
@@ -2513,7 +2507,7 @@
       </c>
       <c r="C171" s="10" t="e"/>
       <c r="D171" s="12" t="n">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="E171" s="12" t="e"/>
     </row>
@@ -2522,10 +2516,10 @@
         <v>172</v>
       </c>
       <c r="C172" s="10" t="e"/>
-      <c r="D172" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="E172" s="11" t="e"/>
+      <c r="D172" s="12" t="n">
+        <v>1260</v>
+      </c>
+      <c r="E172" s="12" t="e"/>
     </row>
     <row r="173" ht="22" customHeight="true" outlineLevel="1">
       <c r="B173" s="10" t="s">
@@ -2533,7 +2527,7 @@
       </c>
       <c r="C173" s="10" t="e"/>
       <c r="D173" s="11" t="n">
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="E173" s="11" t="e"/>
     </row>
@@ -2542,10 +2536,10 @@
         <v>174</v>
       </c>
       <c r="C174" s="10" t="e"/>
-      <c r="D174" s="12" t="n">
-        <v>1550</v>
-      </c>
-      <c r="E174" s="12" t="e"/>
+      <c r="D174" s="11" t="n">
+        <v>690</v>
+      </c>
+      <c r="E174" s="11" t="e"/>
     </row>
     <row r="175" ht="22" customHeight="true" outlineLevel="1">
       <c r="B175" s="10" t="s">
@@ -2553,77 +2547,77 @@
       </c>
       <c r="C175" s="10" t="e"/>
       <c r="D175" s="12" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E175" s="12" t="e"/>
+    </row>
+    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B176" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="10" t="e"/>
+      <c r="D176" s="12" t="n">
         <v>1430</v>
       </c>
-      <c r="E175" s="12" t="e"/>
-    </row>
-    <row r="176" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B176" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B177" s="10" t="s">
+      <c r="E176" s="12" t="e"/>
+    </row>
+    <row r="177" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B177" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="10" t="e"/>
-      <c r="D177" s="12" t="n">
+    </row>
+    <row r="178" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B178" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" s="10" t="e"/>
+      <c r="D178" s="12" t="n">
         <v>1660</v>
       </c>
-      <c r="E177" s="12" t="e"/>
-    </row>
-    <row r="178" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B178" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B179" s="10" t="s">
+      <c r="E178" s="12" t="e"/>
+    </row>
+    <row r="179" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B179" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="10" t="e"/>
-      <c r="D179" s="12" t="n">
-        <v>1820</v>
-      </c>
-      <c r="E179" s="12" t="e"/>
-    </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
       <c r="B180" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C180" s="10" t="e"/>
-      <c r="D180" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="E180" s="11" t="e"/>
+      <c r="D180" s="12" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E180" s="12" t="e"/>
     </row>
     <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C181" s="10" t="e"/>
-      <c r="D181" s="12" t="n">
-        <v>1670</v>
-      </c>
-      <c r="E181" s="12" t="e"/>
-    </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D181" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="E181" s="11" t="e"/>
+    </row>
+    <row r="182" ht="11" customHeight="true" outlineLevel="1">
       <c r="B182" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C182" s="10" t="e"/>
       <c r="D182" s="12" t="n">
-        <v>3790</v>
+        <v>1670</v>
       </c>
       <c r="E182" s="12" t="e"/>
     </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
+    <row r="183" ht="22" customHeight="true" outlineLevel="1">
       <c r="B183" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C183" s="10" t="e"/>
       <c r="D183" s="12" t="n">
-        <v>3000</v>
+        <v>3790</v>
       </c>
       <c r="E183" s="12" t="e"/>
     </row>
@@ -2633,7 +2627,7 @@
       </c>
       <c r="C184" s="10" t="e"/>
       <c r="D184" s="12" t="n">
-        <v>1700</v>
+        <v>3090</v>
       </c>
       <c r="E184" s="12" t="e"/>
     </row>
@@ -2643,44 +2637,44 @@
       </c>
       <c r="C185" s="10" t="e"/>
       <c r="D185" s="12" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E185" s="12" t="e"/>
     </row>
-    <row r="186" ht="22" customHeight="true" outlineLevel="1">
+    <row r="186" ht="11" customHeight="true" outlineLevel="1">
       <c r="B186" s="10" t="s">
         <v>186</v>
       </c>
       <c r="C186" s="10" t="e"/>
       <c r="D186" s="12" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="E186" s="12" t="e"/>
     </row>
-    <row r="187" ht="11" customHeight="true" outlineLevel="1">
+    <row r="187" ht="22" customHeight="true" outlineLevel="1">
       <c r="B187" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C187" s="10" t="e"/>
       <c r="D187" s="12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="E187" s="12" t="e"/>
+    </row>
+    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B188" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" s="10" t="e"/>
+      <c r="D188" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="E187" s="12" t="e"/>
-    </row>
-    <row r="188" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B188" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B189" s="10" t="s">
+      <c r="E188" s="12" t="e"/>
+    </row>
+    <row r="189" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B189" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C189" s="10" t="e"/>
-      <c r="D189" s="11" t="n">
-        <v>670</v>
-      </c>
-      <c r="E189" s="11" t="e"/>
     </row>
     <row r="190" ht="22" customHeight="true" outlineLevel="1">
       <c r="B190" s="10" t="s">
@@ -2812,13 +2806,13 @@
       </c>
       <c r="E202" s="11" t="e"/>
     </row>
-    <row r="203" ht="11" customHeight="true" outlineLevel="1">
+    <row r="203" ht="22" customHeight="true" outlineLevel="1">
       <c r="B203" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C203" s="10" t="e"/>
       <c r="D203" s="11" t="n">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="E203" s="11" t="e"/>
     </row>
@@ -2828,7 +2822,7 @@
       </c>
       <c r="C204" s="10" t="e"/>
       <c r="D204" s="11" t="n">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="E204" s="11" t="e"/>
     </row>
@@ -2838,7 +2832,7 @@
       </c>
       <c r="C205" s="10" t="e"/>
       <c r="D205" s="11" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="E205" s="11" t="e"/>
     </row>
@@ -2848,7 +2842,7 @@
       </c>
       <c r="C206" s="10" t="e"/>
       <c r="D206" s="11" t="n">
-        <v>770</v>
+        <v>390</v>
       </c>
       <c r="E206" s="11" t="e"/>
     </row>
@@ -2858,7 +2852,7 @@
       </c>
       <c r="C207" s="10" t="e"/>
       <c r="D207" s="11" t="n">
-        <v>480</v>
+        <v>770</v>
       </c>
       <c r="E207" s="11" t="e"/>
     </row>
@@ -2868,7 +2862,7 @@
       </c>
       <c r="C208" s="10" t="e"/>
       <c r="D208" s="11" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E208" s="11" t="e"/>
     </row>
@@ -3027,23 +3021,23 @@
       </c>
       <c r="E224" s="12" t="e"/>
     </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
       <c r="B225" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C225" s="10" t="e"/>
-      <c r="D225" s="12" t="n">
-        <v>1890</v>
-      </c>
-      <c r="E225" s="12" t="e"/>
-    </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D225" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="E225" s="11" t="e"/>
+    </row>
+    <row r="226" ht="33" customHeight="true" outlineLevel="1">
       <c r="B226" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C226" s="10" t="e"/>
       <c r="D226" s="11" t="n">
-        <v>740</v>
+        <v>476</v>
       </c>
       <c r="E226" s="11" t="e"/>
     </row>
@@ -3053,32 +3047,12 @@
       </c>
       <c r="C227" s="10" t="e"/>
       <c r="D227" s="11" t="n">
-        <v>900</v>
+        <v>198</v>
       </c>
       <c r="E227" s="11" t="e"/>
     </row>
-    <row r="228" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B228" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C228" s="10" t="e"/>
-      <c r="D228" s="11" t="n">
-        <v>500</v>
-      </c>
-      <c r="E228" s="11" t="e"/>
-    </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B229" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C229" s="10" t="e"/>
-      <c r="D229" s="11" t="n">
-        <v>198</v>
-      </c>
-      <c r="E229" s="11" t="e"/>
-    </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="200">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -3128,7 +3102,7 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
@@ -3138,7 +3112,7 @@
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D71:E71"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
@@ -3152,7 +3126,7 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D86:E86"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
@@ -3163,14 +3137,14 @@
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
     <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
     <mergeCell ref="D111:E111"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="D113:E113"/>
@@ -3186,7 +3160,7 @@
     <mergeCell ref="D123:E123"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="D130:E130"/>
@@ -3196,7 +3170,7 @@
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
     <mergeCell ref="D139:E139"/>
     <mergeCell ref="D140:E140"/>
     <mergeCell ref="D141:E141"/>
@@ -3210,7 +3184,7 @@
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
     <mergeCell ref="D154:E154"/>
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="D157:E157"/>
@@ -3220,7 +3194,7 @@
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D162:E162"/>
     <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D164:E164"/>
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="D167:E167"/>
     <mergeCell ref="D168:E168"/>
@@ -3231,8 +3205,8 @@
     <mergeCell ref="D173:E173"/>
     <mergeCell ref="D174:E174"/>
     <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D178:E178"/>
     <mergeCell ref="D180:E180"/>
     <mergeCell ref="D181:E181"/>
     <mergeCell ref="D182:E182"/>
@@ -3241,7 +3215,7 @@
     <mergeCell ref="D185:E185"/>
     <mergeCell ref="D186:E186"/>
     <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D188:E188"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D191:E191"/>
     <mergeCell ref="D192:E192"/>
@@ -3279,8 +3253,6 @@
     <mergeCell ref="D225:E225"/>
     <mergeCell ref="D226:E226"/>
     <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D229:E229"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 24.01.23</t>
+    <t>Цены указаны на 26.01.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -88,9 +88,6 @@
     <t>Нити чили сушеные 400мл</t>
   </si>
   <si>
-    <t>Паста карри, зеленая, AROY- D, уп. 0,400 кг, Тайланд</t>
-  </si>
-  <si>
     <t>Паста Лакса AYAM 185г</t>
   </si>
   <si>
@@ -202,7 +199,7 @@
     <t>Картофель фри  10*10 "Фарм Фритес" 2,5кг</t>
   </si>
   <si>
-    <t>Картофель фри 12*12 Pommes Frites Lamb Weston Нидерланды</t>
+    <t>Картофельные дольки в кожуре со специями Bart`S Gourmet  (2,500кг) упак. Бельгия</t>
   </si>
   <si>
     <t>Картофельные дольки с кожурой, зам, 2.5кг Otomotiv TG San Ve Турция</t>
@@ -307,6 +304,9 @@
     <t>Креветка мелкая</t>
   </si>
   <si>
+    <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг.</t>
+  </si>
+  <si>
     <t>Креветка очищенная с хвостом (30/50) фас 0,5кг, 7% гл  Китай</t>
   </si>
   <si>
@@ -316,12 +316,6 @@
     <t>Креветка россыпь</t>
   </si>
   <si>
-    <t>Креветка 21/25 очищенная, фас 1 кг</t>
-  </si>
-  <si>
-    <t>Креветка с/м б/г 26/30 уп.1 кг Индия</t>
-  </si>
-  <si>
     <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
   </si>
   <si>
-    <t>Молоко кокосовое консерв.HOM-D, уп. 1л.</t>
-  </si>
-  <si>
     <t>Сливки Свежее завтра  34%, 1л,  Россия</t>
   </si>
   <si>
@@ -367,24 +358,15 @@
     <t>Куксу Пшеничная лапша 500 г 1/24 т.м. Оттоги</t>
   </si>
   <si>
-    <t>Куксу Пшеничная лапша 900 г 1/15 т.м. Оттоги</t>
-  </si>
-  <si>
     <t>Лапша гречневая Соба, уп. 300г. Китай</t>
   </si>
   <si>
     <t>Лапша пшеничная Удон, уп. 300г. Китай</t>
   </si>
   <si>
-    <t>Лапша Рамен яичная в брикетах 1кг</t>
-  </si>
-  <si>
     <t>Лапша Сомен, уп. 300г. Китай</t>
   </si>
   <si>
-    <t>Лапша Яичная Kekeshi, Китай, 0,3кг</t>
-  </si>
-  <si>
     <t>Макароны № 081 Феттучине "Дельверде" (0,250кг) кор. 12 шт.</t>
   </si>
   <si>
@@ -406,9 +388,6 @@
     <t>Мясо и полуфабрикаты</t>
   </si>
   <si>
-    <t>Бекон с/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
     <t>Бекон с/к зам. в/у, 500 гр. Аргус</t>
   </si>
   <si>
@@ -421,9 +400,6 @@
     <t>Колбаса Пепперони в/к "Пикантная"</t>
   </si>
   <si>
-    <t>Колбаса с/к "Пепперони" полусухая 500г, Таганский МК</t>
-  </si>
-  <si>
     <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
   </si>
   <si>
@@ -433,9 +409,6 @@
     <t>Палочки сырные "Моцарелла" в панировке 1кг, Фрост- А, Россия</t>
   </si>
   <si>
-    <t>Бекон Классический в/к 500гр, МК ЭКО</t>
-  </si>
-  <si>
     <t>Растения и грибы</t>
   </si>
   <si>
@@ -490,15 +463,15 @@
     <t>Рис IKIGAI 22.68 кг</t>
   </si>
   <si>
+    <t>Рис Премиум, красный мешок 25 кг, Китай</t>
+  </si>
+  <si>
     <t>Рис Фушигон, среднезерный, Китай, 1кг</t>
   </si>
   <si>
     <t>Рыба ПСГ, ПБГ, С/М</t>
   </si>
   <si>
-    <t>Дорадо н/р 300-400 Турция</t>
-  </si>
-  <si>
     <t>Корюшка н/р, дальневосточная</t>
   </si>
   <si>
@@ -637,9 +610,6 @@
     <t>Соус сладкий чили для курицы CHANG, Таиланд, 835г</t>
   </si>
   <si>
-    <t>Соус сырный HAINZ 1 кг</t>
-  </si>
-  <si>
     <t>Соус сырный, Россия, 1 кг</t>
   </si>
   <si>
@@ -703,10 +673,70 @@
     <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
   </si>
   <si>
+    <t>Сыр творожный Серволюкс Cream Nuvo «Professional», МДЖ 70%, емкость 2,2 кг</t>
+  </si>
+  <si>
     <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
   </si>
   <si>
     <t>Тофу натуральный, продукт белковый, 400г</t>
+  </si>
+  <si>
+    <t>Ягоды. Овощи. Заморозка</t>
+  </si>
+  <si>
+    <t>Гриб белый в нарезке (кубик), зам, 1кг</t>
+  </si>
+  <si>
+    <t>Овощи "Зеленый горошек" очищенный/ класс1/ 1кг</t>
+  </si>
+  <si>
+    <t>Овощи "Фасоль стручковая" резаная/ класс 1/ 1кг</t>
+  </si>
+  <si>
+    <t>Овощи "Шпинат резаный" / класс 1/ 1кг</t>
+  </si>
+  <si>
+    <t>Фрукты "Манго" нарезка- слайсы (Тайланд) 1 кг</t>
+  </si>
+  <si>
+    <t>Фрукты "Манго" слайсы (Вьетнам) 1кг</t>
+  </si>
+  <si>
+    <t>Фрукты "Манго" сорт Альфонсо, слайсы (Индия) 1кг</t>
+  </si>
+  <si>
+    <t>Ягодная смесь "Компотная №1" Фрост, 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Брусника" /класс 1/ Россия, 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Вишня" б/к класс 1/ Узбекистан, 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Клубника" /класс 1/ Египет, 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Клюква" дикая / класс1/ 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Малина" грис /класс 1/ 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Малина" целая / класс 1/ Россия, 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Малина" целая/ Экстра/ Россия, 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Облепиха" / класс1 / 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Черная смородина" /класс 1/ 1кг</t>
+  </si>
+  <si>
+    <t>Ягоды "Черника" /класс 1/ Китай, 1кг</t>
   </si>
 </sst>
 </file>
@@ -905,7 +935,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="E227"/>
+  <dimension ref="E237"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1091,23 +1121,23 @@
       </c>
       <c r="E20" s="11" t="e"/>
     </row>
-    <row r="21" ht="22" customHeight="true" outlineLevel="1">
+    <row r="21" ht="11" customHeight="true" outlineLevel="1">
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="10" t="e"/>
       <c r="D21" s="11" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="E21" s="11" t="e"/>
     </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+    <row r="22" ht="22" customHeight="true" outlineLevel="1">
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="10" t="e"/>
       <c r="D22" s="11" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="E22" s="11" t="e"/>
     </row>
@@ -1121,13 +1151,13 @@
       </c>
       <c r="E23" s="11" t="e"/>
     </row>
-    <row r="24" ht="22" customHeight="true" outlineLevel="1">
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
       <c r="B24" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="10" t="e"/>
       <c r="D24" s="11" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E24" s="11" t="e"/>
     </row>
@@ -1147,7 +1177,7 @@
       </c>
       <c r="C26" s="10" t="e"/>
       <c r="D26" s="11" t="n">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="E26" s="11" t="e"/>
     </row>
@@ -1157,7 +1187,7 @@
       </c>
       <c r="C27" s="10" t="e"/>
       <c r="D27" s="11" t="n">
-        <v>690</v>
+        <v>220</v>
       </c>
       <c r="E27" s="11" t="e"/>
     </row>
@@ -1171,13 +1201,13 @@
       </c>
       <c r="E28" s="11" t="e"/>
     </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+    <row r="29" ht="22" customHeight="true" outlineLevel="1">
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="10" t="e"/>
       <c r="D29" s="11" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E29" s="11" t="e"/>
     </row>
@@ -1187,7 +1217,7 @@
       </c>
       <c r="C30" s="10" t="e"/>
       <c r="D30" s="11" t="n">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="E30" s="11" t="e"/>
     </row>
@@ -1197,7 +1227,7 @@
       </c>
       <c r="C31" s="10" t="e"/>
       <c r="D31" s="11" t="n">
-        <v>510</v>
+        <v>220</v>
       </c>
       <c r="E31" s="11" t="e"/>
     </row>
@@ -1207,11 +1237,11 @@
       </c>
       <c r="C32" s="10" t="e"/>
       <c r="D32" s="11" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="E32" s="11" t="e"/>
     </row>
-    <row r="33" ht="22" customHeight="true" outlineLevel="1">
+    <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -1226,45 +1256,45 @@
         <v>34</v>
       </c>
       <c r="C34" s="10" t="e"/>
-      <c r="D34" s="11" t="n">
-        <v>600</v>
-      </c>
-      <c r="E34" s="11" t="e"/>
-    </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B35" s="10" t="s">
+      <c r="D34" s="12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E34" s="12" t="e"/>
+    </row>
+    <row r="35" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="10" t="e"/>
-      <c r="D35" s="12" t="n">
-        <v>1350</v>
-      </c>
-      <c r="E35" s="12" t="e"/>
-    </row>
-    <row r="36" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B36" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="C36" s="10" t="e"/>
+      <c r="D36" s="11" t="n">
+        <v>955</v>
+      </c>
+      <c r="E36" s="11" t="e"/>
     </row>
     <row r="37" ht="11" customHeight="true" outlineLevel="1">
       <c r="B37" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="10" t="e"/>
-      <c r="D37" s="11" t="n">
-        <v>955</v>
-      </c>
-      <c r="E37" s="11" t="e"/>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D37" s="12" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E37" s="12" t="e"/>
+    </row>
+    <row r="38" ht="22" customHeight="true" outlineLevel="1">
       <c r="B38" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="10" t="e"/>
-      <c r="D38" s="12" t="n">
-        <v>1295</v>
-      </c>
-      <c r="E38" s="12" t="e"/>
+      <c r="D38" s="11" t="n">
+        <v>550</v>
+      </c>
+      <c r="E38" s="11" t="e"/>
     </row>
     <row r="39" ht="22" customHeight="true" outlineLevel="1">
       <c r="B39" s="10" t="s">
@@ -1272,7 +1302,7 @@
       </c>
       <c r="C39" s="10" t="e"/>
       <c r="D39" s="11" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="E39" s="11" t="e"/>
     </row>
@@ -1282,7 +1312,7 @@
       </c>
       <c r="C40" s="10" t="e"/>
       <c r="D40" s="11" t="n">
-        <v>350</v>
+        <v>528</v>
       </c>
       <c r="E40" s="11" t="e"/>
     </row>
@@ -1292,24 +1322,24 @@
       </c>
       <c r="C41" s="10" t="e"/>
       <c r="D41" s="11" t="n">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="E41" s="11" t="e"/>
     </row>
-    <row r="42" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B42" s="10" t="s">
+    <row r="42" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="10" t="e"/>
-      <c r="D42" s="11" t="n">
-        <v>500</v>
-      </c>
-      <c r="E42" s="11" t="e"/>
-    </row>
-    <row r="43" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B43" s="9" t="s">
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B43" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="C43" s="10" t="e"/>
+      <c r="D43" s="11" t="n">
+        <v>144</v>
+      </c>
+      <c r="E43" s="11" t="e"/>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="B44" s="10" t="s">
@@ -1317,7 +1347,7 @@
       </c>
       <c r="C44" s="10" t="e"/>
       <c r="D44" s="11" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="11" t="e"/>
     </row>
@@ -1327,32 +1357,32 @@
       </c>
       <c r="C45" s="10" t="e"/>
       <c r="D45" s="11" t="n">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="E45" s="11" t="e"/>
     </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B46" s="10" t="s">
+    <row r="46" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="10" t="e"/>
-      <c r="D46" s="11" t="n">
-        <v>220</v>
-      </c>
-      <c r="E46" s="11" t="e"/>
-    </row>
-    <row r="47" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B47" s="9" t="s">
+    </row>
+    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B47" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C47" s="10" t="e"/>
+      <c r="D47" s="11" t="n">
+        <v>130</v>
+      </c>
+      <c r="E47" s="11" t="e"/>
+    </row>
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
       <c r="B48" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="10" t="e"/>
       <c r="D48" s="11" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E48" s="11" t="e"/>
     </row>
@@ -1362,24 +1392,24 @@
       </c>
       <c r="C49" s="10" t="e"/>
       <c r="D49" s="11" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E49" s="11" t="e"/>
     </row>
-    <row r="50" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B50" s="10" t="s">
+    <row r="50" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="10" t="e"/>
-      <c r="D50" s="11" t="n">
-        <v>110</v>
-      </c>
-      <c r="E50" s="11" t="e"/>
-    </row>
-    <row r="51" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B51" s="9" t="s">
+    </row>
+    <row r="51" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B51" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="C51" s="10" t="e"/>
+      <c r="D51" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="E51" s="11" t="e"/>
     </row>
     <row r="52" ht="22" customHeight="true" outlineLevel="1">
       <c r="B52" s="10" t="s">
@@ -1397,7 +1427,7 @@
       </c>
       <c r="C53" s="10" t="e"/>
       <c r="D53" s="11" t="n">
-        <v>760</v>
+        <v>590</v>
       </c>
       <c r="E53" s="11" t="e"/>
     </row>
@@ -1421,28 +1451,28 @@
       </c>
       <c r="E55" s="11" t="e"/>
     </row>
-    <row r="56" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B56" s="10" t="s">
+    <row r="56" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="10" t="e"/>
-      <c r="D56" s="11" t="n">
-        <v>590</v>
-      </c>
-      <c r="E56" s="11" t="e"/>
-    </row>
-    <row r="57" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B57" s="9" t="s">
+    </row>
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B57" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C57" s="10" t="e"/>
+      <c r="D57" s="11" t="n">
+        <v>820</v>
+      </c>
+      <c r="E57" s="11" t="e"/>
+    </row>
+    <row r="58" ht="33" customHeight="true" outlineLevel="1">
       <c r="B58" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="10" t="e"/>
       <c r="D58" s="11" t="n">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="E58" s="11" t="e"/>
     </row>
@@ -1452,24 +1482,24 @@
       </c>
       <c r="C59" s="10" t="e"/>
       <c r="D59" s="11" t="n">
-        <v>584</v>
+        <v>680</v>
       </c>
       <c r="E59" s="11" t="e"/>
     </row>
-    <row r="60" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B60" s="10" t="s">
+    <row r="60" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="10" t="e"/>
-      <c r="D60" s="11" t="n">
-        <v>680</v>
-      </c>
-      <c r="E60" s="11" t="e"/>
-    </row>
-    <row r="61" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B61" s="9" t="s">
+    </row>
+    <row r="61" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B61" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="C61" s="10" t="e"/>
+      <c r="D61" s="11" t="n">
+        <v>170</v>
+      </c>
+      <c r="E61" s="11" t="e"/>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
       <c r="B62" s="10" t="s">
@@ -1477,7 +1507,7 @@
       </c>
       <c r="C62" s="10" t="e"/>
       <c r="D62" s="11" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E62" s="11" t="e"/>
     </row>
@@ -1487,7 +1517,7 @@
       </c>
       <c r="C63" s="10" t="e"/>
       <c r="D63" s="11" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E63" s="11" t="e"/>
     </row>
@@ -1497,7 +1527,7 @@
       </c>
       <c r="C64" s="10" t="e"/>
       <c r="D64" s="11" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="E64" s="11" t="e"/>
     </row>
@@ -1507,7 +1537,7 @@
       </c>
       <c r="C65" s="10" t="e"/>
       <c r="D65" s="11" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="E65" s="11" t="e"/>
     </row>
@@ -1517,7 +1547,7 @@
       </c>
       <c r="C66" s="10" t="e"/>
       <c r="D66" s="11" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="E66" s="11" t="e"/>
     </row>
@@ -1527,7 +1557,7 @@
       </c>
       <c r="C67" s="10" t="e"/>
       <c r="D67" s="11" t="n">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="E67" s="11" t="e"/>
     </row>
@@ -1547,7 +1577,7 @@
       </c>
       <c r="C69" s="10" t="e"/>
       <c r="D69" s="11" t="n">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E69" s="11" t="e"/>
     </row>
@@ -1557,62 +1587,62 @@
       </c>
       <c r="C70" s="10" t="e"/>
       <c r="D70" s="11" t="n">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="E70" s="11" t="e"/>
     </row>
-    <row r="71" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B71" s="10" t="s">
+    <row r="71" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B71" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="10" t="e"/>
-      <c r="D71" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="E71" s="11" t="e"/>
-    </row>
-    <row r="72" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B72" s="9" t="s">
+    </row>
+    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="C72" s="10" t="e"/>
+      <c r="D72" s="12" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E72" s="12" t="e"/>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="10" t="e"/>
-      <c r="D73" s="12" t="n">
-        <v>1600</v>
-      </c>
-      <c r="E73" s="12" t="e"/>
-    </row>
-    <row r="74" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D73" s="11" t="n">
+        <v>480</v>
+      </c>
+      <c r="E73" s="11" t="e"/>
+    </row>
+    <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="B74" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="10" t="e"/>
       <c r="D74" s="11" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E74" s="11" t="e"/>
     </row>
-    <row r="75" ht="11" customHeight="true" outlineLevel="1">
+    <row r="75" ht="22" customHeight="true" outlineLevel="1">
       <c r="B75" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="10" t="e"/>
       <c r="D75" s="11" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E75" s="11" t="e"/>
     </row>
-    <row r="76" ht="22" customHeight="true" outlineLevel="1">
+    <row r="76" ht="11" customHeight="true" outlineLevel="1">
       <c r="B76" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="10" t="e"/>
       <c r="D76" s="11" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E76" s="11" t="e"/>
     </row>
@@ -1621,28 +1651,28 @@
         <v>77</v>
       </c>
       <c r="C77" s="10" t="e"/>
-      <c r="D77" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="E77" s="11" t="e"/>
-    </row>
-    <row r="78" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D77" s="12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="E77" s="12" t="e"/>
+    </row>
+    <row r="78" ht="33" customHeight="true" outlineLevel="1">
       <c r="B78" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="10" t="e"/>
-      <c r="D78" s="12" t="n">
-        <v>2600</v>
-      </c>
-      <c r="E78" s="12" t="e"/>
-    </row>
-    <row r="79" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D78" s="11" t="n">
+        <v>290</v>
+      </c>
+      <c r="E78" s="11" t="e"/>
+    </row>
+    <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="B79" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="10" t="e"/>
       <c r="D79" s="11" t="n">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="E79" s="11" t="e"/>
     </row>
@@ -1651,20 +1681,20 @@
         <v>80</v>
       </c>
       <c r="C80" s="10" t="e"/>
-      <c r="D80" s="11" t="n">
-        <v>395</v>
-      </c>
-      <c r="E80" s="11" t="e"/>
-    </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D80" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E80" s="12" t="e"/>
+    </row>
+    <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="10" t="e"/>
-      <c r="D81" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E81" s="12" t="e"/>
+      <c r="D81" s="11" t="n">
+        <v>560</v>
+      </c>
+      <c r="E81" s="11" t="e"/>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
       <c r="B82" s="10" t="s">
@@ -1672,27 +1702,27 @@
       </c>
       <c r="C82" s="10" t="e"/>
       <c r="D82" s="11" t="n">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="E82" s="11" t="e"/>
     </row>
-    <row r="83" ht="22" customHeight="true" outlineLevel="1">
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="B83" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="10" t="e"/>
-      <c r="D83" s="11" t="n">
-        <v>210</v>
-      </c>
-      <c r="E83" s="11" t="e"/>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D83" s="12" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="12" t="e"/>
+    </row>
+    <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="10" t="e"/>
       <c r="D84" s="12" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="E84" s="12" t="e"/>
     </row>
@@ -1702,32 +1732,32 @@
       </c>
       <c r="C85" s="10" t="e"/>
       <c r="D85" s="12" t="n">
-        <v>2100</v>
+        <v>5100</v>
       </c>
       <c r="E85" s="12" t="e"/>
     </row>
-    <row r="86" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B86" s="10" t="s">
+    <row r="86" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B86" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="10" t="e"/>
-      <c r="D86" s="12" t="n">
-        <v>5100</v>
-      </c>
-      <c r="E86" s="12" t="e"/>
-    </row>
-    <row r="87" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B87" s="9" t="s">
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B87" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C87" s="10" t="e"/>
+      <c r="D87" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="E87" s="11" t="e"/>
+    </row>
+    <row r="88" ht="22" customHeight="true" outlineLevel="1">
       <c r="B88" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="10" t="e"/>
       <c r="D88" s="11" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="E88" s="11" t="e"/>
     </row>
@@ -1737,7 +1767,7 @@
       </c>
       <c r="C89" s="10" t="e"/>
       <c r="D89" s="11" t="n">
-        <v>990</v>
+        <v>930</v>
       </c>
       <c r="E89" s="11" t="e"/>
     </row>
@@ -1747,7 +1777,7 @@
       </c>
       <c r="C90" s="10" t="e"/>
       <c r="D90" s="11" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="E90" s="11" t="e"/>
     </row>
@@ -1757,24 +1787,24 @@
       </c>
       <c r="C91" s="10" t="e"/>
       <c r="D91" s="11" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="E91" s="11" t="e"/>
     </row>
-    <row r="92" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B92" s="10" t="s">
+    <row r="92" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B92" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="10" t="e"/>
-      <c r="D92" s="11" t="n">
-        <v>900</v>
-      </c>
-      <c r="E92" s="11" t="e"/>
-    </row>
-    <row r="93" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B93" s="9" t="s">
+    </row>
+    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B93" s="10" t="s">
         <v>93</v>
       </c>
+      <c r="C93" s="10" t="e"/>
+      <c r="D93" s="11" t="n">
+        <v>958</v>
+      </c>
+      <c r="E93" s="11" t="e"/>
     </row>
     <row r="94" ht="22" customHeight="true" outlineLevel="1">
       <c r="B94" s="10" t="s">
@@ -1801,65 +1831,65 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+    <row r="97" ht="22" customHeight="true" outlineLevel="1">
       <c r="B97" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="10" t="e"/>
       <c r="D97" s="11" t="n">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E97" s="11" t="e"/>
     </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B98" s="10" t="s">
+    <row r="98" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B98" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="10" t="e"/>
-      <c r="D98" s="11" t="n">
-        <v>900</v>
-      </c>
-      <c r="E98" s="11" t="e"/>
-    </row>
-    <row r="99" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="B99" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="10" t="e"/>
       <c r="D99" s="11" t="n">
-        <v>940</v>
+        <v>225</v>
       </c>
       <c r="E99" s="11" t="e"/>
     </row>
-    <row r="100" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B100" s="9" t="s">
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B100" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B101" s="10" t="s">
+      <c r="C100" s="10" t="e"/>
+      <c r="D100" s="11" t="n">
+        <v>680</v>
+      </c>
+      <c r="E100" s="11" t="e"/>
+    </row>
+    <row r="101" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B101" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="10" t="e"/>
-      <c r="D101" s="11" t="n">
-        <v>225</v>
-      </c>
-      <c r="E101" s="11" t="e"/>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
       <c r="B102" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C102" s="10" t="e"/>
       <c r="D102" s="11" t="n">
-        <v>680</v>
+        <v>180</v>
       </c>
       <c r="E102" s="11" t="e"/>
     </row>
-    <row r="103" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B103" s="9" t="s">
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B103" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="C103" s="10" t="e"/>
+      <c r="D103" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="E103" s="11" t="e"/>
     </row>
     <row r="104" ht="22" customHeight="true" outlineLevel="1">
       <c r="B104" s="10" t="s">
@@ -1867,37 +1897,32 @@
       </c>
       <c r="C104" s="10" t="e"/>
       <c r="D104" s="11" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="E104" s="11" t="e"/>
     </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+    <row r="105" ht="22" customHeight="true" outlineLevel="1">
       <c r="B105" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C105" s="10" t="e"/>
       <c r="D105" s="11" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="E105" s="11" t="e"/>
     </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B106" s="10" t="s">
+    <row r="106" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B106" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="10" t="e"/>
-      <c r="D106" s="11" t="n">
-        <v>210</v>
-      </c>
-      <c r="E106" s="11" t="e"/>
-    </row>
-    <row r="107" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="B107" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C107" s="10" t="e"/>
       <c r="D107" s="11" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E107" s="11" t="e"/>
     </row>
@@ -1907,52 +1932,57 @@
       </c>
       <c r="C108" s="10" t="e"/>
       <c r="D108" s="11" t="n">
-        <v>470</v>
+        <v>205</v>
       </c>
       <c r="E108" s="11" t="e"/>
     </row>
-    <row r="109" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B109" s="9" t="s">
+    <row r="109" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B109" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C109" s="10" t="e"/>
+      <c r="D109" s="11" t="n">
+        <v>230</v>
+      </c>
+      <c r="E109" s="11" t="e"/>
+    </row>
+    <row r="110" ht="22" customHeight="true" outlineLevel="1">
       <c r="B110" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C110" s="10" t="e"/>
       <c r="D110" s="11" t="n">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="E110" s="11" t="e"/>
     </row>
-    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="B111" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C111" s="10" t="e"/>
       <c r="D111" s="11" t="n">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="E111" s="11" t="e"/>
     </row>
-    <row r="112" ht="22" customHeight="true" outlineLevel="1">
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="B112" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="10" t="e"/>
       <c r="D112" s="11" t="n">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="E112" s="11" t="e"/>
     </row>
-    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="10" t="e"/>
       <c r="D113" s="11" t="n">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E113" s="11" t="e"/>
     </row>
@@ -1962,17 +1992,17 @@
       </c>
       <c r="C114" s="10" t="e"/>
       <c r="D114" s="11" t="n">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="E114" s="11" t="e"/>
     </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C115" s="10" t="e"/>
       <c r="D115" s="11" t="n">
-        <v>60</v>
+        <v>836</v>
       </c>
       <c r="E115" s="11" t="e"/>
     </row>
@@ -1982,57 +2012,52 @@
       </c>
       <c r="C116" s="10" t="e"/>
       <c r="D116" s="11" t="n">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E116" s="11" t="e"/>
     </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+    <row r="117" ht="33" customHeight="true" outlineLevel="1">
       <c r="B117" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C117" s="10" t="e"/>
       <c r="D117" s="11" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E117" s="11" t="e"/>
     </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+    <row r="118" ht="22" customHeight="true" outlineLevel="1">
       <c r="B118" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C118" s="10" t="e"/>
       <c r="D118" s="11" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="E118" s="11" t="e"/>
     </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+    <row r="119" ht="22" customHeight="true" outlineLevel="1">
       <c r="B119" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C119" s="10" t="e"/>
       <c r="D119" s="11" t="n">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="E119" s="11" t="e"/>
     </row>
-    <row r="120" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B120" s="10" t="s">
+    <row r="120" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B120" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="10" t="e"/>
-      <c r="D120" s="11" t="n">
-        <v>127</v>
-      </c>
-      <c r="E120" s="11" t="e"/>
-    </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="B121" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="10" t="e"/>
       <c r="D121" s="11" t="n">
-        <v>836</v>
+        <v>275</v>
       </c>
       <c r="E121" s="11" t="e"/>
     </row>
@@ -2042,7 +2067,7 @@
       </c>
       <c r="C122" s="10" t="e"/>
       <c r="D122" s="11" t="n">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="E122" s="11" t="e"/>
     </row>
@@ -2052,112 +2077,112 @@
       </c>
       <c r="C123" s="10" t="e"/>
       <c r="D123" s="11" t="n">
-        <v>270</v>
+        <v>916</v>
       </c>
       <c r="E123" s="11" t="e"/>
     </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="B124" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C124" s="10" t="e"/>
       <c r="D124" s="11" t="n">
-        <v>175</v>
+        <v>518</v>
       </c>
       <c r="E124" s="11" t="e"/>
     </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+    <row r="125" ht="33" customHeight="true" outlineLevel="1">
       <c r="B125" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C125" s="10" t="e"/>
-      <c r="D125" s="11" t="n">
-        <v>163</v>
-      </c>
-      <c r="E125" s="11" t="e"/>
-    </row>
-    <row r="126" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B126" s="9" t="s">
+      <c r="D125" s="12" t="n">
+        <v>1210</v>
+      </c>
+      <c r="E125" s="12" t="e"/>
+    </row>
+    <row r="126" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B126" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C126" s="10" t="e"/>
+      <c r="D126" s="11" t="n">
+        <v>780</v>
+      </c>
+      <c r="E126" s="11" t="e"/>
+    </row>
+    <row r="127" ht="22" customHeight="true" outlineLevel="1">
       <c r="B127" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C127" s="10" t="e"/>
       <c r="D127" s="11" t="n">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="E127" s="11" t="e"/>
     </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B128" s="10" t="s">
+    <row r="128" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B128" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="10" t="e"/>
-      <c r="D128" s="11" t="n">
-        <v>275</v>
-      </c>
-      <c r="E128" s="11" t="e"/>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C129" s="10" t="e"/>
       <c r="D129" s="11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="E129" s="11" t="e"/>
     </row>
-    <row r="130" ht="33" customHeight="true" outlineLevel="1">
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C130" s="10" t="e"/>
-      <c r="D130" s="11" t="n">
-        <v>916</v>
-      </c>
-      <c r="E130" s="11" t="e"/>
-    </row>
-    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D130" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E130" s="12" t="e"/>
+    </row>
+    <row r="131" ht="22" customHeight="true" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C131" s="10" t="e"/>
       <c r="D131" s="11" t="n">
-        <v>518</v>
+        <v>170</v>
       </c>
       <c r="E131" s="11" t="e"/>
     </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="B132" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C132" s="10" t="e"/>
       <c r="D132" s="11" t="n">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="E132" s="11" t="e"/>
     </row>
-    <row r="133" ht="33" customHeight="true" outlineLevel="1">
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="B133" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="10" t="e"/>
-      <c r="D133" s="12" t="n">
-        <v>1210</v>
-      </c>
-      <c r="E133" s="12" t="e"/>
-    </row>
-    <row r="134" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D133" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="E133" s="11" t="e"/>
+    </row>
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="10" t="e"/>
       <c r="D134" s="11" t="n">
-        <v>780</v>
+        <v>360</v>
       </c>
       <c r="E134" s="11" t="e"/>
     </row>
@@ -2167,44 +2192,49 @@
       </c>
       <c r="C135" s="10" t="e"/>
       <c r="D135" s="11" t="n">
-        <v>635</v>
+        <v>370</v>
       </c>
       <c r="E135" s="11" t="e"/>
     </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+    <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C136" s="10" t="e"/>
       <c r="D136" s="11" t="n">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="E136" s="11" t="e"/>
     </row>
-    <row r="137" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B137" s="9" t="s">
+    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B137" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C137" s="10" t="e"/>
+      <c r="D137" s="11" t="n">
+        <v>570</v>
+      </c>
+      <c r="E137" s="11" t="e"/>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="B138" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C138" s="10" t="e"/>
       <c r="D138" s="11" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="E138" s="11" t="e"/>
     </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C139" s="10" t="e"/>
-      <c r="D139" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E139" s="12" t="e"/>
+      <c r="D139" s="11" t="n">
+        <v>694</v>
+      </c>
+      <c r="E139" s="11" t="e"/>
     </row>
     <row r="140" ht="22" customHeight="true" outlineLevel="1">
       <c r="B140" s="10" t="s">
@@ -2212,7 +2242,7 @@
       </c>
       <c r="C140" s="10" t="e"/>
       <c r="D140" s="11" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E140" s="11" t="e"/>
     </row>
@@ -2222,57 +2252,52 @@
       </c>
       <c r="C141" s="10" t="e"/>
       <c r="D141" s="11" t="n">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="E141" s="11" t="e"/>
     </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+    <row r="142" ht="22" customHeight="true" outlineLevel="1">
       <c r="B142" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C142" s="10" t="e"/>
       <c r="D142" s="11" t="n">
-        <v>360</v>
+        <v>190</v>
       </c>
       <c r="E142" s="11" t="e"/>
     </row>
-    <row r="143" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B143" s="10" t="s">
+    <row r="143" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B143" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="10" t="e"/>
-      <c r="D143" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="E143" s="11" t="e"/>
-    </row>
-    <row r="144" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
       <c r="B144" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C144" s="10" t="e"/>
       <c r="D144" s="11" t="n">
-        <v>370</v>
+        <v>88</v>
       </c>
       <c r="E144" s="11" t="e"/>
     </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C145" s="10" t="e"/>
-      <c r="D145" s="11" t="n">
-        <v>220</v>
-      </c>
-      <c r="E145" s="11" t="e"/>
-    </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D145" s="12" t="n">
+        <v>3350</v>
+      </c>
+      <c r="E145" s="12" t="e"/>
+    </row>
+    <row r="146" ht="22" customHeight="true" outlineLevel="1">
       <c r="B146" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="10" t="e"/>
       <c r="D146" s="11" t="n">
-        <v>570</v>
+        <v>88</v>
       </c>
       <c r="E146" s="11" t="e"/>
     </row>
@@ -2282,27 +2307,22 @@
       </c>
       <c r="C147" s="10" t="e"/>
       <c r="D147" s="11" t="n">
-        <v>680</v>
+        <v>110</v>
       </c>
       <c r="E147" s="11" t="e"/>
     </row>
-    <row r="148" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B148" s="10" t="s">
+    <row r="148" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B148" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="10" t="e"/>
-      <c r="D148" s="11" t="n">
-        <v>694</v>
-      </c>
-      <c r="E148" s="11" t="e"/>
-    </row>
-    <row r="149" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="B149" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C149" s="10" t="e"/>
       <c r="D149" s="11" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="E149" s="11" t="e"/>
     </row>
@@ -2311,25 +2331,30 @@
         <v>150</v>
       </c>
       <c r="C150" s="10" t="e"/>
-      <c r="D150" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="E150" s="11" t="e"/>
-    </row>
-    <row r="151" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D150" s="12" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E150" s="12" t="e"/>
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C151" s="10" t="e"/>
       <c r="D151" s="11" t="n">
-        <v>190</v>
+        <v>860</v>
       </c>
       <c r="E151" s="11" t="e"/>
     </row>
-    <row r="152" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B152" s="9" t="s">
+    <row r="152" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B152" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="C152" s="10" t="e"/>
+      <c r="D152" s="12" t="n">
+        <v>1126</v>
+      </c>
+      <c r="E152" s="12" t="e"/>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="10" t="s">
@@ -2337,7 +2362,7 @@
       </c>
       <c r="C153" s="10" t="e"/>
       <c r="D153" s="11" t="n">
-        <v>88</v>
+        <v>650</v>
       </c>
       <c r="E153" s="11" t="e"/>
     </row>
@@ -2347,7 +2372,7 @@
       </c>
       <c r="C154" s="10" t="e"/>
       <c r="D154" s="12" t="n">
-        <v>3350</v>
+        <v>1250</v>
       </c>
       <c r="E154" s="12" t="e"/>
     </row>
@@ -2356,23 +2381,23 @@
         <v>155</v>
       </c>
       <c r="C155" s="10" t="e"/>
-      <c r="D155" s="11" t="n">
-        <v>110</v>
-      </c>
-      <c r="E155" s="11" t="e"/>
+      <c r="D155" s="12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E155" s="12" t="e"/>
     </row>
     <row r="156" ht="16" customHeight="true" s="8" customFormat="true">
       <c r="B156" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+    <row r="157" ht="22" customHeight="true" outlineLevel="1">
       <c r="B157" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C157" s="10" t="e"/>
       <c r="D157" s="11" t="n">
-        <v>640</v>
+        <v>950</v>
       </c>
       <c r="E157" s="11" t="e"/>
     </row>
@@ -2382,17 +2407,17 @@
       </c>
       <c r="C158" s="10" t="e"/>
       <c r="D158" s="11" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="E158" s="11" t="e"/>
     </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+    <row r="159" ht="22" customHeight="true" outlineLevel="1">
       <c r="B159" s="10" t="s">
         <v>159</v>
       </c>
       <c r="C159" s="10" t="e"/>
       <c r="D159" s="12" t="n">
-        <v>1160</v>
+        <v>1480</v>
       </c>
       <c r="E159" s="12" t="e"/>
     </row>
@@ -2402,104 +2427,99 @@
       </c>
       <c r="C160" s="10" t="e"/>
       <c r="D160" s="11" t="n">
-        <v>860</v>
+        <v>280</v>
       </c>
       <c r="E160" s="11" t="e"/>
     </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+    <row r="161" ht="22" customHeight="true" outlineLevel="1">
       <c r="B161" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C161" s="10" t="e"/>
-      <c r="D161" s="12" t="n">
-        <v>1210</v>
-      </c>
-      <c r="E161" s="12" t="e"/>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D161" s="11" t="n">
+        <v>990</v>
+      </c>
+      <c r="E161" s="11" t="e"/>
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C162" s="10" t="e"/>
-      <c r="D162" s="11" t="n">
-        <v>650</v>
-      </c>
-      <c r="E162" s="11" t="e"/>
-    </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D162" s="12" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E162" s="12" t="e"/>
+    </row>
+    <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="10" t="s">
         <v>163</v>
       </c>
       <c r="C163" s="10" t="e"/>
       <c r="D163" s="12" t="n">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="E163" s="12" t="e"/>
     </row>
-    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+    <row r="164" ht="22" customHeight="true" outlineLevel="1">
       <c r="B164" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C164" s="10" t="e"/>
-      <c r="D164" s="12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E164" s="12" t="e"/>
-    </row>
-    <row r="165" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B165" s="9" t="s">
+      <c r="D164" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="E164" s="11" t="e"/>
+    </row>
+    <row r="165" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B165" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="C165" s="10" t="e"/>
+      <c r="D165" s="11" t="n">
+        <v>690</v>
+      </c>
+      <c r="E165" s="11" t="e"/>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
       <c r="B166" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C166" s="10" t="e"/>
-      <c r="D166" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="E166" s="11" t="e"/>
-    </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D166" s="12" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E166" s="12" t="e"/>
+    </row>
+    <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C167" s="10" t="e"/>
-      <c r="D167" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="E167" s="11" t="e"/>
-    </row>
-    <row r="168" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B168" s="10" t="s">
+      <c r="D167" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="E167" s="12" t="e"/>
+    </row>
+    <row r="168" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B168" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C168" s="10" t="e"/>
-      <c r="D168" s="12" t="n">
-        <v>1480</v>
-      </c>
-      <c r="E168" s="12" t="e"/>
-    </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="169" ht="22" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="10" t="e"/>
-      <c r="D169" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="E169" s="11" t="e"/>
-    </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B170" s="10" t="s">
+      <c r="D169" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E169" s="12" t="e"/>
+    </row>
+    <row r="170" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B170" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C170" s="10" t="e"/>
-      <c r="D170" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="E170" s="11" t="e"/>
     </row>
     <row r="171" ht="22" customHeight="true" outlineLevel="1">
       <c r="B171" s="10" t="s">
@@ -2507,64 +2527,69 @@
       </c>
       <c r="C171" s="10" t="e"/>
       <c r="D171" s="12" t="n">
-        <v>1380</v>
+        <v>1820</v>
       </c>
       <c r="E171" s="12" t="e"/>
     </row>
-    <row r="172" ht="22" customHeight="true" outlineLevel="1">
+    <row r="172" ht="11" customHeight="true" outlineLevel="1">
       <c r="B172" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C172" s="10" t="e"/>
-      <c r="D172" s="12" t="n">
-        <v>1260</v>
-      </c>
-      <c r="E172" s="12" t="e"/>
-    </row>
-    <row r="173" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D172" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="E172" s="11" t="e"/>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="1">
       <c r="B173" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C173" s="10" t="e"/>
-      <c r="D173" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="E173" s="11" t="e"/>
+      <c r="D173" s="12" t="n">
+        <v>1670</v>
+      </c>
+      <c r="E173" s="12" t="e"/>
     </row>
     <row r="174" ht="22" customHeight="true" outlineLevel="1">
       <c r="B174" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C174" s="10" t="e"/>
-      <c r="D174" s="11" t="n">
-        <v>690</v>
-      </c>
-      <c r="E174" s="11" t="e"/>
-    </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D174" s="12" t="n">
+        <v>3790</v>
+      </c>
+      <c r="E174" s="12" t="e"/>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="B175" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C175" s="10" t="e"/>
       <c r="D175" s="12" t="n">
-        <v>1550</v>
+        <v>3090</v>
       </c>
       <c r="E175" s="12" t="e"/>
     </row>
-    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+    <row r="176" ht="11" customHeight="true" outlineLevel="1">
       <c r="B176" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C176" s="10" t="e"/>
       <c r="D176" s="12" t="n">
-        <v>1430</v>
+        <v>1700</v>
       </c>
       <c r="E176" s="12" t="e"/>
     </row>
-    <row r="177" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B177" s="9" t="s">
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B177" s="10" t="s">
         <v>177</v>
       </c>
+      <c r="C177" s="10" t="e"/>
+      <c r="D177" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E177" s="12" t="e"/>
     </row>
     <row r="178" ht="22" customHeight="true" outlineLevel="1">
       <c r="B178" s="10" t="s">
@@ -2572,42 +2597,42 @@
       </c>
       <c r="C178" s="10" t="e"/>
       <c r="D178" s="12" t="n">
-        <v>1660</v>
+        <v>2900</v>
       </c>
       <c r="E178" s="12" t="e"/>
     </row>
-    <row r="179" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B179" s="9" t="s">
+    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B179" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B180" s="10" t="s">
+      <c r="C179" s="10" t="e"/>
+      <c r="D179" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E179" s="12" t="e"/>
+    </row>
+    <row r="180" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B180" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C180" s="10" t="e"/>
-      <c r="D180" s="12" t="n">
-        <v>1820</v>
-      </c>
-      <c r="E180" s="12" t="e"/>
-    </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
       <c r="B181" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C181" s="10" t="e"/>
-      <c r="D181" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="E181" s="11" t="e"/>
-    </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D181" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="E181" s="12" t="e"/>
+    </row>
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
       <c r="B182" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C182" s="10" t="e"/>
       <c r="D182" s="12" t="n">
-        <v>1670</v>
+        <v>1350</v>
       </c>
       <c r="E182" s="12" t="e"/>
     </row>
@@ -2617,27 +2642,27 @@
       </c>
       <c r="C183" s="10" t="e"/>
       <c r="D183" s="12" t="n">
-        <v>3790</v>
+        <v>1560</v>
       </c>
       <c r="E183" s="12" t="e"/>
     </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C184" s="10" t="e"/>
       <c r="D184" s="12" t="n">
-        <v>3090</v>
+        <v>1220</v>
       </c>
       <c r="E184" s="12" t="e"/>
     </row>
-    <row r="185" ht="11" customHeight="true" outlineLevel="1">
+    <row r="185" ht="22" customHeight="true" outlineLevel="1">
       <c r="B185" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C185" s="10" t="e"/>
       <c r="D185" s="12" t="n">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="E185" s="12" t="e"/>
     </row>
@@ -2647,17 +2672,17 @@
       </c>
       <c r="C186" s="10" t="e"/>
       <c r="D186" s="12" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="E186" s="12" t="e"/>
     </row>
-    <row r="187" ht="22" customHeight="true" outlineLevel="1">
+    <row r="187" ht="11" customHeight="true" outlineLevel="1">
       <c r="B187" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C187" s="10" t="e"/>
       <c r="D187" s="12" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="E187" s="12" t="e"/>
     </row>
@@ -2666,25 +2691,30 @@
         <v>188</v>
       </c>
       <c r="C188" s="10" t="e"/>
-      <c r="D188" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E188" s="12" t="e"/>
-    </row>
-    <row r="189" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B189" s="9" t="s">
+      <c r="D188" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E188" s="11" t="e"/>
+    </row>
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B189" s="10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C189" s="10" t="e"/>
+      <c r="D189" s="11" t="n">
+        <v>838</v>
+      </c>
+      <c r="E189" s="11" t="e"/>
+    </row>
+    <row r="190" ht="11" customHeight="true" outlineLevel="1">
       <c r="B190" s="10" t="s">
         <v>190</v>
       </c>
       <c r="C190" s="10" t="e"/>
-      <c r="D190" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="E190" s="12" t="e"/>
+      <c r="D190" s="11" t="n">
+        <v>800</v>
+      </c>
+      <c r="E190" s="11" t="e"/>
     </row>
     <row r="191" ht="22" customHeight="true" outlineLevel="1">
       <c r="B191" s="10" t="s">
@@ -2692,59 +2722,59 @@
       </c>
       <c r="C191" s="10" t="e"/>
       <c r="D191" s="12" t="n">
-        <v>1350</v>
+        <v>1430</v>
       </c>
       <c r="E191" s="12" t="e"/>
     </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+    <row r="192" ht="11" customHeight="true" outlineLevel="1">
       <c r="B192" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C192" s="10" t="e"/>
-      <c r="D192" s="12" t="n">
-        <v>1560</v>
-      </c>
-      <c r="E192" s="12" t="e"/>
+      <c r="D192" s="11" t="n">
+        <v>815</v>
+      </c>
+      <c r="E192" s="11" t="e"/>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
       <c r="B193" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C193" s="10" t="e"/>
-      <c r="D193" s="12" t="n">
-        <v>1220</v>
-      </c>
-      <c r="E193" s="12" t="e"/>
+      <c r="D193" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="E193" s="11" t="e"/>
     </row>
     <row r="194" ht="22" customHeight="true" outlineLevel="1">
       <c r="B194" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C194" s="10" t="e"/>
-      <c r="D194" s="12" t="n">
-        <v>1620</v>
-      </c>
-      <c r="E194" s="12" t="e"/>
+      <c r="D194" s="11" t="n">
+        <v>220</v>
+      </c>
+      <c r="E194" s="11" t="e"/>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C195" s="10" t="e"/>
-      <c r="D195" s="12" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E195" s="12" t="e"/>
+      <c r="D195" s="11" t="n">
+        <v>320</v>
+      </c>
+      <c r="E195" s="11" t="e"/>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C196" s="10" t="e"/>
-      <c r="D196" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E196" s="12" t="e"/>
+      <c r="D196" s="11" t="n">
+        <v>390</v>
+      </c>
+      <c r="E196" s="11" t="e"/>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="10" t="s">
@@ -2752,7 +2782,7 @@
       </c>
       <c r="C197" s="10" t="e"/>
       <c r="D197" s="11" t="n">
-        <v>300</v>
+        <v>770</v>
       </c>
       <c r="E197" s="11" t="e"/>
     </row>
@@ -2762,7 +2792,7 @@
       </c>
       <c r="C198" s="10" t="e"/>
       <c r="D198" s="11" t="n">
-        <v>838</v>
+        <v>480</v>
       </c>
       <c r="E198" s="11" t="e"/>
     </row>
@@ -2772,19 +2802,19 @@
       </c>
       <c r="C199" s="10" t="e"/>
       <c r="D199" s="11" t="n">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="E199" s="11" t="e"/>
     </row>
-    <row r="200" ht="22" customHeight="true" outlineLevel="1">
+    <row r="200" ht="11" customHeight="true" outlineLevel="1">
       <c r="B200" s="10" t="s">
         <v>200</v>
       </c>
       <c r="C200" s="10" t="e"/>
-      <c r="D200" s="12" t="n">
-        <v>1430</v>
-      </c>
-      <c r="E200" s="12" t="e"/>
+      <c r="D200" s="11" t="n">
+        <v>380</v>
+      </c>
+      <c r="E200" s="11" t="e"/>
     </row>
     <row r="201" ht="11" customHeight="true" outlineLevel="1">
       <c r="B201" s="10" t="s">
@@ -2792,27 +2822,27 @@
       </c>
       <c r="C201" s="10" t="e"/>
       <c r="D201" s="11" t="n">
-        <v>815</v>
+        <v>680</v>
       </c>
       <c r="E201" s="11" t="e"/>
     </row>
-    <row r="202" ht="22" customHeight="true" outlineLevel="1">
+    <row r="202" ht="11" customHeight="true" outlineLevel="1">
       <c r="B202" s="10" t="s">
         <v>202</v>
       </c>
       <c r="C202" s="10" t="e"/>
       <c r="D202" s="11" t="n">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="E202" s="11" t="e"/>
     </row>
-    <row r="203" ht="22" customHeight="true" outlineLevel="1">
+    <row r="203" ht="11" customHeight="true" outlineLevel="1">
       <c r="B203" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C203" s="10" t="e"/>
       <c r="D203" s="11" t="n">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="E203" s="11" t="e"/>
     </row>
@@ -2822,137 +2852,132 @@
       </c>
       <c r="C204" s="10" t="e"/>
       <c r="D204" s="11" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E204" s="11" t="e"/>
     </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+    <row r="205" ht="22" customHeight="true" outlineLevel="1">
       <c r="B205" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C205" s="10" t="e"/>
-      <c r="D205" s="11" t="n">
-        <v>320</v>
-      </c>
-      <c r="E205" s="11" t="e"/>
-    </row>
-    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D205" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E205" s="12" t="e"/>
+    </row>
+    <row r="206" ht="22" customHeight="true" outlineLevel="1">
       <c r="B206" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C206" s="10" t="e"/>
-      <c r="D206" s="11" t="n">
-        <v>390</v>
-      </c>
-      <c r="E206" s="11" t="e"/>
-    </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D206" s="12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E206" s="12" t="e"/>
+    </row>
+    <row r="207" ht="22" customHeight="true" outlineLevel="1">
       <c r="B207" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C207" s="10" t="e"/>
       <c r="D207" s="11" t="n">
-        <v>770</v>
+        <v>370</v>
       </c>
       <c r="E207" s="11" t="e"/>
     </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+    <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C208" s="10" t="e"/>
       <c r="D208" s="11" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="E208" s="11" t="e"/>
     </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
+    <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="10" t="s">
         <v>209</v>
       </c>
       <c r="C209" s="10" t="e"/>
       <c r="D209" s="11" t="n">
-        <v>770</v>
+        <v>242</v>
       </c>
       <c r="E209" s="11" t="e"/>
     </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+    <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C210" s="10" t="e"/>
       <c r="D210" s="11" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="E210" s="11" t="e"/>
     </row>
-    <row r="211" ht="11" customHeight="true" outlineLevel="1">
+    <row r="211" ht="22" customHeight="true" outlineLevel="1">
       <c r="B211" s="10" t="s">
         <v>211</v>
       </c>
       <c r="C211" s="10" t="e"/>
-      <c r="D211" s="11" t="n">
-        <v>680</v>
-      </c>
-      <c r="E211" s="11" t="e"/>
+      <c r="D211" s="12" t="n">
+        <v>1370</v>
+      </c>
+      <c r="E211" s="12" t="e"/>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
       <c r="B212" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C212" s="10" t="e"/>
-      <c r="D212" s="11" t="n">
-        <v>265</v>
-      </c>
-      <c r="E212" s="11" t="e"/>
-    </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B213" s="10" t="s">
+      <c r="D212" s="12" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E212" s="12" t="e"/>
+    </row>
+    <row r="213" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B213" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C213" s="10" t="e"/>
-      <c r="D213" s="11" t="n">
-        <v>660</v>
-      </c>
-      <c r="E213" s="11" t="e"/>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C214" s="10" t="e"/>
-      <c r="D214" s="11" t="n">
-        <v>545</v>
-      </c>
-      <c r="E214" s="11" t="e"/>
+      <c r="D214" s="12" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E214" s="12" t="e"/>
     </row>
     <row r="215" ht="22" customHeight="true" outlineLevel="1">
       <c r="B215" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C215" s="10" t="e"/>
-      <c r="D215" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="E215" s="12" t="e"/>
-    </row>
-    <row r="216" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D215" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="E215" s="11" t="e"/>
+    </row>
+    <row r="216" ht="33" customHeight="true" outlineLevel="1">
       <c r="B216" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C216" s="10" t="e"/>
-      <c r="D216" s="12" t="n">
-        <v>1580</v>
-      </c>
-      <c r="E216" s="12" t="e"/>
-    </row>
-    <row r="217" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D216" s="11" t="n">
+        <v>938</v>
+      </c>
+      <c r="E216" s="11" t="e"/>
+    </row>
+    <row r="217" ht="33" customHeight="true" outlineLevel="1">
       <c r="B217" s="10" t="s">
         <v>217</v>
       </c>
       <c r="C217" s="10" t="e"/>
       <c r="D217" s="11" t="n">
-        <v>370</v>
+        <v>476</v>
       </c>
       <c r="E217" s="11" t="e"/>
     </row>
@@ -2962,27 +2987,22 @@
       </c>
       <c r="C218" s="10" t="e"/>
       <c r="D218" s="11" t="n">
-        <v>400</v>
+        <v>198</v>
       </c>
       <c r="E218" s="11" t="e"/>
     </row>
-    <row r="219" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B219" s="10" t="s">
+    <row r="219" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B219" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C219" s="10" t="e"/>
-      <c r="D219" s="11" t="n">
-        <v>242</v>
-      </c>
-      <c r="E219" s="11" t="e"/>
-    </row>
-    <row r="220" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="220" ht="11" customHeight="true" outlineLevel="1">
       <c r="B220" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C220" s="10" t="e"/>
       <c r="D220" s="11" t="n">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="E220" s="11" t="e"/>
     </row>
@@ -2991,53 +3011,58 @@
         <v>221</v>
       </c>
       <c r="C221" s="10" t="e"/>
-      <c r="D221" s="12" t="n">
-        <v>1370</v>
-      </c>
-      <c r="E221" s="12" t="e"/>
-    </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D221" s="11" t="n">
+        <v>158</v>
+      </c>
+      <c r="E221" s="11" t="e"/>
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="1">
       <c r="B222" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C222" s="10" t="e"/>
-      <c r="D222" s="12" t="n">
-        <v>1110</v>
-      </c>
-      <c r="E222" s="12" t="e"/>
-    </row>
-    <row r="223" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B223" s="9" t="s">
+      <c r="D222" s="11" t="n">
+        <v>154</v>
+      </c>
+      <c r="E222" s="11" t="e"/>
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B223" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C223" s="10" t="e"/>
+      <c r="D223" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="E223" s="11" t="e"/>
+    </row>
+    <row r="224" ht="22" customHeight="true" outlineLevel="1">
       <c r="B224" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C224" s="10" t="e"/>
-      <c r="D224" s="12" t="n">
-        <v>1750</v>
-      </c>
-      <c r="E224" s="12" t="e"/>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D224" s="11" t="n">
+        <v>490</v>
+      </c>
+      <c r="E224" s="11" t="e"/>
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
       <c r="B225" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C225" s="10" t="e"/>
       <c r="D225" s="11" t="n">
-        <v>760</v>
+        <v>493</v>
       </c>
       <c r="E225" s="11" t="e"/>
     </row>
-    <row r="226" ht="33" customHeight="true" outlineLevel="1">
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
       <c r="B226" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C226" s="10" t="e"/>
       <c r="D226" s="11" t="n">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="E226" s="11" t="e"/>
     </row>
@@ -3047,12 +3072,112 @@
       </c>
       <c r="C227" s="10" t="e"/>
       <c r="D227" s="11" t="n">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E227" s="11" t="e"/>
     </row>
+    <row r="228" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B228" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" s="10" t="e"/>
+      <c r="D228" s="11" t="n">
+        <v>338</v>
+      </c>
+      <c r="E228" s="11" t="e"/>
+    </row>
+    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B229" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C229" s="10" t="e"/>
+      <c r="D229" s="11" t="n">
+        <v>238</v>
+      </c>
+      <c r="E229" s="11" t="e"/>
+    </row>
+    <row r="230" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B230" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" s="10" t="e"/>
+      <c r="D230" s="11" t="n">
+        <v>188</v>
+      </c>
+      <c r="E230" s="11" t="e"/>
+    </row>
+    <row r="231" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B231" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231" s="10" t="e"/>
+      <c r="D231" s="11" t="n">
+        <v>398</v>
+      </c>
+      <c r="E231" s="11" t="e"/>
+    </row>
+    <row r="232" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B232" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C232" s="10" t="e"/>
+      <c r="D232" s="11" t="n">
+        <v>394</v>
+      </c>
+      <c r="E232" s="11" t="e"/>
+    </row>
+    <row r="233" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B233" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233" s="10" t="e"/>
+      <c r="D233" s="11" t="n">
+        <v>448</v>
+      </c>
+      <c r="E233" s="11" t="e"/>
+    </row>
+    <row r="234" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B234" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C234" s="10" t="e"/>
+      <c r="D234" s="11" t="n">
+        <v>478</v>
+      </c>
+      <c r="E234" s="11" t="e"/>
+    </row>
+    <row r="235" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B235" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C235" s="10" t="e"/>
+      <c r="D235" s="11" t="n">
+        <v>238</v>
+      </c>
+      <c r="E235" s="11" t="e"/>
+    </row>
+    <row r="236" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B236" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C236" s="10" t="e"/>
+      <c r="D236" s="11" t="n">
+        <v>346</v>
+      </c>
+      <c r="E236" s="11" t="e"/>
+    </row>
+    <row r="237" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B237" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237" s="10" t="e"/>
+      <c r="D237" s="11" t="n">
+        <v>331</v>
+      </c>
+      <c r="E237" s="11" t="e"/>
+    </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="209">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -3082,27 +3207,27 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
@@ -3112,7 +3237,7 @@
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
@@ -3126,24 +3251,24 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
     <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D100:E100"/>
     <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
     <mergeCell ref="D104:E104"/>
     <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
     <mergeCell ref="D110:E110"/>
     <mergeCell ref="D111:E111"/>
     <mergeCell ref="D112:E112"/>
@@ -3154,14 +3279,13 @@
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="D118:E118"/>
     <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
     <mergeCell ref="D121:E121"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="D123:E123"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
     <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="D130:E130"/>
     <mergeCell ref="D131:E131"/>
@@ -3170,20 +3294,20 @@
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
     <mergeCell ref="D138:E138"/>
     <mergeCell ref="D139:E139"/>
     <mergeCell ref="D140:E140"/>
     <mergeCell ref="D141:E141"/>
     <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
     <mergeCell ref="D153:E153"/>
     <mergeCell ref="D154:E154"/>
     <mergeCell ref="D155:E155"/>
@@ -3195,19 +3319,19 @@
     <mergeCell ref="D162:E162"/>
     <mergeCell ref="D163:E163"/>
     <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
     <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
     <mergeCell ref="D171:E171"/>
     <mergeCell ref="D172:E172"/>
     <mergeCell ref="D173:E173"/>
     <mergeCell ref="D174:E174"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
     <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D179:E179"/>
     <mergeCell ref="D181:E181"/>
     <mergeCell ref="D182:E182"/>
     <mergeCell ref="D183:E183"/>
@@ -3216,6 +3340,7 @@
     <mergeCell ref="D186:E186"/>
     <mergeCell ref="D187:E187"/>
     <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D191:E191"/>
     <mergeCell ref="D192:E192"/>
@@ -3239,20 +3364,29 @@
     <mergeCell ref="D210:E210"/>
     <mergeCell ref="D211:E211"/>
     <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
     <mergeCell ref="D214:E214"/>
     <mergeCell ref="D215:E215"/>
     <mergeCell ref="D216:E216"/>
     <mergeCell ref="D217:E217"/>
     <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
     <mergeCell ref="D220:E220"/>
     <mergeCell ref="D221:E221"/>
     <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D223:E223"/>
     <mergeCell ref="D224:E224"/>
     <mergeCell ref="D225:E225"/>
     <mergeCell ref="D226:E226"/>
     <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D237:E237"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 26.01.23</t>
+    <t>Цены указаны на 01.02.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -160,9 +160,6 @@
     <t>Рисовая лапша (500гр.), Вьетнам</t>
   </si>
   <si>
-    <t>Соус чили для Фо Бо (500гр.), Вьетнам</t>
-  </si>
-  <si>
     <t>Изделия из бамбука</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
     <t>Кальмар щупальца 1/24</t>
   </si>
   <si>
+    <t>Конечности краба, камчатского</t>
+  </si>
+  <si>
     <t>Мидии в раковинах (голубые) в/м 40/60, 1кг, Чили</t>
   </si>
   <si>
@@ -274,6 +274,9 @@
     <t>Палочки крабовые Замороженные Снежного краба, VICI, 500 гр. *6 шт/кор</t>
   </si>
   <si>
+    <t>Палочки крабовые, Снежный краб, Санта- Бремор, Беларусь, уп. 0.5кг</t>
+  </si>
+  <si>
     <t>Салат крабовый (опилио)</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
     <t>Фаланга чищенная,  8-10см, камчатский краб</t>
   </si>
   <si>
+    <t>Фаланга чищенная, 10-12 см, камчатский краб</t>
+  </si>
+  <si>
     <t>Креветка блочная</t>
   </si>
   <si>
@@ -304,7 +310,7 @@
     <t>Креветка мелкая</t>
   </si>
   <si>
-    <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг.</t>
+    <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг. Индия</t>
   </si>
   <si>
     <t>Креветка очищенная с хвостом (30/50) фас 0,5кг, 7% гл  Китай</t>
@@ -313,6 +319,9 @@
     <t>Креветка северная в/м (70-90) фас*1кг</t>
   </si>
   <si>
+    <t>Креветка, бланшированная, б/г, очищ. без пищ.тракта, 41/50, 7%, Индонезия, уп. 1кг.</t>
+  </si>
+  <si>
     <t>Креветка россыпь</t>
   </si>
   <si>
@@ -376,15 +385,30 @@
     <t>Рисовая лапша 5мм AROY-D 454 г</t>
   </si>
   <si>
+    <t>Смесь темпурная "Kaneshiro" Россия, уп. 1кг</t>
+  </si>
+  <si>
     <t>Спагетти "Пастифичио Феличетти" из тв. сортов пшеницы с чернилами каракатицы (0,500</t>
   </si>
   <si>
     <t>Сухари панировочные Панко Тамаки, 1уп/1кг</t>
   </si>
   <si>
+    <t>Сухари панировочные, Хикари 6мм, 1шт/1кг,  Россия</t>
+  </si>
+  <si>
     <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
   </si>
   <si>
+    <t>Чизкейк New York классический 1200г зам, Шеф Дома</t>
+  </si>
+  <si>
+    <t>Чизкейк клубничный классический 1200г, Шеф Дома</t>
+  </si>
+  <si>
+    <t>Чизкейк шоколадный классический 1200г зам, Шеф Дома</t>
+  </si>
+  <si>
     <t>Мясо и полуфабрикаты</t>
   </si>
   <si>
@@ -457,7 +481,7 @@
     <t>Рис</t>
   </si>
   <si>
-    <t>Рис "Кипарис", мешок 25 кг, Китай</t>
+    <t>Рис "Hansey", Россия, 25кг*1</t>
   </si>
   <si>
     <t>Рис IKIGAI 22.68 кг</t>
@@ -472,6 +496,9 @@
     <t>Рыба ПСГ, ПБГ, С/М</t>
   </si>
   <si>
+    <t>Дорадо н/р 300-400 Турция</t>
+  </si>
+  <si>
     <t>Корюшка н/р, дальневосточная</t>
   </si>
   <si>
@@ -568,6 +595,9 @@
     <t>Соусы паназиатские</t>
   </si>
   <si>
+    <t>Горчица сладкая баварская "MILD", - 1,1 кг , Provil, Греция</t>
+  </si>
+  <si>
     <t>Заправка "Греческий салат" 1,9кг, Provil, Греция</t>
   </si>
   <si>
@@ -622,6 +652,9 @@
     <t>Соус Терияки, ТМ "Тамаки", 1,8л</t>
   </si>
   <si>
+    <t>Соус Унаги Тамаки, 1.8 л</t>
+  </si>
+  <si>
     <t>Соус Унаги, 1.8л, вес 2.2кг,  Китай</t>
   </si>
   <si>
@@ -638,6 +671,9 @@
   </si>
   <si>
     <t>Соус Хойсин, Китай, 1 кг*6</t>
+  </si>
+  <si>
+    <t>Соус черно- перечный СТМ Chang, 825гр, пластик, Тайланд</t>
   </si>
   <si>
     <t>Соус Черный перец, кулинарный, ГУРМИКС, 2 кг</t>
@@ -935,7 +971,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="E237"/>
+  <dimension ref="E249"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1322,7 +1358,7 @@
       </c>
       <c r="C41" s="10" t="e"/>
       <c r="D41" s="11" t="n">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="E41" s="11" t="e"/>
     </row>
@@ -1351,28 +1387,28 @@
       </c>
       <c r="E44" s="11" t="e"/>
     </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B45" s="10" t="s">
+    <row r="45" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="10" t="e"/>
-      <c r="D45" s="11" t="n">
-        <v>220</v>
-      </c>
-      <c r="E45" s="11" t="e"/>
-    </row>
-    <row r="46" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B46" s="9" t="s">
+    </row>
+    <row r="46" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B46" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C46" s="10" t="e"/>
+      <c r="D46" s="11" t="n">
+        <v>121</v>
+      </c>
+      <c r="E46" s="11" t="e"/>
+    </row>
+    <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="B47" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="10" t="e"/>
       <c r="D47" s="11" t="n">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="E47" s="11" t="e"/>
     </row>
@@ -1382,24 +1418,24 @@
       </c>
       <c r="C48" s="10" t="e"/>
       <c r="D48" s="11" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E48" s="11" t="e"/>
     </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B49" s="10" t="s">
+    <row r="49" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="10" t="e"/>
-      <c r="D49" s="11" t="n">
-        <v>110</v>
-      </c>
-      <c r="E49" s="11" t="e"/>
-    </row>
-    <row r="50" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B50" s="9" t="s">
+    </row>
+    <row r="50" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B50" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="C50" s="10" t="e"/>
+      <c r="D50" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="E50" s="11" t="e"/>
     </row>
     <row r="51" ht="22" customHeight="true" outlineLevel="1">
       <c r="B51" s="10" t="s">
@@ -1417,7 +1453,7 @@
       </c>
       <c r="C52" s="10" t="e"/>
       <c r="D52" s="11" t="n">
-        <v>760</v>
+        <v>590</v>
       </c>
       <c r="E52" s="11" t="e"/>
     </row>
@@ -1441,55 +1477,55 @@
       </c>
       <c r="E54" s="11" t="e"/>
     </row>
-    <row r="55" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B55" s="10" t="s">
+    <row r="55" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="10" t="e"/>
-      <c r="D55" s="11" t="n">
-        <v>590</v>
-      </c>
-      <c r="E55" s="11" t="e"/>
-    </row>
-    <row r="56" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="56" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B56" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C56" s="10" t="e"/>
+      <c r="D56" s="11" t="n">
+        <v>820</v>
+      </c>
+      <c r="E56" s="11" t="e"/>
+    </row>
+    <row r="57" ht="33" customHeight="true" outlineLevel="1">
       <c r="B57" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="10" t="e"/>
       <c r="D57" s="11" t="n">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="E57" s="11" t="e"/>
     </row>
-    <row r="58" ht="33" customHeight="true" outlineLevel="1">
+    <row r="58" ht="22" customHeight="true" outlineLevel="1">
       <c r="B58" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="10" t="e"/>
       <c r="D58" s="11" t="n">
-        <v>750</v>
+        <v>680</v>
       </c>
       <c r="E58" s="11" t="e"/>
     </row>
-    <row r="59" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B59" s="10" t="s">
+    <row r="59" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="10" t="e"/>
-      <c r="D59" s="11" t="n">
-        <v>680</v>
-      </c>
-      <c r="E59" s="11" t="e"/>
-    </row>
-    <row r="60" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="60" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B60" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="C60" s="10" t="e"/>
+      <c r="D60" s="11" t="n">
+        <v>170</v>
+      </c>
+      <c r="E60" s="11" t="e"/>
     </row>
     <row r="61" ht="22" customHeight="true" outlineLevel="1">
       <c r="B61" s="10" t="s">
@@ -1497,7 +1533,7 @@
       </c>
       <c r="C61" s="10" t="e"/>
       <c r="D61" s="11" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E61" s="11" t="e"/>
     </row>
@@ -1507,7 +1543,7 @@
       </c>
       <c r="C62" s="10" t="e"/>
       <c r="D62" s="11" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E62" s="11" t="e"/>
     </row>
@@ -1517,7 +1553,7 @@
       </c>
       <c r="C63" s="10" t="e"/>
       <c r="D63" s="11" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="E63" s="11" t="e"/>
     </row>
@@ -1527,7 +1563,7 @@
       </c>
       <c r="C64" s="10" t="e"/>
       <c r="D64" s="11" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="E64" s="11" t="e"/>
     </row>
@@ -1537,7 +1573,7 @@
       </c>
       <c r="C65" s="10" t="e"/>
       <c r="D65" s="11" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="E65" s="11" t="e"/>
     </row>
@@ -1547,7 +1583,7 @@
       </c>
       <c r="C66" s="10" t="e"/>
       <c r="D66" s="11" t="n">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="E66" s="11" t="e"/>
     </row>
@@ -1567,7 +1603,7 @@
       </c>
       <c r="C68" s="10" t="e"/>
       <c r="D68" s="11" t="n">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E68" s="11" t="e"/>
     </row>
@@ -1577,42 +1613,42 @@
       </c>
       <c r="C69" s="10" t="e"/>
       <c r="D69" s="11" t="n">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="E69" s="11" t="e"/>
     </row>
-    <row r="70" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B70" s="10" t="s">
+    <row r="70" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="10" t="e"/>
-      <c r="D70" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="E70" s="11" t="e"/>
-    </row>
-    <row r="71" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B71" s="9" t="s">
+    </row>
+    <row r="71" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B71" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="C71" s="10" t="e"/>
+      <c r="D71" s="12" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E71" s="12" t="e"/>
     </row>
     <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="10" t="e"/>
-      <c r="D72" s="12" t="n">
-        <v>1590</v>
-      </c>
-      <c r="E72" s="12" t="e"/>
-    </row>
-    <row r="73" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D72" s="11" t="n">
+        <v>490</v>
+      </c>
+      <c r="E72" s="11" t="e"/>
+    </row>
+    <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="B73" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="10" t="e"/>
       <c r="D73" s="11" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E73" s="11" t="e"/>
     </row>
@@ -1621,10 +1657,10 @@
         <v>74</v>
       </c>
       <c r="C74" s="10" t="e"/>
-      <c r="D74" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="E74" s="11" t="e"/>
+      <c r="D74" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E74" s="12" t="e"/>
     </row>
     <row r="75" ht="22" customHeight="true" outlineLevel="1">
       <c r="B75" s="10" t="s">
@@ -1706,23 +1742,23 @@
       </c>
       <c r="E82" s="11" t="e"/>
     </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
       <c r="B83" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="10" t="e"/>
-      <c r="D83" s="12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E83" s="12" t="e"/>
-    </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D83" s="11" t="n">
+        <v>210</v>
+      </c>
+      <c r="E83" s="11" t="e"/>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="10" t="e"/>
       <c r="D84" s="12" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="E84" s="12" t="e"/>
     </row>
@@ -1732,42 +1768,42 @@
       </c>
       <c r="C85" s="10" t="e"/>
       <c r="D85" s="12" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E85" s="12" t="e"/>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B86" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="10" t="e"/>
+      <c r="D86" s="12" t="n">
         <v>5100</v>
       </c>
-      <c r="E85" s="12" t="e"/>
-    </row>
-    <row r="86" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B86" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+      <c r="E86" s="12" t="e"/>
+    </row>
+    <row r="87" ht="22" customHeight="true" outlineLevel="1">
       <c r="B87" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="10" t="e"/>
-      <c r="D87" s="11" t="n">
-        <v>900</v>
-      </c>
-      <c r="E87" s="11" t="e"/>
-    </row>
-    <row r="88" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B88" s="10" t="s">
+      <c r="D87" s="12" t="n">
+        <v>5800</v>
+      </c>
+      <c r="E87" s="12" t="e"/>
+    </row>
+    <row r="88" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B88" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="10" t="e"/>
-      <c r="D88" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="E88" s="11" t="e"/>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="B89" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="10" t="e"/>
       <c r="D89" s="11" t="n">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="E89" s="11" t="e"/>
     </row>
@@ -1777,7 +1813,7 @@
       </c>
       <c r="C90" s="10" t="e"/>
       <c r="D90" s="11" t="n">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="E90" s="11" t="e"/>
     </row>
@@ -1787,14 +1823,19 @@
       </c>
       <c r="C91" s="10" t="e"/>
       <c r="D91" s="11" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="E91" s="11" t="e"/>
     </row>
-    <row r="92" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B92" s="9" t="s">
+    <row r="92" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B92" s="10" t="s">
         <v>92</v>
       </c>
+      <c r="C92" s="10" t="e"/>
+      <c r="D92" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="E92" s="11" t="e"/>
     </row>
     <row r="93" ht="22" customHeight="true" outlineLevel="1">
       <c r="B93" s="10" t="s">
@@ -1802,67 +1843,67 @@
       </c>
       <c r="C93" s="10" t="e"/>
       <c r="D93" s="11" t="n">
-        <v>958</v>
+        <v>900</v>
       </c>
       <c r="E93" s="11" t="e"/>
     </row>
-    <row r="94" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B94" s="10" t="s">
+    <row r="94" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B94" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="10" t="e"/>
-      <c r="D94" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="E94" s="11" t="e"/>
-    </row>
-    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="95" ht="22" customHeight="true" outlineLevel="1">
       <c r="B95" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="10" t="e"/>
-      <c r="D95" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E95" s="12" t="e"/>
-    </row>
-    <row r="96" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B96" s="9" t="s">
+      <c r="D95" s="11" t="n">
+        <v>930</v>
+      </c>
+      <c r="E95" s="11" t="e"/>
+    </row>
+    <row r="96" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B96" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C96" s="10" t="e"/>
+      <c r="D96" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="E96" s="11" t="e"/>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="B97" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="10" t="e"/>
-      <c r="D97" s="11" t="n">
-        <v>940</v>
-      </c>
-      <c r="E97" s="11" t="e"/>
-    </row>
-    <row r="98" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B98" s="9" t="s">
+      <c r="D97" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E97" s="12" t="e"/>
+    </row>
+    <row r="98" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B98" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B99" s="10" t="s">
+      <c r="C98" s="10" t="e"/>
+      <c r="D98" s="11" t="n">
+        <v>958</v>
+      </c>
+      <c r="E98" s="11" t="e"/>
+    </row>
+    <row r="99" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B99" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="10" t="e"/>
-      <c r="D99" s="11" t="n">
-        <v>225</v>
-      </c>
-      <c r="E99" s="11" t="e"/>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="100" ht="22" customHeight="true" outlineLevel="1">
       <c r="B100" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="10" t="e"/>
       <c r="D100" s="11" t="n">
-        <v>680</v>
+        <v>940</v>
       </c>
       <c r="E100" s="11" t="e"/>
     </row>
@@ -1871,13 +1912,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="B102" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C102" s="10" t="e"/>
       <c r="D102" s="11" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="E102" s="11" t="e"/>
     </row>
@@ -1887,19 +1928,14 @@
       </c>
       <c r="C103" s="10" t="e"/>
       <c r="D103" s="11" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="E103" s="11" t="e"/>
     </row>
-    <row r="104" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B104" s="10" t="s">
+    <row r="104" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B104" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="10" t="e"/>
-      <c r="D104" s="11" t="n">
-        <v>210</v>
-      </c>
-      <c r="E104" s="11" t="e"/>
     </row>
     <row r="105" ht="22" customHeight="true" outlineLevel="1">
       <c r="B105" s="10" t="s">
@@ -1907,22 +1943,27 @@
       </c>
       <c r="C105" s="10" t="e"/>
       <c r="D105" s="11" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="E105" s="11" t="e"/>
     </row>
-    <row r="106" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B106" s="9" t="s">
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B106" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C106" s="10" t="e"/>
+      <c r="D106" s="11" t="n">
+        <v>322</v>
+      </c>
+      <c r="E106" s="11" t="e"/>
+    </row>
+    <row r="107" ht="22" customHeight="true" outlineLevel="1">
       <c r="B107" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C107" s="10" t="e"/>
       <c r="D107" s="11" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="E107" s="11" t="e"/>
     </row>
@@ -1932,77 +1973,72 @@
       </c>
       <c r="C108" s="10" t="e"/>
       <c r="D108" s="11" t="n">
-        <v>205</v>
+        <v>470</v>
       </c>
       <c r="E108" s="11" t="e"/>
     </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B109" s="10" t="s">
+    <row r="109" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B109" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="10" t="e"/>
-      <c r="D109" s="11" t="n">
-        <v>230</v>
-      </c>
-      <c r="E109" s="11" t="e"/>
-    </row>
-    <row r="110" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="B110" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C110" s="10" t="e"/>
       <c r="D110" s="11" t="n">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c r="E110" s="11" t="e"/>
     </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C111" s="10" t="e"/>
       <c r="D111" s="11" t="n">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="E111" s="11" t="e"/>
     </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+    <row r="112" ht="22" customHeight="true" outlineLevel="1">
       <c r="B112" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C112" s="10" t="e"/>
       <c r="D112" s="11" t="n">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="E112" s="11" t="e"/>
     </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
       <c r="B113" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="10" t="e"/>
       <c r="D113" s="11" t="n">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="E113" s="11" t="e"/>
     </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+    <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="B114" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="10" t="e"/>
       <c r="D114" s="11" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="E114" s="11" t="e"/>
     </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C115" s="10" t="e"/>
       <c r="D115" s="11" t="n">
-        <v>836</v>
+        <v>58</v>
       </c>
       <c r="E115" s="11" t="e"/>
     </row>
@@ -2012,17 +2048,17 @@
       </c>
       <c r="C116" s="10" t="e"/>
       <c r="D116" s="11" t="n">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="E116" s="11" t="e"/>
     </row>
-    <row r="117" ht="33" customHeight="true" outlineLevel="1">
+    <row r="117" ht="22" customHeight="true" outlineLevel="1">
       <c r="B117" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C117" s="10" t="e"/>
       <c r="D117" s="11" t="n">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="E117" s="11" t="e"/>
     </row>
@@ -2032,82 +2068,87 @@
       </c>
       <c r="C118" s="10" t="e"/>
       <c r="D118" s="11" t="n">
-        <v>175</v>
+        <v>836</v>
       </c>
       <c r="E118" s="11" t="e"/>
     </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C119" s="10" t="e"/>
       <c r="D119" s="11" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E119" s="11" t="e"/>
     </row>
-    <row r="120" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B120" s="9" t="s">
+    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B120" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C120" s="10" t="e"/>
+      <c r="D120" s="11" t="n">
+        <v>145</v>
+      </c>
+      <c r="E120" s="11" t="e"/>
+    </row>
+    <row r="121" ht="33" customHeight="true" outlineLevel="1">
       <c r="B121" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C121" s="10" t="e"/>
       <c r="D121" s="11" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E121" s="11" t="e"/>
     </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+    <row r="122" ht="22" customHeight="true" outlineLevel="1">
       <c r="B122" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C122" s="10" t="e"/>
       <c r="D122" s="11" t="n">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="E122" s="11" t="e"/>
     </row>
-    <row r="123" ht="33" customHeight="true" outlineLevel="1">
+    <row r="123" ht="22" customHeight="true" outlineLevel="1">
       <c r="B123" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C123" s="10" t="e"/>
       <c r="D123" s="11" t="n">
-        <v>916</v>
+        <v>165</v>
       </c>
       <c r="E123" s="11" t="e"/>
     </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
       <c r="B124" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C124" s="10" t="e"/>
       <c r="D124" s="11" t="n">
-        <v>518</v>
+        <v>163</v>
       </c>
       <c r="E124" s="11" t="e"/>
     </row>
-    <row r="125" ht="33" customHeight="true" outlineLevel="1">
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
       <c r="B125" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C125" s="10" t="e"/>
-      <c r="D125" s="12" t="n">
-        <v>1210</v>
-      </c>
-      <c r="E125" s="12" t="e"/>
-    </row>
-    <row r="126" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D125" s="11" t="n">
+        <v>830</v>
+      </c>
+      <c r="E125" s="11" t="e"/>
+    </row>
+    <row r="126" ht="22" customHeight="true" outlineLevel="1">
       <c r="B126" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C126" s="10" t="e"/>
       <c r="D126" s="11" t="n">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="E126" s="11" t="e"/>
     </row>
@@ -2117,7 +2158,7 @@
       </c>
       <c r="C127" s="10" t="e"/>
       <c r="D127" s="11" t="n">
-        <v>635</v>
+        <v>830</v>
       </c>
       <c r="E127" s="11" t="e"/>
     </row>
@@ -2126,13 +2167,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" ht="22" customHeight="true" outlineLevel="1">
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="B129" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C129" s="10" t="e"/>
       <c r="D129" s="11" t="n">
-        <v>420</v>
+        <v>275</v>
       </c>
       <c r="E129" s="11" t="e"/>
     </row>
@@ -2141,18 +2182,18 @@
         <v>130</v>
       </c>
       <c r="C130" s="10" t="e"/>
-      <c r="D130" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E130" s="12" t="e"/>
-    </row>
-    <row r="131" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D130" s="11" t="n">
+        <v>350</v>
+      </c>
+      <c r="E130" s="11" t="e"/>
+    </row>
+    <row r="131" ht="33" customHeight="true" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C131" s="10" t="e"/>
       <c r="D131" s="11" t="n">
-        <v>170</v>
+        <v>916</v>
       </c>
       <c r="E131" s="11" t="e"/>
     </row>
@@ -2162,27 +2203,27 @@
       </c>
       <c r="C132" s="10" t="e"/>
       <c r="D132" s="11" t="n">
-        <v>115</v>
+        <v>518</v>
       </c>
       <c r="E132" s="11" t="e"/>
     </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+    <row r="133" ht="33" customHeight="true" outlineLevel="1">
       <c r="B133" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C133" s="10" t="e"/>
-      <c r="D133" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="E133" s="11" t="e"/>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D133" s="12" t="n">
+        <v>1210</v>
+      </c>
+      <c r="E133" s="12" t="e"/>
+    </row>
+    <row r="134" ht="33" customHeight="true" outlineLevel="1">
       <c r="B134" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="10" t="e"/>
       <c r="D134" s="11" t="n">
-        <v>360</v>
+        <v>780</v>
       </c>
       <c r="E134" s="11" t="e"/>
     </row>
@@ -2192,27 +2233,22 @@
       </c>
       <c r="C135" s="10" t="e"/>
       <c r="D135" s="11" t="n">
-        <v>370</v>
+        <v>635</v>
       </c>
       <c r="E135" s="11" t="e"/>
     </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B136" s="10" t="s">
+    <row r="136" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B136" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="10" t="e"/>
-      <c r="D136" s="11" t="n">
-        <v>220</v>
-      </c>
-      <c r="E136" s="11" t="e"/>
-    </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C137" s="10" t="e"/>
       <c r="D137" s="11" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="E137" s="11" t="e"/>
     </row>
@@ -2221,10 +2257,10 @@
         <v>138</v>
       </c>
       <c r="C138" s="10" t="e"/>
-      <c r="D138" s="11" t="n">
-        <v>680</v>
-      </c>
-      <c r="E138" s="11" t="e"/>
+      <c r="D138" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E138" s="12" t="e"/>
     </row>
     <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="10" t="s">
@@ -2232,17 +2268,17 @@
       </c>
       <c r="C139" s="10" t="e"/>
       <c r="D139" s="11" t="n">
-        <v>694</v>
+        <v>170</v>
       </c>
       <c r="E139" s="11" t="e"/>
     </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+    <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="B140" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C140" s="10" t="e"/>
       <c r="D140" s="11" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="E140" s="11" t="e"/>
     </row>
@@ -2252,7 +2288,7 @@
       </c>
       <c r="C141" s="10" t="e"/>
       <c r="D141" s="11" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="E141" s="11" t="e"/>
     </row>
@@ -2262,22 +2298,27 @@
       </c>
       <c r="C142" s="10" t="e"/>
       <c r="D142" s="11" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="E142" s="11" t="e"/>
     </row>
-    <row r="143" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B143" s="9" t="s">
+    <row r="143" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B143" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C143" s="10" t="e"/>
+      <c r="D143" s="11" t="n">
+        <v>370</v>
+      </c>
+      <c r="E143" s="11" t="e"/>
+    </row>
+    <row r="144" ht="22" customHeight="true" outlineLevel="1">
       <c r="B144" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C144" s="10" t="e"/>
       <c r="D144" s="11" t="n">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="E144" s="11" t="e"/>
     </row>
@@ -2286,35 +2327,40 @@
         <v>145</v>
       </c>
       <c r="C145" s="10" t="e"/>
-      <c r="D145" s="12" t="n">
-        <v>3350</v>
-      </c>
-      <c r="E145" s="12" t="e"/>
-    </row>
-    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D145" s="11" t="n">
+        <v>570</v>
+      </c>
+      <c r="E145" s="11" t="e"/>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="B146" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="10" t="e"/>
       <c r="D146" s="11" t="n">
-        <v>88</v>
+        <v>680</v>
       </c>
       <c r="E146" s="11" t="e"/>
     </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+    <row r="147" ht="22" customHeight="true" outlineLevel="1">
       <c r="B147" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C147" s="10" t="e"/>
       <c r="D147" s="11" t="n">
-        <v>110</v>
+        <v>694</v>
       </c>
       <c r="E147" s="11" t="e"/>
     </row>
-    <row r="148" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B148" s="9" t="s">
+    <row r="148" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B148" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="C148" s="10" t="e"/>
+      <c r="D148" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E148" s="11" t="e"/>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="B149" s="10" t="s">
@@ -2326,78 +2372,73 @@
       </c>
       <c r="E149" s="11" t="e"/>
     </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+    <row r="150" ht="22" customHeight="true" outlineLevel="1">
       <c r="B150" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C150" s="10" t="e"/>
-      <c r="D150" s="12" t="n">
-        <v>1160</v>
-      </c>
-      <c r="E150" s="12" t="e"/>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B151" s="10" t="s">
+      <c r="D150" s="11" t="n">
+        <v>170</v>
+      </c>
+      <c r="E150" s="11" t="e"/>
+    </row>
+    <row r="151" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B151" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="10" t="e"/>
-      <c r="D151" s="11" t="n">
-        <v>860</v>
-      </c>
-      <c r="E151" s="11" t="e"/>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="B152" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C152" s="10" t="e"/>
-      <c r="D152" s="12" t="n">
-        <v>1126</v>
-      </c>
-      <c r="E152" s="12" t="e"/>
+      <c r="D152" s="11" t="n">
+        <v>108</v>
+      </c>
+      <c r="E152" s="11" t="e"/>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C153" s="10" t="e"/>
-      <c r="D153" s="11" t="n">
-        <v>650</v>
-      </c>
-      <c r="E153" s="11" t="e"/>
-    </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D153" s="12" t="n">
+        <v>3350</v>
+      </c>
+      <c r="E153" s="12" t="e"/>
+    </row>
+    <row r="154" ht="22" customHeight="true" outlineLevel="1">
       <c r="B154" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C154" s="10" t="e"/>
-      <c r="D154" s="12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E154" s="12" t="e"/>
+      <c r="D154" s="11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E154" s="11" t="e"/>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C155" s="10" t="e"/>
-      <c r="D155" s="12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E155" s="12" t="e"/>
+      <c r="D155" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="E155" s="11" t="e"/>
     </row>
     <row r="156" ht="16" customHeight="true" s="8" customFormat="true">
       <c r="B156" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" ht="22" customHeight="true" outlineLevel="1">
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
       <c r="B157" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C157" s="10" t="e"/>
       <c r="D157" s="11" t="n">
-        <v>950</v>
+        <v>640</v>
       </c>
       <c r="E157" s="11" t="e"/>
     </row>
@@ -2407,17 +2448,17 @@
       </c>
       <c r="C158" s="10" t="e"/>
       <c r="D158" s="11" t="n">
-        <v>720</v>
+        <v>280</v>
       </c>
       <c r="E158" s="11" t="e"/>
     </row>
-    <row r="159" ht="22" customHeight="true" outlineLevel="1">
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="10" t="s">
         <v>159</v>
       </c>
       <c r="C159" s="10" t="e"/>
       <c r="D159" s="12" t="n">
-        <v>1480</v>
+        <v>1160</v>
       </c>
       <c r="E159" s="12" t="e"/>
     </row>
@@ -2427,99 +2468,104 @@
       </c>
       <c r="C160" s="10" t="e"/>
       <c r="D160" s="11" t="n">
-        <v>280</v>
+        <v>860</v>
       </c>
       <c r="E160" s="11" t="e"/>
     </row>
-    <row r="161" ht="22" customHeight="true" outlineLevel="1">
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
       <c r="B161" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C161" s="10" t="e"/>
-      <c r="D161" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="E161" s="11" t="e"/>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D161" s="12" t="n">
+        <v>1126</v>
+      </c>
+      <c r="E161" s="12" t="e"/>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C162" s="10" t="e"/>
-      <c r="D162" s="12" t="n">
-        <v>1380</v>
-      </c>
-      <c r="E162" s="12" t="e"/>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D162" s="11" t="n">
+        <v>650</v>
+      </c>
+      <c r="E162" s="11" t="e"/>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
       <c r="B163" s="10" t="s">
         <v>163</v>
       </c>
       <c r="C163" s="10" t="e"/>
       <c r="D163" s="12" t="n">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="E163" s="12" t="e"/>
     </row>
-    <row r="164" ht="22" customHeight="true" outlineLevel="1">
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="B164" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C164" s="10" t="e"/>
-      <c r="D164" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="E164" s="11" t="e"/>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B165" s="10" t="s">
+      <c r="D164" s="12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E164" s="12" t="e"/>
+    </row>
+    <row r="165" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B165" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="10" t="e"/>
-      <c r="D165" s="11" t="n">
-        <v>690</v>
-      </c>
-      <c r="E165" s="11" t="e"/>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
       <c r="B166" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C166" s="10" t="e"/>
-      <c r="D166" s="12" t="n">
-        <v>1550</v>
-      </c>
-      <c r="E166" s="12" t="e"/>
-    </row>
-    <row r="167" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D166" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="E166" s="11" t="e"/>
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="B167" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C167" s="10" t="e"/>
-      <c r="D167" s="12" t="n">
-        <v>1430</v>
-      </c>
-      <c r="E167" s="12" t="e"/>
-    </row>
-    <row r="168" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B168" s="9" t="s">
+      <c r="D167" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="E167" s="11" t="e"/>
+    </row>
+    <row r="168" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B168" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C168" s="10" t="e"/>
+      <c r="D168" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="E168" s="12" t="e"/>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="10" t="e"/>
-      <c r="D169" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="E169" s="12" t="e"/>
-    </row>
-    <row r="170" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B170" s="9" t="s">
+      <c r="D169" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="E169" s="11" t="e"/>
+    </row>
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B170" s="10" t="s">
         <v>170</v>
       </c>
+      <c r="C170" s="10" t="e"/>
+      <c r="D170" s="11" t="n">
+        <v>990</v>
+      </c>
+      <c r="E170" s="11" t="e"/>
     </row>
     <row r="171" ht="22" customHeight="true" outlineLevel="1">
       <c r="B171" s="10" t="s">
@@ -2527,69 +2573,64 @@
       </c>
       <c r="C171" s="10" t="e"/>
       <c r="D171" s="12" t="n">
-        <v>1820</v>
+        <v>1380</v>
       </c>
       <c r="E171" s="12" t="e"/>
     </row>
-    <row r="172" ht="11" customHeight="true" outlineLevel="1">
+    <row r="172" ht="22" customHeight="true" outlineLevel="1">
       <c r="B172" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C172" s="10" t="e"/>
-      <c r="D172" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="E172" s="11" t="e"/>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D172" s="12" t="n">
+        <v>1260</v>
+      </c>
+      <c r="E172" s="12" t="e"/>
+    </row>
+    <row r="173" ht="22" customHeight="true" outlineLevel="1">
       <c r="B173" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C173" s="10" t="e"/>
-      <c r="D173" s="12" t="n">
-        <v>1670</v>
-      </c>
-      <c r="E173" s="12" t="e"/>
+      <c r="D173" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="E173" s="11" t="e"/>
     </row>
     <row r="174" ht="22" customHeight="true" outlineLevel="1">
       <c r="B174" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C174" s="10" t="e"/>
-      <c r="D174" s="12" t="n">
-        <v>3790</v>
-      </c>
-      <c r="E174" s="12" t="e"/>
-    </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D174" s="11" t="n">
+        <v>690</v>
+      </c>
+      <c r="E174" s="11" t="e"/>
+    </row>
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
       <c r="B175" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C175" s="10" t="e"/>
       <c r="D175" s="12" t="n">
-        <v>3090</v>
+        <v>1550</v>
       </c>
       <c r="E175" s="12" t="e"/>
     </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+    <row r="176" ht="22" customHeight="true" outlineLevel="1">
       <c r="B176" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C176" s="10" t="e"/>
       <c r="D176" s="12" t="n">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="E176" s="12" t="e"/>
     </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B177" s="10" t="s">
+    <row r="177" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B177" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="10" t="e"/>
-      <c r="D177" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E177" s="12" t="e"/>
     </row>
     <row r="178" ht="22" customHeight="true" outlineLevel="1">
       <c r="B178" s="10" t="s">
@@ -2597,42 +2638,42 @@
       </c>
       <c r="C178" s="10" t="e"/>
       <c r="D178" s="12" t="n">
-        <v>2900</v>
+        <v>1720</v>
       </c>
       <c r="E178" s="12" t="e"/>
     </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B179" s="10" t="s">
+    <row r="179" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B179" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="10" t="e"/>
-      <c r="D179" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E179" s="12" t="e"/>
-    </row>
-    <row r="180" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B180" s="9" t="s">
+    </row>
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B180" s="10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C180" s="10" t="e"/>
+      <c r="D180" s="12" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E180" s="12" t="e"/>
+    </row>
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C181" s="10" t="e"/>
-      <c r="D181" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="E181" s="12" t="e"/>
-    </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D181" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="E181" s="11" t="e"/>
+    </row>
+    <row r="182" ht="11" customHeight="true" outlineLevel="1">
       <c r="B182" s="10" t="s">
         <v>182</v>
       </c>
       <c r="C182" s="10" t="e"/>
       <c r="D182" s="12" t="n">
-        <v>1350</v>
+        <v>1670</v>
       </c>
       <c r="E182" s="12" t="e"/>
     </row>
@@ -2642,27 +2683,27 @@
       </c>
       <c r="C183" s="10" t="e"/>
       <c r="D183" s="12" t="n">
-        <v>1560</v>
+        <v>3790</v>
       </c>
       <c r="E183" s="12" t="e"/>
     </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
       <c r="B184" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C184" s="10" t="e"/>
       <c r="D184" s="12" t="n">
-        <v>1220</v>
+        <v>3090</v>
       </c>
       <c r="E184" s="12" t="e"/>
     </row>
-    <row r="185" ht="22" customHeight="true" outlineLevel="1">
+    <row r="185" ht="11" customHeight="true" outlineLevel="1">
       <c r="B185" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C185" s="10" t="e"/>
       <c r="D185" s="12" t="n">
-        <v>1620</v>
+        <v>1700</v>
       </c>
       <c r="E185" s="12" t="e"/>
     </row>
@@ -2672,17 +2713,17 @@
       </c>
       <c r="C186" s="10" t="e"/>
       <c r="D186" s="12" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="E186" s="12" t="e"/>
     </row>
-    <row r="187" ht="11" customHeight="true" outlineLevel="1">
+    <row r="187" ht="22" customHeight="true" outlineLevel="1">
       <c r="B187" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C187" s="10" t="e"/>
       <c r="D187" s="12" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="E187" s="12" t="e"/>
     </row>
@@ -2691,28 +2732,23 @@
         <v>188</v>
       </c>
       <c r="C188" s="10" t="e"/>
-      <c r="D188" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="E188" s="11" t="e"/>
-    </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B189" s="10" t="s">
+      <c r="D188" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E188" s="12" t="e"/>
+    </row>
+    <row r="189" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B189" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C189" s="10" t="e"/>
-      <c r="D189" s="11" t="n">
-        <v>838</v>
-      </c>
-      <c r="E189" s="11" t="e"/>
-    </row>
-    <row r="190" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="190" ht="22" customHeight="true" outlineLevel="1">
       <c r="B190" s="10" t="s">
         <v>190</v>
       </c>
       <c r="C190" s="10" t="e"/>
       <c r="D190" s="11" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="E190" s="11" t="e"/>
     </row>
@@ -2722,69 +2758,69 @@
       </c>
       <c r="C191" s="10" t="e"/>
       <c r="D191" s="12" t="n">
-        <v>1430</v>
+        <v>1650</v>
       </c>
       <c r="E191" s="12" t="e"/>
     </row>
-    <row r="192" ht="11" customHeight="true" outlineLevel="1">
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
       <c r="B192" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C192" s="10" t="e"/>
-      <c r="D192" s="11" t="n">
-        <v>815</v>
-      </c>
-      <c r="E192" s="11" t="e"/>
+      <c r="D192" s="12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E192" s="12" t="e"/>
     </row>
     <row r="193" ht="22" customHeight="true" outlineLevel="1">
       <c r="B193" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C193" s="10" t="e"/>
-      <c r="D193" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="E193" s="11" t="e"/>
+      <c r="D193" s="12" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E193" s="12" t="e"/>
     </row>
     <row r="194" ht="22" customHeight="true" outlineLevel="1">
       <c r="B194" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C194" s="10" t="e"/>
-      <c r="D194" s="11" t="n">
-        <v>220</v>
-      </c>
-      <c r="E194" s="11" t="e"/>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D194" s="12" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E194" s="12" t="e"/>
+    </row>
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
       <c r="B195" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C195" s="10" t="e"/>
-      <c r="D195" s="11" t="n">
-        <v>320</v>
-      </c>
-      <c r="E195" s="11" t="e"/>
+      <c r="D195" s="12" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E195" s="12" t="e"/>
     </row>
     <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C196" s="10" t="e"/>
-      <c r="D196" s="11" t="n">
-        <v>390</v>
-      </c>
-      <c r="E196" s="11" t="e"/>
+      <c r="D196" s="12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E196" s="12" t="e"/>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="10" t="s">
         <v>197</v>
       </c>
       <c r="C197" s="10" t="e"/>
-      <c r="D197" s="11" t="n">
-        <v>770</v>
-      </c>
-      <c r="E197" s="11" t="e"/>
+      <c r="D197" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E197" s="12" t="e"/>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
       <c r="B198" s="10" t="s">
@@ -2792,7 +2828,7 @@
       </c>
       <c r="C198" s="10" t="e"/>
       <c r="D198" s="11" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="E198" s="11" t="e"/>
     </row>
@@ -2802,7 +2838,7 @@
       </c>
       <c r="C199" s="10" t="e"/>
       <c r="D199" s="11" t="n">
-        <v>770</v>
+        <v>838</v>
       </c>
       <c r="E199" s="11" t="e"/>
     </row>
@@ -2812,19 +2848,19 @@
       </c>
       <c r="C200" s="10" t="e"/>
       <c r="D200" s="11" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="E200" s="11" t="e"/>
     </row>
-    <row r="201" ht="11" customHeight="true" outlineLevel="1">
+    <row r="201" ht="22" customHeight="true" outlineLevel="1">
       <c r="B201" s="10" t="s">
         <v>201</v>
       </c>
       <c r="C201" s="10" t="e"/>
-      <c r="D201" s="11" t="n">
-        <v>680</v>
-      </c>
-      <c r="E201" s="11" t="e"/>
+      <c r="D201" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="E201" s="12" t="e"/>
     </row>
     <row r="202" ht="11" customHeight="true" outlineLevel="1">
       <c r="B202" s="10" t="s">
@@ -2832,177 +2868,187 @@
       </c>
       <c r="C202" s="10" t="e"/>
       <c r="D202" s="11" t="n">
-        <v>265</v>
+        <v>815</v>
       </c>
       <c r="E202" s="11" t="e"/>
     </row>
-    <row r="203" ht="11" customHeight="true" outlineLevel="1">
+    <row r="203" ht="22" customHeight="true" outlineLevel="1">
       <c r="B203" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C203" s="10" t="e"/>
       <c r="D203" s="11" t="n">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="E203" s="11" t="e"/>
     </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+    <row r="204" ht="22" customHeight="true" outlineLevel="1">
       <c r="B204" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C204" s="10" t="e"/>
       <c r="D204" s="11" t="n">
-        <v>545</v>
+        <v>220</v>
       </c>
       <c r="E204" s="11" t="e"/>
     </row>
-    <row r="205" ht="22" customHeight="true" outlineLevel="1">
+    <row r="205" ht="11" customHeight="true" outlineLevel="1">
       <c r="B205" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C205" s="10" t="e"/>
-      <c r="D205" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="E205" s="12" t="e"/>
-    </row>
-    <row r="206" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D205" s="11" t="n">
+        <v>320</v>
+      </c>
+      <c r="E205" s="11" t="e"/>
+    </row>
+    <row r="206" ht="11" customHeight="true" outlineLevel="1">
       <c r="B206" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C206" s="10" t="e"/>
-      <c r="D206" s="12" t="n">
-        <v>1580</v>
-      </c>
-      <c r="E206" s="12" t="e"/>
-    </row>
-    <row r="207" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D206" s="11" t="n">
+        <v>390</v>
+      </c>
+      <c r="E206" s="11" t="e"/>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
       <c r="B207" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C207" s="10" t="e"/>
       <c r="D207" s="11" t="n">
-        <v>370</v>
+        <v>770</v>
       </c>
       <c r="E207" s="11" t="e"/>
     </row>
-    <row r="208" ht="22" customHeight="true" outlineLevel="1">
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C208" s="10" t="e"/>
       <c r="D208" s="11" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="E208" s="11" t="e"/>
     </row>
-    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
       <c r="B209" s="10" t="s">
         <v>209</v>
       </c>
       <c r="C209" s="10" t="e"/>
       <c r="D209" s="11" t="n">
-        <v>242</v>
+        <v>520</v>
       </c>
       <c r="E209" s="11" t="e"/>
     </row>
-    <row r="210" ht="22" customHeight="true" outlineLevel="1">
+    <row r="210" ht="11" customHeight="true" outlineLevel="1">
       <c r="B210" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C210" s="10" t="e"/>
       <c r="D210" s="11" t="n">
-        <v>280</v>
+        <v>770</v>
       </c>
       <c r="E210" s="11" t="e"/>
     </row>
-    <row r="211" ht="22" customHeight="true" outlineLevel="1">
+    <row r="211" ht="11" customHeight="true" outlineLevel="1">
       <c r="B211" s="10" t="s">
         <v>211</v>
       </c>
       <c r="C211" s="10" t="e"/>
-      <c r="D211" s="12" t="n">
-        <v>1370</v>
-      </c>
-      <c r="E211" s="12" t="e"/>
+      <c r="D211" s="11" t="n">
+        <v>380</v>
+      </c>
+      <c r="E211" s="11" t="e"/>
     </row>
     <row r="212" ht="11" customHeight="true" outlineLevel="1">
       <c r="B212" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C212" s="10" t="e"/>
-      <c r="D212" s="12" t="n">
-        <v>1110</v>
-      </c>
-      <c r="E212" s="12" t="e"/>
-    </row>
-    <row r="213" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B213" s="9" t="s">
+      <c r="D212" s="11" t="n">
+        <v>680</v>
+      </c>
+      <c r="E212" s="11" t="e"/>
+    </row>
+    <row r="213" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B213" s="10" t="s">
         <v>213</v>
       </c>
+      <c r="C213" s="10" t="e"/>
+      <c r="D213" s="11" t="n">
+        <v>265</v>
+      </c>
+      <c r="E213" s="11" t="e"/>
     </row>
     <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C214" s="10" t="e"/>
-      <c r="D214" s="12" t="n">
-        <v>1699</v>
-      </c>
-      <c r="E214" s="12" t="e"/>
-    </row>
-    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D214" s="11" t="n">
+        <v>660</v>
+      </c>
+      <c r="E214" s="11" t="e"/>
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
       <c r="B215" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C215" s="10" t="e"/>
       <c r="D215" s="11" t="n">
-        <v>760</v>
+        <v>545</v>
       </c>
       <c r="E215" s="11" t="e"/>
     </row>
-    <row r="216" ht="33" customHeight="true" outlineLevel="1">
+    <row r="216" ht="22" customHeight="true" outlineLevel="1">
       <c r="B216" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C216" s="10" t="e"/>
       <c r="D216" s="11" t="n">
-        <v>938</v>
+        <v>480</v>
       </c>
       <c r="E216" s="11" t="e"/>
     </row>
-    <row r="217" ht="33" customHeight="true" outlineLevel="1">
+    <row r="217" ht="22" customHeight="true" outlineLevel="1">
       <c r="B217" s="10" t="s">
         <v>217</v>
       </c>
       <c r="C217" s="10" t="e"/>
-      <c r="D217" s="11" t="n">
-        <v>476</v>
-      </c>
-      <c r="E217" s="11" t="e"/>
+      <c r="D217" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E217" s="12" t="e"/>
     </row>
     <row r="218" ht="22" customHeight="true" outlineLevel="1">
       <c r="B218" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C218" s="10" t="e"/>
-      <c r="D218" s="11" t="n">
-        <v>198</v>
-      </c>
-      <c r="E218" s="11" t="e"/>
-    </row>
-    <row r="219" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B219" s="9" t="s">
+      <c r="D218" s="12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E218" s="12" t="e"/>
+    </row>
+    <row r="219" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B219" s="10" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="220" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C219" s="10" t="e"/>
+      <c r="D219" s="11" t="n">
+        <v>370</v>
+      </c>
+      <c r="E219" s="11" t="e"/>
+    </row>
+    <row r="220" ht="22" customHeight="true" outlineLevel="1">
       <c r="B220" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C220" s="10" t="e"/>
       <c r="D220" s="11" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="E220" s="11" t="e"/>
     </row>
@@ -3012,7 +3058,7 @@
       </c>
       <c r="C221" s="10" t="e"/>
       <c r="D221" s="11" t="n">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="E221" s="11" t="e"/>
     </row>
@@ -3022,49 +3068,44 @@
       </c>
       <c r="C222" s="10" t="e"/>
       <c r="D222" s="11" t="n">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="E222" s="11" t="e"/>
     </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
       <c r="B223" s="10" t="s">
         <v>223</v>
       </c>
       <c r="C223" s="10" t="e"/>
-      <c r="D223" s="11" t="n">
-        <v>202</v>
-      </c>
-      <c r="E223" s="11" t="e"/>
-    </row>
-    <row r="224" ht="22" customHeight="true" outlineLevel="1">
+      <c r="D223" s="12" t="n">
+        <v>1370</v>
+      </c>
+      <c r="E223" s="12" t="e"/>
+    </row>
+    <row r="224" ht="11" customHeight="true" outlineLevel="1">
       <c r="B224" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C224" s="10" t="e"/>
-      <c r="D224" s="11" t="n">
-        <v>490</v>
-      </c>
-      <c r="E224" s="11" t="e"/>
-    </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B225" s="10" t="s">
+      <c r="D224" s="12" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E224" s="12" t="e"/>
+    </row>
+    <row r="225" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B225" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C225" s="10" t="e"/>
-      <c r="D225" s="11" t="n">
-        <v>493</v>
-      </c>
-      <c r="E225" s="11" t="e"/>
-    </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="226" ht="11" customHeight="true" outlineLevel="1">
       <c r="B226" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C226" s="10" t="e"/>
-      <c r="D226" s="11" t="n">
-        <v>346</v>
-      </c>
-      <c r="E226" s="11" t="e"/>
+      <c r="D226" s="12" t="n">
+        <v>1699</v>
+      </c>
+      <c r="E226" s="12" t="e"/>
     </row>
     <row r="227" ht="22" customHeight="true" outlineLevel="1">
       <c r="B227" s="10" t="s">
@@ -3072,49 +3113,44 @@
       </c>
       <c r="C227" s="10" t="e"/>
       <c r="D227" s="11" t="n">
-        <v>181</v>
+        <v>760</v>
       </c>
       <c r="E227" s="11" t="e"/>
     </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="1">
+    <row r="228" ht="33" customHeight="true" outlineLevel="1">
       <c r="B228" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C228" s="10" t="e"/>
       <c r="D228" s="11" t="n">
-        <v>338</v>
+        <v>919</v>
       </c>
       <c r="E228" s="11" t="e"/>
     </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+    <row r="229" ht="33" customHeight="true" outlineLevel="1">
       <c r="B229" s="10" t="s">
         <v>229</v>
       </c>
       <c r="C229" s="10" t="e"/>
       <c r="D229" s="11" t="n">
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="E229" s="11" t="e"/>
     </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="1">
+    <row r="230" ht="22" customHeight="true" outlineLevel="1">
       <c r="B230" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C230" s="10" t="e"/>
       <c r="D230" s="11" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E230" s="11" t="e"/>
     </row>
-    <row r="231" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B231" s="10" t="s">
+    <row r="231" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B231" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C231" s="10" t="e"/>
-      <c r="D231" s="11" t="n">
-        <v>398</v>
-      </c>
-      <c r="E231" s="11" t="e"/>
     </row>
     <row r="232" ht="11" customHeight="true" outlineLevel="1">
       <c r="B232" s="10" t="s">
@@ -3122,7 +3158,7 @@
       </c>
       <c r="C232" s="10" t="e"/>
       <c r="D232" s="11" t="n">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="E232" s="11" t="e"/>
     </row>
@@ -3132,7 +3168,7 @@
       </c>
       <c r="C233" s="10" t="e"/>
       <c r="D233" s="11" t="n">
-        <v>448</v>
+        <v>158</v>
       </c>
       <c r="E233" s="11" t="e"/>
     </row>
@@ -3142,7 +3178,7 @@
       </c>
       <c r="C234" s="10" t="e"/>
       <c r="D234" s="11" t="n">
-        <v>478</v>
+        <v>154</v>
       </c>
       <c r="E234" s="11" t="e"/>
     </row>
@@ -3152,17 +3188,17 @@
       </c>
       <c r="C235" s="10" t="e"/>
       <c r="D235" s="11" t="n">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="E235" s="11" t="e"/>
     </row>
-    <row r="236" ht="11" customHeight="true" outlineLevel="1">
+    <row r="236" ht="22" customHeight="true" outlineLevel="1">
       <c r="B236" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C236" s="10" t="e"/>
       <c r="D236" s="11" t="n">
-        <v>346</v>
+        <v>490</v>
       </c>
       <c r="E236" s="11" t="e"/>
     </row>
@@ -3172,12 +3208,132 @@
       </c>
       <c r="C237" s="10" t="e"/>
       <c r="D237" s="11" t="n">
+        <v>493</v>
+      </c>
+      <c r="E237" s="11" t="e"/>
+    </row>
+    <row r="238" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B238" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C238" s="10" t="e"/>
+      <c r="D238" s="11" t="n">
+        <v>346</v>
+      </c>
+      <c r="E238" s="11" t="e"/>
+    </row>
+    <row r="239" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B239" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239" s="10" t="e"/>
+      <c r="D239" s="11" t="n">
+        <v>181</v>
+      </c>
+      <c r="E239" s="11" t="e"/>
+    </row>
+    <row r="240" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B240" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C240" s="10" t="e"/>
+      <c r="D240" s="11" t="n">
+        <v>338</v>
+      </c>
+      <c r="E240" s="11" t="e"/>
+    </row>
+    <row r="241" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B241" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C241" s="10" t="e"/>
+      <c r="D241" s="11" t="n">
+        <v>238</v>
+      </c>
+      <c r="E241" s="11" t="e"/>
+    </row>
+    <row r="242" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B242" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242" s="10" t="e"/>
+      <c r="D242" s="11" t="n">
+        <v>188</v>
+      </c>
+      <c r="E242" s="11" t="e"/>
+    </row>
+    <row r="243" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B243" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C243" s="10" t="e"/>
+      <c r="D243" s="11" t="n">
+        <v>398</v>
+      </c>
+      <c r="E243" s="11" t="e"/>
+    </row>
+    <row r="244" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B244" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C244" s="10" t="e"/>
+      <c r="D244" s="11" t="n">
+        <v>394</v>
+      </c>
+      <c r="E244" s="11" t="e"/>
+    </row>
+    <row r="245" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B245" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C245" s="10" t="e"/>
+      <c r="D245" s="11" t="n">
+        <v>448</v>
+      </c>
+      <c r="E245" s="11" t="e"/>
+    </row>
+    <row r="246" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B246" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C246" s="10" t="e"/>
+      <c r="D246" s="11" t="n">
+        <v>478</v>
+      </c>
+      <c r="E246" s="11" t="e"/>
+    </row>
+    <row r="247" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B247" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C247" s="10" t="e"/>
+      <c r="D247" s="11" t="n">
+        <v>238</v>
+      </c>
+      <c r="E247" s="11" t="e"/>
+    </row>
+    <row r="248" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B248" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248" s="10" t="e"/>
+      <c r="D248" s="11" t="n">
+        <v>346</v>
+      </c>
+      <c r="E248" s="11" t="e"/>
+    </row>
+    <row r="249" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B249" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C249" s="10" t="e"/>
+      <c r="D249" s="11" t="n">
         <v>331</v>
       </c>
-      <c r="E237" s="11" t="e"/>
+      <c r="E249" s="11" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="209">
+  <mergeCells count="221">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -3215,18 +3371,18 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
@@ -3236,7 +3392,7 @@
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
@@ -3251,24 +3407,24 @@
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
     <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="D100:E100"/>
     <mergeCell ref="D102:E102"/>
     <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
     <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
     <mergeCell ref="D110:E110"/>
     <mergeCell ref="D111:E111"/>
     <mergeCell ref="D112:E112"/>
@@ -3279,6 +3435,7 @@
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="D118:E118"/>
     <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
     <mergeCell ref="D121:E121"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="D123:E123"/>
@@ -3293,20 +3450,20 @@
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
     <mergeCell ref="D137:E137"/>
     <mergeCell ref="D138:E138"/>
     <mergeCell ref="D139:E139"/>
     <mergeCell ref="D140:E140"/>
     <mergeCell ref="D141:E141"/>
     <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
     <mergeCell ref="D152:E152"/>
     <mergeCell ref="D153:E153"/>
     <mergeCell ref="D154:E154"/>
@@ -3319,19 +3476,19 @@
     <mergeCell ref="D162:E162"/>
     <mergeCell ref="D163:E163"/>
     <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D165:E165"/>
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
     <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
     <mergeCell ref="D171:E171"/>
     <mergeCell ref="D172:E172"/>
     <mergeCell ref="D173:E173"/>
     <mergeCell ref="D174:E174"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
     <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
     <mergeCell ref="D181:E181"/>
     <mergeCell ref="D182:E182"/>
     <mergeCell ref="D183:E183"/>
@@ -3340,7 +3497,6 @@
     <mergeCell ref="D186:E186"/>
     <mergeCell ref="D187:E187"/>
     <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D191:E191"/>
     <mergeCell ref="D192:E192"/>
@@ -3364,29 +3520,41 @@
     <mergeCell ref="D210:E210"/>
     <mergeCell ref="D211:E211"/>
     <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
     <mergeCell ref="D214:E214"/>
     <mergeCell ref="D215:E215"/>
     <mergeCell ref="D216:E216"/>
     <mergeCell ref="D217:E217"/>
     <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
     <mergeCell ref="D220:E220"/>
     <mergeCell ref="D221:E221"/>
     <mergeCell ref="D222:E222"/>
     <mergeCell ref="D223:E223"/>
     <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
     <mergeCell ref="D226:E226"/>
     <mergeCell ref="D227:E227"/>
     <mergeCell ref="D228:E228"/>
     <mergeCell ref="D229:E229"/>
     <mergeCell ref="D230:E230"/>
-    <mergeCell ref="D231:E231"/>
     <mergeCell ref="D232:E232"/>
     <mergeCell ref="D233:E233"/>
     <mergeCell ref="D234:E234"/>
     <mergeCell ref="D235:E235"/>
     <mergeCell ref="D236:E236"/>
     <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Прайс-лист</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
   </si>
   <si>
-    <t>Перец Халапеньо зеленый маринованный резаный 3100мл, Египет</t>
-  </si>
-  <si>
     <t>Рыбный бульон "Хондаши"</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Горчичный порошок васаби "OSHI Премиум"</t>
   </si>
   <si>
-    <t>Морская капуста сушеная нори "ASA Professional", Корея, 100л</t>
-  </si>
-  <si>
     <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
   </si>
   <si>
@@ -454,6 +448,9 @@
     <t>Лемонграсс сушеный HOM-D, ResFood, Таиланд, 100гр*30</t>
   </si>
   <si>
+    <t>Лук жареный 1 кг/уп</t>
+  </si>
+  <si>
     <t>Пюре из манго с/м 10% сахара, 1кг, Ravifruit, Франция</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>Салат из водорослей "Чука" </t>
   </si>
   <si>
-    <t>Фасоль зеленая нарезанная шок. заморозка, класс А, Agro Green</t>
-  </si>
-  <si>
     <t>Рис</t>
   </si>
   <si>
@@ -481,6 +475,9 @@
     <t>Рыба ПСГ, ПБГ, С/М</t>
   </si>
   <si>
+    <t>Дорадо н/р 300-400 Турция</t>
+  </si>
+  <si>
     <t>Корюшка н/р, дальневосточная</t>
   </si>
   <si>
@@ -574,9 +571,6 @@
     <t>Соус рисовый Мирин "Padam", Россия, 20 л*1</t>
   </si>
   <si>
-    <t>Уксус рисовый Padam, Россия, 20л*1</t>
-  </si>
-  <si>
     <t>Соусы паназиатские</t>
   </si>
   <si>
@@ -586,9 +580,6 @@
     <t>Заправка "Греческий салат" 1,9кг, Provil, Греция</t>
   </si>
   <si>
-    <t>Соус "Барбекю Америка", - 2,3 кг, Provil, Греция</t>
-  </si>
-  <si>
     <t>Соус "Барбекю Голд",2,4 кг,  Provil, Греция</t>
   </si>
   <si>
@@ -716,9 +707,6 @@
   </si>
   <si>
     <t>Фрукты "Манго" сорт Альфонсо, слайсы (Индия) 1кг</t>
-  </si>
-  <si>
-    <t>Ягодная смесь "Компотная №1" Фрост, 1кг</t>
   </si>
   <si>
     <t>Ягоды "Брусника" /класс 1/ Россия, 1кг</t>
@@ -947,7 +935,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D242"/>
+  <dimension ref="D238"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1205,7 +1193,7 @@
       </c>
       <c r="D30" s="11" t="e"/>
     </row>
-    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
       <c r="B31" s="10" t="s">
         <v>30</v>
       </c>
@@ -1218,40 +1206,40 @@
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="11" t="n">
-        <v>600</v>
-      </c>
-      <c r="D32" s="11" t="e"/>
-    </row>
-    <row r="33" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B33" s="10" t="s">
+      <c r="C32" s="12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D32" s="12" t="e"/>
+    </row>
+    <row r="33" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="12" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D33" s="12" t="e"/>
-    </row>
-    <row r="34" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B34" s="9" t="s">
+    </row>
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="C34" s="11" t="n">
+        <v>870</v>
+      </c>
+      <c r="D34" s="11" t="e"/>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="11" t="n">
-        <v>870</v>
+        <v>955</v>
       </c>
       <c r="D35" s="11" t="e"/>
     </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+    <row r="36" ht="22" customHeight="true" outlineLevel="1">
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>955</v>
+        <v>550</v>
       </c>
       <c r="D36" s="11" t="e"/>
     </row>
@@ -1260,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="D37" s="11" t="e"/>
     </row>
@@ -1269,7 +1257,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="D38" s="11" t="e"/>
     </row>
@@ -1278,94 +1266,94 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D39" s="11" t="e"/>
     </row>
-    <row r="40" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B40" s="10" t="s">
+    <row r="40" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="11" t="n">
-        <v>580</v>
-      </c>
-      <c r="D40" s="11" t="e"/>
-    </row>
-    <row r="41" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="41" ht="11" customHeight="true" outlineLevel="1">
       <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="11" t="n">
-        <v>580</v>
+        <v>144</v>
       </c>
       <c r="D41" s="11" t="e"/>
     </row>
-    <row r="42" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B42" s="9" t="s">
+    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B43" s="10" t="s">
+      <c r="C42" s="11" t="n">
+        <v>143</v>
+      </c>
+      <c r="D42" s="11" t="e"/>
+    </row>
+    <row r="43" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="11" t="n">
-        <v>144</v>
-      </c>
-      <c r="D43" s="11" t="e"/>
-    </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="44" ht="22" customHeight="true" outlineLevel="1">
       <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="11" t="n">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D44" s="11" t="e"/>
     </row>
-    <row r="45" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B45" s="9" t="s">
+    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C45" s="11" t="n">
+        <v>64</v>
+      </c>
+      <c r="D45" s="11" t="e"/>
+    </row>
+    <row r="46" ht="11" customHeight="true" outlineLevel="1">
       <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="11" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D46" s="11" t="e"/>
     </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B47" s="10" t="s">
+    <row r="47" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="11" t="n">
-        <v>64</v>
-      </c>
-      <c r="D47" s="11" t="e"/>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="48" ht="22" customHeight="true" outlineLevel="1">
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>110</v>
+        <v>760</v>
       </c>
       <c r="D48" s="11" t="e"/>
     </row>
-    <row r="49" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B49" s="9" t="s">
+    <row r="49" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B49" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="C49" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D49" s="11" t="e"/>
     </row>
     <row r="50" ht="22" customHeight="true" outlineLevel="1">
       <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="11" t="n">
-        <v>760</v>
+        <v>590</v>
       </c>
       <c r="D50" s="11" t="e"/>
     </row>
@@ -1374,7 +1362,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="11" t="n">
-        <v>760</v>
+        <v>590</v>
       </c>
       <c r="D51" s="11" t="e"/>
     </row>
@@ -1387,67 +1375,67 @@
       </c>
       <c r="D52" s="11" t="e"/>
     </row>
-    <row r="53" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B53" s="10" t="s">
+    <row r="53" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B53" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="11" t="n">
-        <v>590</v>
-      </c>
-      <c r="D53" s="11" t="e"/>
     </row>
     <row r="54" ht="22" customHeight="true" outlineLevel="1">
       <c r="B54" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="11" t="n">
-        <v>590</v>
+        <v>820</v>
       </c>
       <c r="D54" s="11" t="e"/>
     </row>
-    <row r="55" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B55" s="9" t="s">
+    <row r="55" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B55" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="C55" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="D55" s="11" t="e"/>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>820</v>
+        <v>680</v>
       </c>
       <c r="D56" s="11" t="e"/>
     </row>
-    <row r="57" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B57" s="10" t="s">
+    <row r="57" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B57" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D57" s="11" t="e"/>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
       <c r="B58" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="11" t="n">
-        <v>680</v>
+        <v>170</v>
       </c>
       <c r="D58" s="11" t="e"/>
     </row>
-    <row r="59" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B59" s="9" t="s">
+    <row r="59" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="C59" s="11" t="n">
+        <v>250</v>
+      </c>
+      <c r="D59" s="11" t="e"/>
     </row>
     <row r="60" ht="22" customHeight="true" outlineLevel="1">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="11" t="n">
-        <v>170</v>
+        <v>950</v>
       </c>
       <c r="D60" s="11" t="e"/>
     </row>
@@ -1456,7 +1444,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="11" t="n">
-        <v>250</v>
+        <v>594</v>
       </c>
       <c r="D61" s="11" t="e"/>
     </row>
@@ -1465,7 +1453,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="11" t="n">
-        <v>950</v>
+        <v>590</v>
       </c>
       <c r="D62" s="11" t="e"/>
     </row>
@@ -1474,7 +1462,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="11" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="D63" s="11" t="e"/>
     </row>
@@ -1483,7 +1471,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="11" t="n">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="D64" s="11" t="e"/>
     </row>
@@ -1492,7 +1480,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="11" t="n">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D65" s="11" t="e"/>
     </row>
@@ -1501,57 +1489,57 @@
         <v>65</v>
       </c>
       <c r="C66" s="11" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="D66" s="11" t="e"/>
     </row>
-    <row r="67" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B67" s="10" t="s">
+    <row r="67" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B67" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="11" t="n">
-        <v>256</v>
-      </c>
-      <c r="D67" s="11" t="e"/>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
       <c r="B68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="D68" s="11" t="e"/>
-    </row>
-    <row r="69" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B69" s="9" t="s">
+      <c r="C68" s="12" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D68" s="12" t="e"/>
+    </row>
+    <row r="69" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B69" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C69" s="11" t="n">
+        <v>490</v>
+      </c>
+      <c r="D69" s="11" t="e"/>
+    </row>
+    <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="B70" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="12" t="n">
-        <v>1590</v>
-      </c>
-      <c r="D70" s="12" t="e"/>
-    </row>
-    <row r="71" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C70" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D70" s="11" t="e"/>
+    </row>
+    <row r="71" ht="11" customHeight="true" outlineLevel="1">
       <c r="B71" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="11" t="n">
-        <v>490</v>
-      </c>
-      <c r="D71" s="11" t="e"/>
-    </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C71" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D71" s="12" t="e"/>
+    </row>
+    <row r="72" ht="22" customHeight="true" outlineLevel="1">
       <c r="B72" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="11" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D72" s="11" t="e"/>
     </row>
@@ -1559,26 +1547,26 @@
       <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D73" s="12" t="e"/>
-    </row>
-    <row r="74" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C73" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D73" s="11" t="e"/>
+    </row>
+    <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="B74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="11" t="n">
-        <v>380</v>
-      </c>
-      <c r="D74" s="11" t="e"/>
-    </row>
-    <row r="75" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C74" s="12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D74" s="12" t="e"/>
+    </row>
+    <row r="75" ht="33" customHeight="true" outlineLevel="1">
       <c r="B75" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="11" t="n">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="D75" s="11" t="e"/>
     </row>
@@ -1586,94 +1574,94 @@
       <c r="B76" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="12" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D76" s="12" t="e"/>
-    </row>
-    <row r="77" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C76" s="11" t="n">
+        <v>395</v>
+      </c>
+      <c r="D76" s="11" t="e"/>
+    </row>
+    <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="B77" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="11" t="n">
-        <v>305</v>
-      </c>
-      <c r="D77" s="11" t="e"/>
-    </row>
-    <row r="78" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C77" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D77" s="12" t="e"/>
+    </row>
+    <row r="78" ht="22" customHeight="true" outlineLevel="1">
       <c r="B78" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="11" t="n">
-        <v>395</v>
+        <v>560</v>
       </c>
       <c r="D78" s="11" t="e"/>
     </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
+    <row r="79" ht="22" customHeight="true" outlineLevel="1">
       <c r="B79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D79" s="12" t="e"/>
+      <c r="C79" s="11" t="n">
+        <v>212</v>
+      </c>
+      <c r="D79" s="11" t="e"/>
     </row>
     <row r="80" ht="22" customHeight="true" outlineLevel="1">
       <c r="B80" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="11" t="n">
-        <v>560</v>
+        <v>222</v>
       </c>
       <c r="D80" s="11" t="e"/>
     </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="B81" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="11" t="n">
-        <v>222</v>
-      </c>
-      <c r="D81" s="11" t="e"/>
+      <c r="C81" s="12" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D81" s="12" t="e"/>
     </row>
     <row r="82" ht="22" customHeight="true" outlineLevel="1">
       <c r="B82" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="11" t="n">
-        <v>222</v>
-      </c>
-      <c r="D82" s="11" t="e"/>
-    </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B83" s="10" t="s">
+      <c r="C82" s="12" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D82" s="12" t="e"/>
+    </row>
+    <row r="83" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B83" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D83" s="12" t="e"/>
-    </row>
-    <row r="84" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="12" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D84" s="12" t="e"/>
-    </row>
-    <row r="85" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B85" s="9" t="s">
+      <c r="C84" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="D84" s="11" t="e"/>
+    </row>
+    <row r="85" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B85" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C85" s="11" t="n">
+        <v>990</v>
+      </c>
+      <c r="D85" s="11" t="e"/>
+    </row>
+    <row r="86" ht="22" customHeight="true" outlineLevel="1">
       <c r="B86" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="11" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="D86" s="11" t="e"/>
     </row>
@@ -1682,7 +1670,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="11" t="n">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="D87" s="11" t="e"/>
     </row>
@@ -1691,66 +1679,62 @@
         <v>87</v>
       </c>
       <c r="C88" s="11" t="n">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="D88" s="11" t="e"/>
     </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B89" s="10" t="s">
+    <row r="89" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="D89" s="11" t="e"/>
     </row>
     <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="11" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="D90" s="11" t="e"/>
     </row>
-    <row r="91" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B91" s="9" t="s">
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B91" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C91" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="D91" s="11" t="e"/>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="B92" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="11" t="n">
-        <v>930</v>
-      </c>
-      <c r="D92" s="11" t="e"/>
-    </row>
-    <row r="93" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C92" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D92" s="12" t="e"/>
+    </row>
+    <row r="93" ht="33" customHeight="true" outlineLevel="1">
       <c r="B93" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="11" t="n">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="D93" s="11" t="e"/>
     </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B94" s="10" t="s">
+    <row r="94" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B94" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D94" s="12" t="e"/>
-    </row>
-    <row r="95" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="95" ht="22" customHeight="true" outlineLevel="1">
       <c r="B95" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="11" t="n">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="D95" s="11" t="e"/>
     </row>
@@ -1759,99 +1743,103 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" ht="22" customHeight="true" outlineLevel="1">
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="B97" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="11" t="n">
-        <v>940</v>
+        <v>225</v>
       </c>
       <c r="D97" s="11" t="e"/>
     </row>
-    <row r="98" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B98" s="9" t="s">
+    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B98" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C98" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D98" s="11" t="e"/>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="B99" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C99" s="11" t="n">
-        <v>225</v>
+        <v>680</v>
       </c>
       <c r="D99" s="11" t="e"/>
     </row>
-    <row r="100" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B100" s="10" t="s">
+    <row r="100" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B100" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="11" t="n">
-        <v>760</v>
-      </c>
-      <c r="D100" s="11" t="e"/>
-    </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
       <c r="B101" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>680</v>
+        <v>180</v>
       </c>
       <c r="D101" s="11" t="e"/>
     </row>
-    <row r="102" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B102" s="9" t="s">
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B102" s="10" t="s">
         <v>101</v>
       </c>
+      <c r="C102" s="11" t="n">
+        <v>322</v>
+      </c>
+      <c r="D102" s="11" t="e"/>
     </row>
     <row r="103" ht="22" customHeight="true" outlineLevel="1">
       <c r="B103" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="11" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D103" s="11" t="e"/>
     </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+    <row r="104" ht="22" customHeight="true" outlineLevel="1">
       <c r="B104" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="D104" s="11" t="e"/>
     </row>
-    <row r="105" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B105" s="10" t="s">
+    <row r="105" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B105" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="11" t="n">
-        <v>160</v>
-      </c>
-      <c r="D105" s="11" t="e"/>
-    </row>
-    <row r="106" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="B106" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="11" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="D106" s="11" t="e"/>
     </row>
-    <row r="107" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B107" s="9" t="s">
+    <row r="107" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B107" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C107" s="11" t="n">
+        <v>205</v>
+      </c>
+      <c r="D107" s="11" t="e"/>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
       <c r="B108" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="11" t="n">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="D108" s="11" t="e"/>
     </row>
@@ -1860,25 +1848,25 @@
         <v>108</v>
       </c>
       <c r="C109" s="11" t="n">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="D109" s="11" t="e"/>
     </row>
-    <row r="110" ht="22" customHeight="true" outlineLevel="1">
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="B110" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="11" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="D110" s="11" t="e"/>
     </row>
-    <row r="111" ht="22" customHeight="true" outlineLevel="1">
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="B111" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="D111" s="11" t="e"/>
     </row>
@@ -1887,34 +1875,34 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D112" s="11" t="e"/>
     </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
       <c r="B113" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="11" t="n">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D113" s="11" t="e"/>
     </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
+    <row r="114" ht="22" customHeight="true" outlineLevel="1">
       <c r="B114" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="11" t="n">
-        <v>55</v>
+        <v>836</v>
       </c>
       <c r="D114" s="11" t="e"/>
     </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="11" t="n">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D115" s="11" t="e"/>
     </row>
@@ -1923,16 +1911,16 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="n">
-        <v>836</v>
+        <v>145</v>
       </c>
       <c r="D116" s="11" t="e"/>
     </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+    <row r="117" ht="33" customHeight="true" outlineLevel="1">
       <c r="B117" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="11" t="n">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="D117" s="11" t="e"/>
     </row>
@@ -1941,16 +1929,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="n">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="D118" s="11" t="e"/>
     </row>
-    <row r="119" ht="33" customHeight="true" outlineLevel="1">
+    <row r="119" ht="22" customHeight="true" outlineLevel="1">
       <c r="B119" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="11" t="n">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="D119" s="11" t="e"/>
     </row>
@@ -1959,7 +1947,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="n">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D120" s="11" t="e"/>
     </row>
@@ -1968,7 +1956,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="n">
-        <v>165</v>
+        <v>830</v>
       </c>
       <c r="D121" s="11" t="e"/>
     </row>
@@ -1977,7 +1965,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>163</v>
+        <v>830</v>
       </c>
       <c r="D122" s="11" t="e"/>
     </row>
@@ -1990,35 +1978,35 @@
       </c>
       <c r="D123" s="11" t="e"/>
     </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B124" s="10" t="s">
+    <row r="124" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="11" t="n">
-        <v>830</v>
-      </c>
-      <c r="D124" s="11" t="e"/>
-    </row>
-    <row r="125" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="B125" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="11" t="n">
-        <v>830</v>
+        <v>275</v>
       </c>
       <c r="D125" s="11" t="e"/>
     </row>
-    <row r="126" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B126" s="9" t="s">
+    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B126" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C126" s="11" t="n">
+        <v>350</v>
+      </c>
+      <c r="D126" s="11" t="e"/>
+    </row>
+    <row r="127" ht="33" customHeight="true" outlineLevel="1">
       <c r="B127" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>275</v>
+        <v>960</v>
       </c>
       <c r="D127" s="11" t="e"/>
     </row>
@@ -2027,7 +2015,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="n">
-        <v>350</v>
+        <v>518</v>
       </c>
       <c r="D128" s="11" t="e"/>
     </row>
@@ -2035,67 +2023,67 @@
       <c r="B129" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="11" t="n">
-        <v>960</v>
-      </c>
-      <c r="D129" s="11" t="e"/>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C129" s="12" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D129" s="12" t="e"/>
+    </row>
+    <row r="130" ht="33" customHeight="true" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>518</v>
+        <v>730</v>
       </c>
       <c r="D130" s="11" t="e"/>
     </row>
-    <row r="131" ht="33" customHeight="true" outlineLevel="1">
+    <row r="131" ht="22" customHeight="true" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="12" t="n">
-        <v>1210</v>
-      </c>
-      <c r="D131" s="12" t="e"/>
-    </row>
-    <row r="132" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C131" s="11" t="n">
+        <v>635</v>
+      </c>
+      <c r="D131" s="11" t="e"/>
+    </row>
+    <row r="132" ht="22" customHeight="true" outlineLevel="1">
       <c r="B132" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="D132" s="11" t="e"/>
     </row>
-    <row r="133" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B133" s="10" t="s">
+    <row r="133" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B133" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="11" t="n">
-        <v>635</v>
-      </c>
-      <c r="D133" s="11" t="e"/>
     </row>
     <row r="134" ht="22" customHeight="true" outlineLevel="1">
       <c r="B134" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="11" t="n">
-        <v>790</v>
+        <v>580</v>
       </c>
       <c r="D134" s="11" t="e"/>
     </row>
-    <row r="135" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B135" s="9" t="s">
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B135" s="10" t="s">
         <v>134</v>
       </c>
+      <c r="C135" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D135" s="12" t="e"/>
     </row>
     <row r="136" ht="22" customHeight="true" outlineLevel="1">
       <c r="B136" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="11" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="D136" s="11" t="e"/>
     </row>
@@ -2103,35 +2091,35 @@
       <c r="B137" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D137" s="12" t="e"/>
-    </row>
-    <row r="138" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C137" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D137" s="11" t="e"/>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="B138" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C138" s="11" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="D138" s="11" t="e"/>
     </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C139" s="11" t="n">
-        <v>115</v>
+        <v>330</v>
       </c>
       <c r="D139" s="11" t="e"/>
     </row>
-    <row r="140" ht="11" customHeight="true" outlineLevel="1">
+    <row r="140" ht="22" customHeight="true" outlineLevel="1">
       <c r="B140" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="D140" s="11" t="e"/>
     </row>
@@ -2140,16 +2128,16 @@
         <v>140</v>
       </c>
       <c r="C141" s="11" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="D141" s="11" t="e"/>
     </row>
-    <row r="142" ht="22" customHeight="true" outlineLevel="1">
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
       <c r="B142" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>370</v>
+        <v>680</v>
       </c>
       <c r="D142" s="11" t="e"/>
     </row>
@@ -2158,7 +2146,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="11" t="n">
-        <v>220</v>
+        <v>694</v>
       </c>
       <c r="D143" s="11" t="e"/>
     </row>
@@ -2167,41 +2155,41 @@
         <v>143</v>
       </c>
       <c r="C144" s="11" t="n">
-        <v>694</v>
+        <v>200</v>
       </c>
       <c r="D144" s="11" t="e"/>
     </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C145" s="11" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D145" s="11" t="e"/>
     </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B146" s="10" t="s">
+    <row r="146" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B146" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D146" s="11" t="e"/>
-    </row>
-    <row r="147" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="B147" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C147" s="11" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="D147" s="11" t="e"/>
     </row>
-    <row r="148" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B148" s="9" t="s">
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B148" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="C148" s="12" t="n">
+        <v>3350</v>
+      </c>
+      <c r="D148" s="12" t="e"/>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="B149" s="10" t="s">
@@ -2212,80 +2200,80 @@
       </c>
       <c r="D149" s="11" t="e"/>
     </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B150" s="10" t="s">
+    <row r="150" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B150" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="12" t="n">
-        <v>3350</v>
-      </c>
-      <c r="D150" s="12" t="e"/>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C151" s="11" t="n">
-        <v>110</v>
+        <v>640</v>
       </c>
       <c r="D151" s="11" t="e"/>
     </row>
-    <row r="152" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B152" s="9" t="s">
+    <row r="152" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B152" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="C152" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D152" s="11" t="e"/>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D153" s="11" t="e"/>
+      <c r="C153" s="12" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D153" s="12" t="e"/>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="B154" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="12" t="n">
-        <v>1160</v>
-      </c>
-      <c r="D154" s="12" t="e"/>
+      <c r="C154" s="11" t="n">
+        <v>860</v>
+      </c>
+      <c r="D154" s="11" t="e"/>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="11" t="n">
-        <v>860</v>
-      </c>
-      <c r="D155" s="11" t="e"/>
+      <c r="C155" s="12" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D155" s="12" t="e"/>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="1">
       <c r="B156" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="12" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D156" s="12" t="e"/>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C156" s="11" t="n">
+        <v>650</v>
+      </c>
+      <c r="D156" s="11" t="e"/>
+    </row>
+    <row r="157" ht="22" customHeight="true" outlineLevel="1">
       <c r="B157" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="11" t="n">
-        <v>650</v>
-      </c>
-      <c r="D157" s="11" t="e"/>
-    </row>
-    <row r="158" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C157" s="12" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D157" s="12" t="e"/>
+    </row>
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="B158" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C158" s="12" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="D158" s="12" t="e"/>
     </row>
@@ -2294,57 +2282,57 @@
         <v>158</v>
       </c>
       <c r="C159" s="12" t="n">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="D159" s="12" t="e"/>
     </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B160" s="10" t="s">
+    <row r="160" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B160" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D160" s="12" t="e"/>
-    </row>
-    <row r="161" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B161" s="9" t="s">
+    </row>
+    <row r="161" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B161" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C161" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="D161" s="11" t="e"/>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C162" s="11" t="n">
-        <v>950</v>
+        <v>720</v>
       </c>
       <c r="D162" s="11" t="e"/>
     </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+    <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="D163" s="11" t="e"/>
-    </row>
-    <row r="164" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C163" s="12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D163" s="12" t="e"/>
+    </row>
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="B164" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D164" s="12" t="e"/>
-    </row>
-    <row r="165" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C164" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D164" s="11" t="e"/>
+    </row>
+    <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="B165" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C165" s="11" t="n">
-        <v>280</v>
+        <v>990</v>
       </c>
       <c r="D165" s="11" t="e"/>
     </row>
@@ -2352,17 +2340,17 @@
       <c r="B166" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="D166" s="11" t="e"/>
+      <c r="C166" s="12" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D166" s="12" t="e"/>
     </row>
     <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C167" s="12" t="n">
-        <v>1380</v>
+        <v>1260</v>
       </c>
       <c r="D167" s="12" t="e"/>
     </row>
@@ -2370,17 +2358,17 @@
       <c r="B168" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="12" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D168" s="12" t="e"/>
+      <c r="C168" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="D168" s="11" t="e"/>
     </row>
     <row r="169" ht="22" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="D169" s="11" t="e"/>
     </row>
@@ -2388,81 +2376,81 @@
       <c r="B170" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="11" t="n">
-        <v>690</v>
-      </c>
-      <c r="D170" s="11" t="e"/>
-    </row>
-    <row r="171" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B171" s="10" t="s">
+      <c r="C170" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D170" s="12" t="e"/>
+    </row>
+    <row r="171" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B171" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="12" t="n">
+    </row>
+    <row r="172" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B172" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C172" s="12" t="n">
         <v>1480</v>
       </c>
-      <c r="D171" s="12" t="e"/>
-    </row>
-    <row r="172" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B172" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D172" s="12" t="e"/>
+    </row>
+    <row r="173" ht="22" customHeight="true" outlineLevel="1">
       <c r="B173" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C173" s="12" t="n">
-        <v>1480</v>
+        <v>1650</v>
       </c>
       <c r="D173" s="12" t="e"/>
     </row>
-    <row r="174" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B174" s="10" t="s">
+    <row r="174" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B174" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D174" s="12" t="e"/>
-    </row>
-    <row r="175" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B175" s="9" t="s">
+    </row>
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B175" s="10" t="s">
         <v>174</v>
       </c>
+      <c r="C175" s="12" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D175" s="12" t="e"/>
     </row>
     <row r="176" ht="22" customHeight="true" outlineLevel="1">
       <c r="B176" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C176" s="12" t="n">
-        <v>1820</v>
+        <v>2000</v>
       </c>
       <c r="D176" s="12" t="e"/>
     </row>
-    <row r="177" ht="22" customHeight="true" outlineLevel="1">
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
       <c r="B177" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D177" s="12" t="e"/>
-    </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C177" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D177" s="11" t="e"/>
+    </row>
+    <row r="178" ht="22" customHeight="true" outlineLevel="1">
       <c r="B178" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="D178" s="11" t="e"/>
-    </row>
-    <row r="179" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C178" s="12" t="n">
+        <v>3790</v>
+      </c>
+      <c r="D178" s="12" t="e"/>
+    </row>
+    <row r="179" ht="11" customHeight="true" outlineLevel="1">
       <c r="B179" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C179" s="12" t="n">
-        <v>3790</v>
+        <v>3090</v>
       </c>
       <c r="D179" s="12" t="e"/>
     </row>
@@ -2471,7 +2459,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="12" t="n">
-        <v>3090</v>
+        <v>1700</v>
       </c>
       <c r="D180" s="12" t="e"/>
     </row>
@@ -2480,57 +2468,57 @@
         <v>180</v>
       </c>
       <c r="C181" s="12" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="D181" s="12" t="e"/>
     </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
       <c r="B182" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C182" s="12" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="D182" s="12" t="e"/>
     </row>
-    <row r="183" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B183" s="10" t="s">
+    <row r="183" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B183" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="12" t="n">
-        <v>2900</v>
-      </c>
-      <c r="D183" s="12" t="e"/>
-    </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D184" s="12" t="e"/>
-    </row>
-    <row r="185" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B185" s="9" t="s">
+      <c r="C184" s="11" t="n">
+        <v>670</v>
+      </c>
+      <c r="D184" s="11" t="e"/>
+    </row>
+    <row r="185" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B185" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="C185" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D185" s="12" t="e"/>
     </row>
     <row r="186" ht="22" customHeight="true" outlineLevel="1">
       <c r="B186" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="11" t="n">
-        <v>670</v>
-      </c>
-      <c r="D186" s="11" t="e"/>
+      <c r="C186" s="12" t="n">
+        <v>1560</v>
+      </c>
+      <c r="D186" s="12" t="e"/>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
       <c r="B187" s="10" t="s">
         <v>186</v>
       </c>
       <c r="C187" s="12" t="n">
-        <v>1650</v>
+        <v>1220</v>
       </c>
       <c r="D187" s="12" t="e"/>
     </row>
@@ -2539,79 +2527,79 @@
         <v>187</v>
       </c>
       <c r="C188" s="12" t="n">
-        <v>1350</v>
+        <v>1620</v>
       </c>
       <c r="D188" s="12" t="e"/>
     </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
       <c r="B189" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C189" s="12" t="n">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="D189" s="12" t="e"/>
     </row>
-    <row r="190" ht="22" customHeight="true" outlineLevel="1">
+    <row r="190" ht="11" customHeight="true" outlineLevel="1">
       <c r="B190" s="10" t="s">
         <v>189</v>
       </c>
       <c r="C190" s="12" t="n">
-        <v>1220</v>
+        <v>1500</v>
       </c>
       <c r="D190" s="12" t="e"/>
     </row>
-    <row r="191" ht="22" customHeight="true" outlineLevel="1">
+    <row r="191" ht="11" customHeight="true" outlineLevel="1">
       <c r="B191" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="12" t="n">
-        <v>1620</v>
-      </c>
-      <c r="D191" s="12" t="e"/>
+      <c r="C191" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D191" s="11" t="e"/>
     </row>
     <row r="192" ht="11" customHeight="true" outlineLevel="1">
       <c r="B192" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="12" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D192" s="12" t="e"/>
+      <c r="C192" s="11" t="n">
+        <v>838</v>
+      </c>
+      <c r="D192" s="11" t="e"/>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
       <c r="B193" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D193" s="12" t="e"/>
-    </row>
-    <row r="194" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C193" s="11" t="n">
+        <v>800</v>
+      </c>
+      <c r="D193" s="11" t="e"/>
+    </row>
+    <row r="194" ht="22" customHeight="true" outlineLevel="1">
       <c r="B194" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="D194" s="11" t="e"/>
+      <c r="C194" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D194" s="12" t="e"/>
     </row>
     <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="D195" s="11" t="e"/>
     </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C196" s="11" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="D196" s="11" t="e"/>
     </row>
@@ -2619,35 +2607,35 @@
       <c r="B197" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="12" t="n">
-        <v>1430</v>
-      </c>
-      <c r="D197" s="12" t="e"/>
+      <c r="C197" s="11" t="n">
+        <v>220</v>
+      </c>
+      <c r="D197" s="11" t="e"/>
     </row>
     <row r="198" ht="11" customHeight="true" outlineLevel="1">
       <c r="B198" s="10" t="s">
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>815</v>
+        <v>320</v>
       </c>
       <c r="D198" s="11" t="e"/>
     </row>
-    <row r="199" ht="22" customHeight="true" outlineLevel="1">
+    <row r="199" ht="11" customHeight="true" outlineLevel="1">
       <c r="B199" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C199" s="11" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D199" s="11" t="e"/>
     </row>
-    <row r="200" ht="22" customHeight="true" outlineLevel="1">
+    <row r="200" ht="11" customHeight="true" outlineLevel="1">
       <c r="B200" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>220</v>
+        <v>770</v>
       </c>
       <c r="D200" s="11" t="e"/>
     </row>
@@ -2656,7 +2644,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="D201" s="11" t="e"/>
     </row>
@@ -2665,7 +2653,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="D202" s="11" t="e"/>
     </row>
@@ -2674,7 +2662,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>770</v>
+        <v>390</v>
       </c>
       <c r="D203" s="11" t="e"/>
     </row>
@@ -2683,7 +2671,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="D204" s="11" t="e"/>
     </row>
@@ -2692,7 +2680,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="11" t="n">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="D205" s="11" t="e"/>
     </row>
@@ -2701,7 +2689,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="11" t="n">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="D206" s="11" t="e"/>
     </row>
@@ -2710,43 +2698,43 @@
         <v>206</v>
       </c>
       <c r="C207" s="11" t="n">
-        <v>680</v>
+        <v>545</v>
       </c>
       <c r="D207" s="11" t="e"/>
     </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+    <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C208" s="11" t="n">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="D208" s="11" t="e"/>
     </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
+    <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="11" t="n">
-        <v>660</v>
-      </c>
-      <c r="D209" s="11" t="e"/>
-    </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C209" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D209" s="12" t="e"/>
+    </row>
+    <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="11" t="n">
-        <v>545</v>
-      </c>
-      <c r="D210" s="11" t="e"/>
+      <c r="C210" s="12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D210" s="12" t="e"/>
     </row>
     <row r="211" ht="22" customHeight="true" outlineLevel="1">
       <c r="B211" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C211" s="11" t="n">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="D211" s="11" t="e"/>
     </row>
@@ -2754,53 +2742,49 @@
       <c r="B212" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C212" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D212" s="12" t="e"/>
+      <c r="C212" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D212" s="11" t="e"/>
     </row>
     <row r="213" ht="22" customHeight="true" outlineLevel="1">
       <c r="B213" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="12" t="n">
-        <v>1580</v>
-      </c>
-      <c r="D213" s="12" t="e"/>
+      <c r="C213" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D213" s="11" t="e"/>
     </row>
     <row r="214" ht="22" customHeight="true" outlineLevel="1">
       <c r="B214" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="11" t="n">
-        <v>370</v>
-      </c>
-      <c r="D214" s="11" t="e"/>
-    </row>
-    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C214" s="12" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D214" s="12" t="e"/>
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
       <c r="B215" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C215" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D215" s="11" t="e"/>
-    </row>
-    <row r="216" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B216" s="10" t="s">
+      <c r="C215" s="12" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D215" s="12" t="e"/>
+    </row>
+    <row r="216" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B216" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C216" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D216" s="11" t="e"/>
     </row>
     <row r="217" ht="22" customHeight="true" outlineLevel="1">
       <c r="B217" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C217" s="12" t="n">
-        <v>1370</v>
+        <v>1650</v>
       </c>
       <c r="D217" s="12" t="e"/>
     </row>
@@ -2809,57 +2793,57 @@
         <v>217</v>
       </c>
       <c r="C218" s="12" t="n">
-        <v>1110</v>
+        <v>1699</v>
       </c>
       <c r="D218" s="12" t="e"/>
     </row>
-    <row r="219" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B219" s="9" t="s">
+    <row r="219" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B219" s="10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C219" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D219" s="11" t="e"/>
+    </row>
+    <row r="220" ht="33" customHeight="true" outlineLevel="1">
       <c r="B220" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C220" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D220" s="12" t="e"/>
-    </row>
-    <row r="221" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C220" s="11" t="n">
+        <v>919</v>
+      </c>
+      <c r="D220" s="11" t="e"/>
+    </row>
+    <row r="221" ht="33" customHeight="true" outlineLevel="1">
       <c r="B221" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C221" s="12" t="n">
-        <v>1699</v>
-      </c>
-      <c r="D221" s="12" t="e"/>
+      <c r="C221" s="11" t="n">
+        <v>476</v>
+      </c>
+      <c r="D221" s="11" t="e"/>
     </row>
     <row r="222" ht="22" customHeight="true" outlineLevel="1">
       <c r="B222" s="10" t="s">
         <v>221</v>
       </c>
       <c r="C222" s="11" t="n">
-        <v>760</v>
+        <v>198</v>
       </c>
       <c r="D222" s="11" t="e"/>
     </row>
-    <row r="223" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B223" s="10" t="s">
+    <row r="223" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B223" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="11" t="n">
-        <v>919</v>
-      </c>
-      <c r="D223" s="11" t="e"/>
-    </row>
-    <row r="224" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="224" ht="11" customHeight="true" outlineLevel="1">
       <c r="B224" s="10" t="s">
         <v>223</v>
       </c>
       <c r="C224" s="11" t="n">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="D224" s="11" t="e"/>
     </row>
@@ -2868,21 +2852,25 @@
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="D225" s="11" t="e"/>
     </row>
-    <row r="226" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B226" s="9" t="s">
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B226" s="10" t="s">
         <v>225</v>
       </c>
+      <c r="C226" s="11" t="n">
+        <v>154</v>
+      </c>
+      <c r="D226" s="11" t="e"/>
     </row>
     <row r="227" ht="11" customHeight="true" outlineLevel="1">
       <c r="B227" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>442</v>
+        <v>202</v>
       </c>
       <c r="D227" s="11" t="e"/>
     </row>
@@ -2891,43 +2879,43 @@
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="D228" s="11" t="e"/>
     </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+    <row r="229" ht="11" customHeight="true" outlineLevel="1">
       <c r="B229" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="D229" s="11" t="e"/>
     </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="1">
+    <row r="230" ht="22" customHeight="true" outlineLevel="1">
       <c r="B230" s="10" t="s">
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="D230" s="11" t="e"/>
     </row>
-    <row r="231" ht="22" customHeight="true" outlineLevel="1">
+    <row r="231" ht="11" customHeight="true" outlineLevel="1">
       <c r="B231" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="D231" s="11" t="e"/>
     </row>
-    <row r="232" ht="22" customHeight="true" outlineLevel="1">
+    <row r="232" ht="11" customHeight="true" outlineLevel="1">
       <c r="B232" s="10" t="s">
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>181</v>
+        <v>398</v>
       </c>
       <c r="D232" s="11" t="e"/>
     </row>
@@ -2936,7 +2924,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="D233" s="11" t="e"/>
     </row>
@@ -2945,16 +2933,16 @@
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="D234" s="11" t="e"/>
     </row>
-    <row r="235" ht="11" customHeight="true" outlineLevel="1">
+    <row r="235" ht="22" customHeight="true" outlineLevel="1">
       <c r="B235" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>188</v>
+        <v>478</v>
       </c>
       <c r="D235" s="11" t="e"/>
     </row>
@@ -2963,7 +2951,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="11" t="n">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="D236" s="11" t="e"/>
     </row>
@@ -2972,57 +2960,21 @@
         <v>236</v>
       </c>
       <c r="C237" s="11" t="n">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="D237" s="11" t="e"/>
     </row>
-    <row r="238" ht="22" customHeight="true" outlineLevel="1">
+    <row r="238" ht="11" customHeight="true" outlineLevel="1">
       <c r="B238" s="10" t="s">
         <v>237</v>
       </c>
       <c r="C238" s="11" t="n">
-        <v>448</v>
+        <v>331</v>
       </c>
       <c r="D238" s="11" t="e"/>
     </row>
-    <row r="239" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B239" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C239" s="11" t="n">
-        <v>478</v>
-      </c>
-      <c r="D239" s="11" t="e"/>
-    </row>
-    <row r="240" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B240" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C240" s="11" t="n">
-        <v>238</v>
-      </c>
-      <c r="D240" s="11" t="e"/>
-    </row>
-    <row r="241" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B241" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C241" s="11" t="n">
-        <v>346</v>
-      </c>
-      <c r="D241" s="11" t="e"/>
-    </row>
-    <row r="242" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B242" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C242" s="11" t="n">
-        <v>331</v>
-      </c>
-      <c r="D242" s="11" t="e"/>
-    </row>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="210">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -3050,27 +3002,27 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
@@ -3078,8 +3030,8 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
@@ -3093,25 +3045,25 @@
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
     <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
     <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
     <mergeCell ref="C108:D108"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="C110:D110"/>
@@ -3128,16 +3080,16 @@
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="C122:D122"/>
     <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
     <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
     <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
     <mergeCell ref="C136:D136"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="C138:D138"/>
@@ -3148,11 +3100,11 @@
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
     <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
     <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
     <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
     <mergeCell ref="C153:D153"/>
     <mergeCell ref="C154:D154"/>
     <mergeCell ref="C155:D155"/>
@@ -3160,7 +3112,7 @@
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="C158:D158"/>
     <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="C163:D163"/>
     <mergeCell ref="C164:D164"/>
@@ -3170,9 +3122,9 @@
     <mergeCell ref="C168:D168"/>
     <mergeCell ref="C169:D169"/>
     <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
     <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="C177:D177"/>
     <mergeCell ref="C178:D178"/>
@@ -3180,8 +3132,8 @@
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C183:D183"/>
     <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
     <mergeCell ref="C186:D186"/>
     <mergeCell ref="C187:D187"/>
     <mergeCell ref="C188:D188"/>
@@ -3212,15 +3164,15 @@
     <mergeCell ref="C213:D213"/>
     <mergeCell ref="C214:D214"/>
     <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
     <mergeCell ref="C217:D217"/>
     <mergeCell ref="C218:D218"/>
+    <mergeCell ref="C219:D219"/>
     <mergeCell ref="C220:D220"/>
     <mergeCell ref="C221:D221"/>
     <mergeCell ref="C222:D222"/>
-    <mergeCell ref="C223:D223"/>
     <mergeCell ref="C224:D224"/>
     <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
     <mergeCell ref="C227:D227"/>
     <mergeCell ref="C228:D228"/>
     <mergeCell ref="C229:D229"/>
@@ -3233,10 +3185,6 @@
     <mergeCell ref="C236:D236"/>
     <mergeCell ref="C237:D237"/>
     <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 16.02.23</t>
+    <t>Цены указаны на 13.03.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -106,15 +106,9 @@
     <t>Паста Том Ям CHANG, Таиланд, 400г</t>
   </si>
   <si>
-    <t>Паста Том Ям, уп. 0,400гр. AROY- D, Тайланд</t>
-  </si>
-  <si>
     <t>Паста Том Ям, уп. 1 кг AROY- D, Тайланд</t>
   </si>
   <si>
-    <t>Паста Том Ям, уп. 400гр. MAE PLOY, Тайланд</t>
-  </si>
-  <si>
     <t>Рыбный бульон "Хондаши"</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Вермишель Бун (500гр.), Вьетнам</t>
   </si>
   <si>
-    <t>Рисовая лапша (500гр.), Вьетнам</t>
-  </si>
-  <si>
     <t>Изделия из бамбука</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>Циновка для роллов 24*24 см</t>
   </si>
   <si>
-    <t>Циновка для роллов 27*27 см</t>
-  </si>
-  <si>
     <t>Икра</t>
   </si>
   <si>
@@ -184,7 +172,10 @@
     <t>Картофель</t>
   </si>
   <si>
-    <t>Картофель фри  10*10 "Фарм Фритес" 2,5кг</t>
+    <t>Картофель фри  10*10 Iglotex Professional, 2,5кг, Польша</t>
+  </si>
+  <si>
+    <t>Картофельные дольки в кожуре Iglotex Professional, 2,5 кг, Польша</t>
   </si>
   <si>
     <t>Картофельные дольки в кожуре со специями Bart`S Gourmet  (2,500кг) упак. Бельгия</t>
@@ -193,6 +184,9 @@
     <t>Картофельные дольки с кожурой, зам, 2.5кг Otomotiv TG San Ve Турция</t>
   </si>
   <si>
+    <t>Картофельные шарики Iglotex Professional 2,5кг, Польша</t>
+  </si>
+  <si>
     <t>Корейские пасты и соусы</t>
   </si>
   <si>
@@ -202,12 +196,18 @@
     <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 0,5 кг, 1/20</t>
   </si>
   <si>
+    <t>Острая перцовая паста Кочудян, т.м. СИНГСОНГ, 2 кг, 1/6</t>
+  </si>
+  <si>
     <t>Паста Деньдянь соевая "Синсонг" 2 кг. 1/6</t>
   </si>
   <si>
     <t>Приправа вкусовая Дашида (говядина) 1кг, Корея</t>
   </si>
   <si>
+    <t>Сироп кукурузный 10кг т.м. DAESANG</t>
+  </si>
+  <si>
     <t>Соус "Курица со специями" острый вкус 2,1 кг пласт/б</t>
   </si>
   <si>
@@ -232,9 +232,6 @@
     <t>Кальмар филе, с/м, б/к б/п, уп/1кг, Россия</t>
   </si>
   <si>
-    <t>Кальмар щупальца 1/24</t>
-  </si>
-  <si>
     <t>Конечности краба, камчатского</t>
   </si>
   <si>
@@ -250,7 +247,7 @@
     <t>Мясо крабовое классическое "Санта Бремор" "Сочное" имитация замороженное 1000г 1/6</t>
   </si>
   <si>
-    <t>Мясо мидии в/м н/ф (200-300) Чили</t>
+    <t>Мясо мидии в/м 1/10 (200-300) н/ф </t>
   </si>
   <si>
     <t>Мясо трубача с/м</t>
@@ -271,6 +268,9 @@
     <t>Салат крабовый, Восточно-Сахалинская подзона</t>
   </si>
   <si>
+    <t>Фаланга чищенная,  8-10см, камчатский краб</t>
+  </si>
+  <si>
     <t>Креветка блочная</t>
   </si>
   <si>
@@ -295,7 +295,7 @@
     <t>Креветка ваннамей, с/м, б/г, очищ. без пищ.тракта, 41/50, 7%, уп. 1кг. Индия</t>
   </si>
   <si>
-    <t>Креветка очищенная с хвостом (30/50) фас 0,5кг, 7% гл  Китай</t>
+    <t>Креветка очищенная с хвостом в/м (30/50) фас 0,5кг, 7% гл  Китай</t>
   </si>
   <si>
     <t>Креветка северная в/м (70-90) фас*1кг</t>
@@ -307,6 +307,9 @@
     <t>Креветка россыпь</t>
   </si>
   <si>
+    <t>Креветка с/м б/г в панцире, 21/25, глазурь 7%, Индонезия</t>
+  </si>
+  <si>
     <t>Креветка с/м, б/г в панцире, 21/25, глазурь 7%,  Индия</t>
   </si>
   <si>
@@ -334,9 +337,6 @@
     <t>Молоко кокосовое консерв. AROY- D 400 мл, ж/б</t>
   </si>
   <si>
-    <t>Сливки Свежее завтра  34%, 1л,  Россия</t>
-  </si>
-  <si>
     <t>Мучная продукция</t>
   </si>
   <si>
@@ -412,6 +412,9 @@
     <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
   </si>
   <si>
+    <t>Луковые кольца 1,5 кг, Турция</t>
+  </si>
+  <si>
     <t>Наггетсы куриные запеченые рубленые в темпуре (пакет) 2кг с/м, SERVOLUX, РБ</t>
   </si>
   <si>
@@ -442,9 +445,6 @@
     <t>Кунжут необжаренный, черный, уп. 1кг, Индия</t>
   </si>
   <si>
-    <t>Кунжут обжаренный, черный, уп. 1кг, Индия</t>
-  </si>
-  <si>
     <t>Лемонграсс сушеный HOM-D, ResFood, Таиланд, 100гр*30</t>
   </si>
   <si>
@@ -466,9 +466,6 @@
     <t>Рис "Hansey", Россия, 25кг*1</t>
   </si>
   <si>
-    <t>Рис IKIGAI 22.68 кг</t>
-  </si>
-  <si>
     <t>Рис Фушигон, среднезерный, Китай, 1кг</t>
   </si>
   <si>
@@ -493,30 +490,27 @@
     <t>Сибас, целый, 300-400г, Турция</t>
   </si>
   <si>
+    <t>Форель ПБГ (2,7- 3,6 кг ) Турция</t>
+  </si>
+  <si>
+    <t>Форель ПБГ (6-9) Китай</t>
+  </si>
+  <si>
+    <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
+  </si>
+  <si>
+    <t>Кларий угревидный жареный в соусе (5-10%), Россия</t>
+  </si>
+  <si>
+    <t>Окунь Изумидай 9-11 oz (Китай)</t>
+  </si>
+  <si>
     <t>Угорь жареный 16-20 унц, б/в (тех), морож филе, Китай</t>
   </si>
   <si>
-    <t>Форель ПБГ (2,7- 3,6 кг ) Турция</t>
-  </si>
-  <si>
-    <t>Форель ПБГ (6-9) Китай</t>
-  </si>
-  <si>
-    <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
-  </si>
-  <si>
-    <t>Кларий угревидный жареный в соусе (5-10%), Россия</t>
-  </si>
-  <si>
-    <t>Окунь Изумидай 9-11 oz (Китай)</t>
-  </si>
-  <si>
     <t>Угорь жареный, б/в (тех), морож филе, Китай</t>
   </si>
   <si>
-    <t>Филе минтая, блок 7,5 кг</t>
-  </si>
-  <si>
     <t>Филе тунца желтоперого с/м ЛОИН А 2кг+, КНР</t>
   </si>
   <si>
@@ -535,6 +529,9 @@
     <t>Форель филе, в/у, 0,6-0,9 кг, Трим С (тм "АльянсПромСнаб")</t>
   </si>
   <si>
+    <t>Щука филе б/к, с/м, 5%, ГОСТ</t>
+  </si>
+  <si>
     <t>Рыба ФИЛЕ СЛАБОСОЛЕНОЕ</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
     <t>Соус "Чили" , - 2,25 кг, Provil, Греция</t>
   </si>
   <si>
-    <t>Соус Барбекю Ресфуд, 1кг, Россия</t>
-  </si>
-  <si>
     <t>Соус Кимчи Tamaki, 1,8л</t>
   </si>
   <si>
@@ -664,6 +658,9 @@
     <t>Соус Шрирача острый Uni- Eagle 475г, пл/б</t>
   </si>
   <si>
+    <t>Соус Шрирача острый Uni- Eagle 815г, пл/б</t>
+  </si>
+  <si>
     <t>Сырный соус "Чеддер Сэндвич крим", - 2,0 к</t>
   </si>
   <si>
@@ -673,12 +670,12 @@
     <t>Сыр. Майонез</t>
   </si>
   <si>
-    <t>Майонез "Провансаль классический" SolPro, 67%, ведро 1/10000 мл.</t>
-  </si>
-  <si>
     <t>Майонез PECHAGIN Profi, 67% 10 л.</t>
   </si>
   <si>
+    <t>Майонез SOLPRO 60%, 1/10 кг</t>
+  </si>
+  <si>
     <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
   </si>
   <si>
@@ -712,9 +709,6 @@
     <t>Ягоды "Брусника" /класс 1/ Россия, 1кг</t>
   </si>
   <si>
-    <t>Ягоды "Вишня" б/к класс 1/ Узбекистан, 1кг</t>
-  </si>
-  <si>
     <t>Ягоды "Клубника" /класс 1/ Египет, 1кг</t>
   </si>
   <si>
@@ -734,9 +728,6 @@
   </si>
   <si>
     <t>Ягоды "Черная смородина" /класс 1/ 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Черника" /класс 1/ Китай, 1кг</t>
   </si>
 </sst>
 </file>
@@ -935,7 +926,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D238"/>
+  <dimension ref="D235"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -986,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="D7" s="12" t="e"/>
     </row>
@@ -1171,66 +1162,66 @@
         <v>27</v>
       </c>
       <c r="C28" s="11" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="D28" s="11" t="e"/>
     </row>
-    <row r="29" ht="22" customHeight="true" outlineLevel="1">
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="11" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="D29" s="11" t="e"/>
     </row>
-    <row r="30" ht="22" customHeight="true" outlineLevel="1">
+    <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11" t="n">
-        <v>220</v>
-      </c>
-      <c r="D30" s="11" t="e"/>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B31" s="10" t="s">
+      <c r="C30" s="12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D30" s="12" t="e"/>
+    </row>
+    <row r="31" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="11" t="n">
-        <v>600</v>
-      </c>
-      <c r="D31" s="11" t="e"/>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="1">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="12" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D32" s="12" t="e"/>
-    </row>
-    <row r="33" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B33" s="9" t="s">
+      <c r="C32" s="11" t="n">
+        <v>870</v>
+      </c>
+      <c r="D32" s="11" t="e"/>
+    </row>
+    <row r="33" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C33" s="11" t="n">
+        <v>955</v>
+      </c>
+      <c r="D33" s="11" t="e"/>
+    </row>
+    <row r="34" ht="22" customHeight="true" outlineLevel="1">
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="11" t="n">
-        <v>870</v>
+        <v>550</v>
       </c>
       <c r="D34" s="11" t="e"/>
     </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+    <row r="35" ht="22" customHeight="true" outlineLevel="1">
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="11" t="n">
-        <v>955</v>
+        <v>350</v>
       </c>
       <c r="D35" s="11" t="e"/>
     </row>
@@ -1239,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="D36" s="11" t="e"/>
     </row>
@@ -1248,25 +1239,21 @@
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="D37" s="11" t="e"/>
     </row>
-    <row r="38" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B38" s="10" t="s">
+    <row r="38" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="11" t="n">
-        <v>580</v>
-      </c>
-      <c r="D38" s="11" t="e"/>
-    </row>
-    <row r="39" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="39" ht="11" customHeight="true" outlineLevel="1">
       <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>580</v>
+        <v>144</v>
       </c>
       <c r="D39" s="11" t="e"/>
     </row>
@@ -1275,12 +1262,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+    <row r="41" ht="22" customHeight="true" outlineLevel="1">
       <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="11" t="n">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D41" s="11" t="e"/>
     </row>
@@ -1289,7 +1276,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="11" t="n">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="D42" s="11" t="e"/>
     </row>
@@ -1303,57 +1290,57 @@
         <v>43</v>
       </c>
       <c r="C44" s="11" t="n">
-        <v>121</v>
+        <v>760</v>
       </c>
       <c r="D44" s="11" t="e"/>
     </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+    <row r="45" ht="22" customHeight="true" outlineLevel="1">
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="11" t="n">
-        <v>64</v>
+        <v>760</v>
       </c>
       <c r="D45" s="11" t="e"/>
     </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+    <row r="46" ht="22" customHeight="true" outlineLevel="1">
       <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="11" t="n">
-        <v>110</v>
+        <v>590</v>
       </c>
       <c r="D46" s="11" t="e"/>
     </row>
-    <row r="47" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B47" s="9" t="s">
+    <row r="47" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B47" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="C47" s="11" t="n">
+        <v>520</v>
+      </c>
+      <c r="D47" s="11" t="e"/>
     </row>
     <row r="48" ht="22" customHeight="true" outlineLevel="1">
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="D48" s="11" t="e"/>
     </row>
-    <row r="49" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B49" s="10" t="s">
+    <row r="49" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="11" t="n">
-        <v>760</v>
-      </c>
-      <c r="D49" s="11" t="e"/>
     </row>
     <row r="50" ht="22" customHeight="true" outlineLevel="1">
       <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="11" t="n">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="D50" s="11" t="e"/>
     </row>
@@ -1362,62 +1349,66 @@
         <v>50</v>
       </c>
       <c r="C51" s="11" t="n">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="D51" s="11" t="e"/>
     </row>
-    <row r="52" ht="22" customHeight="true" outlineLevel="1">
+    <row r="52" ht="33" customHeight="true" outlineLevel="1">
       <c r="B52" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="11" t="n">
-        <v>590</v>
+        <v>750</v>
       </c>
       <c r="D52" s="11" t="e"/>
     </row>
-    <row r="53" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B53" s="9" t="s">
+    <row r="53" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B53" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="C53" s="11" t="n">
+        <v>650</v>
+      </c>
+      <c r="D53" s="11" t="e"/>
     </row>
     <row r="54" ht="22" customHeight="true" outlineLevel="1">
       <c r="B54" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="11" t="n">
-        <v>820</v>
+        <v>880</v>
       </c>
       <c r="D54" s="11" t="e"/>
     </row>
-    <row r="55" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B55" s="10" t="s">
+    <row r="55" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B55" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D55" s="11" t="e"/>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>680</v>
+        <v>170</v>
       </c>
       <c r="D56" s="11" t="e"/>
     </row>
-    <row r="57" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B57" s="9" t="s">
+    <row r="57" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="C57" s="11" t="n">
+        <v>250</v>
+      </c>
+      <c r="D57" s="11" t="e"/>
     </row>
     <row r="58" ht="22" customHeight="true" outlineLevel="1">
       <c r="B58" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="11" t="n">
-        <v>170</v>
+        <v>750</v>
       </c>
       <c r="D58" s="11" t="e"/>
     </row>
@@ -1426,7 +1417,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="11" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="D59" s="11" t="e"/>
     </row>
@@ -1435,18 +1426,18 @@
         <v>59</v>
       </c>
       <c r="C60" s="11" t="n">
-        <v>950</v>
+        <v>594</v>
       </c>
       <c r="D60" s="11" t="e"/>
     </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
+    <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="11" t="n">
-        <v>594</v>
-      </c>
-      <c r="D61" s="11" t="e"/>
+      <c r="C61" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="12" t="e"/>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
       <c r="B62" s="10" t="s">
@@ -1512,7 +1503,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="11" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D69" s="11" t="e"/>
     </row>
@@ -1520,26 +1511,26 @@
       <c r="B70" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="D70" s="11" t="e"/>
-    </row>
-    <row r="71" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C70" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D70" s="12" t="e"/>
+    </row>
+    <row r="71" ht="22" customHeight="true" outlineLevel="1">
       <c r="B71" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D71" s="12" t="e"/>
-    </row>
-    <row r="72" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C71" s="11" t="n">
+        <v>380</v>
+      </c>
+      <c r="D71" s="11" t="e"/>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="B72" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="11" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D72" s="11" t="e"/>
     </row>
@@ -1547,26 +1538,26 @@
       <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="D73" s="11" t="e"/>
-    </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C73" s="12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D73" s="12" t="e"/>
+    </row>
+    <row r="74" ht="33" customHeight="true" outlineLevel="1">
       <c r="B74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="12" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D74" s="12" t="e"/>
-    </row>
-    <row r="75" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C74" s="11" t="n">
+        <v>305</v>
+      </c>
+      <c r="D74" s="11" t="e"/>
+    </row>
+    <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="B75" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C75" s="11" t="n">
-        <v>295</v>
+        <v>410</v>
       </c>
       <c r="D75" s="11" t="e"/>
     </row>
@@ -1574,26 +1565,26 @@
       <c r="B76" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="11" t="n">
-        <v>395</v>
-      </c>
-      <c r="D76" s="11" t="e"/>
-    </row>
-    <row r="77" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C76" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D76" s="12" t="e"/>
+    </row>
+    <row r="77" ht="22" customHeight="true" outlineLevel="1">
       <c r="B77" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D77" s="12" t="e"/>
+      <c r="C77" s="11" t="n">
+        <v>585</v>
+      </c>
+      <c r="D77" s="11" t="e"/>
     </row>
     <row r="78" ht="22" customHeight="true" outlineLevel="1">
       <c r="B78" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="11" t="n">
-        <v>560</v>
+        <v>212</v>
       </c>
       <c r="D78" s="11" t="e"/>
     </row>
@@ -1602,25 +1593,25 @@
         <v>78</v>
       </c>
       <c r="C79" s="11" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D79" s="11" t="e"/>
     </row>
-    <row r="80" ht="22" customHeight="true" outlineLevel="1">
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="B80" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="11" t="n">
-        <v>222</v>
-      </c>
-      <c r="D80" s="11" t="e"/>
-    </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C80" s="12" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D80" s="12" t="e"/>
+    </row>
+    <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="12" t="n">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="D81" s="12" t="e"/>
     </row>
@@ -1629,7 +1620,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="12" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="D82" s="12" t="e"/>
     </row>
@@ -1651,10 +1642,10 @@
       <c r="B85" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="D85" s="11" t="e"/>
+      <c r="C85" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D85" s="12" t="e"/>
     </row>
     <row r="86" ht="22" customHeight="true" outlineLevel="1">
       <c r="B86" s="10" t="s">
@@ -1720,7 +1711,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="11" t="n">
-        <v>958</v>
+        <v>900</v>
       </c>
       <c r="D93" s="11" t="e"/>
     </row>
@@ -1734,71 +1725,71 @@
         <v>94</v>
       </c>
       <c r="C95" s="11" t="n">
+        <v>980</v>
+      </c>
+      <c r="D95" s="11" t="e"/>
+    </row>
+    <row r="96" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B96" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="11" t="n">
         <v>940</v>
       </c>
-      <c r="D95" s="11" t="e"/>
-    </row>
-    <row r="96" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B96" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B97" s="10" t="s">
+      <c r="D96" s="11" t="e"/>
+    </row>
+    <row r="97" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B97" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="11" t="n">
-        <v>225</v>
-      </c>
-      <c r="D97" s="11" t="e"/>
-    </row>
-    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="B98" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="11" t="n">
-        <v>760</v>
+        <v>225</v>
       </c>
       <c r="D98" s="11" t="e"/>
     </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+    <row r="99" ht="22" customHeight="true" outlineLevel="1">
       <c r="B99" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C99" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D99" s="11" t="e"/>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B100" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="11" t="n">
         <v>680</v>
       </c>
-      <c r="D99" s="11" t="e"/>
-    </row>
-    <row r="100" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B100" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B101" s="10" t="s">
+      <c r="D100" s="11" t="e"/>
+    </row>
+    <row r="101" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B101" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="11" t="n">
-        <v>180</v>
-      </c>
-      <c r="D101" s="11" t="e"/>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
       <c r="B102" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="D102" s="11" t="e"/>
     </row>
-    <row r="103" ht="22" customHeight="true" outlineLevel="1">
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="B103" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="11" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="D103" s="11" t="e"/>
     </row>
@@ -1807,7 +1798,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="D104" s="11" t="e"/>
     </row>
@@ -1866,7 +1857,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D111" s="11" t="e"/>
     </row>
@@ -1893,7 +1884,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="n">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D114" s="11" t="e"/>
     </row>
@@ -2006,7 +1997,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="D127" s="11" t="e"/>
     </row>
@@ -2028,21 +2019,21 @@
       </c>
       <c r="D129" s="12" t="e"/>
     </row>
-    <row r="130" ht="33" customHeight="true" outlineLevel="1">
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>730</v>
+        <v>560</v>
       </c>
       <c r="D130" s="11" t="e"/>
     </row>
-    <row r="131" ht="22" customHeight="true" outlineLevel="1">
+    <row r="131" ht="33" customHeight="true" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C131" s="11" t="n">
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="D131" s="11" t="e"/>
     </row>
@@ -2051,48 +2042,48 @@
         <v>131</v>
       </c>
       <c r="C132" s="11" t="n">
+        <v>635</v>
+      </c>
+      <c r="D132" s="11" t="e"/>
+    </row>
+    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B133" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" s="11" t="n">
         <v>790</v>
       </c>
-      <c r="D132" s="11" t="e"/>
-    </row>
-    <row r="133" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B133" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B134" s="10" t="s">
+      <c r="D133" s="11" t="e"/>
+    </row>
+    <row r="134" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B134" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="11" t="n">
-        <v>580</v>
-      </c>
-      <c r="D134" s="11" t="e"/>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="135" ht="22" customHeight="true" outlineLevel="1">
       <c r="B135" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D135" s="12" t="e"/>
-    </row>
-    <row r="136" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C135" s="11" t="n">
+        <v>580</v>
+      </c>
+      <c r="D135" s="11" t="e"/>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="B136" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="11" t="n">
-        <v>170</v>
-      </c>
-      <c r="D136" s="11" t="e"/>
-    </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C136" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D136" s="12" t="e"/>
+    </row>
+    <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C137" s="11" t="n">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="D137" s="11" t="e"/>
     </row>
@@ -2101,16 +2092,16 @@
         <v>137</v>
       </c>
       <c r="C138" s="11" t="n">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="D138" s="11" t="e"/>
     </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="B139" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C139" s="11" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="D139" s="11" t="e"/>
     </row>
@@ -2119,7 +2110,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D140" s="11" t="e"/>
     </row>
@@ -2137,7 +2128,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="D142" s="11" t="e"/>
     </row>
@@ -2186,31 +2177,31 @@
       <c r="B148" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="12" t="n">
-        <v>3350</v>
-      </c>
-      <c r="D148" s="12" t="e"/>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B149" s="10" t="s">
+      <c r="C148" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="D148" s="11" t="e"/>
+    </row>
+    <row r="149" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B149" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="11" t="n">
-        <v>110</v>
-      </c>
-      <c r="D149" s="11" t="e"/>
-    </row>
-    <row r="150" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B150" s="9" t="s">
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B150" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="C150" s="11" t="n">
+        <v>640</v>
+      </c>
+      <c r="D150" s="11" t="e"/>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="B151" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C151" s="11" t="n">
-        <v>640</v>
+        <v>280</v>
       </c>
       <c r="D151" s="11" t="e"/>
     </row>
@@ -2218,230 +2209,230 @@
       <c r="B152" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D152" s="11" t="e"/>
+      <c r="C152" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D152" s="12" t="e"/>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="12" t="n">
-        <v>1160</v>
-      </c>
-      <c r="D153" s="12" t="e"/>
+      <c r="C153" s="11" t="n">
+        <v>860</v>
+      </c>
+      <c r="D153" s="11" t="e"/>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="B154" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="11" t="n">
-        <v>860</v>
-      </c>
-      <c r="D154" s="11" t="e"/>
+      <c r="C154" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D154" s="12" t="e"/>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="12" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D155" s="12" t="e"/>
+      <c r="C155" s="11" t="n">
+        <v>650</v>
+      </c>
+      <c r="D155" s="11" t="e"/>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="1">
       <c r="B156" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="11" t="n">
-        <v>650</v>
-      </c>
-      <c r="D156" s="11" t="e"/>
-    </row>
-    <row r="157" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C156" s="12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D156" s="12" t="e"/>
+    </row>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
       <c r="B157" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C157" s="12" t="n">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="D157" s="12" t="e"/>
     </row>
-    <row r="158" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B158" s="10" t="s">
+    <row r="158" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B158" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D158" s="12" t="e"/>
-    </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="159" ht="22" customHeight="true" outlineLevel="1">
       <c r="B159" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D159" s="12" t="e"/>
-    </row>
-    <row r="160" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B160" s="9" t="s">
+      <c r="C159" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="D159" s="11" t="e"/>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B160" s="10" t="s">
         <v>159</v>
       </c>
+      <c r="C160" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="D160" s="11" t="e"/>
     </row>
     <row r="161" ht="22" customHeight="true" outlineLevel="1">
       <c r="B161" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="D161" s="11" t="e"/>
-    </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C161" s="12" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D161" s="12" t="e"/>
+    </row>
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="D162" s="11" t="e"/>
+      <c r="C162" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D162" s="12" t="e"/>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D163" s="12" t="e"/>
-    </row>
-    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C163" s="11" t="n">
+        <v>990</v>
+      </c>
+      <c r="D163" s="11" t="e"/>
+    </row>
+    <row r="164" ht="22" customHeight="true" outlineLevel="1">
       <c r="B164" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D164" s="11" t="e"/>
+      <c r="C164" s="12" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D164" s="12" t="e"/>
     </row>
     <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="B165" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="D165" s="11" t="e"/>
+      <c r="C165" s="12" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D165" s="12" t="e"/>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
       <c r="B166" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="12" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D166" s="12" t="e"/>
+      <c r="C166" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="D166" s="11" t="e"/>
     </row>
     <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="12" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D167" s="12" t="e"/>
+      <c r="C167" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="D167" s="11" t="e"/>
     </row>
     <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D168" s="11" t="e"/>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C168" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D168" s="12" t="e"/>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>690</v>
+        <v>460</v>
       </c>
       <c r="D169" s="11" t="e"/>
     </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B170" s="10" t="s">
+    <row r="170" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B170" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="12" t="n">
+    </row>
+    <row r="171" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B171" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" s="12" t="n">
         <v>1480</v>
       </c>
-      <c r="D170" s="12" t="e"/>
-    </row>
-    <row r="171" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B171" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" ht="33" customHeight="true" outlineLevel="1">
+      <c r="D171" s="12" t="e"/>
+    </row>
+    <row r="172" ht="22" customHeight="true" outlineLevel="1">
       <c r="B172" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C172" s="12" t="n">
-        <v>1480</v>
+        <v>1650</v>
       </c>
       <c r="D172" s="12" t="e"/>
     </row>
-    <row r="173" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B173" s="10" t="s">
+    <row r="173" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B173" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D173" s="12" t="e"/>
-    </row>
-    <row r="174" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B174" s="9" t="s">
+    </row>
+    <row r="174" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B174" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="C174" s="12" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D174" s="12" t="e"/>
     </row>
     <row r="175" ht="22" customHeight="true" outlineLevel="1">
       <c r="B175" s="10" t="s">
         <v>174</v>
       </c>
       <c r="C175" s="12" t="n">
-        <v>1820</v>
+        <v>2000</v>
       </c>
       <c r="D175" s="12" t="e"/>
     </row>
-    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+    <row r="176" ht="11" customHeight="true" outlineLevel="1">
       <c r="B176" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D176" s="12" t="e"/>
-    </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C176" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D176" s="11" t="e"/>
+    </row>
+    <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="D177" s="11" t="e"/>
-    </row>
-    <row r="178" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C177" s="12" t="n">
+        <v>3790</v>
+      </c>
+      <c r="D177" s="12" t="e"/>
+    </row>
+    <row r="178" ht="11" customHeight="true" outlineLevel="1">
       <c r="B178" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C178" s="12" t="n">
-        <v>3790</v>
+        <v>3090</v>
       </c>
       <c r="D178" s="12" t="e"/>
     </row>
@@ -2450,7 +2441,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="12" t="n">
-        <v>3090</v>
+        <v>1700</v>
       </c>
       <c r="D179" s="12" t="e"/>
     </row>
@@ -2459,48 +2450,48 @@
         <v>179</v>
       </c>
       <c r="C180" s="12" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="D180" s="12" t="e"/>
     </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
       <c r="B181" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C181" s="12" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="D181" s="12" t="e"/>
     </row>
-    <row r="182" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B182" s="10" t="s">
+    <row r="182" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B182" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="12" t="n">
-        <v>2900</v>
-      </c>
-      <c r="D182" s="12" t="e"/>
-    </row>
-    <row r="183" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B183" s="9" t="s">
+    </row>
+    <row r="183" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B183" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="C183" s="11" t="n">
+        <v>670</v>
+      </c>
+      <c r="D183" s="11" t="e"/>
     </row>
     <row r="184" ht="22" customHeight="true" outlineLevel="1">
       <c r="B184" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="11" t="n">
-        <v>670</v>
-      </c>
-      <c r="D184" s="11" t="e"/>
+      <c r="C184" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D184" s="12" t="e"/>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
       <c r="B185" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C185" s="12" t="n">
-        <v>1650</v>
+        <v>1560</v>
       </c>
       <c r="D185" s="12" t="e"/>
     </row>
@@ -2509,7 +2500,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="12" t="n">
-        <v>1560</v>
+        <v>1220</v>
       </c>
       <c r="D186" s="12" t="e"/>
     </row>
@@ -2518,16 +2509,16 @@
         <v>186</v>
       </c>
       <c r="C187" s="12" t="n">
-        <v>1220</v>
+        <v>1620</v>
       </c>
       <c r="D187" s="12" t="e"/>
     </row>
-    <row r="188" ht="22" customHeight="true" outlineLevel="1">
+    <row r="188" ht="11" customHeight="true" outlineLevel="1">
       <c r="B188" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C188" s="12" t="n">
-        <v>1620</v>
+        <v>1300</v>
       </c>
       <c r="D188" s="12" t="e"/>
     </row>
@@ -2536,7 +2527,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="12" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="D189" s="12" t="e"/>
     </row>
@@ -2544,35 +2535,35 @@
       <c r="B190" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D190" s="12" t="e"/>
+      <c r="C190" s="11" t="n">
+        <v>838</v>
+      </c>
+      <c r="D190" s="11" t="e"/>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="1">
       <c r="B191" s="10" t="s">
         <v>190</v>
       </c>
       <c r="C191" s="11" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="D191" s="11" t="e"/>
     </row>
-    <row r="192" ht="11" customHeight="true" outlineLevel="1">
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
       <c r="B192" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="11" t="n">
-        <v>838</v>
-      </c>
-      <c r="D192" s="11" t="e"/>
+      <c r="C192" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D192" s="12" t="e"/>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
       <c r="B193" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C193" s="11" t="n">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="D193" s="11" t="e"/>
     </row>
@@ -2580,35 +2571,35 @@
       <c r="B194" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="12" t="n">
-        <v>1430</v>
-      </c>
-      <c r="D194" s="12" t="e"/>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C194" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D194" s="11" t="e"/>
+    </row>
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
       <c r="B195" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>815</v>
+        <v>220</v>
       </c>
       <c r="D195" s="11" t="e"/>
     </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C196" s="11" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="D196" s="11" t="e"/>
     </row>
-    <row r="197" ht="22" customHeight="true" outlineLevel="1">
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C197" s="11" t="n">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="D197" s="11" t="e"/>
     </row>
@@ -2617,7 +2608,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>320</v>
+        <v>770</v>
       </c>
       <c r="D198" s="11" t="e"/>
     </row>
@@ -2626,7 +2617,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="11" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="D199" s="11" t="e"/>
     </row>
@@ -2635,7 +2626,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>770</v>
+        <v>555</v>
       </c>
       <c r="D200" s="11" t="e"/>
     </row>
@@ -2644,7 +2635,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="D201" s="11" t="e"/>
     </row>
@@ -2653,7 +2644,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="D202" s="11" t="e"/>
     </row>
@@ -2662,7 +2653,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>390</v>
+        <v>265</v>
       </c>
       <c r="D203" s="11" t="e"/>
     </row>
@@ -2671,7 +2662,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="D204" s="11" t="e"/>
     </row>
@@ -2680,61 +2671,61 @@
         <v>204</v>
       </c>
       <c r="C205" s="11" t="n">
-        <v>265</v>
+        <v>545</v>
       </c>
       <c r="D205" s="11" t="e"/>
     </row>
-    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+    <row r="206" ht="22" customHeight="true" outlineLevel="1">
       <c r="B206" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C206" s="11" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="D206" s="11" t="e"/>
     </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+    <row r="207" ht="22" customHeight="true" outlineLevel="1">
       <c r="B207" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="11" t="n">
-        <v>545</v>
-      </c>
-      <c r="D207" s="11" t="e"/>
+      <c r="C207" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D207" s="12" t="e"/>
     </row>
     <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C208" s="11" t="n">
-        <v>480</v>
-      </c>
-      <c r="D208" s="11" t="e"/>
+      <c r="C208" s="12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D208" s="12" t="e"/>
     </row>
     <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D209" s="12" t="e"/>
+      <c r="C209" s="11" t="n">
+        <v>370</v>
+      </c>
+      <c r="D209" s="11" t="e"/>
     </row>
     <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="12" t="n">
-        <v>1580</v>
-      </c>
-      <c r="D210" s="12" t="e"/>
+      <c r="C210" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D210" s="11" t="e"/>
     </row>
     <row r="211" ht="22" customHeight="true" outlineLevel="1">
       <c r="B211" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C211" s="11" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="D211" s="11" t="e"/>
     </row>
@@ -2751,35 +2742,35 @@
       <c r="B213" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D213" s="11" t="e"/>
-    </row>
-    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C213" s="12" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D213" s="12" t="e"/>
+    </row>
+    <row r="214" ht="11" customHeight="true" outlineLevel="1">
       <c r="B214" s="10" t="s">
         <v>213</v>
       </c>
       <c r="C214" s="12" t="n">
-        <v>1370</v>
+        <v>1110</v>
       </c>
       <c r="D214" s="12" t="e"/>
     </row>
-    <row r="215" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B215" s="10" t="s">
+    <row r="215" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B215" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C215" s="12" t="n">
-        <v>1110</v>
-      </c>
-      <c r="D215" s="12" t="e"/>
-    </row>
-    <row r="216" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B216" s="9" t="s">
+    </row>
+    <row r="216" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B216" s="10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C216" s="12" t="n">
+        <v>1699</v>
+      </c>
+      <c r="D216" s="12" t="e"/>
+    </row>
+    <row r="217" ht="11" customHeight="true" outlineLevel="1">
       <c r="B217" s="10" t="s">
         <v>216</v>
       </c>
@@ -2788,21 +2779,21 @@
       </c>
       <c r="D217" s="12" t="e"/>
     </row>
-    <row r="218" ht="11" customHeight="true" outlineLevel="1">
+    <row r="218" ht="22" customHeight="true" outlineLevel="1">
       <c r="B218" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C218" s="12" t="n">
-        <v>1699</v>
-      </c>
-      <c r="D218" s="12" t="e"/>
-    </row>
-    <row r="219" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C218" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D218" s="11" t="e"/>
+    </row>
+    <row r="219" ht="33" customHeight="true" outlineLevel="1">
       <c r="B219" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C219" s="11" t="n">
-        <v>760</v>
+        <v>980</v>
       </c>
       <c r="D219" s="11" t="e"/>
     </row>
@@ -2811,39 +2802,39 @@
         <v>219</v>
       </c>
       <c r="C220" s="11" t="n">
-        <v>919</v>
+        <v>476</v>
       </c>
       <c r="D220" s="11" t="e"/>
     </row>
-    <row r="221" ht="33" customHeight="true" outlineLevel="1">
+    <row r="221" ht="22" customHeight="true" outlineLevel="1">
       <c r="B221" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C221" s="11" t="n">
-        <v>476</v>
+        <v>198</v>
       </c>
       <c r="D221" s="11" t="e"/>
     </row>
-    <row r="222" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B222" s="10" t="s">
+    <row r="222" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B222" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="11" t="n">
-        <v>198</v>
-      </c>
-      <c r="D222" s="11" t="e"/>
-    </row>
-    <row r="223" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B223" s="9" t="s">
+    </row>
+    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B223" s="10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C223" s="11" t="n">
+        <v>442</v>
+      </c>
+      <c r="D223" s="11" t="e"/>
+    </row>
+    <row r="224" ht="22" customHeight="true" outlineLevel="1">
       <c r="B224" s="10" t="s">
         <v>223</v>
       </c>
       <c r="C224" s="11" t="n">
-        <v>442</v>
+        <v>158</v>
       </c>
       <c r="D224" s="11" t="e"/>
     </row>
@@ -2852,34 +2843,34 @@
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D225" s="11" t="e"/>
     </row>
-    <row r="226" ht="22" customHeight="true" outlineLevel="1">
+    <row r="226" ht="11" customHeight="true" outlineLevel="1">
       <c r="B226" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="D226" s="11" t="e"/>
     </row>
-    <row r="227" ht="11" customHeight="true" outlineLevel="1">
+    <row r="227" ht="22" customHeight="true" outlineLevel="1">
       <c r="B227" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="D227" s="11" t="e"/>
     </row>
-    <row r="228" ht="22" customHeight="true" outlineLevel="1">
+    <row r="228" ht="11" customHeight="true" outlineLevel="1">
       <c r="B228" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D228" s="11" t="e"/>
     </row>
@@ -2888,16 +2879,16 @@
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="D229" s="11" t="e"/>
     </row>
-    <row r="230" ht="22" customHeight="true" outlineLevel="1">
+    <row r="230" ht="11" customHeight="true" outlineLevel="1">
       <c r="B230" s="10" t="s">
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="D230" s="11" t="e"/>
     </row>
@@ -2906,75 +2897,48 @@
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="D231" s="11" t="e"/>
     </row>
-    <row r="232" ht="11" customHeight="true" outlineLevel="1">
+    <row r="232" ht="22" customHeight="true" outlineLevel="1">
       <c r="B232" s="10" t="s">
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="D232" s="11" t="e"/>
     </row>
-    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+    <row r="233" ht="22" customHeight="true" outlineLevel="1">
       <c r="B233" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>394</v>
+        <v>478</v>
       </c>
       <c r="D233" s="11" t="e"/>
     </row>
-    <row r="234" ht="22" customHeight="true" outlineLevel="1">
+    <row r="234" ht="11" customHeight="true" outlineLevel="1">
       <c r="B234" s="10" t="s">
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>448</v>
+        <v>250</v>
       </c>
       <c r="D234" s="11" t="e"/>
     </row>
-    <row r="235" ht="22" customHeight="true" outlineLevel="1">
+    <row r="235" ht="11" customHeight="true" outlineLevel="1">
       <c r="B235" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>478</v>
+        <v>346</v>
       </c>
       <c r="D235" s="11" t="e"/>
     </row>
-    <row r="236" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B236" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C236" s="11" t="n">
-        <v>238</v>
-      </c>
-      <c r="D236" s="11" t="e"/>
-    </row>
-    <row r="237" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B237" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C237" s="11" t="n">
-        <v>346</v>
-      </c>
-      <c r="D237" s="11" t="e"/>
-    </row>
-    <row r="238" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B238" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C238" s="11" t="n">
-        <v>331</v>
-      </c>
-      <c r="D238" s="11" t="e"/>
-    </row>
   </sheetData>
-  <mergeCells count="210">
+  <mergeCells count="207">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -3000,27 +2964,27 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
@@ -3055,10 +3019,10 @@
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C96:D96"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
@@ -3088,7 +3052,7 @@
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
     <mergeCell ref="C135:D135"/>
     <mergeCell ref="C136:D136"/>
     <mergeCell ref="C137:D137"/>
@@ -3102,7 +3066,7 @@
     <mergeCell ref="C145:D145"/>
     <mergeCell ref="C147:D147"/>
     <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
     <mergeCell ref="C151:D151"/>
     <mergeCell ref="C152:D152"/>
     <mergeCell ref="C153:D153"/>
@@ -3110,8 +3074,8 @@
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="C156:D156"/>
     <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
     <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="C163:D163"/>
@@ -3121,9 +3085,9 @@
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="C168:D168"/>
     <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
     <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
     <mergeCell ref="C175:D175"/>
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="C177:D177"/>
@@ -3131,7 +3095,7 @@
     <mergeCell ref="C179:D179"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
     <mergeCell ref="C184:D184"/>
     <mergeCell ref="C185:D185"/>
     <mergeCell ref="C186:D186"/>
@@ -3163,13 +3127,13 @@
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="C213:D213"/>
     <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
     <mergeCell ref="C217:D217"/>
     <mergeCell ref="C218:D218"/>
     <mergeCell ref="C219:D219"/>
     <mergeCell ref="C220:D220"/>
     <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C223:D223"/>
     <mergeCell ref="C224:D224"/>
     <mergeCell ref="C225:D225"/>
     <mergeCell ref="C226:D226"/>
@@ -3182,9 +3146,6 @@
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="C234:D234"/>
     <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 13.03.23</t>
+    <t>Цены указаны на 16.03.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -46,9 +46,18 @@
     <t>Анчоусы филе в модсолнечном масле "Манчин" ж/б (0,600 кг) Италия, кор 12 шт</t>
   </si>
   <si>
+    <t>Каперсы с уксусом "Antica Napoli" (720 мл/0,700кг) Турция, упак 6 шт</t>
+  </si>
+  <si>
+    <t>Маслины Alisa резаные (3,000 кг) ж/б, Испания</t>
+  </si>
+  <si>
     <t>Паста из анчоуса европейского с оливковым маслом (12%) "Delicius" ст.бан 0,720, Италия</t>
   </si>
   <si>
+    <t>Перец Халапеньо резаный маринованный "Antica Napoli" (2,270 кг/1,700кг) Турция</t>
+  </si>
+  <si>
     <t>Пюре манго из Мьянмы 430г</t>
   </si>
   <si>
@@ -172,7 +181,7 @@
     <t>Картофель</t>
   </si>
   <si>
-    <t>Картофель фри  10*10 Iglotex Professional, 2,5кг, Польша</t>
+    <t>Картофель фри 10*10 Iglotex Professional, 2,5кг, Польша</t>
   </si>
   <si>
     <t>Картофельные дольки в кожуре Iglotex Professional, 2,5 кг, Польша</t>
@@ -220,9 +229,6 @@
     <t>Соус и маринад для  гов. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
   </si>
   <si>
-    <t>Соус и маринад для свин. ребрышек КАЛЬБИ 500 г 1\12 ст/б т.м. СиДжей</t>
-  </si>
-  <si>
     <t>Краб. Гребешок. Мидии. Кальмар</t>
   </si>
   <si>
@@ -694,40 +700,64 @@
     <t>Гриб белый в нарезке (кубик), зам, 1кг</t>
   </si>
   <si>
-    <t>Овощи "Зеленый горошек" очищенный/ класс1/ 1кг</t>
-  </si>
-  <si>
-    <t>Овощи "Фасоль стручковая" резаная/ класс 1/ 1кг</t>
-  </si>
-  <si>
-    <t>Овощи "Шпинат резаный" / класс 1/ 1кг</t>
-  </si>
-  <si>
-    <t>Фрукты "Манго" сорт Альфонсо, слайсы (Индия) 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Брусника" /класс 1/ Россия, 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Клубника" /класс 1/ Египет, 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Клюква" дикая / класс1/ 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Малина" грис /класс 1/ 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Малина" целая / класс 1/ Россия, 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Малина" целая/ Экстра/ Россия, 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Облепиха" / класс1 / 1кг</t>
-  </si>
-  <si>
-    <t>Ягоды "Черная смородина" /класс 1/ 1кг</t>
+    <t>Грибы "Шампиньоны" резаные /класс 1/ Россия</t>
+  </si>
+  <si>
+    <t>Овощи "Брокколи" /класс 1/ Египет</t>
+  </si>
+  <si>
+    <t>Овощи "Зеленый горошек" очищенный/ класс1/</t>
+  </si>
+  <si>
+    <t>Овощи "Перец микс меланж" полоска, Узбекистан</t>
+  </si>
+  <si>
+    <t>Овощи "Фасоль стручковая" резаная/ класс 1/</t>
+  </si>
+  <si>
+    <t>Овощи "Цветная капуста" /класс 1/ Египет</t>
+  </si>
+  <si>
+    <t>Овощи "Шпинат резаный" / класс 1/</t>
+  </si>
+  <si>
+    <t>Фрукты "Манго" сорт Альфонсо, слайсы, Индия</t>
+  </si>
+  <si>
+    <t>Ягодная смесь "Компотная №1" Фрост</t>
+  </si>
+  <si>
+    <t>Ягоды "Брусника" /класс 1/ Россия,</t>
+  </si>
+  <si>
+    <t>Ягоды "Вишня" б/к класс 1/ Китай</t>
+  </si>
+  <si>
+    <t>Ягоды "Клубника" /класс 1/ Египет,</t>
+  </si>
+  <si>
+    <t>Ягоды "Клюква" дикая / класс1/ </t>
+  </si>
+  <si>
+    <t>Ягоды "Малина" грис /класс 1/ </t>
+  </si>
+  <si>
+    <t>Ягоды "Малина" целая / класс 1/ Россия, </t>
+  </si>
+  <si>
+    <t>Ягоды "Малина" целая/ Экстра/ Россия, </t>
+  </si>
+  <si>
+    <t>Ягоды "Облепиха" / класс1 /</t>
+  </si>
+  <si>
+    <t>Ягоды "Черная смородина" /класс 1/</t>
+  </si>
+  <si>
+    <t>Ягоды "Черника" /класс 1/ Китай,</t>
+  </si>
+  <si>
+    <t>Ягоды "Черника" отборная /класс 1/</t>
   </si>
 </sst>
 </file>
@@ -926,7 +956,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D235"/>
+  <dimension ref="D245"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -977,70 +1007,70 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="D7" s="12" t="e"/>
     </row>
-    <row r="8" ht="33" customHeight="true" outlineLevel="1">
+    <row r="8" ht="22" customHeight="true" outlineLevel="1">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="n">
-        <v>1900</v>
-      </c>
-      <c r="D8" s="12" t="e"/>
-    </row>
-    <row r="9" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C8" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D8" s="11" t="e"/>
+    </row>
+    <row r="9" ht="22" customHeight="true" outlineLevel="1">
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <v>245</v>
-      </c>
-      <c r="D9" s="11" t="e"/>
-    </row>
-    <row r="10" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C9" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="12" t="e"/>
+    </row>
+    <row r="10" ht="33" customHeight="true" outlineLevel="1">
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>1350</v>
+        <v>1900</v>
       </c>
       <c r="D10" s="12" t="e"/>
     </row>
-    <row r="11" ht="11" customHeight="true" outlineLevel="1">
+    <row r="11" ht="33" customHeight="true" outlineLevel="1">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="D11" s="11" t="e"/>
     </row>
-    <row r="12" ht="22" customHeight="true" outlineLevel="1">
+    <row r="12" ht="11" customHeight="true" outlineLevel="1">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="12" t="e"/>
+      <c r="C12" s="11" t="n">
+        <v>245</v>
+      </c>
+      <c r="D12" s="11" t="e"/>
     </row>
     <row r="13" ht="22" customHeight="true" outlineLevel="1">
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="n">
-        <v>956</v>
-      </c>
-      <c r="D13" s="11" t="e"/>
-    </row>
-    <row r="14" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C13" s="12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D13" s="12" t="e"/>
+    </row>
+    <row r="14" ht="11" customHeight="true" outlineLevel="1">
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="11" t="n">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="D14" s="11" t="e"/>
     </row>
@@ -1048,58 +1078,58 @@
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="D15" s="11" t="e"/>
-    </row>
-    <row r="16" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C15" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="12" t="e"/>
+    </row>
+    <row r="16" ht="22" customHeight="true" outlineLevel="1">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="11" t="n">
-        <v>900</v>
+        <v>956</v>
       </c>
       <c r="D16" s="11" t="e"/>
     </row>
-    <row r="17" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B17" s="9" t="s">
+    <row r="17" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C17" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D17" s="11" t="e"/>
+    </row>
+    <row r="18" ht="22" customHeight="true" outlineLevel="1">
       <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D18" s="11" t="e"/>
     </row>
-    <row r="19" ht="22" customHeight="true" outlineLevel="1">
+    <row r="19" ht="11" customHeight="true" outlineLevel="1">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="n">
-        <v>182</v>
+        <v>900</v>
       </c>
       <c r="D19" s="11" t="e"/>
     </row>
-    <row r="20" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B20" s="10" t="s">
+    <row r="20" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="n">
-        <v>600</v>
-      </c>
-      <c r="D20" s="11" t="e"/>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="1">
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="n">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="D21" s="11" t="e"/>
     </row>
@@ -1108,16 +1138,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="11" t="n">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="D22" s="11" t="e"/>
     </row>
-    <row r="23" ht="22" customHeight="true" outlineLevel="1">
+    <row r="23" ht="11" customHeight="true" outlineLevel="1">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="11" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="D23" s="11" t="e"/>
     </row>
@@ -1126,25 +1156,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="11" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D24" s="11" t="e"/>
     </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+    <row r="25" ht="22" customHeight="true" outlineLevel="1">
       <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="11" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D25" s="11" t="e"/>
     </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+    <row r="26" ht="22" customHeight="true" outlineLevel="1">
       <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="11" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D26" s="11" t="e"/>
     </row>
@@ -1153,16 +1183,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D27" s="11" t="e"/>
     </row>
-    <row r="28" ht="22" customHeight="true" outlineLevel="1">
+    <row r="28" ht="11" customHeight="true" outlineLevel="1">
       <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="11" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D28" s="11" t="e"/>
     </row>
@@ -1171,7 +1201,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="11" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="D29" s="11" t="e"/>
     </row>
@@ -1179,22 +1209,26 @@
       <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="12" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D30" s="12" t="e"/>
-    </row>
-    <row r="31" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B31" s="9" t="s">
+      <c r="C30" s="11" t="n">
+        <v>220</v>
+      </c>
+      <c r="D30" s="11" t="e"/>
+    </row>
+    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B31" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C31" s="11" t="n">
+        <v>510</v>
+      </c>
+      <c r="D31" s="11" t="e"/>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="1">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="11" t="n">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="D32" s="11" t="e"/>
     </row>
@@ -1202,35 +1236,31 @@
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="11" t="n">
-        <v>955</v>
-      </c>
-      <c r="D33" s="11" t="e"/>
-    </row>
-    <row r="34" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B34" s="10" t="s">
+      <c r="C33" s="12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D33" s="12" t="e"/>
+    </row>
+    <row r="34" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="11" t="n">
-        <v>550</v>
-      </c>
-      <c r="D34" s="11" t="e"/>
-    </row>
-    <row r="35" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="11" t="n">
-        <v>350</v>
+        <v>870</v>
       </c>
       <c r="D35" s="11" t="e"/>
     </row>
-    <row r="36" ht="22" customHeight="true" outlineLevel="1">
+    <row r="36" ht="11" customHeight="true" outlineLevel="1">
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="11" t="n">
-        <v>612</v>
+        <v>955</v>
       </c>
       <c r="D36" s="11" t="e"/>
     </row>
@@ -1239,44 +1269,48 @@
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="D37" s="11" t="e"/>
     </row>
-    <row r="38" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B38" s="9" t="s">
+    <row r="38" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C38" s="11" t="n">
+        <v>350</v>
+      </c>
+      <c r="D38" s="11" t="e"/>
+    </row>
+    <row r="39" ht="22" customHeight="true" outlineLevel="1">
       <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>144</v>
+        <v>612</v>
       </c>
       <c r="D39" s="11" t="e"/>
     </row>
-    <row r="40" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B40" s="9" t="s">
+    <row r="40" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B41" s="10" t="s">
+      <c r="C40" s="11" t="n">
+        <v>600</v>
+      </c>
+      <c r="D40" s="11" t="e"/>
+    </row>
+    <row r="41" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="11" t="n">
-        <v>121</v>
-      </c>
-      <c r="D41" s="11" t="e"/>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="1">
       <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="11" t="n">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="D42" s="11" t="e"/>
     </row>
@@ -1290,34 +1324,30 @@
         <v>43</v>
       </c>
       <c r="C44" s="11" t="n">
-        <v>760</v>
+        <v>121</v>
       </c>
       <c r="D44" s="11" t="e"/>
     </row>
-    <row r="45" ht="22" customHeight="true" outlineLevel="1">
+    <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="11" t="n">
-        <v>760</v>
+        <v>64</v>
       </c>
       <c r="D45" s="11" t="e"/>
     </row>
-    <row r="46" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B46" s="10" t="s">
+    <row r="46" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="11" t="n">
-        <v>590</v>
-      </c>
-      <c r="D46" s="11" t="e"/>
     </row>
     <row r="47" ht="22" customHeight="true" outlineLevel="1">
       <c r="B47" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="11" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="D47" s="11" t="e"/>
     </row>
@@ -1326,21 +1356,25 @@
         <v>47</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="D48" s="11" t="e"/>
     </row>
-    <row r="49" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B49" s="9" t="s">
+    <row r="49" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B49" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="C49" s="11" t="n">
+        <v>590</v>
+      </c>
+      <c r="D49" s="11" t="e"/>
     </row>
     <row r="50" ht="22" customHeight="true" outlineLevel="1">
       <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="11" t="n">
-        <v>626</v>
+        <v>520</v>
       </c>
       <c r="D50" s="11" t="e"/>
     </row>
@@ -1349,25 +1383,21 @@
         <v>50</v>
       </c>
       <c r="C51" s="11" t="n">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="D51" s="11" t="e"/>
     </row>
-    <row r="52" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B52" s="10" t="s">
+    <row r="52" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D52" s="11" t="e"/>
     </row>
     <row r="53" ht="22" customHeight="true" outlineLevel="1">
       <c r="B53" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="11" t="n">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="D53" s="11" t="e"/>
     </row>
@@ -1376,21 +1406,25 @@
         <v>53</v>
       </c>
       <c r="C54" s="11" t="n">
-        <v>880</v>
+        <v>650</v>
       </c>
       <c r="D54" s="11" t="e"/>
     </row>
-    <row r="55" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B55" s="9" t="s">
+    <row r="55" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B55" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="C55" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="D55" s="11" t="e"/>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>170</v>
+        <v>650</v>
       </c>
       <c r="D56" s="11" t="e"/>
     </row>
@@ -1399,25 +1433,21 @@
         <v>56</v>
       </c>
       <c r="C57" s="11" t="n">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="D57" s="11" t="e"/>
     </row>
-    <row r="58" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B58" s="10" t="s">
+    <row r="58" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B58" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D58" s="11" t="e"/>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
       <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="11" t="n">
-        <v>950</v>
+        <v>170</v>
       </c>
       <c r="D59" s="11" t="e"/>
     </row>
@@ -1426,25 +1456,25 @@
         <v>59</v>
       </c>
       <c r="C60" s="11" t="n">
-        <v>594</v>
+        <v>250</v>
       </c>
       <c r="D60" s="11" t="e"/>
     </row>
-    <row r="61" ht="11" customHeight="true" outlineLevel="1">
+    <row r="61" ht="22" customHeight="true" outlineLevel="1">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D61" s="12" t="e"/>
+      <c r="C61" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="D61" s="11" t="e"/>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
       <c r="B62" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="11" t="n">
-        <v>590</v>
+        <v>950</v>
       </c>
       <c r="D62" s="11" t="e"/>
     </row>
@@ -1453,25 +1483,25 @@
         <v>62</v>
       </c>
       <c r="C63" s="11" t="n">
-        <v>280</v>
+        <v>594</v>
       </c>
       <c r="D63" s="11" t="e"/>
     </row>
-    <row r="64" ht="22" customHeight="true" outlineLevel="1">
+    <row r="64" ht="11" customHeight="true" outlineLevel="1">
       <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D64" s="11" t="e"/>
+      <c r="C64" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="12" t="e"/>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
       <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="11" t="n">
-        <v>256</v>
+        <v>590</v>
       </c>
       <c r="D65" s="11" t="e"/>
     </row>
@@ -1480,39 +1510,39 @@
         <v>65</v>
       </c>
       <c r="C66" s="11" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D66" s="11" t="e"/>
     </row>
-    <row r="67" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B67" s="9" t="s">
+    <row r="67" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="C67" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D67" s="11" t="e"/>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
       <c r="B68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="12" t="n">
-        <v>1590</v>
-      </c>
-      <c r="D68" s="12" t="e"/>
-    </row>
-    <row r="69" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B69" s="10" t="s">
+      <c r="C68" s="11" t="n">
+        <v>256</v>
+      </c>
+      <c r="D68" s="11" t="e"/>
+    </row>
+    <row r="69" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B69" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="11" t="n">
-        <v>500</v>
-      </c>
-      <c r="D69" s="11" t="e"/>
-    </row>
-    <row r="70" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="70" ht="22" customHeight="true" outlineLevel="1">
       <c r="B70" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="12" t="n">
-        <v>2000</v>
+        <v>1590</v>
       </c>
       <c r="D70" s="12" t="e"/>
     </row>
@@ -1521,7 +1551,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="D71" s="11" t="e"/>
     </row>
@@ -1529,26 +1559,26 @@
       <c r="B72" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="D72" s="11" t="e"/>
-    </row>
-    <row r="73" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C72" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D72" s="12" t="e"/>
+    </row>
+    <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="12" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D73" s="12" t="e"/>
-    </row>
-    <row r="74" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C73" s="11" t="n">
+        <v>380</v>
+      </c>
+      <c r="D73" s="11" t="e"/>
+    </row>
+    <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="B74" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="11" t="n">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="D74" s="11" t="e"/>
     </row>
@@ -1556,103 +1586,103 @@
       <c r="B75" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="11" t="n">
-        <v>410</v>
-      </c>
-      <c r="D75" s="11" t="e"/>
-    </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C75" s="12" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D75" s="12" t="e"/>
+    </row>
+    <row r="76" ht="33" customHeight="true" outlineLevel="1">
       <c r="B76" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D76" s="12" t="e"/>
-    </row>
-    <row r="77" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C76" s="11" t="n">
+        <v>305</v>
+      </c>
+      <c r="D76" s="11" t="e"/>
+    </row>
+    <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="B77" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="11" t="n">
-        <v>585</v>
+        <v>410</v>
       </c>
       <c r="D77" s="11" t="e"/>
     </row>
-    <row r="78" ht="22" customHeight="true" outlineLevel="1">
+    <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="B78" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="11" t="n">
-        <v>212</v>
-      </c>
-      <c r="D78" s="11" t="e"/>
+      <c r="C78" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D78" s="12" t="e"/>
     </row>
     <row r="79" ht="22" customHeight="true" outlineLevel="1">
       <c r="B79" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C79" s="11" t="n">
-        <v>222</v>
+        <v>585</v>
       </c>
       <c r="D79" s="11" t="e"/>
     </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+    <row r="80" ht="22" customHeight="true" outlineLevel="1">
       <c r="B80" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D80" s="12" t="e"/>
+      <c r="C80" s="11" t="n">
+        <v>212</v>
+      </c>
+      <c r="D80" s="11" t="e"/>
     </row>
     <row r="81" ht="22" customHeight="true" outlineLevel="1">
       <c r="B81" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="12" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D81" s="12" t="e"/>
-    </row>
-    <row r="82" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C81" s="11" t="n">
+        <v>222</v>
+      </c>
+      <c r="D81" s="11" t="e"/>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="B82" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C82" s="12" t="n">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="D82" s="12" t="e"/>
     </row>
-    <row r="83" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B83" s="9" t="s">
+    <row r="83" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B83" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C83" s="12" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D83" s="12" t="e"/>
+    </row>
+    <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="11" t="n">
-        <v>900</v>
-      </c>
-      <c r="D84" s="11" t="e"/>
-    </row>
-    <row r="85" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B85" s="10" t="s">
+      <c r="C84" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D84" s="12" t="e"/>
+    </row>
+    <row r="85" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B85" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D85" s="12" t="e"/>
-    </row>
-    <row r="86" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="B86" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C86" s="11" t="n">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="D86" s="11" t="e"/>
     </row>
@@ -1660,177 +1690,177 @@
       <c r="B87" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="D87" s="11" t="e"/>
+      <c r="C87" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D87" s="12" t="e"/>
     </row>
     <row r="88" ht="22" customHeight="true" outlineLevel="1">
       <c r="B88" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C88" s="11" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="D88" s="11" t="e"/>
     </row>
-    <row r="89" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B89" s="9" t="s">
+    <row r="89" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B89" s="10" t="s">
         <v>88</v>
       </c>
+      <c r="C89" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="D89" s="11" t="e"/>
     </row>
     <row r="90" ht="22" customHeight="true" outlineLevel="1">
       <c r="B90" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="11" t="n">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="D90" s="11" t="e"/>
     </row>
-    <row r="91" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B91" s="10" t="s">
+    <row r="91" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B91" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="D91" s="11" t="e"/>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="92" ht="22" customHeight="true" outlineLevel="1">
       <c r="B92" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D92" s="12" t="e"/>
-    </row>
-    <row r="93" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C92" s="11" t="n">
+        <v>930</v>
+      </c>
+      <c r="D92" s="11" t="e"/>
+    </row>
+    <row r="93" ht="22" customHeight="true" outlineLevel="1">
       <c r="B93" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="11" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="D93" s="11" t="e"/>
     </row>
-    <row r="94" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B94" s="9" t="s">
+    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B94" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C94" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D94" s="12" t="e"/>
+    </row>
+    <row r="95" ht="33" customHeight="true" outlineLevel="1">
       <c r="B95" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="11" t="n">
+        <v>930</v>
+      </c>
+      <c r="D95" s="11" t="e"/>
+    </row>
+    <row r="96" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B96" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B97" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="11" t="n">
         <v>980</v>
       </c>
-      <c r="D95" s="11" t="e"/>
-    </row>
-    <row r="96" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B96" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="11" t="n">
-        <v>940</v>
-      </c>
-      <c r="D96" s="11" t="e"/>
-    </row>
-    <row r="97" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B97" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+      <c r="D97" s="11" t="e"/>
+    </row>
+    <row r="98" ht="22" customHeight="true" outlineLevel="1">
       <c r="B98" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="11" t="n">
-        <v>225</v>
+        <v>940</v>
       </c>
       <c r="D98" s="11" t="e"/>
     </row>
-    <row r="99" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B99" s="10" t="s">
+    <row r="99" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B99" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="11" t="n">
-        <v>760</v>
-      </c>
-      <c r="D99" s="11" t="e"/>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="B100" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C100" s="11" t="n">
-        <v>680</v>
+        <v>225</v>
       </c>
       <c r="D100" s="11" t="e"/>
     </row>
-    <row r="101" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B101" s="9" t="s">
+    <row r="101" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B101" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C101" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D101" s="11" t="e"/>
+    </row>
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="B102" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="D102" s="11" t="e"/>
     </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B103" s="10" t="s">
+    <row r="103" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B103" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="11" t="n">
-        <v>310</v>
-      </c>
-      <c r="D103" s="11" t="e"/>
     </row>
     <row r="104" ht="22" customHeight="true" outlineLevel="1">
       <c r="B104" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D104" s="11" t="e"/>
     </row>
-    <row r="105" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B105" s="9" t="s">
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B105" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C105" s="11" t="n">
+        <v>310</v>
+      </c>
+      <c r="D105" s="11" t="e"/>
+    </row>
+    <row r="106" ht="22" customHeight="true" outlineLevel="1">
       <c r="B106" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="11" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="D106" s="11" t="e"/>
     </row>
-    <row r="107" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B107" s="10" t="s">
+    <row r="107" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B107" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="11" t="n">
-        <v>205</v>
-      </c>
-      <c r="D107" s="11" t="e"/>
-    </row>
-    <row r="108" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="B108" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="11" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="D108" s="11" t="e"/>
     </row>
@@ -1839,25 +1869,25 @@
         <v>108</v>
       </c>
       <c r="C109" s="11" t="n">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="D109" s="11" t="e"/>
     </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+    <row r="110" ht="22" customHeight="true" outlineLevel="1">
       <c r="B110" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="11" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="D110" s="11" t="e"/>
     </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+    <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="D111" s="11" t="e"/>
     </row>
@@ -1866,34 +1896,34 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D112" s="11" t="e"/>
     </row>
-    <row r="113" ht="22" customHeight="true" outlineLevel="1">
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="B113" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="11" t="n">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D113" s="11" t="e"/>
     </row>
-    <row r="114" ht="22" customHeight="true" outlineLevel="1">
+    <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="B114" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="11" t="n">
-        <v>840</v>
+        <v>55</v>
       </c>
       <c r="D114" s="11" t="e"/>
     </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+    <row r="115" ht="22" customHeight="true" outlineLevel="1">
       <c r="B115" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="11" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D115" s="11" t="e"/>
     </row>
@@ -1902,16 +1932,16 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="n">
-        <v>145</v>
+        <v>840</v>
       </c>
       <c r="D116" s="11" t="e"/>
     </row>
-    <row r="117" ht="33" customHeight="true" outlineLevel="1">
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="B117" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="11" t="n">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="D117" s="11" t="e"/>
     </row>
@@ -1920,16 +1950,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="n">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="D118" s="11" t="e"/>
     </row>
-    <row r="119" ht="22" customHeight="true" outlineLevel="1">
+    <row r="119" ht="33" customHeight="true" outlineLevel="1">
       <c r="B119" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="11" t="n">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="D119" s="11" t="e"/>
     </row>
@@ -1938,7 +1968,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="n">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D120" s="11" t="e"/>
     </row>
@@ -1947,7 +1977,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="n">
-        <v>830</v>
+        <v>165</v>
       </c>
       <c r="D121" s="11" t="e"/>
     </row>
@@ -1956,7 +1986,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>830</v>
+        <v>163</v>
       </c>
       <c r="D122" s="11" t="e"/>
     </row>
@@ -1969,35 +1999,35 @@
       </c>
       <c r="D123" s="11" t="e"/>
     </row>
-    <row r="124" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B124" s="9" t="s">
+    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B124" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C124" s="11" t="n">
+        <v>830</v>
+      </c>
+      <c r="D124" s="11" t="e"/>
+    </row>
+    <row r="125" ht="22" customHeight="true" outlineLevel="1">
       <c r="B125" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="11" t="n">
-        <v>275</v>
+        <v>830</v>
       </c>
       <c r="D125" s="11" t="e"/>
     </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B126" s="10" t="s">
+    <row r="126" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B126" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="11" t="n">
-        <v>350</v>
-      </c>
-      <c r="D126" s="11" t="e"/>
-    </row>
-    <row r="127" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="B127" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>970</v>
+        <v>275</v>
       </c>
       <c r="D127" s="11" t="e"/>
     </row>
@@ -2006,7 +2036,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="n">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="D128" s="11" t="e"/>
     </row>
@@ -2014,17 +2044,17 @@
       <c r="B129" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="12" t="n">
-        <v>1210</v>
-      </c>
-      <c r="D129" s="12" t="e"/>
+      <c r="C129" s="11" t="n">
+        <v>970</v>
+      </c>
+      <c r="D129" s="11" t="e"/>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="D130" s="11" t="e"/>
     </row>
@@ -2032,58 +2062,58 @@
       <c r="B131" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="11" t="n">
-        <v>730</v>
-      </c>
-      <c r="D131" s="11" t="e"/>
-    </row>
-    <row r="132" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C131" s="12" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D131" s="12" t="e"/>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="B132" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>635</v>
+        <v>560</v>
       </c>
       <c r="D132" s="11" t="e"/>
     </row>
-    <row r="133" ht="22" customHeight="true" outlineLevel="1">
+    <row r="133" ht="33" customHeight="true" outlineLevel="1">
       <c r="B133" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="11" t="n">
-        <v>790</v>
+        <v>730</v>
       </c>
       <c r="D133" s="11" t="e"/>
     </row>
-    <row r="134" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B134" s="9" t="s">
+    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B134" s="10" t="s">
         <v>133</v>
       </c>
+      <c r="C134" s="11" t="n">
+        <v>635</v>
+      </c>
+      <c r="D134" s="11" t="e"/>
     </row>
     <row r="135" ht="22" customHeight="true" outlineLevel="1">
       <c r="B135" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="11" t="n">
-        <v>580</v>
+        <v>790</v>
       </c>
       <c r="D135" s="11" t="e"/>
     </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B136" s="10" t="s">
+    <row r="136" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B136" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D136" s="12" t="e"/>
     </row>
     <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C137" s="11" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="D137" s="11" t="e"/>
     </row>
@@ -2091,44 +2121,44 @@
       <c r="B138" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="D138" s="11" t="e"/>
-    </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C138" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D138" s="12" t="e"/>
+    </row>
+    <row r="139" ht="22" customHeight="true" outlineLevel="1">
       <c r="B139" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C139" s="11" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="D139" s="11" t="e"/>
     </row>
-    <row r="140" ht="22" customHeight="true" outlineLevel="1">
+    <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="B140" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>360</v>
+        <v>115</v>
       </c>
       <c r="D140" s="11" t="e"/>
     </row>
-    <row r="141" ht="22" customHeight="true" outlineLevel="1">
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="B141" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C141" s="11" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="D141" s="11" t="e"/>
     </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+    <row r="142" ht="22" customHeight="true" outlineLevel="1">
       <c r="B142" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="D142" s="11" t="e"/>
     </row>
@@ -2137,89 +2167,89 @@
         <v>142</v>
       </c>
       <c r="C143" s="11" t="n">
-        <v>694</v>
+        <v>220</v>
       </c>
       <c r="D143" s="11" t="e"/>
     </row>
-    <row r="144" ht="22" customHeight="true" outlineLevel="1">
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
       <c r="B144" s="10" t="s">
         <v>143</v>
       </c>
       <c r="C144" s="11" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D144" s="11" t="e"/>
     </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+    <row r="145" ht="22" customHeight="true" outlineLevel="1">
       <c r="B145" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C145" s="11" t="n">
-        <v>280</v>
+        <v>694</v>
       </c>
       <c r="D145" s="11" t="e"/>
     </row>
-    <row r="146" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B146" s="9" t="s">
+    <row r="146" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B146" s="10" t="s">
         <v>145</v>
       </c>
+      <c r="C146" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D146" s="11" t="e"/>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="B147" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C147" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D147" s="11" t="e"/>
+    </row>
+    <row r="148" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B148" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B149" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" s="11" t="n">
         <v>110</v>
       </c>
-      <c r="D147" s="11" t="e"/>
-    </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B148" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" s="11" t="n">
-        <v>110</v>
-      </c>
-      <c r="D148" s="11" t="e"/>
-    </row>
-    <row r="149" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B149" s="9" t="s">
-        <v>148</v>
-      </c>
+      <c r="D149" s="11" t="e"/>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="B150" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C150" s="11" t="n">
-        <v>640</v>
+        <v>110</v>
       </c>
       <c r="D150" s="11" t="e"/>
     </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B151" s="10" t="s">
+    <row r="151" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B151" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D151" s="11" t="e"/>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="B152" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D152" s="12" t="e"/>
+      <c r="C152" s="11" t="n">
+        <v>640</v>
+      </c>
+      <c r="D152" s="11" t="e"/>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="B153" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C153" s="11" t="n">
-        <v>860</v>
+        <v>280</v>
       </c>
       <c r="D153" s="11" t="e"/>
     </row>
@@ -2237,7 +2267,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="11" t="n">
-        <v>650</v>
+        <v>860</v>
       </c>
       <c r="D155" s="11" t="e"/>
     </row>
@@ -2246,7 +2276,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="12" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="D156" s="12" t="e"/>
     </row>
@@ -2254,67 +2284,67 @@
       <c r="B157" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D157" s="12" t="e"/>
-    </row>
-    <row r="158" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B158" s="9" t="s">
+      <c r="C157" s="11" t="n">
+        <v>650</v>
+      </c>
+      <c r="D157" s="11" t="e"/>
+    </row>
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B158" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C158" s="12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D158" s="12" t="e"/>
+    </row>
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="D159" s="11" t="e"/>
-    </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B160" s="10" t="s">
+      <c r="C159" s="12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D159" s="12" t="e"/>
+    </row>
+    <row r="160" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B160" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="D160" s="11" t="e"/>
     </row>
     <row r="161" ht="22" customHeight="true" outlineLevel="1">
       <c r="B161" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="12" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D161" s="12" t="e"/>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C161" s="11" t="n">
+        <v>950</v>
+      </c>
+      <c r="D161" s="11" t="e"/>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D162" s="12" t="e"/>
+      <c r="C162" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="D162" s="11" t="e"/>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="D163" s="11" t="e"/>
+      <c r="C163" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D163" s="12" t="e"/>
     </row>
     <row r="164" ht="22" customHeight="true" outlineLevel="1">
       <c r="B164" s="10" t="s">
         <v>163</v>
       </c>
       <c r="C164" s="12" t="n">
-        <v>1380</v>
+        <v>1500</v>
       </c>
       <c r="D164" s="12" t="e"/>
     </row>
@@ -2322,108 +2352,108 @@
       <c r="B165" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="12" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D165" s="12" t="e"/>
+      <c r="C165" s="11" t="n">
+        <v>990</v>
+      </c>
+      <c r="D165" s="11" t="e"/>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
       <c r="B166" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D166" s="11" t="e"/>
+      <c r="C166" s="12" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D166" s="12" t="e"/>
     </row>
     <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="D167" s="11" t="e"/>
+      <c r="C167" s="12" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D167" s="12" t="e"/>
     </row>
     <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="12" t="n">
-        <v>1480</v>
-      </c>
-      <c r="D168" s="12" t="e"/>
-    </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C168" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="D168" s="11" t="e"/>
+    </row>
+    <row r="169" ht="22" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>460</v>
+        <v>720</v>
       </c>
       <c r="D169" s="11" t="e"/>
     </row>
-    <row r="170" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B170" s="9" t="s">
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B170" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C170" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D170" s="12" t="e"/>
+    </row>
+    <row r="171" ht="11" customHeight="true" outlineLevel="1">
       <c r="B171" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="12" t="n">
+      <c r="C171" s="11" t="n">
+        <v>460</v>
+      </c>
+      <c r="D171" s="11" t="e"/>
+    </row>
+    <row r="172" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B172" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B173" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C173" s="12" t="n">
         <v>1480</v>
       </c>
-      <c r="D171" s="12" t="e"/>
-    </row>
-    <row r="172" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B172" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C172" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D172" s="12" t="e"/>
-    </row>
-    <row r="173" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B173" s="9" t="s">
-        <v>172</v>
-      </c>
+      <c r="D173" s="12" t="e"/>
     </row>
     <row r="174" ht="22" customHeight="true" outlineLevel="1">
       <c r="B174" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C174" s="12" t="n">
-        <v>1880</v>
+        <v>1650</v>
       </c>
       <c r="D174" s="12" t="e"/>
     </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B175" s="10" t="s">
+    <row r="175" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B175" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D175" s="12" t="e"/>
-    </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="176" ht="22" customHeight="true" outlineLevel="1">
       <c r="B176" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="D176" s="11" t="e"/>
+      <c r="C176" s="12" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D176" s="12" t="e"/>
     </row>
     <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C177" s="12" t="n">
-        <v>3790</v>
+        <v>2000</v>
       </c>
       <c r="D177" s="12" t="e"/>
     </row>
@@ -2431,17 +2461,17 @@
       <c r="B178" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="12" t="n">
-        <v>3090</v>
-      </c>
-      <c r="D178" s="12" t="e"/>
-    </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C178" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D178" s="11" t="e"/>
+    </row>
+    <row r="179" ht="22" customHeight="true" outlineLevel="1">
       <c r="B179" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C179" s="12" t="n">
-        <v>1700</v>
+        <v>3790</v>
       </c>
       <c r="D179" s="12" t="e"/>
     </row>
@@ -2450,57 +2480,57 @@
         <v>179</v>
       </c>
       <c r="C180" s="12" t="n">
-        <v>2000</v>
+        <v>3090</v>
       </c>
       <c r="D180" s="12" t="e"/>
     </row>
-    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C181" s="12" t="n">
-        <v>2900</v>
+        <v>1700</v>
       </c>
       <c r="D181" s="12" t="e"/>
     </row>
-    <row r="182" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B182" s="9" t="s">
+    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B182" s="10" t="s">
         <v>181</v>
       </c>
+      <c r="C182" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D182" s="12" t="e"/>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
       <c r="B183" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="11" t="n">
-        <v>670</v>
-      </c>
-      <c r="D183" s="11" t="e"/>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B184" s="10" t="s">
+      <c r="C183" s="12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D183" s="12" t="e"/>
+    </row>
+    <row r="184" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B184" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D184" s="12" t="e"/>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
       <c r="B185" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="12" t="n">
-        <v>1560</v>
-      </c>
-      <c r="D185" s="12" t="e"/>
+      <c r="C185" s="11" t="n">
+        <v>670</v>
+      </c>
+      <c r="D185" s="11" t="e"/>
     </row>
     <row r="186" ht="22" customHeight="true" outlineLevel="1">
       <c r="B186" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C186" s="12" t="n">
-        <v>1220</v>
+        <v>1650</v>
       </c>
       <c r="D186" s="12" t="e"/>
     </row>
@@ -2509,25 +2539,25 @@
         <v>186</v>
       </c>
       <c r="C187" s="12" t="n">
-        <v>1620</v>
+        <v>1560</v>
       </c>
       <c r="D187" s="12" t="e"/>
     </row>
-    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+    <row r="188" ht="22" customHeight="true" outlineLevel="1">
       <c r="B188" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C188" s="12" t="n">
-        <v>1300</v>
+        <v>1220</v>
       </c>
       <c r="D188" s="12" t="e"/>
     </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+    <row r="189" ht="22" customHeight="true" outlineLevel="1">
       <c r="B189" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C189" s="12" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="D189" s="12" t="e"/>
     </row>
@@ -2535,35 +2565,35 @@
       <c r="B190" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="11" t="n">
-        <v>838</v>
-      </c>
-      <c r="D190" s="11" t="e"/>
+      <c r="C190" s="12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D190" s="12" t="e"/>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="1">
       <c r="B191" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="11" t="n">
-        <v>800</v>
-      </c>
-      <c r="D191" s="11" t="e"/>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C191" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D191" s="12" t="e"/>
+    </row>
+    <row r="192" ht="11" customHeight="true" outlineLevel="1">
       <c r="B192" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="12" t="n">
-        <v>1430</v>
-      </c>
-      <c r="D192" s="12" t="e"/>
+      <c r="C192" s="11" t="n">
+        <v>838</v>
+      </c>
+      <c r="D192" s="11" t="e"/>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
       <c r="B193" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C193" s="11" t="n">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="D193" s="11" t="e"/>
     </row>
@@ -2571,35 +2601,35 @@
       <c r="B194" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="D194" s="11" t="e"/>
-    </row>
-    <row r="195" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C194" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D194" s="12" t="e"/>
+    </row>
+    <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>220</v>
+        <v>770</v>
       </c>
       <c r="D195" s="11" t="e"/>
     </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C196" s="11" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="D196" s="11" t="e"/>
     </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+    <row r="197" ht="22" customHeight="true" outlineLevel="1">
       <c r="B197" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C197" s="11" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="D197" s="11" t="e"/>
     </row>
@@ -2608,7 +2638,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>770</v>
+        <v>320</v>
       </c>
       <c r="D198" s="11" t="e"/>
     </row>
@@ -2617,7 +2647,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="11" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="D199" s="11" t="e"/>
     </row>
@@ -2626,7 +2656,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>555</v>
+        <v>770</v>
       </c>
       <c r="D200" s="11" t="e"/>
     </row>
@@ -2635,7 +2665,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="D201" s="11" t="e"/>
     </row>
@@ -2644,7 +2674,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>680</v>
+        <v>555</v>
       </c>
       <c r="D202" s="11" t="e"/>
     </row>
@@ -2653,7 +2683,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="D203" s="11" t="e"/>
     </row>
@@ -2662,7 +2692,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="D204" s="11" t="e"/>
     </row>
@@ -2671,61 +2701,61 @@
         <v>204</v>
       </c>
       <c r="C205" s="11" t="n">
-        <v>545</v>
+        <v>265</v>
       </c>
       <c r="D205" s="11" t="e"/>
     </row>
-    <row r="206" ht="22" customHeight="true" outlineLevel="1">
+    <row r="206" ht="11" customHeight="true" outlineLevel="1">
       <c r="B206" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C206" s="11" t="n">
-        <v>480</v>
+        <v>740</v>
       </c>
       <c r="D206" s="11" t="e"/>
     </row>
-    <row r="207" ht="22" customHeight="true" outlineLevel="1">
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
       <c r="B207" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D207" s="12" t="e"/>
+      <c r="C207" s="11" t="n">
+        <v>545</v>
+      </c>
+      <c r="D207" s="11" t="e"/>
     </row>
     <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C208" s="12" t="n">
-        <v>1580</v>
-      </c>
-      <c r="D208" s="12" t="e"/>
+      <c r="C208" s="11" t="n">
+        <v>480</v>
+      </c>
+      <c r="D208" s="11" t="e"/>
     </row>
     <row r="209" ht="22" customHeight="true" outlineLevel="1">
       <c r="B209" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="11" t="n">
-        <v>370</v>
-      </c>
-      <c r="D209" s="11" t="e"/>
+      <c r="C209" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D209" s="12" t="e"/>
     </row>
     <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D210" s="11" t="e"/>
+      <c r="C210" s="12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D210" s="12" t="e"/>
     </row>
     <row r="211" ht="22" customHeight="true" outlineLevel="1">
       <c r="B211" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C211" s="11" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="D211" s="11" t="e"/>
     </row>
@@ -2742,171 +2772,171 @@
       <c r="B213" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="12" t="n">
-        <v>1370</v>
-      </c>
-      <c r="D213" s="12" t="e"/>
-    </row>
-    <row r="214" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C213" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D213" s="11" t="e"/>
+    </row>
+    <row r="214" ht="22" customHeight="true" outlineLevel="1">
       <c r="B214" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="12" t="n">
-        <v>1110</v>
-      </c>
-      <c r="D214" s="12" t="e"/>
-    </row>
-    <row r="215" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B215" s="9" t="s">
+      <c r="C214" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D214" s="11" t="e"/>
+    </row>
+    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B215" s="10" t="s">
         <v>214</v>
       </c>
+      <c r="C215" s="12" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D215" s="12" t="e"/>
     </row>
     <row r="216" ht="11" customHeight="true" outlineLevel="1">
       <c r="B216" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C216" s="12" t="n">
-        <v>1699</v>
+        <v>1110</v>
       </c>
       <c r="D216" s="12" t="e"/>
     </row>
-    <row r="217" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B217" s="10" t="s">
+    <row r="217" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B217" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C217" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D217" s="12" t="e"/>
-    </row>
-    <row r="218" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="218" ht="11" customHeight="true" outlineLevel="1">
       <c r="B218" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C218" s="11" t="n">
-        <v>760</v>
-      </c>
-      <c r="D218" s="11" t="e"/>
-    </row>
-    <row r="219" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C218" s="12" t="n">
+        <v>1699</v>
+      </c>
+      <c r="D218" s="12" t="e"/>
+    </row>
+    <row r="219" ht="11" customHeight="true" outlineLevel="1">
       <c r="B219" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C219" s="11" t="n">
-        <v>980</v>
-      </c>
-      <c r="D219" s="11" t="e"/>
-    </row>
-    <row r="220" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C219" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D219" s="12" t="e"/>
+    </row>
+    <row r="220" ht="22" customHeight="true" outlineLevel="1">
       <c r="B220" s="10" t="s">
         <v>219</v>
       </c>
       <c r="C220" s="11" t="n">
-        <v>476</v>
+        <v>760</v>
       </c>
       <c r="D220" s="11" t="e"/>
     </row>
-    <row r="221" ht="22" customHeight="true" outlineLevel="1">
+    <row r="221" ht="33" customHeight="true" outlineLevel="1">
       <c r="B221" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C221" s="11" t="n">
-        <v>198</v>
+        <v>980</v>
       </c>
       <c r="D221" s="11" t="e"/>
     </row>
-    <row r="222" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B222" s="9" t="s">
+    <row r="222" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B222" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C222" s="11" t="n">
+        <v>476</v>
+      </c>
+      <c r="D222" s="11" t="e"/>
+    </row>
+    <row r="223" ht="22" customHeight="true" outlineLevel="1">
       <c r="B223" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C223" s="11" t="n">
-        <v>442</v>
+        <v>198</v>
       </c>
       <c r="D223" s="11" t="e"/>
     </row>
-    <row r="224" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B224" s="10" t="s">
+    <row r="224" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B224" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="11" t="n">
-        <v>158</v>
-      </c>
-      <c r="D224" s="11" t="e"/>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
       <c r="B225" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>154</v>
+        <v>442</v>
       </c>
       <c r="D225" s="11" t="e"/>
     </row>
-    <row r="226" ht="11" customHeight="true" outlineLevel="1">
+    <row r="226" ht="22" customHeight="true" outlineLevel="1">
       <c r="B226" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D226" s="11" t="e"/>
     </row>
-    <row r="227" ht="22" customHeight="true" outlineLevel="1">
+    <row r="227" ht="11" customHeight="true" outlineLevel="1">
       <c r="B227" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="D227" s="11" t="e"/>
     </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="1">
+    <row r="228" ht="22" customHeight="true" outlineLevel="1">
       <c r="B228" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>338</v>
+        <v>158</v>
       </c>
       <c r="D228" s="11" t="e"/>
     </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="1">
+    <row r="229" ht="22" customHeight="true" outlineLevel="1">
       <c r="B229" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D229" s="11" t="e"/>
     </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="1">
+    <row r="230" ht="22" customHeight="true" outlineLevel="1">
       <c r="B230" s="10" t="s">
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>398</v>
+        <v>164</v>
       </c>
       <c r="D230" s="11" t="e"/>
     </row>
-    <row r="231" ht="11" customHeight="true" outlineLevel="1">
+    <row r="231" ht="22" customHeight="true" outlineLevel="1">
       <c r="B231" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="D231" s="11" t="e"/>
     </row>
-    <row r="232" ht="22" customHeight="true" outlineLevel="1">
+    <row r="232" ht="11" customHeight="true" outlineLevel="1">
       <c r="B232" s="10" t="s">
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>448</v>
+        <v>235</v>
       </c>
       <c r="D232" s="11" t="e"/>
     </row>
@@ -2915,7 +2945,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>478</v>
+        <v>346</v>
       </c>
       <c r="D233" s="11" t="e"/>
     </row>
@@ -2924,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D234" s="11" t="e"/>
     </row>
@@ -2933,12 +2963,102 @@
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
+        <v>340</v>
+      </c>
+      <c r="D235" s="11" t="e"/>
+    </row>
+    <row r="236" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B236" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C236" s="11" t="n">
+        <v>277</v>
+      </c>
+      <c r="D236" s="11" t="e"/>
+    </row>
+    <row r="237" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B237" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C237" s="11" t="n">
+        <v>210</v>
+      </c>
+      <c r="D237" s="11" t="e"/>
+    </row>
+    <row r="238" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B238" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C238" s="11" t="n">
+        <v>398</v>
+      </c>
+      <c r="D238" s="11" t="e"/>
+    </row>
+    <row r="239" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B239" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C239" s="11" t="n">
+        <v>320</v>
+      </c>
+      <c r="D239" s="11" t="e"/>
+    </row>
+    <row r="240" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B240" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C240" s="11" t="n">
+        <v>448</v>
+      </c>
+      <c r="D240" s="11" t="e"/>
+    </row>
+    <row r="241" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B241" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C241" s="11" t="n">
+        <v>478</v>
+      </c>
+      <c r="D241" s="11" t="e"/>
+    </row>
+    <row r="242" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B242" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C242" s="11" t="n">
+        <v>265</v>
+      </c>
+      <c r="D242" s="11" t="e"/>
+    </row>
+    <row r="243" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B243" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243" s="11" t="n">
         <v>346</v>
       </c>
-      <c r="D235" s="11" t="e"/>
+      <c r="D243" s="11" t="e"/>
+    </row>
+    <row r="244" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B244" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C244" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D244" s="11" t="e"/>
+    </row>
+    <row r="245" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B245" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C245" s="11" t="n">
+        <v>366</v>
+      </c>
+      <c r="D245" s="11" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -2951,9 +3071,9 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -2964,28 +3084,28 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -2994,8 +3114,8 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
@@ -3009,25 +3129,25 @@
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
     <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
     <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
     <mergeCell ref="C108:D108"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="C110:D110"/>
@@ -3044,8 +3164,8 @@
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="C122:D122"/>
     <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
     <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="C129:D129"/>
@@ -3053,8 +3173,8 @@
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C132:D132"/>
     <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
     <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="C138:D138"/>
     <mergeCell ref="C139:D139"/>
@@ -3064,18 +3184,18 @@
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
     <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
     <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
     <mergeCell ref="C152:D152"/>
     <mergeCell ref="C153:D153"/>
     <mergeCell ref="C154:D154"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="C156:D156"/>
     <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
     <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="C163:D163"/>
@@ -3085,18 +3205,18 @@
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="C168:D168"/>
     <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
     <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
     <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="C177:D177"/>
     <mergeCell ref="C178:D178"/>
     <mergeCell ref="C179:D179"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
     <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C184:D184"/>
     <mergeCell ref="C185:D185"/>
     <mergeCell ref="C186:D186"/>
     <mergeCell ref="C187:D187"/>
@@ -3127,14 +3247,14 @@
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="C213:D213"/>
     <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
     <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
     <mergeCell ref="C218:D218"/>
     <mergeCell ref="C219:D219"/>
     <mergeCell ref="C220:D220"/>
     <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
     <mergeCell ref="C223:D223"/>
-    <mergeCell ref="C224:D224"/>
     <mergeCell ref="C225:D225"/>
     <mergeCell ref="C226:D226"/>
     <mergeCell ref="C227:D227"/>
@@ -3146,6 +3266,16 @@
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="C234:D234"/>
     <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 16.03.23</t>
+    <t>Цены указаны на 21.03.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -97,7 +97,7 @@
     <t>Паста Лакса AYAM 185г</t>
   </si>
   <si>
-    <t>Паста мисо Genzo, светлая, уп. 1 кг. Китай</t>
+    <t>Паста мисо Genzo, светлая, уп. 1 кг. Россия</t>
   </si>
   <si>
     <t>Паста мисо Genzo, темная, уп. 1 кг. Китай</t>
@@ -505,9 +505,6 @@
     <t>Рыба ФИЛЕ СВЕЖЕМОРОЖЕННОЕ</t>
   </si>
   <si>
-    <t>Кларий угревидный жареный в соусе (5-10%), Россия</t>
-  </si>
-  <si>
     <t>Окунь Изумидай 9-11 oz (Китай)</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>Филе тунца желтоперого с/м САКУ ААА (300-500г), Китай</t>
   </si>
   <si>
-    <t>Филе тунца желтоперого СТЕЙК (100г+), уп. 0,5 кг</t>
-  </si>
-  <si>
     <t>Филе тунца желтоперого СТЕЙК (50-100г), уп. 0,5 кг</t>
   </si>
   <si>
@@ -640,10 +634,7 @@
     <t>Соус устричный, Chang, Тайланд 815г</t>
   </si>
   <si>
-    <t>Соус Хойсин  PRB 2,20кг пл/бут</t>
-  </si>
-  <si>
-    <t>Соус Хойсин, Китай, 1 кг*6</t>
+    <t>Соус Хойсин PRB 2.20 пл/бут</t>
   </si>
   <si>
     <t>Соус черно- перечный СТМ Chang, 825гр, пластик, Тайланд</t>
@@ -733,7 +724,7 @@
     <t>Ягоды "Вишня" б/к класс 1/ Китай</t>
   </si>
   <si>
-    <t>Ягоды "Клубника" /класс 1/ Египет,</t>
+    <t>Ягоды "Клубника" /класс 1/ Египет</t>
   </si>
   <si>
     <t>Ягоды "Клюква" дикая / класс1/ </t>
@@ -956,7 +947,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D245"/>
+  <dimension ref="D242"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1061,7 +1052,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="D13" s="12" t="e"/>
     </row>
@@ -1079,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="12" t="e"/>
     </row>
@@ -1165,7 +1156,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="11" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D25" s="11" t="e"/>
     </row>
@@ -1174,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D26" s="11" t="e"/>
     </row>
@@ -1183,7 +1174,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="D27" s="11" t="e"/>
     </row>
@@ -1192,7 +1183,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="11" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="D28" s="11" t="e"/>
     </row>
@@ -1287,7 +1278,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="D39" s="11" t="e"/>
     </row>
@@ -1415,7 +1406,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="11" t="n">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="D55" s="11" t="e"/>
     </row>
@@ -1551,7 +1542,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="D71" s="11" t="e"/>
     </row>
@@ -1578,7 +1569,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="11" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D74" s="11" t="e"/>
     </row>
@@ -1605,7 +1596,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="n">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D77" s="11" t="e"/>
     </row>
@@ -1986,7 +1977,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D122" s="11" t="e"/>
     </row>
@@ -2027,7 +2018,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D127" s="11" t="e"/>
     </row>
@@ -2090,7 +2081,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="11" t="n">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D134" s="11" t="e"/>
     </row>
@@ -2140,7 +2131,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D140" s="11" t="e"/>
     </row>
@@ -2294,7 +2285,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="12" t="n">
-        <v>1250</v>
+        <v>1180</v>
       </c>
       <c r="D158" s="12" t="e"/>
     </row>
@@ -2312,30 +2303,30 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" ht="22" customHeight="true" outlineLevel="1">
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
       <c r="B161" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C161" s="11" t="n">
-        <v>950</v>
+        <v>720</v>
       </c>
       <c r="D161" s="11" t="e"/>
     </row>
-    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+    <row r="162" ht="22" customHeight="true" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="D162" s="11" t="e"/>
+      <c r="C162" s="12" t="n">
+        <v>1560</v>
+      </c>
+      <c r="D162" s="12" t="e"/>
     </row>
     <row r="163" ht="22" customHeight="true" outlineLevel="1">
       <c r="B163" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C163" s="12" t="n">
-        <v>1650</v>
+        <v>1470</v>
       </c>
       <c r="D163" s="12" t="e"/>
     </row>
@@ -2343,26 +2334,26 @@
       <c r="B164" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D164" s="12" t="e"/>
+      <c r="C164" s="11" t="n">
+        <v>990</v>
+      </c>
+      <c r="D164" s="11" t="e"/>
     </row>
     <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="B165" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="D165" s="11" t="e"/>
+      <c r="C165" s="12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D165" s="12" t="e"/>
     </row>
     <row r="166" ht="22" customHeight="true" outlineLevel="1">
       <c r="B166" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C166" s="12" t="n">
-        <v>1380</v>
+        <v>1290</v>
       </c>
       <c r="D166" s="12" t="e"/>
     </row>
@@ -2370,90 +2361,90 @@
       <c r="B167" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="12" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D167" s="12" t="e"/>
+      <c r="C167" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="D167" s="11" t="e"/>
     </row>
     <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D168" s="11" t="e"/>
-    </row>
-    <row r="169" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C168" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D168" s="12" t="e"/>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>720</v>
+        <v>460</v>
       </c>
       <c r="D169" s="11" t="e"/>
     </row>
-    <row r="170" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B170" s="10" t="s">
+    <row r="170" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B170" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="12" t="n">
-        <v>1480</v>
-      </c>
-      <c r="D170" s="12" t="e"/>
-    </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="171" ht="33" customHeight="true" outlineLevel="1">
       <c r="B171" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="11" t="n">
-        <v>460</v>
-      </c>
-      <c r="D171" s="11" t="e"/>
-    </row>
-    <row r="172" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B172" s="9" t="s">
+      <c r="C171" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D171" s="12" t="e"/>
+    </row>
+    <row r="172" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B172" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B173" s="10" t="s">
+      <c r="C172" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D172" s="12" t="e"/>
+    </row>
+    <row r="173" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B173" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="12" t="n">
-        <v>1480</v>
-      </c>
-      <c r="D173" s="12" t="e"/>
     </row>
     <row r="174" ht="22" customHeight="true" outlineLevel="1">
       <c r="B174" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C174" s="12" t="n">
-        <v>1650</v>
+        <v>1880</v>
       </c>
       <c r="D174" s="12" t="e"/>
     </row>
-    <row r="175" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B175" s="9" t="s">
+    <row r="175" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B175" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C175" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D175" s="12" t="e"/>
+    </row>
+    <row r="176" ht="11" customHeight="true" outlineLevel="1">
       <c r="B176" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="12" t="n">
-        <v>1880</v>
-      </c>
-      <c r="D176" s="12" t="e"/>
+      <c r="C176" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D176" s="11" t="e"/>
     </row>
     <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C177" s="12" t="n">
-        <v>2000</v>
+        <v>3790</v>
       </c>
       <c r="D177" s="12" t="e"/>
     </row>
@@ -2461,17 +2452,17 @@
       <c r="B178" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="D178" s="11" t="e"/>
-    </row>
-    <row r="179" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C178" s="12" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D178" s="12" t="e"/>
+    </row>
+    <row r="179" ht="11" customHeight="true" outlineLevel="1">
       <c r="B179" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C179" s="12" t="n">
-        <v>3790</v>
+        <v>1700</v>
       </c>
       <c r="D179" s="12" t="e"/>
     </row>
@@ -2480,57 +2471,57 @@
         <v>179</v>
       </c>
       <c r="C180" s="12" t="n">
-        <v>3090</v>
+        <v>2000</v>
       </c>
       <c r="D180" s="12" t="e"/>
     </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+    <row r="181" ht="22" customHeight="true" outlineLevel="1">
       <c r="B181" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C181" s="12" t="n">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="D181" s="12" t="e"/>
     </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B182" s="10" t="s">
+    <row r="182" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B182" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D182" s="12" t="e"/>
     </row>
     <row r="183" ht="22" customHeight="true" outlineLevel="1">
       <c r="B183" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="12" t="n">
-        <v>2900</v>
-      </c>
-      <c r="D183" s="12" t="e"/>
-    </row>
-    <row r="184" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B184" s="9" t="s">
+      <c r="C183" s="11" t="n">
+        <v>670</v>
+      </c>
+      <c r="D183" s="11" t="e"/>
+    </row>
+    <row r="184" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B184" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="C184" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D184" s="12" t="e"/>
     </row>
     <row r="185" ht="22" customHeight="true" outlineLevel="1">
       <c r="B185" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="11" t="n">
-        <v>670</v>
-      </c>
-      <c r="D185" s="11" t="e"/>
+      <c r="C185" s="12" t="n">
+        <v>1560</v>
+      </c>
+      <c r="D185" s="12" t="e"/>
     </row>
     <row r="186" ht="22" customHeight="true" outlineLevel="1">
       <c r="B186" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C186" s="12" t="n">
-        <v>1650</v>
+        <v>1220</v>
       </c>
       <c r="D186" s="12" t="e"/>
     </row>
@@ -2539,25 +2530,25 @@
         <v>186</v>
       </c>
       <c r="C187" s="12" t="n">
-        <v>1560</v>
+        <v>1620</v>
       </c>
       <c r="D187" s="12" t="e"/>
     </row>
-    <row r="188" ht="22" customHeight="true" outlineLevel="1">
+    <row r="188" ht="11" customHeight="true" outlineLevel="1">
       <c r="B188" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C188" s="12" t="n">
-        <v>1220</v>
+        <v>1300</v>
       </c>
       <c r="D188" s="12" t="e"/>
     </row>
-    <row r="189" ht="22" customHeight="true" outlineLevel="1">
+    <row r="189" ht="11" customHeight="true" outlineLevel="1">
       <c r="B189" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C189" s="12" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="D189" s="12" t="e"/>
     </row>
@@ -2565,35 +2556,35 @@
       <c r="B190" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="12" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D190" s="12" t="e"/>
+      <c r="C190" s="11" t="n">
+        <v>838</v>
+      </c>
+      <c r="D190" s="11" t="e"/>
     </row>
     <row r="191" ht="11" customHeight="true" outlineLevel="1">
       <c r="B191" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D191" s="12" t="e"/>
-    </row>
-    <row r="192" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C191" s="11" t="n">
+        <v>800</v>
+      </c>
+      <c r="D191" s="11" t="e"/>
+    </row>
+    <row r="192" ht="22" customHeight="true" outlineLevel="1">
       <c r="B192" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="11" t="n">
-        <v>838</v>
-      </c>
-      <c r="D192" s="11" t="e"/>
+      <c r="C192" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D192" s="12" t="e"/>
     </row>
     <row r="193" ht="11" customHeight="true" outlineLevel="1">
       <c r="B193" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C193" s="11" t="n">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="D193" s="11" t="e"/>
     </row>
@@ -2601,35 +2592,35 @@
       <c r="B194" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="12" t="n">
-        <v>1430</v>
-      </c>
-      <c r="D194" s="12" t="e"/>
-    </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C194" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D194" s="11" t="e"/>
+    </row>
+    <row r="195" ht="22" customHeight="true" outlineLevel="1">
       <c r="B195" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>770</v>
+        <v>220</v>
       </c>
       <c r="D195" s="11" t="e"/>
     </row>
-    <row r="196" ht="22" customHeight="true" outlineLevel="1">
+    <row r="196" ht="11" customHeight="true" outlineLevel="1">
       <c r="B196" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C196" s="11" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="D196" s="11" t="e"/>
     </row>
-    <row r="197" ht="22" customHeight="true" outlineLevel="1">
+    <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C197" s="11" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="D197" s="11" t="e"/>
     </row>
@@ -2638,7 +2629,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>320</v>
+        <v>770</v>
       </c>
       <c r="D198" s="11" t="e"/>
     </row>
@@ -2647,7 +2638,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="11" t="n">
-        <v>380</v>
+        <v>499</v>
       </c>
       <c r="D199" s="11" t="e"/>
     </row>
@@ -2656,7 +2647,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>770</v>
+        <v>555</v>
       </c>
       <c r="D200" s="11" t="e"/>
     </row>
@@ -2665,7 +2656,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="D201" s="11" t="e"/>
     </row>
@@ -2674,7 +2665,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>555</v>
+        <v>680</v>
       </c>
       <c r="D202" s="11" t="e"/>
     </row>
@@ -2683,7 +2674,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>390</v>
+        <v>265</v>
       </c>
       <c r="D203" s="11" t="e"/>
     </row>
@@ -2692,43 +2683,43 @@
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>680</v>
+        <v>727</v>
       </c>
       <c r="D204" s="11" t="e"/>
     </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+    <row r="205" ht="22" customHeight="true" outlineLevel="1">
       <c r="B205" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C205" s="11" t="n">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="D205" s="11" t="e"/>
     </row>
-    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+    <row r="206" ht="22" customHeight="true" outlineLevel="1">
       <c r="B206" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="11" t="n">
-        <v>740</v>
-      </c>
-      <c r="D206" s="11" t="e"/>
-    </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C206" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D206" s="12" t="e"/>
+    </row>
+    <row r="207" ht="22" customHeight="true" outlineLevel="1">
       <c r="B207" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="11" t="n">
-        <v>545</v>
-      </c>
-      <c r="D207" s="11" t="e"/>
+      <c r="C207" s="12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D207" s="12" t="e"/>
     </row>
     <row r="208" ht="22" customHeight="true" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C208" s="11" t="n">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="D208" s="11" t="e"/>
     </row>
@@ -2736,26 +2727,26 @@
       <c r="B209" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D209" s="12" t="e"/>
+      <c r="C209" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D209" s="11" t="e"/>
     </row>
     <row r="210" ht="22" customHeight="true" outlineLevel="1">
       <c r="B210" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="12" t="n">
-        <v>1580</v>
-      </c>
-      <c r="D210" s="12" t="e"/>
+      <c r="C210" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D210" s="11" t="e"/>
     </row>
     <row r="211" ht="22" customHeight="true" outlineLevel="1">
       <c r="B211" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C211" s="11" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="D211" s="11" t="e"/>
     </row>
@@ -2763,35 +2754,31 @@
       <c r="B212" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C212" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D212" s="11" t="e"/>
-    </row>
-    <row r="213" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C212" s="12" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D212" s="12" t="e"/>
+    </row>
+    <row r="213" ht="11" customHeight="true" outlineLevel="1">
       <c r="B213" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D213" s="11" t="e"/>
-    </row>
-    <row r="214" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B214" s="10" t="s">
+      <c r="C213" s="12" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D213" s="12" t="e"/>
+    </row>
+    <row r="214" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B214" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D214" s="11" t="e"/>
-    </row>
-    <row r="215" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="215" ht="11" customHeight="true" outlineLevel="1">
       <c r="B215" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C215" s="12" t="n">
-        <v>1370</v>
+        <v>1650</v>
       </c>
       <c r="D215" s="12" t="e"/>
     </row>
@@ -2800,57 +2787,57 @@
         <v>215</v>
       </c>
       <c r="C216" s="12" t="n">
-        <v>1110</v>
+        <v>1650</v>
       </c>
       <c r="D216" s="12" t="e"/>
     </row>
-    <row r="217" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B217" s="9" t="s">
+    <row r="217" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B217" s="10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C217" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D217" s="11" t="e"/>
+    </row>
+    <row r="218" ht="33" customHeight="true" outlineLevel="1">
       <c r="B218" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C218" s="12" t="n">
-        <v>1699</v>
-      </c>
-      <c r="D218" s="12" t="e"/>
-    </row>
-    <row r="219" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C218" s="11" t="n">
+        <v>980</v>
+      </c>
+      <c r="D218" s="11" t="e"/>
+    </row>
+    <row r="219" ht="33" customHeight="true" outlineLevel="1">
       <c r="B219" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C219" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D219" s="12" t="e"/>
+      <c r="C219" s="11" t="n">
+        <v>476</v>
+      </c>
+      <c r="D219" s="11" t="e"/>
     </row>
     <row r="220" ht="22" customHeight="true" outlineLevel="1">
       <c r="B220" s="10" t="s">
         <v>219</v>
       </c>
       <c r="C220" s="11" t="n">
-        <v>760</v>
+        <v>198</v>
       </c>
       <c r="D220" s="11" t="e"/>
     </row>
-    <row r="221" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B221" s="10" t="s">
+    <row r="221" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B221" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C221" s="11" t="n">
-        <v>980</v>
-      </c>
-      <c r="D221" s="11" t="e"/>
-    </row>
-    <row r="222" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="222" ht="11" customHeight="true" outlineLevel="1">
       <c r="B222" s="10" t="s">
         <v>221</v>
       </c>
       <c r="C222" s="11" t="n">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="D222" s="11" t="e"/>
     </row>
@@ -2859,21 +2846,25 @@
         <v>222</v>
       </c>
       <c r="C223" s="11" t="n">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D223" s="11" t="e"/>
     </row>
-    <row r="224" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B224" s="9" t="s">
+    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B224" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C224" s="11" t="n">
+        <v>222</v>
+      </c>
+      <c r="D224" s="11" t="e"/>
+    </row>
+    <row r="225" ht="22" customHeight="true" outlineLevel="1">
       <c r="B225" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>442</v>
+        <v>158</v>
       </c>
       <c r="D225" s="11" t="e"/>
     </row>
@@ -2882,16 +2873,16 @@
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D226" s="11" t="e"/>
     </row>
-    <row r="227" ht="11" customHeight="true" outlineLevel="1">
+    <row r="227" ht="22" customHeight="true" outlineLevel="1">
       <c r="B227" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="D227" s="11" t="e"/>
     </row>
@@ -2900,16 +2891,16 @@
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D228" s="11" t="e"/>
     </row>
-    <row r="229" ht="22" customHeight="true" outlineLevel="1">
+    <row r="229" ht="11" customHeight="true" outlineLevel="1">
       <c r="B229" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D229" s="11" t="e"/>
     </row>
@@ -2918,16 +2909,16 @@
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>164</v>
+        <v>346</v>
       </c>
       <c r="D230" s="11" t="e"/>
     </row>
-    <row r="231" ht="22" customHeight="true" outlineLevel="1">
+    <row r="231" ht="11" customHeight="true" outlineLevel="1">
       <c r="B231" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="D231" s="11" t="e"/>
     </row>
@@ -2936,16 +2927,16 @@
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="D232" s="11" t="e"/>
     </row>
-    <row r="233" ht="22" customHeight="true" outlineLevel="1">
+    <row r="233" ht="11" customHeight="true" outlineLevel="1">
       <c r="B233" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="D233" s="11" t="e"/>
     </row>
@@ -2954,7 +2945,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D234" s="11" t="e"/>
     </row>
@@ -2963,7 +2954,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="D235" s="11" t="e"/>
     </row>
@@ -2972,16 +2963,16 @@
         <v>235</v>
       </c>
       <c r="C236" s="11" t="n">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="D236" s="11" t="e"/>
     </row>
-    <row r="237" ht="11" customHeight="true" outlineLevel="1">
+    <row r="237" ht="22" customHeight="true" outlineLevel="1">
       <c r="B237" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C237" s="11" t="n">
-        <v>210</v>
+        <v>448</v>
       </c>
       <c r="D237" s="11" t="e"/>
     </row>
@@ -2990,7 +2981,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="11" t="n">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="D238" s="11" t="e"/>
     </row>
@@ -2999,16 +2990,16 @@
         <v>238</v>
       </c>
       <c r="C239" s="11" t="n">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="D239" s="11" t="e"/>
     </row>
-    <row r="240" ht="22" customHeight="true" outlineLevel="1">
+    <row r="240" ht="11" customHeight="true" outlineLevel="1">
       <c r="B240" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C240" s="11" t="n">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="D240" s="11" t="e"/>
     </row>
@@ -3017,7 +3008,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="11" t="n">
-        <v>478</v>
+        <v>360</v>
       </c>
       <c r="D241" s="11" t="e"/>
     </row>
@@ -3026,39 +3017,12 @@
         <v>241</v>
       </c>
       <c r="C242" s="11" t="n">
-        <v>265</v>
+        <v>366</v>
       </c>
       <c r="D242" s="11" t="e"/>
     </row>
-    <row r="243" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B243" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C243" s="11" t="n">
-        <v>346</v>
-      </c>
-      <c r="D243" s="11" t="e"/>
-    </row>
-    <row r="244" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B244" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C244" s="11" t="n">
-        <v>360</v>
-      </c>
-      <c r="D244" s="11" t="e"/>
-    </row>
-    <row r="245" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B245" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C245" s="11" t="n">
-        <v>366</v>
-      </c>
-      <c r="D245" s="11" t="e"/>
-    </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="214">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -3205,18 +3169,18 @@
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="C168:D168"/>
     <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
     <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
     <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="C177:D177"/>
     <mergeCell ref="C178:D178"/>
     <mergeCell ref="C179:D179"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
     <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
     <mergeCell ref="C185:D185"/>
     <mergeCell ref="C186:D186"/>
     <mergeCell ref="C187:D187"/>
@@ -3246,15 +3210,15 @@
     <mergeCell ref="C211:D211"/>
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
     <mergeCell ref="C215:D215"/>
     <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
     <mergeCell ref="C218:D218"/>
     <mergeCell ref="C219:D219"/>
     <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
     <mergeCell ref="C222:D222"/>
     <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C224:D224"/>
     <mergeCell ref="C225:D225"/>
     <mergeCell ref="C226:D226"/>
     <mergeCell ref="C227:D227"/>
@@ -3273,9 +3237,6 @@
     <mergeCell ref="C240:D240"/>
     <mergeCell ref="C241:D241"/>
     <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 21.03.23</t>
+    <t>Цены указаны на 29.03.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -67,12 +67,18 @@
     <t>Стружка кокосовая 1кг</t>
   </si>
   <si>
+    <t>Томатная паста SAHAR 25-27%, ж/б, 800гр, Иран</t>
+  </si>
+  <si>
     <t>Томаты вяленые "Antica Napoli" в масле ст./б. (1,500 кг) упак. 6 шт.</t>
   </si>
   <si>
     <t>Томаты сушеные в масле ALFICHEF пакет (1,000кг) упак. 6 шт</t>
   </si>
   <si>
+    <t>Томаты целые очищенные Pelati в с/с, ж/б, 2,5 кг,FIORINO, FELICE, Италия</t>
+  </si>
+  <si>
     <t>Топпинг клубника 1 кг,ЗОЛОТАЯ КОЛИБРИ,РОССИЯ</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>Горчичный порошок васаби "OSHI Премиум"</t>
   </si>
   <si>
+    <t>Горчичный порошок васаби "Risma", уп.1кг, Китай</t>
+  </si>
+  <si>
     <t>Морская капуста сушеная нори "Tidori", Корея, 100л</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>Мясо мидии в/м 1/10 (200-300) н/ф </t>
   </si>
   <si>
+    <t>Мясо мидии в/м н/ф (200-300) Чили</t>
+  </si>
+  <si>
     <t>Мясо трубача с/м</t>
   </si>
   <si>
@@ -325,6 +337,15 @@
     <t>Масло кунжутное, 0,42 л, Китай</t>
   </si>
   <si>
+    <t>Масло оливковое Pomace пэт 1л,,Mueloliva, Испания</t>
+  </si>
+  <si>
+    <t>Масло оливковое Pomace пэт 5л, GustoLu, Италия</t>
+  </si>
+  <si>
+    <t>Масло оливковое первого отжима EXTRA VIRGIN, стекло 1л,  Mueloliva, Испания</t>
+  </si>
+  <si>
     <t>Масло подсолнечное фритюрное Sunny Gold, 5л</t>
   </si>
   <si>
@@ -385,9 +406,6 @@
     <t>Сухари панировочные Панко Тамаки, 1уп/1кг</t>
   </si>
   <si>
-    <t>Сухари панировочные, Хикари 6мм, 1шт/1кг,  Россия</t>
-  </si>
-  <si>
     <t>Тортилья пшеничная 10-дюйм, зам, 12шт- 800г, Россия</t>
   </si>
   <si>
@@ -415,6 +433,9 @@
     <t>Колбаса Пепперони в/к "Пикантная"</t>
   </si>
   <si>
+    <t>Креветка очищ. б/х в панировке Панко 1кг с/м, Россия</t>
+  </si>
+  <si>
     <t>Креветки очищенные б/х 1кг в панировке "Панко" с/м, Фрост- А, Россия</t>
   </si>
   <si>
@@ -457,9 +478,6 @@
     <t>Лук жареный 1 кг/уп</t>
   </si>
   <si>
-    <t>Пюре из манго с/м 10% сахара, 1кг, Ravifruit, Франция</t>
-  </si>
-  <si>
     <t>Редька маринованная Hikari 0,6 кг, Китай</t>
   </si>
   <si>
@@ -469,9 +487,6 @@
     <t>Рис</t>
   </si>
   <si>
-    <t>Рис "Hansey", Россия, 25кг*1</t>
-  </si>
-  <si>
     <t>Рис Фушигон, среднезерный, Китай, 1кг</t>
   </si>
   <si>
@@ -562,9 +577,6 @@
     <t>Соевый соус ТМ "Канимори", 20л</t>
   </si>
   <si>
-    <t>Соус "Мирин" ТМ "Yakimal" (ПРО), 18л</t>
-  </si>
-  <si>
     <t>Соус рисовый Мирин "Padam", Россия, 20 л*1</t>
   </si>
   <si>
@@ -622,6 +634,9 @@
     <t>Соус Терияки, ТМ "Тамаки", 1,8л</t>
   </si>
   <si>
+    <t>Соус Унаги MIDO Professional 1л</t>
+  </si>
+  <si>
     <t>Соус Унаги Тамаки, 1.8 л</t>
   </si>
   <si>
@@ -643,9 +658,6 @@
     <t>Соус Черный перец, кулинарный, ГУРМИКС, 2 кг</t>
   </si>
   <si>
-    <t>Соус чили сладкий для курицы AROY-D 5,4 кг пл/канистра</t>
-  </si>
-  <si>
     <t>Соус чили сладкий для курицы AROY-D, 925мл</t>
   </si>
   <si>
@@ -676,13 +688,10 @@
     <t>Сыр плавленный ломтевой Бистро Чеддар 1,033кг, Hochland, Россия</t>
   </si>
   <si>
-    <t>Сыр творожный Серволюкс Cream Nuvo «Professional», МДЖ 70%, емкость 2,2 кг</t>
+    <t>Сыр творожный Professional 65% 2,2 кг, SERVOLUX PROFESSIONAL, Беларусь</t>
   </si>
   <si>
     <t>Сырный продукт (Белково- жировой продукт) для пиццы "Моцарелла" 50% 2 кг Extra, AltiMilk, Россия</t>
-  </si>
-  <si>
-    <t>Тофу натуральный, продукт белковый, 400г</t>
   </si>
   <si>
     <t>Ягоды. Овощи. Заморозка</t>
@@ -947,7 +956,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D242"/>
+  <dimension ref="D245"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1069,26 +1078,26 @@
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D15" s="12" t="e"/>
+      <c r="C15" s="11" t="n">
+        <v>230</v>
+      </c>
+      <c r="D15" s="11" t="e"/>
     </row>
     <row r="16" ht="22" customHeight="true" outlineLevel="1">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="n">
-        <v>956</v>
-      </c>
-      <c r="D16" s="11" t="e"/>
+      <c r="C16" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="12" t="e"/>
     </row>
     <row r="17" ht="22" customHeight="true" outlineLevel="1">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11" t="n">
-        <v>360</v>
+        <v>956</v>
       </c>
       <c r="D17" s="11" t="e"/>
     </row>
@@ -1097,93 +1106,93 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="D18" s="11" t="e"/>
     </row>
-    <row r="19" ht="11" customHeight="true" outlineLevel="1">
+    <row r="19" ht="22" customHeight="true" outlineLevel="1">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11" t="n">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="D19" s="11" t="e"/>
     </row>
-    <row r="20" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B20" s="9" t="s">
+    <row r="20" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D20" s="11" t="e"/>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="1">
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="n">
-        <v>370</v>
+        <v>870</v>
       </c>
       <c r="D21" s="11" t="e"/>
     </row>
-    <row r="22" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B22" s="10" t="s">
+    <row r="22" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="11" t="n">
-        <v>182</v>
-      </c>
-      <c r="D22" s="11" t="e"/>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="1">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="11" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="D23" s="11" t="e"/>
     </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+    <row r="24" ht="22" customHeight="true" outlineLevel="1">
       <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="11" t="n">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="D24" s="11" t="e"/>
     </row>
-    <row r="25" ht="22" customHeight="true" outlineLevel="1">
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
       <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="11" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="D25" s="11" t="e"/>
     </row>
-    <row r="26" ht="22" customHeight="true" outlineLevel="1">
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
       <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="11" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D26" s="11" t="e"/>
     </row>
-    <row r="27" ht="11" customHeight="true" outlineLevel="1">
+    <row r="27" ht="22" customHeight="true" outlineLevel="1">
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="11" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D27" s="11" t="e"/>
     </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+    <row r="28" ht="22" customHeight="true" outlineLevel="1">
       <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="11" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D28" s="11" t="e"/>
     </row>
@@ -1192,7 +1201,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="11" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D29" s="11" t="e"/>
     </row>
@@ -1201,16 +1210,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="11" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D30" s="11" t="e"/>
     </row>
-    <row r="31" ht="22" customHeight="true" outlineLevel="1">
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
       <c r="B31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="11" t="n">
-        <v>510</v>
+        <v>220</v>
       </c>
       <c r="D31" s="11" t="e"/>
     </row>
@@ -1219,57 +1228,57 @@
         <v>31</v>
       </c>
       <c r="C32" s="11" t="n">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="D32" s="11" t="e"/>
     </row>
-    <row r="33" ht="11" customHeight="true" outlineLevel="1">
+    <row r="33" ht="22" customHeight="true" outlineLevel="1">
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="12" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D33" s="12" t="e"/>
-    </row>
-    <row r="34" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B34" s="9" t="s">
+      <c r="C33" s="11" t="n">
+        <v>484</v>
+      </c>
+      <c r="D33" s="11" t="e"/>
+    </row>
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="C34" s="11" t="n">
+        <v>600</v>
+      </c>
+      <c r="D34" s="11" t="e"/>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="11" t="n">
-        <v>870</v>
-      </c>
-      <c r="D35" s="11" t="e"/>
-    </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B36" s="10" t="s">
+      <c r="C35" s="12" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D35" s="12" t="e"/>
+    </row>
+    <row r="36" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="11" t="n">
-        <v>955</v>
-      </c>
-      <c r="D36" s="11" t="e"/>
-    </row>
-    <row r="37" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>550</v>
+        <v>870</v>
       </c>
       <c r="D37" s="11" t="e"/>
     </row>
-    <row r="38" ht="22" customHeight="true" outlineLevel="1">
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="11" t="n">
-        <v>350</v>
+        <v>955</v>
       </c>
       <c r="D38" s="11" t="e"/>
     </row>
@@ -1278,7 +1287,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="D39" s="11" t="e"/>
     </row>
@@ -1287,44 +1296,48 @@
         <v>39</v>
       </c>
       <c r="C40" s="11" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="D40" s="11" t="e"/>
     </row>
-    <row r="41" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B41" s="9" t="s">
+    <row r="41" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C41" s="11" t="n">
+        <v>526</v>
+      </c>
+      <c r="D41" s="11" t="e"/>
+    </row>
+    <row r="42" ht="22" customHeight="true" outlineLevel="1">
       <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="11" t="n">
-        <v>144</v>
+        <v>699</v>
       </c>
       <c r="D42" s="11" t="e"/>
     </row>
-    <row r="43" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B43" s="9" t="s">
+    <row r="43" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B43" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B44" s="10" t="s">
+      <c r="C43" s="11" t="n">
+        <v>699</v>
+      </c>
+      <c r="D43" s="11" t="e"/>
+    </row>
+    <row r="44" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="11" t="n">
-        <v>121</v>
-      </c>
-      <c r="D44" s="11" t="e"/>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="11" t="n">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="D45" s="11" t="e"/>
     </row>
@@ -1338,34 +1351,30 @@
         <v>46</v>
       </c>
       <c r="C47" s="11" t="n">
-        <v>760</v>
+        <v>121</v>
       </c>
       <c r="D47" s="11" t="e"/>
     </row>
-    <row r="48" ht="22" customHeight="true" outlineLevel="1">
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>760</v>
+        <v>64</v>
       </c>
       <c r="D48" s="11" t="e"/>
     </row>
-    <row r="49" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B49" s="10" t="s">
+    <row r="49" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="11" t="n">
-        <v>590</v>
-      </c>
-      <c r="D49" s="11" t="e"/>
     </row>
     <row r="50" ht="22" customHeight="true" outlineLevel="1">
       <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="11" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="D50" s="11" t="e"/>
     </row>
@@ -1374,21 +1383,25 @@
         <v>50</v>
       </c>
       <c r="C51" s="11" t="n">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="D51" s="11" t="e"/>
     </row>
-    <row r="52" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B52" s="9" t="s">
+    <row r="52" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B52" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="C52" s="11" t="n">
+        <v>590</v>
+      </c>
+      <c r="D52" s="11" t="e"/>
     </row>
     <row r="53" ht="22" customHeight="true" outlineLevel="1">
       <c r="B53" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="11" t="n">
-        <v>626</v>
+        <v>520</v>
       </c>
       <c r="D53" s="11" t="e"/>
     </row>
@@ -1397,25 +1410,21 @@
         <v>53</v>
       </c>
       <c r="C54" s="11" t="n">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="D54" s="11" t="e"/>
     </row>
-    <row r="55" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B55" s="10" t="s">
+    <row r="55" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B55" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="11" t="n">
-        <v>790</v>
-      </c>
-      <c r="D55" s="11" t="e"/>
     </row>
     <row r="56" ht="22" customHeight="true" outlineLevel="1">
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="D56" s="11" t="e"/>
     </row>
@@ -1424,21 +1433,25 @@
         <v>56</v>
       </c>
       <c r="C57" s="11" t="n">
-        <v>880</v>
+        <v>650</v>
       </c>
       <c r="D57" s="11" t="e"/>
     </row>
-    <row r="58" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B58" s="9" t="s">
+    <row r="58" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B58" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="C58" s="11" t="n">
+        <v>790</v>
+      </c>
+      <c r="D58" s="11" t="e"/>
     </row>
     <row r="59" ht="22" customHeight="true" outlineLevel="1">
       <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="11" t="n">
-        <v>170</v>
+        <v>650</v>
       </c>
       <c r="D59" s="11" t="e"/>
     </row>
@@ -1447,25 +1460,21 @@
         <v>59</v>
       </c>
       <c r="C60" s="11" t="n">
-        <v>250</v>
+        <v>880</v>
       </c>
       <c r="D60" s="11" t="e"/>
     </row>
-    <row r="61" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B61" s="10" t="s">
+    <row r="61" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="11" t="n">
-        <v>750</v>
-      </c>
-      <c r="D61" s="11" t="e"/>
     </row>
     <row r="62" ht="22" customHeight="true" outlineLevel="1">
       <c r="B62" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="11" t="n">
-        <v>950</v>
+        <v>170</v>
       </c>
       <c r="D62" s="11" t="e"/>
     </row>
@@ -1474,25 +1483,25 @@
         <v>62</v>
       </c>
       <c r="C63" s="11" t="n">
-        <v>594</v>
+        <v>250</v>
       </c>
       <c r="D63" s="11" t="e"/>
     </row>
-    <row r="64" ht="11" customHeight="true" outlineLevel="1">
+    <row r="64" ht="22" customHeight="true" outlineLevel="1">
       <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D64" s="12" t="e"/>
+      <c r="C64" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="D64" s="11" t="e"/>
     </row>
     <row r="65" ht="22" customHeight="true" outlineLevel="1">
       <c r="B65" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="11" t="n">
-        <v>590</v>
+        <v>950</v>
       </c>
       <c r="D65" s="11" t="e"/>
     </row>
@@ -1501,75 +1510,75 @@
         <v>65</v>
       </c>
       <c r="C66" s="11" t="n">
-        <v>280</v>
+        <v>594</v>
       </c>
       <c r="D66" s="11" t="e"/>
     </row>
-    <row r="67" ht="22" customHeight="true" outlineLevel="1">
+    <row r="67" ht="11" customHeight="true" outlineLevel="1">
       <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="11" t="n">
-        <v>280</v>
-      </c>
-      <c r="D67" s="11" t="e"/>
+      <c r="C67" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D67" s="12" t="e"/>
     </row>
     <row r="68" ht="22" customHeight="true" outlineLevel="1">
       <c r="B68" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="11" t="n">
-        <v>256</v>
+        <v>590</v>
       </c>
       <c r="D68" s="11" t="e"/>
     </row>
-    <row r="69" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B69" s="9" t="s">
+    <row r="69" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B69" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="C69" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D69" s="11" t="e"/>
     </row>
     <row r="70" ht="22" customHeight="true" outlineLevel="1">
       <c r="B70" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="12" t="n">
-        <v>1590</v>
-      </c>
-      <c r="D70" s="12" t="e"/>
+      <c r="C70" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D70" s="11" t="e"/>
     </row>
     <row r="71" ht="22" customHeight="true" outlineLevel="1">
       <c r="B71" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>528</v>
+        <v>256</v>
       </c>
       <c r="D71" s="11" t="e"/>
     </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B72" s="10" t="s">
+    <row r="72" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B72" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D72" s="12" t="e"/>
     </row>
     <row r="73" ht="22" customHeight="true" outlineLevel="1">
       <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="11" t="n">
-        <v>380</v>
-      </c>
-      <c r="D73" s="11" t="e"/>
-    </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C73" s="12" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D73" s="12" t="e"/>
+    </row>
+    <row r="74" ht="22" customHeight="true" outlineLevel="1">
       <c r="B74" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="11" t="n">
-        <v>380</v>
+        <v>528</v>
       </c>
       <c r="D74" s="11" t="e"/>
     </row>
@@ -1578,16 +1587,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="12" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="D75" s="12" t="e"/>
     </row>
-    <row r="76" ht="33" customHeight="true" outlineLevel="1">
+    <row r="76" ht="22" customHeight="true" outlineLevel="1">
       <c r="B76" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="11" t="n">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="D76" s="11" t="e"/>
     </row>
@@ -1596,7 +1605,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="11" t="n">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D77" s="11" t="e"/>
     </row>
@@ -1605,34 +1614,34 @@
         <v>77</v>
       </c>
       <c r="C78" s="12" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="D78" s="12" t="e"/>
     </row>
-    <row r="79" ht="22" customHeight="true" outlineLevel="1">
+    <row r="79" ht="33" customHeight="true" outlineLevel="1">
       <c r="B79" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C79" s="11" t="n">
-        <v>585</v>
+        <v>305</v>
       </c>
       <c r="D79" s="11" t="e"/>
     </row>
-    <row r="80" ht="22" customHeight="true" outlineLevel="1">
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="B80" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="11" t="n">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="D80" s="11" t="e"/>
     </row>
-    <row r="81" ht="22" customHeight="true" outlineLevel="1">
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="B81" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="11" t="n">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="D81" s="11" t="e"/>
     </row>
@@ -1641,7 +1650,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="12" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="D82" s="12" t="e"/>
     </row>
@@ -1649,40 +1658,44 @@
       <c r="B83" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="12" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D83" s="12" t="e"/>
+      <c r="C83" s="11" t="n">
+        <v>585</v>
+      </c>
+      <c r="D83" s="11" t="e"/>
     </row>
     <row r="84" ht="22" customHeight="true" outlineLevel="1">
       <c r="B84" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D84" s="12" t="e"/>
-    </row>
-    <row r="85" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B85" s="9" t="s">
+      <c r="C84" s="11" t="n">
+        <v>212</v>
+      </c>
+      <c r="D84" s="11" t="e"/>
+    </row>
+    <row r="85" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B85" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="C85" s="11" t="n">
+        <v>222</v>
+      </c>
+      <c r="D85" s="11" t="e"/>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="B86" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="11" t="n">
-        <v>900</v>
-      </c>
-      <c r="D86" s="11" t="e"/>
+      <c r="C86" s="12" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D86" s="12" t="e"/>
     </row>
     <row r="87" ht="22" customHeight="true" outlineLevel="1">
       <c r="B87" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="12" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="D87" s="12" t="e"/>
     </row>
@@ -1690,21 +1703,17 @@
       <c r="B88" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="11" t="n">
-        <v>930</v>
-      </c>
-      <c r="D88" s="11" t="e"/>
-    </row>
-    <row r="89" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B89" s="10" t="s">
+      <c r="C88" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D88" s="12" t="e"/>
+    </row>
+    <row r="89" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="11" t="n">
-        <v>950</v>
-      </c>
-      <c r="D89" s="11" t="e"/>
-    </row>
-    <row r="90" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="B90" s="10" t="s">
         <v>89</v>
       </c>
@@ -1713,10 +1722,14 @@
       </c>
       <c r="D90" s="11" t="e"/>
     </row>
-    <row r="91" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B91" s="9" t="s">
+    <row r="91" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B91" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="C91" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D91" s="12" t="e"/>
     </row>
     <row r="92" ht="22" customHeight="true" outlineLevel="1">
       <c r="B92" s="10" t="s">
@@ -1736,76 +1749,76 @@
       </c>
       <c r="D93" s="11" t="e"/>
     </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+    <row r="94" ht="22" customHeight="true" outlineLevel="1">
       <c r="B94" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D94" s="12" t="e"/>
-    </row>
-    <row r="95" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B95" s="10" t="s">
+      <c r="C94" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="D94" s="11" t="e"/>
+    </row>
+    <row r="95" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B95" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="11" t="n">
+    </row>
+    <row r="96" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B96" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="11" t="n">
         <v>930</v>
       </c>
-      <c r="D95" s="11" t="e"/>
-    </row>
-    <row r="96" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B96" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="D96" s="11" t="e"/>
     </row>
     <row r="97" ht="22" customHeight="true" outlineLevel="1">
       <c r="B97" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="11" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="D97" s="11" t="e"/>
     </row>
-    <row r="98" ht="22" customHeight="true" outlineLevel="1">
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="B98" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="11" t="n">
-        <v>940</v>
-      </c>
-      <c r="D98" s="11" t="e"/>
-    </row>
-    <row r="99" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B99" s="9" t="s">
+      <c r="C98" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D98" s="12" t="e"/>
+    </row>
+    <row r="99" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B99" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B100" s="10" t="s">
+      <c r="C99" s="11" t="n">
+        <v>930</v>
+      </c>
+      <c r="D99" s="11" t="e"/>
+    </row>
+    <row r="100" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B100" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="11" t="n">
-        <v>225</v>
-      </c>
-      <c r="D100" s="11" t="e"/>
     </row>
     <row r="101" ht="22" customHeight="true" outlineLevel="1">
       <c r="B101" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>760</v>
+        <v>980</v>
       </c>
       <c r="D101" s="11" t="e"/>
     </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+    <row r="102" ht="22" customHeight="true" outlineLevel="1">
       <c r="B102" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>680</v>
+        <v>980</v>
       </c>
       <c r="D102" s="11" t="e"/>
     </row>
@@ -1814,21 +1827,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" ht="22" customHeight="true" outlineLevel="1">
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="B104" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="11" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D104" s="11" t="e"/>
     </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+    <row r="105" ht="22" customHeight="true" outlineLevel="1">
       <c r="B105" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="11" t="n">
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="D105" s="11" t="e"/>
     </row>
@@ -1836,49 +1849,49 @@
       <c r="B106" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="11" t="n">
-        <v>160</v>
-      </c>
-      <c r="D106" s="11" t="e"/>
-    </row>
-    <row r="107" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B107" s="9" t="s">
+      <c r="C106" s="12" t="n">
+        <v>2096</v>
+      </c>
+      <c r="D106" s="12" t="e"/>
+    </row>
+    <row r="107" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B107" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C107" s="11" t="n">
+        <v>716</v>
+      </c>
+      <c r="D107" s="11" t="e"/>
+    </row>
+    <row r="108" ht="22" customHeight="true" outlineLevel="1">
       <c r="B108" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="11" t="n">
-        <v>370</v>
+        <v>760</v>
       </c>
       <c r="D108" s="11" t="e"/>
     </row>
-    <row r="109" ht="22" customHeight="true" outlineLevel="1">
+    <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="B109" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="11" t="n">
-        <v>205</v>
+        <v>680</v>
       </c>
       <c r="D109" s="11" t="e"/>
     </row>
-    <row r="110" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B110" s="10" t="s">
+    <row r="110" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B110" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="11" t="n">
-        <v>230</v>
-      </c>
-      <c r="D110" s="11" t="e"/>
     </row>
     <row r="111" ht="22" customHeight="true" outlineLevel="1">
       <c r="B111" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="11" t="n">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D111" s="11" t="e"/>
     </row>
@@ -1887,34 +1900,30 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="n">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="D112" s="11" t="e"/>
     </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+    <row r="113" ht="22" customHeight="true" outlineLevel="1">
       <c r="B113" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="11" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="D113" s="11" t="e"/>
     </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B114" s="10" t="s">
+    <row r="114" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B114" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="11" t="n">
-        <v>55</v>
-      </c>
-      <c r="D114" s="11" t="e"/>
-    </row>
-    <row r="115" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="B115" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="11" t="n">
-        <v>127</v>
+        <v>370</v>
       </c>
       <c r="D115" s="11" t="e"/>
     </row>
@@ -1923,16 +1932,16 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="n">
-        <v>840</v>
+        <v>205</v>
       </c>
       <c r="D116" s="11" t="e"/>
     </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+    <row r="117" ht="22" customHeight="true" outlineLevel="1">
       <c r="B117" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="11" t="n">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="D117" s="11" t="e"/>
     </row>
@@ -1941,34 +1950,34 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D118" s="11" t="e"/>
     </row>
-    <row r="119" ht="33" customHeight="true" outlineLevel="1">
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="B119" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="11" t="n">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="D119" s="11" t="e"/>
     </row>
-    <row r="120" ht="22" customHeight="true" outlineLevel="1">
+    <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="B120" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C120" s="11" t="n">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D120" s="11" t="e"/>
     </row>
-    <row r="121" ht="22" customHeight="true" outlineLevel="1">
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="B121" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="11" t="n">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="D121" s="11" t="e"/>
     </row>
@@ -1977,7 +1986,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="n">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D122" s="11" t="e"/>
     </row>
@@ -1986,16 +1995,16 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="n">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="D123" s="11" t="e"/>
     </row>
-    <row r="124" ht="22" customHeight="true" outlineLevel="1">
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="B124" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C124" s="11" t="n">
-        <v>830</v>
+        <v>113</v>
       </c>
       <c r="D124" s="11" t="e"/>
     </row>
@@ -2004,143 +2013,147 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="n">
-        <v>830</v>
+        <v>145</v>
       </c>
       <c r="D125" s="11" t="e"/>
     </row>
-    <row r="126" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B126" s="9" t="s">
+    <row r="126" ht="33" customHeight="true" outlineLevel="1">
+      <c r="B126" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C126" s="11" t="n">
+        <v>270</v>
+      </c>
+      <c r="D126" s="11" t="e"/>
+    </row>
+    <row r="127" ht="22" customHeight="true" outlineLevel="1">
       <c r="B127" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="11" t="n">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="D127" s="11" t="e"/>
     </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+    <row r="128" ht="22" customHeight="true" outlineLevel="1">
       <c r="B128" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="11" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D128" s="11" t="e"/>
     </row>
-    <row r="129" ht="33" customHeight="true" outlineLevel="1">
+    <row r="129" ht="22" customHeight="true" outlineLevel="1">
       <c r="B129" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C129" s="11" t="n">
-        <v>970</v>
+        <v>830</v>
       </c>
       <c r="D129" s="11" t="e"/>
     </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+    <row r="130" ht="22" customHeight="true" outlineLevel="1">
       <c r="B130" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>518</v>
+        <v>830</v>
       </c>
       <c r="D130" s="11" t="e"/>
     </row>
-    <row r="131" ht="33" customHeight="true" outlineLevel="1">
+    <row r="131" ht="22" customHeight="true" outlineLevel="1">
       <c r="B131" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="12" t="n">
-        <v>1210</v>
-      </c>
-      <c r="D131" s="12" t="e"/>
-    </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B132" s="10" t="s">
+      <c r="C131" s="11" t="n">
+        <v>830</v>
+      </c>
+      <c r="D131" s="11" t="e"/>
+    </row>
+    <row r="132" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B132" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="11" t="n">
-        <v>560</v>
-      </c>
-      <c r="D132" s="11" t="e"/>
-    </row>
-    <row r="133" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="B133" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="11" t="n">
-        <v>730</v>
+        <v>272</v>
       </c>
       <c r="D133" s="11" t="e"/>
     </row>
-    <row r="134" ht="22" customHeight="true" outlineLevel="1">
+    <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="B134" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="11" t="n">
-        <v>626</v>
+        <v>350</v>
       </c>
       <c r="D134" s="11" t="e"/>
     </row>
-    <row r="135" ht="22" customHeight="true" outlineLevel="1">
+    <row r="135" ht="33" customHeight="true" outlineLevel="1">
       <c r="B135" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="11" t="n">
-        <v>790</v>
-      </c>
-      <c r="D135" s="11" t="e"/>
-    </row>
-    <row r="136" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B136" s="9" t="s">
+      <c r="C135" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D135" s="12" t="e"/>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B136" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C136" s="11" t="n">
+        <v>518</v>
+      </c>
+      <c r="D136" s="11" t="e"/>
     </row>
     <row r="137" ht="22" customHeight="true" outlineLevel="1">
       <c r="B137" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="11" t="n">
-        <v>580</v>
-      </c>
-      <c r="D137" s="11" t="e"/>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C137" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D137" s="12" t="e"/>
+    </row>
+    <row r="138" ht="33" customHeight="true" outlineLevel="1">
       <c r="B138" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C138" s="12" t="n">
-        <v>1050</v>
+        <v>1210</v>
       </c>
       <c r="D138" s="12" t="e"/>
     </row>
-    <row r="139" ht="22" customHeight="true" outlineLevel="1">
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="B139" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C139" s="11" t="n">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="D139" s="11" t="e"/>
     </row>
-    <row r="140" ht="11" customHeight="true" outlineLevel="1">
+    <row r="140" ht="33" customHeight="true" outlineLevel="1">
       <c r="B140" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C140" s="11" t="n">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="D140" s="11" t="e"/>
     </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+    <row r="141" ht="22" customHeight="true" outlineLevel="1">
       <c r="B141" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C141" s="11" t="n">
-        <v>360</v>
+        <v>626</v>
       </c>
       <c r="D141" s="11" t="e"/>
     </row>
@@ -2149,43 +2162,39 @@
         <v>141</v>
       </c>
       <c r="C142" s="11" t="n">
-        <v>360</v>
+        <v>790</v>
       </c>
       <c r="D142" s="11" t="e"/>
     </row>
-    <row r="143" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B143" s="10" t="s">
+    <row r="143" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B143" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="11" t="n">
-        <v>220</v>
-      </c>
-      <c r="D143" s="11" t="e"/>
-    </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="144" ht="22" customHeight="true" outlineLevel="1">
       <c r="B144" s="10" t="s">
         <v>143</v>
       </c>
       <c r="C144" s="11" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="D144" s="11" t="e"/>
     </row>
-    <row r="145" ht="22" customHeight="true" outlineLevel="1">
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="B145" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="11" t="n">
-        <v>694</v>
-      </c>
-      <c r="D145" s="11" t="e"/>
+      <c r="C145" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D145" s="12" t="e"/>
     </row>
     <row r="146" ht="22" customHeight="true" outlineLevel="1">
       <c r="B146" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C146" s="11" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D146" s="11" t="e"/>
     </row>
@@ -2194,44 +2203,52 @@
         <v>146</v>
       </c>
       <c r="C147" s="11" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="D147" s="11" t="e"/>
     </row>
-    <row r="148" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B148" s="9" t="s">
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B148" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C148" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D148" s="11" t="e"/>
+    </row>
+    <row r="149" ht="22" customHeight="true" outlineLevel="1">
       <c r="B149" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C149" s="11" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="D149" s="11" t="e"/>
     </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+    <row r="150" ht="22" customHeight="true" outlineLevel="1">
       <c r="B150" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C150" s="11" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="D150" s="11" t="e"/>
     </row>
-    <row r="151" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B151" s="9" t="s">
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B151" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C151" s="11" t="n">
+        <v>700</v>
+      </c>
+      <c r="D151" s="11" t="e"/>
+    </row>
+    <row r="152" ht="22" customHeight="true" outlineLevel="1">
       <c r="B152" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C152" s="11" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="D152" s="11" t="e"/>
     </row>
@@ -2244,39 +2261,31 @@
       </c>
       <c r="D153" s="11" t="e"/>
     </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B154" s="10" t="s">
+    <row r="154" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B154" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D154" s="12" t="e"/>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="B155" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C155" s="11" t="n">
-        <v>860</v>
+        <v>110</v>
       </c>
       <c r="D155" s="11" t="e"/>
     </row>
-    <row r="156" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B156" s="10" t="s">
+    <row r="156" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B156" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D156" s="12" t="e"/>
     </row>
     <row r="157" ht="11" customHeight="true" outlineLevel="1">
       <c r="B157" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C157" s="11" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D157" s="11" t="e"/>
     </row>
@@ -2284,117 +2293,121 @@
       <c r="B158" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="12" t="n">
-        <v>1180</v>
-      </c>
-      <c r="D158" s="12" t="e"/>
+      <c r="C158" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D158" s="11" t="e"/>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="B159" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C159" s="12" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D159" s="12" t="e"/>
     </row>
-    <row r="160" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B160" s="9" t="s">
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B160" s="10" t="s">
         <v>159</v>
       </c>
+      <c r="C160" s="11" t="n">
+        <v>860</v>
+      </c>
+      <c r="D160" s="11" t="e"/>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="1">
       <c r="B161" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="D161" s="11" t="e"/>
-    </row>
-    <row r="162" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C161" s="12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D161" s="12" t="e"/>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="B162" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="12" t="n">
-        <v>1560</v>
-      </c>
-      <c r="D162" s="12" t="e"/>
-    </row>
-    <row r="163" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C162" s="11" t="n">
+        <v>650</v>
+      </c>
+      <c r="D162" s="11" t="e"/>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
       <c r="B163" s="10" t="s">
         <v>162</v>
       </c>
       <c r="C163" s="12" t="n">
-        <v>1470</v>
+        <v>1180</v>
       </c>
       <c r="D163" s="12" t="e"/>
     </row>
-    <row r="164" ht="22" customHeight="true" outlineLevel="1">
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="B164" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="D164" s="11" t="e"/>
-    </row>
-    <row r="165" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B165" s="10" t="s">
+      <c r="C164" s="12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D164" s="12" t="e"/>
+    </row>
+    <row r="165" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B165" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D165" s="12" t="e"/>
-    </row>
-    <row r="166" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="166" ht="11" customHeight="true" outlineLevel="1">
       <c r="B166" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="12" t="n">
-        <v>1290</v>
-      </c>
-      <c r="D166" s="12" t="e"/>
+      <c r="C166" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="D166" s="11" t="e"/>
     </row>
     <row r="167" ht="22" customHeight="true" outlineLevel="1">
       <c r="B167" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="11" t="n">
-        <v>720</v>
-      </c>
-      <c r="D167" s="11" t="e"/>
+      <c r="C167" s="12" t="n">
+        <v>1560</v>
+      </c>
+      <c r="D167" s="12" t="e"/>
     </row>
     <row r="168" ht="22" customHeight="true" outlineLevel="1">
       <c r="B168" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C168" s="12" t="n">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="D168" s="12" t="e"/>
     </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+    <row r="169" ht="22" customHeight="true" outlineLevel="1">
       <c r="B169" s="10" t="s">
         <v>168</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>460</v>
+        <v>990</v>
       </c>
       <c r="D169" s="11" t="e"/>
     </row>
-    <row r="170" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B170" s="9" t="s">
+    <row r="170" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B170" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" ht="33" customHeight="true" outlineLevel="1">
+      <c r="C170" s="12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D170" s="12" t="e"/>
+    </row>
+    <row r="171" ht="22" customHeight="true" outlineLevel="1">
       <c r="B171" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C171" s="12" t="n">
-        <v>1480</v>
+        <v>1290</v>
       </c>
       <c r="D171" s="12" t="e"/>
     </row>
@@ -2402,71 +2415,67 @@
       <c r="B172" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D172" s="12" t="e"/>
-    </row>
-    <row r="173" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B173" s="9" t="s">
+      <c r="C172" s="11" t="n">
+        <v>720</v>
+      </c>
+      <c r="D172" s="11" t="e"/>
+    </row>
+    <row r="173" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B173" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C173" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D173" s="12" t="e"/>
+    </row>
+    <row r="174" ht="11" customHeight="true" outlineLevel="1">
       <c r="B174" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="12" t="n">
-        <v>1880</v>
-      </c>
-      <c r="D174" s="12" t="e"/>
-    </row>
-    <row r="175" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B175" s="10" t="s">
+      <c r="C174" s="11" t="n">
+        <v>460</v>
+      </c>
+      <c r="D174" s="11" t="e"/>
+    </row>
+    <row r="175" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B175" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="12" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D175" s="12" t="e"/>
-    </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="176" ht="33" customHeight="true" outlineLevel="1">
       <c r="B176" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="11" t="n">
-        <v>115</v>
-      </c>
-      <c r="D176" s="11" t="e"/>
+      <c r="C176" s="12" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D176" s="12" t="e"/>
     </row>
     <row r="177" ht="22" customHeight="true" outlineLevel="1">
       <c r="B177" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C177" s="12" t="n">
-        <v>3790</v>
+        <v>1650</v>
       </c>
       <c r="D177" s="12" t="e"/>
     </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B178" s="10" t="s">
+    <row r="178" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B178" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="12" t="n">
-        <v>3050</v>
-      </c>
-      <c r="D178" s="12" t="e"/>
-    </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="179" ht="22" customHeight="true" outlineLevel="1">
       <c r="B179" s="10" t="s">
         <v>178</v>
       </c>
       <c r="C179" s="12" t="n">
-        <v>1700</v>
+        <v>1650</v>
       </c>
       <c r="D179" s="12" t="e"/>
     </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+    <row r="180" ht="22" customHeight="true" outlineLevel="1">
       <c r="B180" s="10" t="s">
         <v>179</v>
       </c>
@@ -2475,35 +2484,39 @@
       </c>
       <c r="D180" s="12" t="e"/>
     </row>
-    <row r="181" ht="22" customHeight="true" outlineLevel="1">
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
       <c r="B181" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="12" t="n">
-        <v>2900</v>
-      </c>
-      <c r="D181" s="12" t="e"/>
-    </row>
-    <row r="182" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B182" s="9" t="s">
+      <c r="C181" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="D181" s="11" t="e"/>
+    </row>
+    <row r="182" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B182" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C182" s="12" t="n">
+        <v>3790</v>
+      </c>
+      <c r="D182" s="12" t="e"/>
+    </row>
+    <row r="183" ht="11" customHeight="true" outlineLevel="1">
       <c r="B183" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="11" t="n">
-        <v>670</v>
-      </c>
-      <c r="D183" s="11" t="e"/>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C183" s="12" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D183" s="12" t="e"/>
+    </row>
+    <row r="184" ht="11" customHeight="true" outlineLevel="1">
       <c r="B184" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C184" s="12" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="D184" s="12" t="e"/>
     </row>
@@ -2512,70 +2525,66 @@
         <v>184</v>
       </c>
       <c r="C185" s="12" t="n">
-        <v>1560</v>
+        <v>2900</v>
       </c>
       <c r="D185" s="12" t="e"/>
     </row>
-    <row r="186" ht="22" customHeight="true" outlineLevel="1">
-      <c r="B186" s="10" t="s">
+    <row r="186" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B186" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="12" t="n">
-        <v>1220</v>
-      </c>
-      <c r="D186" s="12" t="e"/>
     </row>
     <row r="187" ht="22" customHeight="true" outlineLevel="1">
       <c r="B187" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="12" t="n">
-        <v>1620</v>
-      </c>
-      <c r="D187" s="12" t="e"/>
-    </row>
-    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C187" s="11" t="n">
+        <v>670</v>
+      </c>
+      <c r="D187" s="11" t="e"/>
+    </row>
+    <row r="188" ht="22" customHeight="true" outlineLevel="1">
       <c r="B188" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C188" s="12" t="n">
-        <v>1300</v>
+        <v>1650</v>
       </c>
       <c r="D188" s="12" t="e"/>
     </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+    <row r="189" ht="22" customHeight="true" outlineLevel="1">
       <c r="B189" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C189" s="12" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="D189" s="12" t="e"/>
     </row>
-    <row r="190" ht="11" customHeight="true" outlineLevel="1">
+    <row r="190" ht="22" customHeight="true" outlineLevel="1">
       <c r="B190" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="11" t="n">
-        <v>838</v>
-      </c>
-      <c r="D190" s="11" t="e"/>
-    </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C190" s="12" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D190" s="12" t="e"/>
+    </row>
+    <row r="191" ht="22" customHeight="true" outlineLevel="1">
       <c r="B191" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="11" t="n">
-        <v>800</v>
-      </c>
-      <c r="D191" s="11" t="e"/>
-    </row>
-    <row r="192" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C191" s="12" t="n">
+        <v>1620</v>
+      </c>
+      <c r="D191" s="12" t="e"/>
+    </row>
+    <row r="192" ht="11" customHeight="true" outlineLevel="1">
       <c r="B192" s="10" t="s">
         <v>191</v>
       </c>
       <c r="C192" s="12" t="n">
-        <v>1430</v>
+        <v>1300</v>
       </c>
       <c r="D192" s="12" t="e"/>
     </row>
@@ -2583,62 +2592,62 @@
       <c r="B193" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="11" t="n">
-        <v>770</v>
-      </c>
-      <c r="D193" s="11" t="e"/>
-    </row>
-    <row r="194" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C193" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D193" s="12" t="e"/>
+    </row>
+    <row r="194" ht="11" customHeight="true" outlineLevel="1">
       <c r="B194" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C194" s="11" t="n">
-        <v>360</v>
+        <v>838</v>
       </c>
       <c r="D194" s="11" t="e"/>
     </row>
-    <row r="195" ht="22" customHeight="true" outlineLevel="1">
+    <row r="195" ht="11" customHeight="true" outlineLevel="1">
       <c r="B195" s="10" t="s">
         <v>194</v>
       </c>
       <c r="C195" s="11" t="n">
-        <v>220</v>
+        <v>800</v>
       </c>
       <c r="D195" s="11" t="e"/>
     </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+    <row r="196" ht="22" customHeight="true" outlineLevel="1">
       <c r="B196" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="11" t="n">
-        <v>320</v>
-      </c>
-      <c r="D196" s="11" t="e"/>
+      <c r="C196" s="12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D196" s="12" t="e"/>
     </row>
     <row r="197" ht="11" customHeight="true" outlineLevel="1">
       <c r="B197" s="10" t="s">
         <v>196</v>
       </c>
       <c r="C197" s="11" t="n">
-        <v>341</v>
+        <v>770</v>
       </c>
       <c r="D197" s="11" t="e"/>
     </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+    <row r="198" ht="22" customHeight="true" outlineLevel="1">
       <c r="B198" s="10" t="s">
         <v>197</v>
       </c>
       <c r="C198" s="11" t="n">
-        <v>770</v>
+        <v>360</v>
       </c>
       <c r="D198" s="11" t="e"/>
     </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+    <row r="199" ht="22" customHeight="true" outlineLevel="1">
       <c r="B199" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C199" s="11" t="n">
-        <v>499</v>
+        <v>220</v>
       </c>
       <c r="D199" s="11" t="e"/>
     </row>
@@ -2647,7 +2656,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="11" t="n">
-        <v>555</v>
+        <v>320</v>
       </c>
       <c r="D200" s="11" t="e"/>
     </row>
@@ -2656,7 +2665,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="11" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D201" s="11" t="e"/>
     </row>
@@ -2665,7 +2674,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="11" t="n">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="D202" s="11" t="e"/>
     </row>
@@ -2674,7 +2683,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="11" t="n">
-        <v>265</v>
+        <v>499</v>
       </c>
       <c r="D203" s="11" t="e"/>
     </row>
@@ -2683,52 +2692,52 @@
         <v>203</v>
       </c>
       <c r="C204" s="11" t="n">
-        <v>727</v>
+        <v>260</v>
       </c>
       <c r="D204" s="11" t="e"/>
     </row>
-    <row r="205" ht="22" customHeight="true" outlineLevel="1">
+    <row r="205" ht="11" customHeight="true" outlineLevel="1">
       <c r="B205" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C205" s="11" t="n">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="D205" s="11" t="e"/>
     </row>
-    <row r="206" ht="22" customHeight="true" outlineLevel="1">
+    <row r="206" ht="11" customHeight="true" outlineLevel="1">
       <c r="B206" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D206" s="12" t="e"/>
-    </row>
-    <row r="207" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C206" s="11" t="n">
+        <v>350</v>
+      </c>
+      <c r="D206" s="11" t="e"/>
+    </row>
+    <row r="207" ht="11" customHeight="true" outlineLevel="1">
       <c r="B207" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="12" t="n">
-        <v>1580</v>
-      </c>
-      <c r="D207" s="12" t="e"/>
-    </row>
-    <row r="208" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C207" s="11" t="n">
+        <v>680</v>
+      </c>
+      <c r="D207" s="11" t="e"/>
+    </row>
+    <row r="208" ht="11" customHeight="true" outlineLevel="1">
       <c r="B208" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C208" s="11" t="n">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="D208" s="11" t="e"/>
     </row>
-    <row r="209" ht="22" customHeight="true" outlineLevel="1">
+    <row r="209" ht="11" customHeight="true" outlineLevel="1">
       <c r="B209" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C209" s="11" t="n">
-        <v>400</v>
+        <v>727</v>
       </c>
       <c r="D209" s="11" t="e"/>
     </row>
@@ -2737,7 +2746,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="11" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="D210" s="11" t="e"/>
     </row>
@@ -2745,126 +2754,126 @@
       <c r="B211" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C211" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D211" s="11" t="e"/>
+      <c r="C211" s="12" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D211" s="12" t="e"/>
     </row>
     <row r="212" ht="22" customHeight="true" outlineLevel="1">
       <c r="B212" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C212" s="12" t="n">
-        <v>1370</v>
-      </c>
-      <c r="D212" s="12" t="e"/>
-    </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C212" s="11" t="n">
+        <v>370</v>
+      </c>
+      <c r="D212" s="11" t="e"/>
+    </row>
+    <row r="213" ht="22" customHeight="true" outlineLevel="1">
       <c r="B213" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="12" t="n">
-        <v>1110</v>
-      </c>
-      <c r="D213" s="12" t="e"/>
-    </row>
-    <row r="214" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B214" s="9" t="s">
+      <c r="C213" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D213" s="11" t="e"/>
+    </row>
+    <row r="214" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B214" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C214" s="11" t="n">
+        <v>280</v>
+      </c>
+      <c r="D214" s="11" t="e"/>
+    </row>
+    <row r="215" ht="22" customHeight="true" outlineLevel="1">
       <c r="B215" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C215" s="12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D215" s="12" t="e"/>
-    </row>
-    <row r="216" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C215" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D215" s="11" t="e"/>
+    </row>
+    <row r="216" ht="22" customHeight="true" outlineLevel="1">
       <c r="B216" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C216" s="12" t="n">
-        <v>1650</v>
+        <v>1370</v>
       </c>
       <c r="D216" s="12" t="e"/>
     </row>
-    <row r="217" ht="22" customHeight="true" outlineLevel="1">
+    <row r="217" ht="11" customHeight="true" outlineLevel="1">
       <c r="B217" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C217" s="11" t="n">
-        <v>760</v>
-      </c>
-      <c r="D217" s="11" t="e"/>
-    </row>
-    <row r="218" ht="33" customHeight="true" outlineLevel="1">
-      <c r="B218" s="10" t="s">
+      <c r="C217" s="12" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D217" s="12" t="e"/>
+    </row>
+    <row r="218" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B218" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C218" s="11" t="n">
-        <v>980</v>
-      </c>
-      <c r="D218" s="11" t="e"/>
-    </row>
-    <row r="219" ht="33" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="219" ht="11" customHeight="true" outlineLevel="1">
       <c r="B219" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C219" s="11" t="n">
-        <v>476</v>
-      </c>
-      <c r="D219" s="11" t="e"/>
-    </row>
-    <row r="220" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C219" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D219" s="12" t="e"/>
+    </row>
+    <row r="220" ht="11" customHeight="true" outlineLevel="1">
       <c r="B220" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C220" s="11" t="n">
-        <v>198</v>
-      </c>
-      <c r="D220" s="11" t="e"/>
-    </row>
-    <row r="221" ht="16" customHeight="true" s="8" customFormat="true">
-      <c r="B221" s="9" t="s">
+      <c r="C220" s="12" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D220" s="12" t="e"/>
+    </row>
+    <row r="221" ht="22" customHeight="true" outlineLevel="1">
+      <c r="B221" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+      <c r="C221" s="11" t="n">
+        <v>760</v>
+      </c>
+      <c r="D221" s="11" t="e"/>
+    </row>
+    <row r="222" ht="22" customHeight="true" outlineLevel="1">
       <c r="B222" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="11" t="n">
-        <v>442</v>
-      </c>
-      <c r="D222" s="11" t="e"/>
-    </row>
-    <row r="223" ht="22" customHeight="true" outlineLevel="1">
+      <c r="C222" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D222" s="12" t="e"/>
+    </row>
+    <row r="223" ht="33" customHeight="true" outlineLevel="1">
       <c r="B223" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C223" s="11" t="n">
-        <v>182</v>
+        <v>476</v>
       </c>
       <c r="D223" s="11" t="e"/>
     </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
-      <c r="B224" s="10" t="s">
+    <row r="224" ht="16" customHeight="true" s="8" customFormat="true">
+      <c r="B224" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="11" t="n">
-        <v>222</v>
-      </c>
-      <c r="D224" s="11" t="e"/>
-    </row>
-    <row r="225" ht="22" customHeight="true" outlineLevel="1">
+    </row>
+    <row r="225" ht="11" customHeight="true" outlineLevel="1">
       <c r="B225" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C225" s="11" t="n">
-        <v>158</v>
+        <v>442</v>
       </c>
       <c r="D225" s="11" t="e"/>
     </row>
@@ -2873,16 +2882,16 @@
         <v>225</v>
       </c>
       <c r="C226" s="11" t="n">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D226" s="11" t="e"/>
     </row>
-    <row r="227" ht="22" customHeight="true" outlineLevel="1">
+    <row r="227" ht="11" customHeight="true" outlineLevel="1">
       <c r="B227" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C227" s="11" t="n">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="D227" s="11" t="e"/>
     </row>
@@ -2891,16 +2900,16 @@
         <v>227</v>
       </c>
       <c r="C228" s="11" t="n">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D228" s="11" t="e"/>
     </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="1">
+    <row r="229" ht="22" customHeight="true" outlineLevel="1">
       <c r="B229" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C229" s="11" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D229" s="11" t="e"/>
     </row>
@@ -2909,16 +2918,16 @@
         <v>229</v>
       </c>
       <c r="C230" s="11" t="n">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="D230" s="11" t="e"/>
     </row>
-    <row r="231" ht="11" customHeight="true" outlineLevel="1">
+    <row r="231" ht="22" customHeight="true" outlineLevel="1">
       <c r="B231" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C231" s="11" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D231" s="11" t="e"/>
     </row>
@@ -2927,16 +2936,16 @@
         <v>231</v>
       </c>
       <c r="C232" s="11" t="n">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="D232" s="11" t="e"/>
     </row>
-    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+    <row r="233" ht="22" customHeight="true" outlineLevel="1">
       <c r="B233" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C233" s="11" t="n">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="D233" s="11" t="e"/>
     </row>
@@ -2945,7 +2954,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="11" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D234" s="11" t="e"/>
     </row>
@@ -2954,7 +2963,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="11" t="n">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="D235" s="11" t="e"/>
     </row>
@@ -2963,16 +2972,16 @@
         <v>235</v>
       </c>
       <c r="C236" s="11" t="n">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="D236" s="11" t="e"/>
     </row>
-    <row r="237" ht="22" customHeight="true" outlineLevel="1">
+    <row r="237" ht="11" customHeight="true" outlineLevel="1">
       <c r="B237" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C237" s="11" t="n">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="D237" s="11" t="e"/>
     </row>
@@ -2981,7 +2990,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="11" t="n">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="D238" s="11" t="e"/>
     </row>
@@ -2990,16 +2999,16 @@
         <v>238</v>
       </c>
       <c r="C239" s="11" t="n">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="D239" s="11" t="e"/>
     </row>
-    <row r="240" ht="11" customHeight="true" outlineLevel="1">
+    <row r="240" ht="22" customHeight="true" outlineLevel="1">
       <c r="B240" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C240" s="11" t="n">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="D240" s="11" t="e"/>
     </row>
@@ -3008,7 +3017,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="11" t="n">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="D241" s="11" t="e"/>
     </row>
@@ -3017,12 +3026,39 @@
         <v>241</v>
       </c>
       <c r="C242" s="11" t="n">
+        <v>265</v>
+      </c>
+      <c r="D242" s="11" t="e"/>
+    </row>
+    <row r="243" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B243" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243" s="11" t="n">
+        <v>346</v>
+      </c>
+      <c r="D243" s="11" t="e"/>
+    </row>
+    <row r="244" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B244" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C244" s="11" t="n">
+        <v>360</v>
+      </c>
+      <c r="D244" s="11" t="e"/>
+    </row>
+    <row r="245" ht="11" customHeight="true" outlineLevel="1">
+      <c r="B245" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C245" s="11" t="n">
         <v>366</v>
       </c>
-      <c r="D242" s="11" t="e"/>
+      <c r="D245" s="11" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="217">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -3038,8 +3074,8 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -3051,28 +3087,28 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
@@ -3080,9 +3116,9 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
@@ -3095,30 +3131,30 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C99:D99"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
     <mergeCell ref="C108:D108"/>
     <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
     <mergeCell ref="C111:D111"/>
     <mergeCell ref="C112:D112"/>
     <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C117:D117"/>
@@ -3130,59 +3166,59 @@
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
     <mergeCell ref="C133:D133"/>
     <mergeCell ref="C134:D134"/>
     <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
     <mergeCell ref="C137:D137"/>
     <mergeCell ref="C138:D138"/>
     <mergeCell ref="C139:D139"/>
     <mergeCell ref="C140:D140"/>
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="C145:D145"/>
     <mergeCell ref="C146:D146"/>
     <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
     <mergeCell ref="C149:D149"/>
     <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
     <mergeCell ref="C152:D152"/>
     <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
     <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="C158:D158"/>
     <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
     <mergeCell ref="C161:D161"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="C163:D163"/>
     <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
     <mergeCell ref="C166:D166"/>
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="C168:D168"/>
     <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
     <mergeCell ref="C171:D171"/>
     <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
     <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
     <mergeCell ref="C176:D176"/>
     <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
     <mergeCell ref="C179:D179"/>
     <mergeCell ref="C180:D180"/>
     <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
     <mergeCell ref="C183:D183"/>
     <mergeCell ref="C184:D184"/>
     <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
     <mergeCell ref="C187:D187"/>
     <mergeCell ref="C188:D188"/>
     <mergeCell ref="C189:D189"/>
@@ -3210,15 +3246,15 @@
     <mergeCell ref="C211:D211"/>
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
     <mergeCell ref="C215:D215"/>
     <mergeCell ref="C216:D216"/>
     <mergeCell ref="C217:D217"/>
-    <mergeCell ref="C218:D218"/>
     <mergeCell ref="C219:D219"/>
     <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
     <mergeCell ref="C222:D222"/>
     <mergeCell ref="C223:D223"/>
-    <mergeCell ref="C224:D224"/>
     <mergeCell ref="C225:D225"/>
     <mergeCell ref="C226:D226"/>
     <mergeCell ref="C227:D227"/>
@@ -3237,6 +3273,9 @@
     <mergeCell ref="C240:D240"/>
     <mergeCell ref="C241:D241"/>
     <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Прайс-лист</t>
   </si>
   <si>
-    <t>Цены указаны на 29.03.23</t>
+    <t>Цены указаны на 05.04.23</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -43,9 +43,6 @@
     <t>Ананас премиум кусочки 850мл/12 ж/б тм Любимый Бегемот</t>
   </si>
   <si>
-    <t>Анчоусы филе в модсолнечном масле "Манчин" ж/б (0,600 кг) Италия, кор 12 шт</t>
-  </si>
-  <si>
     <t>Каперсы с уксусом "Antica Napoli" (720 мл/0,700кг) Турция, упак 6 шт</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
     <t>Водоросли Вакаме, уп 0,5кг, Китай</t>
   </si>
   <si>
+    <t>Водоросли Комбу, Китай</t>
+  </si>
+  <si>
     <t>Горчичный порошок васаби "Fumiko Premium", уп. 1кг, Китай</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>Циновка для роллов 24*24 см</t>
   </si>
   <si>
+    <t>Циновка для роллов 27*27 см</t>
+  </si>
+  <si>
     <t>Икра</t>
   </si>
   <si>
@@ -178,6 +181,15 @@
     <t>Икра деликатесная "Люкс" "Масаго Энко" оранжевая 500г 1/6 NEW</t>
   </si>
   <si>
+    <t>Икра Масаго "Hansey" красная, Россия, 0,5 кг</t>
+  </si>
+  <si>
+    <t>Икра Масаго "Hansey" оранжевая, Россия, 0,5 кг</t>
+  </si>
+  <si>
+    <t>Икра Масаго "Hansey" черная, Россия, 0,5 кг</t>
+  </si>
+  <si>
     <t>Икра Масаго OSHI премиум зеленая, уп. 0,5кг, Россия</t>
   </si>
   <si>
@@ -193,15 +205,15 @@
     <t>Картофель фри 10*10 Iglotex Professional, 2,5кг, Польша</t>
   </si>
   <si>
+    <t>Картофель фри Стейкхаус 9*18, уп. 2,5кг, Iglotex Prof, Польша</t>
+  </si>
+  <si>
     <t>Картофельные дольки в кожуре Iglotex Professional, 2,5 кг, Польша</t>
   </si>
   <si>
     <t>Картофельные дольки в кожуре со специями Bart`S Gourmet  (2,500кг) упак. Бельгия</t>
   </si>
   <si>
-    <t>Картофельные дольки с кожурой, зам, 2.5кг Otomotiv TG San Ve Турция</t>
-  </si>
-  <si>
     <t>Карто